--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -6830,7 +6830,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MF:0000031</t>
+          <t>MF:0000030</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K233"/>
+  <dimension ref="A1:K238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">An affective process is any process that has positive or negative valence. </t>
+          <t xml:space="preserve">Any process that has positive or negative valence. </t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">An appraisal is a cognitive representation which represents an evaluation of the relevance of some triggering object or event to the organism. </t>
+          <t xml:space="preserve">A cognitive representation which represents an evaluation of the relevance of some triggering object or event to the organism. </t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>An appraisal process is a mental process that gives rise to an appraisal.</t>
+          <t>A mental process that gives rise to an appraisal.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether the content of a verbal, written or recorded communication is relevant to oneself.</t>
+          <t>A belief regarding whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -2199,61 +2199,57 @@
       <c r="K52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006030</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>belief about severity of an outcome</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>A belief about how serious the harm associated with an outcome could be.</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat severity</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:0050000</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>belief about others' susceptibility to a threat</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a threat</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>A belief about how vulnerable others are to a threat.</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="inlineStr"/>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006020</t>
+          <t>BCIO:006031</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about personal susceptibility to a threat</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes of a behaviour in terms of social processes or attributes.</t>
+          <t>A belief about how vulnerable one is to a threat.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
@@ -2269,47 +2265,47 @@
       <c r="K54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006146</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>belief about social support</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>belief about one's social environment</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether others will provide assistance or comfort to help the person cope with one or more stressors.</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:0050001</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>belief about responsibility to act</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>A belief about whether someone is obliged to take a certain course of action.</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr"/>
+      <c r="F55" s="3" t="inlineStr"/>
+      <c r="G55" s="3" t="inlineStr"/>
+      <c r="H55" s="3" t="inlineStr"/>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006031</t>
+          <t>BCIO:006030</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -2319,12 +2315,12 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>A belief about how vulnerable one is to a threat.</t>
+          <t>A belief about how serious the harm associated with an outcome could be.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a risk</t>
+          <t>belief about threat severity</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -2341,22 +2337,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006142</t>
+          <t>BCIO:006020</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>belief about the credibility of a message's source</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who are trustworthy. </t>
+          <t>A belief about the outcomes of a behaviour in terms of social processes or attributes.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -2374,22 +2370,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006032</t>
+          <t>BCIO:006146</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>belief about the desirability of consequences of behaviour</t>
+          <t>belief about social support</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about one's social environment</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
+          <t>A belief about whether others will provide assistance or comfort to help the person cope with one or more stressors.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
@@ -2405,57 +2401,61 @@
       <c r="K58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006149</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>belief about the personal desirability of consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about behavioural outcome</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the worth of the outcomes of a behaviour to oneself.</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:0050002</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a threat</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>A belief about vulnerability to a threat.</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a risk</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr"/>
+      <c r="G59" s="3" t="inlineStr"/>
+      <c r="H59" s="3" t="inlineStr"/>
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="inlineStr"/>
+      <c r="K59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006033</t>
+          <t>BCIO:006142</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>belief about the timing of the consequences of behaviour</t>
+          <t>belief about the credibility of a message's source</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether how long after the performance of behaviour particular consequences will occur.</t>
+          <t xml:space="preserve">A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who are trustworthy. </t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -2473,22 +2473,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006034</t>
+          <t>BCIO:006032</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>belief about voluntariness of behaviour</t>
+          <t>belief about the desirability of consequences of behaviour</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
+          <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
@@ -2506,22 +2506,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006092</t>
+          <t>BCIO:006149</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>bodily behavioural cue</t>
+          <t>belief about the personal desirability of consequences of behaviour</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>evaluative belief about behavioural outcome</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>A stimulus that arises from bodily processes and serves to elicit or guide behaviour.</t>
+          <t>A belief about the worth of the outcomes of a behaviour to oneself.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -2537,222 +2537,222 @@
       <c r="K62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006033</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>belief about the timing of the consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>belief about consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>A belief about how long after the performance of behaviour particular consequences will occur.</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:0050003</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>belief about threat</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>A belief about a potential harm.</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr"/>
+      <c r="F64" s="3" t="inlineStr"/>
+      <c r="G64" s="3" t="inlineStr"/>
+      <c r="H64" s="3" t="inlineStr"/>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr"/>
+      <c r="K64" s="3" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006034</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>belief about voluntariness of behaviour</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006092</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from bodily processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>MF:0000032</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>A disposition that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>No definition is given but bodily feeling is a subclass of affective process, which is a subclass of mental process</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>An affective process involving sensory experience of physiological stimuli.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>OGMS:0000060</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000074 </t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>A quality that inheres in some extended organism.</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006120</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>classical conditioning</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006108</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>cognitive dissonance</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>An unpleasant subjective emotional feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MF:0000008</t>
+          <t>OGMS:0000060</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+          <t>A process in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -2770,31 +2770,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MF:0000031</t>
+          <t xml:space="preserve">MF:0000074 </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>bodily quality</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">A representation which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+          <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a mental disposition is activated, the content of that belief is a cognitive representation. </t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
@@ -2807,22 +2803,22 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006045</t>
+          <t>BCIO:006120</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>classical conditioning</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition about an entity that guides perception, thought or behaviour.</t>
+          <t>Associative learning that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
@@ -2840,22 +2836,22 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006007</t>
+          <t>BCIO:006108</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>cognitive self-regulation capability</t>
+          <t>cognitive dissonance</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A self-regulation capability to modulate one's cognitive processes. </t>
+          <t>An unpleasant subjective emotional feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
@@ -2873,22 +2869,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MF:0000040</t>
+          <t>MF:0000008</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>An interpersonal process that involves the transmission of information between two organisms.</t>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -2904,156 +2900,160 @@
       <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006110</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr"/>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J74" s="2" t="inlineStr"/>
-      <c r="K74" s="2" t="inlineStr"/>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MF:0000031</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A representation which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a mental disposition is activated, the content of that belief is a cognitive representation. </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MF:0000017</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>consciousness</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006045</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition about an entity that guides perception, thought or behaviour.</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr"/>
+      <c r="K75" s="2" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006007</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>cognitive self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A self-regulation capability to modulate one's cognitive processes. </t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MF:0000040</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>An interpersonal process that involves the transmission of information between two organisms.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:0050003</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>controlled motivation</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
-          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="inlineStr"/>
-      <c r="F76" s="3" t="inlineStr"/>
-      <c r="G76" s="3" t="inlineStr"/>
-      <c r="H76" s="3" t="inlineStr"/>
-      <c r="I76" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J76" s="3" t="inlineStr"/>
-      <c r="K76" s="3" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006160</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>craving</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective experience of powerful want or need for something or urge to engage in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J77" s="2" t="inlineStr"/>
-      <c r="K77" s="2" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006047</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
@@ -3069,90 +3069,90 @@
       <c r="K78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006111</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">decision simplification </t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive process that simplifies decision making.</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr"/>
-      <c r="F79" s="2" t="inlineStr"/>
-      <c r="G79" s="2" t="inlineStr"/>
-      <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J79" s="2" t="inlineStr"/>
-      <c r="K79" s="2" t="inlineStr"/>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MF:0000017</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>consciousness</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006116</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>decision-making</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>Judging during which a decision is created.</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J80" s="2" t="inlineStr"/>
-      <c r="K80" s="2" t="inlineStr"/>
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:0050003</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr"/>
+      <c r="F80" s="3" t="inlineStr"/>
+      <c r="G80" s="3" t="inlineStr"/>
+      <c r="H80" s="3" t="inlineStr"/>
+      <c r="I80" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="inlineStr"/>
+      <c r="K80" s="3" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006079</t>
+          <t>BCIO:006160</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>craving</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
+          <t xml:space="preserve">A subjective experience of powerful want or need for something or urge to engage in a behaviour. </t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -3170,22 +3170,22 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006121</t>
+          <t>BCIO:006047</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>discrimination learning</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
@@ -3201,90 +3201,90 @@
       <c r="K82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000019 </t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>A negative emotion which guards the body against dangerous foods and microbial infections. The basic physiological disgust has also culturally evolved to incorporate moral disgust which protects the self from nonphysical threats such as moral violations.</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006111</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">decision simplification </t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that simplifies decision making.</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>BFO:0000016</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006116</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>decision-making</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>Judging during which a decision is created.</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr"/>
+      <c r="F84" s="2" t="inlineStr"/>
+      <c r="G84" s="2" t="inlineStr"/>
+      <c r="H84" s="2" t="inlineStr"/>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr"/>
+      <c r="K84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006113</t>
+          <t>BCIO:006079</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>dissonance reduction process</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>A mental process through which a perceived inconsistency between the two concurrently held cognitive representations is reduced.</t>
+          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr"/>
@@ -3300,57 +3300,57 @@
       <c r="K85" s="2" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000001 </t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006121</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>discrimination learning</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000007 </t>
+          <t xml:space="preserve">MFOEM:000019 </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>emotional action tendency</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>An emotional action tendency is a disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+          <t>A negative emotion which guards the body against dangerous foods and microbial infections. The basic physiological disgust has also culturally evolved to incorporate moral disgust which protects the self from nonphysical threats such as moral violations.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -3366,61 +3366,57 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006008</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>emotional self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>A self-regulation capability to modulate one’s emotions.</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J88" s="2" t="inlineStr"/>
-      <c r="K88" s="2" t="inlineStr"/>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BFO:0000016</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006159</t>
+          <t>BCIO:006113</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>enjoyment of behaviour</t>
+          <t>dissonance reduction process</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
+          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
@@ -3438,22 +3434,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
+          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3469,66 +3465,66 @@
       <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006127</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>episodic memory</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr"/>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J91" s="2" t="inlineStr"/>
-      <c r="K91" s="2" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000007 </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>An emotional action tendency is a disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006035</t>
+          <t>BCIO:006008</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>emotional self-regulation capability</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr"/>
+          <t>A self-regulation capability to modulate one’s emotions.</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
       <c r="F92" s="2" t="inlineStr"/>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept is used to form an evaluation of self.</t>
-        </is>
-      </c>
+      <c r="G92" s="2" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr"/>
       <c r="I92" s="2" t="inlineStr">
         <is>
@@ -3541,22 +3537,22 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006038</t>
+          <t>BCIO:006159</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>enjoyment of behaviour</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr"/>
@@ -3572,57 +3568,57 @@
       <c r="K93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006151</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about a stereotype</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="inlineStr"/>
-      <c r="F94" s="2" t="inlineStr"/>
-      <c r="G94" s="2" t="inlineStr"/>
-      <c r="H94" s="2" t="inlineStr"/>
-      <c r="I94" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J94" s="2" t="inlineStr"/>
-      <c r="K94" s="2" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ENVO:01000254</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006147</t>
+          <t>BCIO:006127</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behaviour</t>
+          <t>episodic memory</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
@@ -3640,12 +3636,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006035</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcomes</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -3655,12 +3651,16 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether the consequences of a behaviour are positive or negative.</t>
+          <t>An evaluative belief about one's attributes.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept is used to form an evaluation of self.</t>
+        </is>
+      </c>
       <c r="H96" s="2" t="inlineStr"/>
       <c r="I96" s="2" t="inlineStr">
         <is>
@@ -3673,22 +3673,22 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006150</t>
+          <t>BCIO:006038</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about others</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the attributes of others.</t>
+          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
@@ -3706,35 +3706,27 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006101</t>
+          <t>BCIO:006151</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>experiential rightness of goal pursuit</t>
+          <t>evaluative belief about a stereotype</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>perceived regulatory fit process</t>
-        </is>
-      </c>
+          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
-        </is>
-      </c>
+      <c r="G98" s="2" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr">
         <is>
@@ -3747,22 +3739,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006122</t>
+          <t>BCIO:006147</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>extinction in classical conditioning</t>
+          <t>evaluative belief about behaviour</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
@@ -3780,22 +3772,22 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006123</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>extinction in operant learning</t>
+          <t>evaluative belief about behavioural outcomes</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
+          <t>An evaluative belief about whether the consequences of a behaviour are positive or negative.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
@@ -3813,29 +3805,25 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006135</t>
+          <t>BCIO:006150</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>extrinsic motivation</t>
+          <t>evaluative belief about others</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>controlled motivation</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>external motivation</t>
-        </is>
-      </c>
+          <t>An evaluative belief about the attributes of others.</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr"/>
       <c r="H101" s="2" t="inlineStr"/>
@@ -3850,27 +3838,35 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006002</t>
+          <t>BCIO:006101</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>family environment system</t>
+          <t>experiential rightness of goal pursuit</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>social environment system</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption.</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="inlineStr"/>
+          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>perceived regulatory fit process</t>
+        </is>
+      </c>
       <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
+        </is>
+      </c>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr">
         <is>
@@ -3881,57 +3877,57 @@
       <c r="K102" s="2" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>MFOEM:000026</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>An activated, aversive emotion that motivates attempts to cope with events that provide threats to the survival or well-being of organisms. Characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006122</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>extinction in classical conditioning</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr"/>
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr"/>
+      <c r="H103" s="2" t="inlineStr"/>
+      <c r="I103" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J103" s="2" t="inlineStr"/>
+      <c r="K103" s="2" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006109</t>
+          <t>BCIO:006123</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>feeling an urge</t>
+          <t>extinction in operant learning</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -3947,57 +3943,61 @@
       <c r="K104" s="2" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>MFOEM:000124</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>feeling nervous</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective feeling of being not at ease, of being anxious or nervous or agitated. </t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006135</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>extrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>external motivation</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
+      <c r="H105" s="2" t="inlineStr"/>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr"/>
+      <c r="K105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006087</t>
+          <t>BCIO:006002</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>financial opportunity</t>
+          <t>family environment system</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>social environment system</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>An opportunity regarding whether the person has sufficient financial resources to enact a behaviour.</t>
+          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
@@ -4013,127 +4013,123 @@
       <c r="K106" s="2" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>social environment system</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication among which transmission of knowledge, behaviour, values or of an infectious agent is possible.</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J107" s="2" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr"/>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MFOEM:000026</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>An activated, aversive emotion that motivates attempts to cope with events that provide threats to the survival or well-being of organisms. Characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:0050004</t>
-        </is>
-      </c>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t>fundamental need-based motivation</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
-        <is>
-          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
-        </is>
-      </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
-        </is>
-      </c>
-      <c r="F108" s="3" t="inlineStr"/>
-      <c r="G108" s="3" t="inlineStr"/>
-      <c r="H108" s="3" t="inlineStr"/>
-      <c r="I108" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J108" s="3" t="inlineStr"/>
-      <c r="K108" s="3" t="inlineStr"/>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006109</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>feeling an urge</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr"/>
+      <c r="K108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006124</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>generalisation (learning)</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J109" s="2" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr"/>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MFOEM:000124</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>feeling nervous</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective feeling of being not at ease, of being anxious or nervous or agitated. </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006087</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>financial opportunity</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to strive towards an end state.</t>
+          <t>An opportunity regarding whether the person has sufficient financial resources to enact a behaviour.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -4151,22 +4147,22 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>social environment system</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication among which transmission of knowledge, behaviour, values or of an infectious agent is possible.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -4182,90 +4178,94 @@
       <c r="K111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006114</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>goal setting process</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr"/>
-      <c r="F112" s="2" t="inlineStr"/>
-      <c r="G112" s="2" t="inlineStr"/>
-      <c r="H112" s="2" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J112" s="2" t="inlineStr"/>
-      <c r="K112" s="2" t="inlineStr"/>
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:0050004</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>fundamental need-based motivation</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
+        </is>
+      </c>
+      <c r="F112" s="3" t="inlineStr"/>
+      <c r="G112" s="3" t="inlineStr"/>
+      <c r="H112" s="3" t="inlineStr"/>
+      <c r="I112" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J112" s="3" t="inlineStr"/>
+      <c r="K112" s="3" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>MFOEM:000053</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>guilt</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006124</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>generalisation (learning)</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr"/>
+      <c r="K113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>habitual behaviour</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
+          <t>A mental disposition to strive towards an end state.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
@@ -4281,156 +4281,156 @@
       <c r="K114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>GO:0046959</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>habituation</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006096</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>goal pursuit process</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="inlineStr"/>
+      <c r="K115" s="2" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006114</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>goal setting process</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr"/>
+      <c r="H116" s="2" t="inlineStr"/>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="inlineStr"/>
+      <c r="K116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MFOEM:000053</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>guilt</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>MFOEM:000042</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>happiness</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006088</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>healthcare service accessibility</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="inlineStr"/>
-      <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
-      <c r="H117" s="2" t="inlineStr"/>
-      <c r="I117" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J117" s="2" t="inlineStr"/>
-      <c r="K117" s="2" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006115</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>heuristic process</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr"/>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
-      <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J118" s="2" t="inlineStr"/>
-      <c r="K118" s="2" t="inlineStr"/>
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:0050004</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>habit learning</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr"/>
+      <c r="F118" s="3" t="inlineStr"/>
+      <c r="G118" s="3" t="inlineStr"/>
+      <c r="H118" s="3" t="inlineStr"/>
+      <c r="I118" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J118" s="3" t="inlineStr"/>
+      <c r="K118" s="3" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006130</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>iconic memory</t>
+          <t>habitual behaviour</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
+          <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
@@ -4446,57 +4446,57 @@
       <c r="K119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006050</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
-      <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J120" s="2" t="inlineStr"/>
-      <c r="K120" s="2" t="inlineStr"/>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>GO:0046959</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>habituation</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GO:0098596</t>
+          <t>MFOEM:000042</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>imitative learning</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>observational learning</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4512,57 +4512,57 @@
       <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>BFO:0000004</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006088</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>healthcare service accessibility</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr"/>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
+      <c r="H122" s="2" t="inlineStr"/>
+      <c r="I122" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J122" s="2" t="inlineStr"/>
+      <c r="K122" s="2" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006094</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -4580,22 +4580,22 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006100</t>
+          <t>BCIO:006130</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>internal reward for a response</t>
+          <t>iconic memory</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
@@ -4611,123 +4611,123 @@
       <c r="K124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>MF:0000021</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>interpersonal process</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>A process in which at least two human beings are agents.</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006050</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition relating to perceptions of oneself.</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr"/>
+      <c r="F125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr"/>
+      <c r="H125" s="2" t="inlineStr"/>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J125" s="2" t="inlineStr"/>
+      <c r="K125" s="2" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GO:0098596</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>imitative learning</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006097</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr">
-        <is>
-          <t>Communication that is mutual between two or more people.</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr"/>
-      <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr"/>
-      <c r="H126" s="2" t="inlineStr"/>
-      <c r="I126" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J126" s="2" t="inlineStr"/>
-      <c r="K126" s="2" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006136</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>intrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr"/>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
-      <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J127" s="2" t="inlineStr"/>
-      <c r="K127" s="2" t="inlineStr"/>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>BFO:0000004</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006105</t>
+          <t>BCIO:006094</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>introjected self-regulation</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
@@ -4743,90 +4743,90 @@
       <c r="K128" s="2" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr"/>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr"/>
+      <c r="H129" s="2" t="inlineStr"/>
+      <c r="I129" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J129" s="2" t="inlineStr"/>
+      <c r="K129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MF:0000021</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>A process in which at least two human beings are agents.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006117</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>judging consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="inlineStr">
-        <is>
-          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr"/>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr"/>
-      <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J130" s="2" t="inlineStr"/>
-      <c r="K130" s="2" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006097</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>interpersonal reciprocal communication</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Communication that is mutual between two or more people.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
@@ -4844,22 +4844,22 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006136</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>intrinsic motivation</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
@@ -4877,22 +4877,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006105</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>introjected self-regulation</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
@@ -4908,57 +4908,57 @@
       <c r="K133" s="2" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006054</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>knowledge regarding an innovation</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
-        </is>
-      </c>
-      <c r="E134" s="2" t="inlineStr"/>
-      <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr"/>
-      <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J134" s="2" t="inlineStr"/>
-      <c r="K134" s="2" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006117</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>judging consequences of behaviour</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
@@ -4976,22 +4976,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006052</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -5009,31 +5009,27 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>knowledge regarding a behaviour</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="G137" s="2" t="inlineStr"/>
       <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr">
         <is>
@@ -5046,22 +5042,22 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -5077,90 +5073,90 @@
       <c r="K138" s="2" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>GO:0007612</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006054</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>knowledge regarding an innovation</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
+      <c r="H139" s="2" t="inlineStr"/>
+      <c r="I139" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J139" s="2" t="inlineStr"/>
+      <c r="K139" s="2" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>MF:0000086</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>linguistic communication</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>A communication process in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006056</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>knowledge regarding treatment</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr"/>
+      <c r="F140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr"/>
+      <c r="H140" s="2" t="inlineStr"/>
+      <c r="I140" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J140" s="2" t="inlineStr"/>
+      <c r="K140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
+          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -5176,57 +5172,61 @@
       <c r="K141" s="2" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006057</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-reponse co-occurrence</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr"/>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
+      <c r="H142" s="2" t="inlineStr"/>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J142" s="2" t="inlineStr"/>
+      <c r="K142" s="2" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006093</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>mental behavioural cue</t>
+          <t>learned stimulus-thought co-occurrence</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>bodily behavioural cue</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
@@ -5244,22 +5244,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000048 </t>
+          <t>GO:0007612</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>A capability that necessarily includes mental processes in its realisation.</t>
+          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -5275,123 +5275,123 @@
       <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006131</t>
-        </is>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>mental categorising</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>MF:0000086</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>linguistic communication</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>A communication process in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr"/>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="inlineStr"/>
+      <c r="H146" s="2" t="inlineStr"/>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J146" s="2" t="inlineStr"/>
+      <c r="K146" s="2" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>GO:0007613</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr"/>
-      <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr"/>
-      <c r="H145" s="2" t="inlineStr"/>
-      <c r="I145" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J145" s="2" t="inlineStr"/>
-      <c r="K145" s="2" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>MF:0000033</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006162</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="inlineStr"/>
-      <c r="F147" s="2" t="inlineStr"/>
-      <c r="G147" s="2" t="inlineStr"/>
-      <c r="H147" s="2" t="inlineStr"/>
-      <c r="I147" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J147" s="2" t="inlineStr"/>
-      <c r="K147" s="2" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006080</t>
+          <t>BCIO:006093</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>mental image</t>
+          <t>mental behavioural cue</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>bodily behavioural cue</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
@@ -5407,123 +5407,123 @@
       <c r="K148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006058</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>mental image disposition</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000048 </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>A capability that necessarily includes mental processes in its realisation.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006131</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>mental categorising</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr"/>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr"/>
+      <c r="H150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J150" s="2" t="inlineStr"/>
+      <c r="K150" s="2" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to represent a mental image.</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr"/>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
-      <c r="H149" s="2" t="inlineStr"/>
-      <c r="I149" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J149" s="2" t="inlineStr"/>
-      <c r="K149" s="2" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006070</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition to form a representation of a behaviour, the conditions under which it will be enacted and an intention to enact the behaviour under those conditions. </t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr"/>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr"/>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J151" s="2" t="inlineStr"/>
-      <c r="K151" s="2" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006157</t>
+          <t>BCIO:006162</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>mental plan for coping with barriers</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>mental plan</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr"/>
@@ -5539,123 +5539,123 @@
       <c r="K152" s="2" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>MF:0000020</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006080</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>mental image</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr"/>
+      <c r="F153" s="2" t="inlineStr"/>
+      <c r="G153" s="2" t="inlineStr"/>
+      <c r="H153" s="2" t="inlineStr"/>
+      <c r="I153" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J153" s="2" t="inlineStr"/>
+      <c r="K153" s="2" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006058</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>mental image disposition</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to represent a mental image.</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr"/>
+      <c r="F154" s="2" t="inlineStr"/>
+      <c r="G154" s="2" t="inlineStr"/>
+      <c r="H154" s="2" t="inlineStr"/>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="inlineStr"/>
+      <c r="K154" s="2" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000075 </t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>mental quality</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006004</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>mental skill</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr">
-        <is>
-          <t>A mental capability acquired through training and practice.</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr"/>
-      <c r="F155" s="2" t="inlineStr"/>
-      <c r="G155" s="2" t="inlineStr"/>
-      <c r="H155" s="2" t="inlineStr"/>
-      <c r="I155" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J155" s="2" t="inlineStr"/>
-      <c r="K155" s="2" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006132</t>
+          <t>BCIO:006070</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>mentally comparing against a standard</t>
+          <t>mental plan</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which current conditions are compared against a particular reference level.</t>
+          <t xml:space="preserve">A mental disposition to form a representation of a behaviour, the conditions under which it will be enacted and an intention to enact the behaviour under those conditions. </t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
@@ -5673,22 +5673,22 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006157</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>mental plan for coping with barriers</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental plan</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
@@ -5704,90 +5704,90 @@
       <c r="K157" s="2" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006060</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr"/>
-      <c r="H158" s="2" t="inlineStr"/>
-      <c r="I158" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J158" s="2" t="inlineStr"/>
-      <c r="K158" s="2" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006066</t>
-        </is>
-      </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>need for self-esteem</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="inlineStr"/>
-      <c r="F159" s="2" t="inlineStr"/>
-      <c r="G159" s="2" t="inlineStr"/>
-      <c r="H159" s="2" t="inlineStr"/>
-      <c r="I159" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J159" s="2" t="inlineStr"/>
-      <c r="K159" s="2" t="inlineStr"/>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000075 </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>mental quality</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006004</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>need for sense of security</t>
+          <t>mental skill</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A mental capability acquired through training and practice.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -5805,22 +5805,22 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>need for social relatedness</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A mental process in which current conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
@@ -5838,22 +5838,22 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006069</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>need to feel competent</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as able and effective.</t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
@@ -5871,29 +5871,25 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006037</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>negative evaluation of self</t>
+          <t>motivational orientation</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's negative attributes.</t>
-        </is>
-      </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>low self-esteem; negative self-esteem</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr"/>
       <c r="H163" s="2" t="inlineStr"/>
@@ -5906,90 +5902,90 @@
       <c r="K163" s="2" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006066</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>need for self-esteem</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr"/>
+      <c r="F164" s="2" t="inlineStr"/>
+      <c r="G164" s="2" t="inlineStr"/>
+      <c r="H164" s="2" t="inlineStr"/>
+      <c r="I164" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J164" s="2" t="inlineStr"/>
+      <c r="K164" s="2" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>MF:0000089</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>non-linguistic communication</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>A communication process in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006067</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>need for sense of security</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to feel safe from threats.</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr"/>
+      <c r="F165" s="2" t="inlineStr"/>
+      <c r="G165" s="2" t="inlineStr"/>
+      <c r="H165" s="2" t="inlineStr"/>
+      <c r="I165" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J165" s="2" t="inlineStr"/>
+      <c r="K165" s="2" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>need for social relatedness</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -6007,22 +6003,22 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006042</t>
+          <t>BCIO:006069</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>normative belief</t>
+          <t>need to feel competent</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether important others think one should perform a behaviour.</t>
+          <t>A psychological need to experience oneself as able and effective.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -6038,123 +6034,127 @@
       <c r="K167" s="2" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>GO:0098597</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006037</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>negative evaluation of self</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's negative attributes.</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>low self-esteem; negative self-esteem</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr"/>
+      <c r="H168" s="2" t="inlineStr"/>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J168" s="2" t="inlineStr"/>
+      <c r="K168" s="2" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>GO:0046958</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr">
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006083</t>
-        </is>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>occupational role</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>personal social role</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="inlineStr">
-        <is>
-          <t>A social role that involves the person's occupation.</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr"/>
-      <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr"/>
-      <c r="H169" s="2" t="inlineStr"/>
-      <c r="I169" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J169" s="2" t="inlineStr"/>
-      <c r="K169" s="2" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006125</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>operant conditioning</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr"/>
-      <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr"/>
-      <c r="H170" s="2" t="inlineStr"/>
-      <c r="I170" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J170" s="2" t="inlineStr"/>
-      <c r="K170" s="2" t="inlineStr"/>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>MF:0000089</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>non-linguistic communication</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>A communication process in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006086</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A quality of a person's environmental system that makes a behaviour possible or facilitates it.</t>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
@@ -6170,90 +6170,90 @@
       <c r="K171" s="2" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>bodily feeling</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>A bodily process in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006042</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>normative belief</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>A belief about whether important others think one should perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr"/>
+      <c r="F172" s="2" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr"/>
+      <c r="H172" s="2" t="inlineStr"/>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="inlineStr"/>
+      <c r="K172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006040</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>perceived descriptive norm</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr"/>
-      <c r="F173" s="2" t="inlineStr"/>
-      <c r="G173" s="2" t="inlineStr"/>
-      <c r="H173" s="2" t="inlineStr"/>
-      <c r="I173" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J173" s="2" t="inlineStr"/>
-      <c r="K173" s="2" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006041</t>
+          <t>BCIO:006083</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>perceived injunctive norm</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>personal social role</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular social group.</t>
+          <t>A social role that involves the person's occupation.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -6271,29 +6271,25 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006039</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>A belief about what is typical for people who belong to a particular social group.</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
+          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr"/>
       <c r="H175" s="2" t="inlineStr"/>
@@ -6306,123 +6302,123 @@
       <c r="K175" s="2" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>MF:0000019</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>perception</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006086</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>A quality of a person's environmental system that makes a behaviour possible or facilitates it.</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr"/>
+      <c r="F176" s="2" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr"/>
+      <c r="H176" s="2" t="inlineStr"/>
+      <c r="I176" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J176" s="2" t="inlineStr"/>
+      <c r="K176" s="2" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>pain</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>bodily feeling</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>A bodily process in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>personal  role</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr"/>
-      <c r="F177" s="2" t="inlineStr"/>
-      <c r="G177" s="2" t="inlineStr"/>
-      <c r="H177" s="2" t="inlineStr"/>
-      <c r="I177" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J177" s="2" t="inlineStr"/>
-      <c r="K177" s="2" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000043 </t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>A disposition inhering in an organism whose realization in the normal case brings benefits to an organism or group of organisms, where 'in the normal case' means not only in the normal range on the scale, but also in a context which is normal for the group to which the bearer or user belongs.</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006040</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>perceived descriptive norm</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="inlineStr"/>
+      <c r="H178" s="2" t="inlineStr"/>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006084</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>personal financial resource</t>
+          <t>perceived injunctive norm</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular social group.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -6440,25 +6436,29 @@
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006039</t>
         </is>
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>personal social role</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr"/>
+          <t>A belief about what is typical for people who belong to a particular social group.</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr"/>
       <c r="H180" s="2" t="inlineStr"/>
@@ -6471,57 +6471,57 @@
       <c r="K180" s="2" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006063</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>personal value</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition regarding what is fundamentally important in life and which informs standards for behaviour.</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr"/>
-      <c r="F181" s="2" t="inlineStr"/>
-      <c r="G181" s="2" t="inlineStr"/>
-      <c r="H181" s="2" t="inlineStr"/>
-      <c r="I181" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J181" s="2" t="inlineStr"/>
-      <c r="K181" s="2" t="inlineStr"/>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MF:0000019</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>physical capability</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A capability to perform a behaviour by virtue of muscular-skeletal attributes or psychomotor control</t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -6537,57 +6537,57 @@
       <c r="K182" s="2" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006089</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>physical opportunity</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity of the physical environmental system that makes a behaviour possible or facilitates it.</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr"/>
-      <c r="F183" s="2" t="inlineStr"/>
-      <c r="G183" s="2" t="inlineStr"/>
-      <c r="H183" s="2" t="inlineStr"/>
-      <c r="I183" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J183" s="2" t="inlineStr"/>
-      <c r="K183" s="2" t="inlineStr"/>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000043 </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>A disposition inhering in an organism whose realization in the normal case brings benefits to an organism or group of organisms, where 'in the normal case' means not only in the normal range on the scale, but also in a context which is normal for the group to which the bearer or user belongs.</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006084</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>personal financial resource</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>physical capability</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training and practice.</t>
+          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -6603,57 +6603,57 @@
       <c r="K184" s="2" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>physiological response to emotion process</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>A physiological response to emotion process is a bodily process which encompasses all the neurophysiological changes caused by the appraisal, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006082</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>personal social role</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>personal  role</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>A personal role that is realised in human social processes.</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr"/>
+      <c r="F185" s="2" t="inlineStr"/>
+      <c r="G185" s="2" t="inlineStr"/>
+      <c r="H185" s="2" t="inlineStr"/>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J185" s="2" t="inlineStr"/>
+      <c r="K185" s="2" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006102</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>plan enactment</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>A process by which a person attempts to follow the steps in a plan.</t>
+          <t>A mental disposition regarding what is fundamentally important in life and which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E186" s="2" t="inlineStr"/>
@@ -6669,107 +6669,95 @@
       <c r="K186" s="2" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006009</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>physical capability</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>A capability to perform a behaviour by virtue of muscular-skeletal attributes or psychomotor control</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr"/>
+      <c r="F187" s="2" t="inlineStr"/>
+      <c r="G187" s="2" t="inlineStr"/>
+      <c r="H187" s="2" t="inlineStr"/>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J187" s="2" t="inlineStr"/>
+      <c r="K187" s="2" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>MFOEM:000035</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction.</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006089</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>physical opportunity</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>An opportunity of the physical environmental system that makes a behaviour possible or facilitates it.</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr"/>
+      <c r="F188" s="2" t="inlineStr"/>
+      <c r="G188" s="2" t="inlineStr"/>
+      <c r="H188" s="2" t="inlineStr"/>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J188" s="2" t="inlineStr"/>
+      <c r="K188" s="2" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006036</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>positive evaluation of self</t>
+          <t>physical skill</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>physical capability</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's positive attributes.</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>positive self-esteem</t>
-        </is>
-      </c>
+          <t>A physical capability acquired through training and practice.</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr"/>
       <c r="F189" s="2" t="inlineStr"/>
-      <c r="G189" s="2" t="inlineStr">
-        <is>
-          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
-        </is>
-      </c>
+      <c r="G189" s="2" t="inlineStr"/>
       <c r="H189" s="2" t="inlineStr"/>
       <c r="I189" s="2" t="inlineStr">
         <is>
@@ -6780,57 +6768,57 @@
       <c r="K189" s="2" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.  </t>
-        </is>
-      </c>
-      <c r="E190" s="2" t="inlineStr"/>
-      <c r="F190" s="2" t="inlineStr"/>
-      <c r="G190" s="2" t="inlineStr"/>
-      <c r="H190" s="2" t="inlineStr"/>
-      <c r="I190" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J190" s="2" t="inlineStr"/>
-      <c r="K190" s="2" t="inlineStr"/>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000003 </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>physiological response to emotion process</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>A bodily process which encompasses all the neurophysiological changes caused by the appraisal, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006129</t>
+          <t>BCIO:006102</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>procedural memory</t>
+          <t>plan enactment</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
+          <t>A process by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -6848,22 +6836,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BFO:0000144</t>
+          <t>MF:0000027</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -6879,64 +6867,72 @@
       <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006062</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>promotion focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.  </t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr"/>
-      <c r="F193" s="2" t="inlineStr"/>
-      <c r="G193" s="2" t="inlineStr"/>
-      <c r="H193" s="2" t="inlineStr"/>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J193" s="2" t="inlineStr"/>
-      <c r="K193" s="2" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:006036</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>positive evaluation of self</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr"/>
+          <t>A belief about one's positive attributes.</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>positive self-esteem</t>
+        </is>
+      </c>
       <c r="F194" s="2" t="inlineStr"/>
       <c r="G194" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
         </is>
       </c>
       <c r="H194" s="2" t="inlineStr"/>
@@ -6949,57 +6945,57 @@
       <c r="K194" s="2" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006061</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>prevention focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>motivational orientation</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.  </t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr"/>
+      <c r="F195" s="2" t="inlineStr"/>
+      <c r="G195" s="2" t="inlineStr"/>
+      <c r="H195" s="2" t="inlineStr"/>
+      <c r="I195" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J195" s="2" t="inlineStr"/>
+      <c r="K195" s="2" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:006129</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>procedural memory</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -7017,22 +7013,22 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MF:0000030</t>
+          <t>BFO:0000144</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
+          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
@@ -7050,29 +7046,25 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006073</t>
+          <t>BCIO:006062</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>risk stereotype</t>
+          <t>promotion focused motivational orientation</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>motivational orientation</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A stereotype of a person who enacts a problem behaviour.</t>
-        </is>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
-        <is>
-          <t>risk prototype</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.  </t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr"/>
       <c r="F198" s="2" t="inlineStr"/>
       <c r="G198" s="2" t="inlineStr"/>
       <c r="H198" s="2" t="inlineStr"/>
@@ -7085,57 +7077,61 @@
       <c r="K198" s="2" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>BFO:0000023</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr"/>
+      <c r="F199" s="2" t="inlineStr"/>
+      <c r="G199" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="H199" s="2" t="inlineStr"/>
+      <c r="I199" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J199" s="2" t="inlineStr"/>
+      <c r="K199" s="2" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
+          <t>PATO:0000001</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant, obstructive to one's goals and concerns, and one feels unable to cope with it or modify it.</t>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -7153,22 +7149,22 @@
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006071</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
+          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
@@ -7184,60 +7180,64 @@
       <c r="K201" s="2" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006043</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>belief about control over behaviour</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
-        </is>
-      </c>
-      <c r="E202" s="2" t="inlineStr"/>
-      <c r="F202" s="2" t="inlineStr"/>
-      <c r="G202" s="2" t="inlineStr"/>
-      <c r="H202" s="2" t="inlineStr"/>
-      <c r="I202" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J202" s="2" t="inlineStr"/>
-      <c r="K202" s="2" t="inlineStr"/>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>MF:0000030</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>A dependent continuant which is about a portion of reality.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006154</t>
+          <t>BCIO:006073</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>risk stereotype</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E203" s="2" t="inlineStr"/>
+          <t>A stereotype of a person who enacts a problem behaviour.</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>risk prototype</t>
+        </is>
+      </c>
       <c r="F203" s="2" t="inlineStr"/>
       <c r="G203" s="2" t="inlineStr"/>
       <c r="H203" s="2" t="inlineStr"/>
@@ -7250,94 +7250,90 @@
       <c r="K203" s="2" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006137</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>self-monitoring</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr"/>
-      <c r="F204" s="2" t="inlineStr"/>
-      <c r="G204" s="2" t="inlineStr"/>
-      <c r="H204" s="2" t="inlineStr"/>
-      <c r="I204" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J204" s="2" t="inlineStr"/>
-      <c r="K204" s="2" t="inlineStr"/>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006005</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="inlineStr">
-        <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="inlineStr"/>
-      <c r="F205" s="2" t="inlineStr"/>
-      <c r="G205" s="2" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
-      <c r="H205" s="2" t="inlineStr"/>
-      <c r="I205" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J205" s="2" t="inlineStr"/>
-      <c r="K205" s="2" t="inlineStr"/>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant, obstructive to one's goals and concerns, and one feels unable to cope with it or modify it.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006071</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of an organism in response to external or internal stimuli and that is instigated by the organism itself.</t>
+          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -7355,22 +7351,22 @@
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006106</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>self-reinforcing self-regulation</t>
+          <t>self-efficacy belief</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E207" s="2" t="inlineStr"/>
@@ -7388,22 +7384,22 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
@@ -7419,123 +7415,127 @@
       <c r="K208" s="2" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006137</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>self-monitoring</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr"/>
+      <c r="F209" s="2" t="inlineStr"/>
+      <c r="G209" s="2" t="inlineStr"/>
+      <c r="H209" s="2" t="inlineStr"/>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J209" s="2" t="inlineStr"/>
+      <c r="K209" s="2" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>MFOEM:000040</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction as a result of sexual activities.</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006005</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr"/>
+      <c r="F210" s="2" t="inlineStr"/>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr"/>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J210" s="2" t="inlineStr"/>
+      <c r="K210" s="2" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>MFOEM:000055</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>shame</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of an organism in response to external or internal stimuli and that is instigated by the organism itself.</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr"/>
+      <c r="F211" s="2" t="inlineStr"/>
+      <c r="G211" s="2" t="inlineStr"/>
+      <c r="H211" s="2" t="inlineStr"/>
+      <c r="I211" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J211" s="2" t="inlineStr"/>
+      <c r="K211" s="2" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006044</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>Self-efficacy belief for a behaviour under certain conditions.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -7553,22 +7553,22 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006128</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>social capability</t>
+          <t>semantic memory</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>A capability to engage in interpersonal processes that influence ability to perform a behaviour, when appropriate circumstances occur.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -7584,123 +7584,123 @@
       <c r="K213" s="2" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006118</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>social comparison process</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="inlineStr"/>
-      <c r="F214" s="2" t="inlineStr"/>
-      <c r="G214" s="2" t="inlineStr"/>
-      <c r="H214" s="2" t="inlineStr"/>
-      <c r="I214" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J214" s="2" t="inlineStr"/>
-      <c r="K214" s="2" t="inlineStr"/>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>GO:0046960</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>sensitization</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006074</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>social embeddedness</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr"/>
-      <c r="F215" s="2" t="inlineStr"/>
-      <c r="G215" s="2" t="inlineStr"/>
-      <c r="H215" s="2" t="inlineStr"/>
-      <c r="I215" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J215" s="2" t="inlineStr"/>
-      <c r="K215" s="2" t="inlineStr"/>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction as a result of sexual activities.</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006001</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>social environment system</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="inlineStr">
-        <is>
-          <t>An environmental system that consists of people, social and cultural institutions and processes involving these that influence the life of people and social groups.</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="inlineStr"/>
-      <c r="F216" s="2" t="inlineStr"/>
-      <c r="G216" s="2" t="inlineStr"/>
-      <c r="H216" s="2" t="inlineStr"/>
-      <c r="I216" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J216" s="2" t="inlineStr"/>
-      <c r="K216" s="2" t="inlineStr"/>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>Identity that is associated with the sense of belonging to a social group.</t>
+          <t>Self-efficacy belief for a behaviour under certain conditions.</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
@@ -7718,30 +7718,26 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>social influence process</t>
+          <t>social capability</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
+          <t>A capability to engage in interpersonal processes that influence ability to perform a behaviour, when appropriate circumstances occur.</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
+      <c r="F218" s="2" t="inlineStr"/>
       <c r="G218" s="2" t="inlineStr"/>
       <c r="H218" s="2" t="inlineStr"/>
       <c r="I218" s="2" t="inlineStr">
@@ -7755,22 +7751,22 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>social opportunity</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>An opportunity of the social environment system that influences performance of a behaviour.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -7788,22 +7784,22 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>social capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>A social capability acquired through training and practice.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
@@ -7819,66 +7815,62 @@
       <c r="K220" s="2" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006001</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>social environment system</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>An environmental system that consists of people, social and cultural institutions and processes involving these that influence the life of people and social groups.</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr"/>
+      <c r="F221" s="2" t="inlineStr"/>
+      <c r="G221" s="2" t="inlineStr"/>
+      <c r="H221" s="2" t="inlineStr"/>
+      <c r="I221" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J221" s="2" t="inlineStr"/>
+      <c r="K221" s="2" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to represent attributes of members of a social group as shared by the virtue of their group membership.</t>
+          <t>Identity that is associated with the sense of belonging to a social group.</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
       <c r="F222" s="2" t="inlineStr"/>
-      <c r="G222" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="G222" s="2" t="inlineStr"/>
       <c r="H222" s="2" t="inlineStr"/>
       <c r="I222" s="2" t="inlineStr">
         <is>
@@ -7889,57 +7881,61 @@
       <c r="K222" s="2" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000006 </t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>A (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006099</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>social influence process</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="inlineStr"/>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="inlineStr"/>
+      <c r="H223" s="2" t="inlineStr"/>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J223" s="2" t="inlineStr"/>
+      <c r="K223" s="2" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006075</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>subjective need</t>
+          <t>social opportunity</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of anticipated relief from, or avoidance of, mental or physical discomfort.</t>
+          <t>An opportunity of the social environment system that influences the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr"/>
@@ -7955,57 +7951,57 @@
       <c r="K224" s="2" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>A bodily process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006012</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>social skill</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>social capability</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>A social capability acquired through training and practice.</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr"/>
+      <c r="F225" s="2" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr"/>
+      <c r="H225" s="2" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J225" s="2" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>BFO:0000020</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t xml:space="preserve">A neutral emotion caused by encountering unexpected events of all kinds. May be experienced as negative if the surprising event is evaluated as negative, or positive if the surprising event is evaluated as positive. </t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -8023,27 +8019,31 @@
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006163</t>
+          <t>BCIO:006072</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>targeted mental distancing</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mental distancing that involves identifying particular immediate thoughts and detaching from these thoughts. </t>
+          <t>A mental disposition to represent attributes of members of a social group as shared by the virtue of their group membership.</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
       <c r="F227" s="2" t="inlineStr"/>
-      <c r="G227" s="2" t="inlineStr"/>
+      <c r="G227" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
       <c r="H227" s="2" t="inlineStr"/>
       <c r="I227" s="2" t="inlineStr">
         <is>
@@ -8054,47 +8054,47 @@
       <c r="K227" s="2" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006091</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>temporal opportunity</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity regarding whether the person has sufficient time to enact a behaviour in the social and physical environment.</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="inlineStr"/>
-      <c r="F228" s="2" t="inlineStr"/>
-      <c r="G228" s="2" t="inlineStr"/>
-      <c r="H228" s="2" t="inlineStr"/>
-      <c r="I228" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J228" s="2" t="inlineStr"/>
-      <c r="K228" s="2" t="inlineStr"/>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000006 </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>A (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006076</t>
+          <t>BCIO:006075</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation</t>
+          <t>subjective need</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on present or future outcomes.</t>
+          <t>A mental disposition to experience a feeling of anticipated relief from, or avoidance of, mental or physical discomfort.</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -8122,22 +8122,22 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MF:0000013</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
+          <t>A bodily process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -8153,97 +8153,93 @@
       <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006107</t>
-        </is>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>value-congruent self-regulation</t>
-        </is>
-      </c>
-      <c r="C231" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D231" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation undertaken to achieve congruence between one's values and the behaviour performed.</t>
-        </is>
-      </c>
-      <c r="E231" s="2" t="inlineStr"/>
-      <c r="F231" s="2" t="inlineStr"/>
-      <c r="G231" s="2" t="inlineStr"/>
-      <c r="H231" s="2" t="inlineStr"/>
-      <c r="I231" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J231" s="2" t="inlineStr"/>
-      <c r="K231" s="2" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>MFOEM:000032</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A neutral emotion caused by encountering unexpected events of all kinds. May be experienced as negative if the surprising event is evaluated as negative, or positive if the surprising event is evaluated as positive. </t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>MF:0000045</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>wanting</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental process that involves thinking about a state of affairs that does not yet obtain together with a desire for that state of affairs to obtain. </t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006163</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>targeted mental distancing</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mental distancing that involves identifying particular immediate thoughts and detaching from these thoughts. </t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr"/>
+      <c r="F232" s="2" t="inlineStr"/>
+      <c r="G232" s="2" t="inlineStr"/>
+      <c r="H232" s="2" t="inlineStr"/>
+      <c r="I232" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J232" s="2" t="inlineStr"/>
+      <c r="K232" s="2" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006059</t>
+          <t>BCIO:006091</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>willingness to comply</t>
+          <t>temporal opportunity</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to be inclined to act in accordance with the likely approval of others</t>
-        </is>
-      </c>
-      <c r="E233" s="2" t="inlineStr">
-        <is>
-          <t>motivation to comply</t>
-        </is>
-      </c>
+          <t>An opportunity regarding whether the person has sufficient time to enact a behaviour in the social and physical environment.</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="inlineStr"/>
       <c r="F233" s="2" t="inlineStr"/>
       <c r="G233" s="2" t="inlineStr"/>
       <c r="H233" s="2" t="inlineStr"/>
@@ -8255,6 +8251,175 @@
       <c r="J233" s="2" t="inlineStr"/>
       <c r="K233" s="2" t="inlineStr"/>
     </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006076</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present or future outcomes.</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr"/>
+      <c r="F234" s="2" t="inlineStr"/>
+      <c r="G234" s="2" t="inlineStr"/>
+      <c r="H234" s="2" t="inlineStr"/>
+      <c r="I234" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J234" s="2" t="inlineStr"/>
+      <c r="K234" s="2" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>MF:0000013</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006107</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>value-congruent self-regulation</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>Self-regulation undertaken to achieve congruence between one's values and the behaviour performed.</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr"/>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr"/>
+      <c r="H236" s="2" t="inlineStr"/>
+      <c r="I236" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J236" s="2" t="inlineStr"/>
+      <c r="K236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>MF:0000045</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>wanting</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental process that involves thinking about a state of affairs that does not yet obtain together with a desire for that state of affairs to obtain. </t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to be inclined to act in accordance with the likely approval of others</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>motivation to comply</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr"/>
+      <c r="G238" s="2" t="inlineStr"/>
+      <c r="H238" s="2" t="inlineStr"/>
+      <c r="I238" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J238" s="2" t="inlineStr"/>
+      <c r="K238" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -5658,7 +5658,11 @@
           <t xml:space="preserve">A mental disposition to form a representation of a behaviour, the conditions under which it will be enacted and an intention to enact the behaviour under those conditions. </t>
         </is>
       </c>
-      <c r="E156" s="2" t="inlineStr"/>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr"/>
       <c r="H156" s="2" t="inlineStr"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>belief about others' susceptibility to a threat</t>
+          <t>belief about others' susceptibility</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>belief about personal susceptibility to a threat</t>
+          <t>belief about personal susceptibility</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -997,7 +997,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050000</t>
+          <t>BCIO:006300</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050001</t>
+          <t>BCIO:006302</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050002</t>
+          <t>BCIO:006304</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -2201,7 +2201,7 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050000</t>
+          <t>BCIO:006301</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -2267,7 +2267,7 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050001</t>
+          <t>BCIO:006303</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
@@ -2403,7 +2403,7 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050002</t>
+          <t>BCIO:006305</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050003</t>
+          <t>BCIO:006306</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
@@ -3104,7 +3104,7 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050003</t>
+          <t>BCIO:006307</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050004</t>
+          <t>BCIO:006308</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>BCIO:0050004</t>
+          <t>BCIO:006309</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -533,37 +533,41 @@
       <c r="K2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006013</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000349</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>addiction</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A chronic acquired mental disorder involving repeated abnormally powerful motivation to engage in a behaviour despite risk or experience of harm. </t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm. </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>I have made this an external entity using the definition from AddictO as I think this is one in which AddictO should be the primary source</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K238"/>
+  <dimension ref="A1:K243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,22 +3438,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000001 </t>
+          <t>ENVO:01001110</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>affective process</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
+          <t>An environmental system which includes both living and non-living components.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -3471,22 +3471,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000007 </t>
+          <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>emotional action tendency</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>An emotional action tendency is a disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -3502,64 +3502,64 @@
       <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006008</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>emotional self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>A self-regulation capability to modulate one’s emotions.</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr"/>
-      <c r="G92" s="2" t="inlineStr"/>
-      <c r="H92" s="2" t="inlineStr"/>
-      <c r="I92" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J92" s="2" t="inlineStr"/>
-      <c r="K92" s="2" t="inlineStr"/>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000007 </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>An emotional action tendency is a disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006159</t>
+          <t>BCIO:006008</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>enjoyment of behaviour</t>
+          <t>emotional self-regulation capability</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr"/>
+          <t>A self-regulation capability to modulate one’s emotions.</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr"/>
@@ -3572,99 +3572,95 @@
       <c r="K93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006159</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>enjoyment of behaviour</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr"/>
+      <c r="K94" s="2" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>ENVO:01000254</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>environmental system</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>independent continuant</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>A system which has the disposition to surround and interact with one or more material entities.</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006127</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>episodic memory</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr"/>
-      <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J95" s="2" t="inlineStr"/>
-      <c r="K95" s="2" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006035</t>
+          <t>BCIO:006127</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>episodic memory</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept is used to form an evaluation of self.</t>
-        </is>
-      </c>
+      <c r="G96" s="2" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr"/>
       <c r="I96" s="2" t="inlineStr">
         <is>
@@ -3677,27 +3673,31 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006038</t>
+          <t>BCIO:006035</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
+          <t>An evaluative belief about one's attributes.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept is used to form an evaluation of self.</t>
+        </is>
+      </c>
       <c r="H97" s="2" t="inlineStr"/>
       <c r="I97" s="2" t="inlineStr">
         <is>
@@ -3710,22 +3710,22 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006151</t>
+          <t>BCIO:006038</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about a stereotype</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
+          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
@@ -3743,12 +3743,12 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006147</t>
+          <t>BCIO:006151</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behaviour</t>
+          <t>evaluative belief about a stereotype</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
@@ -3776,12 +3776,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006147</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcomes</t>
+          <t>evaluative belief about behaviour</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether the consequences of a behaviour are positive or negative.</t>
+          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
@@ -3809,12 +3809,12 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006150</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about others</t>
+          <t>evaluative belief about behavioural outcomes</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the attributes of others.</t>
+          <t>An evaluative belief about whether the consequences of a behaviour are positive or negative.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
@@ -3842,35 +3842,27 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006101</t>
+          <t>BCIO:006150</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>experiential rightness of goal pursuit</t>
+          <t>evaluative belief about others</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>perceived regulatory fit process</t>
-        </is>
-      </c>
+          <t>An evaluative belief about the attributes of others.</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
-        </is>
-      </c>
+      <c r="G102" s="2" t="inlineStr"/>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr">
         <is>
@@ -3883,27 +3875,35 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006122</t>
+          <t>BCIO:006101</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>extinction in classical conditioning</t>
+          <t>experiential rightness of goal pursuit</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="inlineStr"/>
+          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>perceived regulatory fit process</t>
+        </is>
+      </c>
       <c r="F103" s="2" t="inlineStr"/>
-      <c r="G103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
+        </is>
+      </c>
       <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr">
         <is>
@@ -3916,12 +3916,12 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006123</t>
+          <t>BCIO:006122</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>extinction in operant learning</t>
+          <t>extinction in classical conditioning</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
+          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -3949,29 +3949,25 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006135</t>
+          <t>BCIO:006123</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>extrinsic motivation</t>
+          <t>extinction in operant learning</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>controlled motivation</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>external motivation</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr"/>
@@ -3986,25 +3982,29 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006002</t>
+          <t>BCIO:006135</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>family environment system</t>
+          <t>extrinsic motivation</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>social environment system</t>
+          <t>controlled motivation</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption.</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr"/>
+          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>external motivation</t>
+        </is>
+      </c>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr"/>
       <c r="H106" s="2" t="inlineStr"/>
@@ -4017,156 +4017,156 @@
       <c r="K106" s="2" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006002</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>family environment system</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>social environment system</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption.</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr"/>
+      <c r="H107" s="2" t="inlineStr"/>
+      <c r="I107" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J107" s="2" t="inlineStr"/>
+      <c r="K107" s="2" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>MFOEM:000026</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>An activated, aversive emotion that motivates attempts to cope with events that provide threats to the survival or well-being of organisms. Characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr">
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
         <is>
           <t>BCIO:006109</t>
         </is>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>feeling an urge</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>subjective emotional feeling</t>
         </is>
       </c>
-      <c r="D108" s="2" t="inlineStr">
+      <c r="D109" s="2" t="inlineStr">
         <is>
           <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
         </is>
       </c>
-      <c r="E108" s="2" t="inlineStr"/>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr"/>
-      <c r="H108" s="2" t="inlineStr"/>
-      <c r="I108" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J108" s="2" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr"/>
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr"/>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J109" s="2" t="inlineStr"/>
+      <c r="K109" s="2" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>MFOEM:000124</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>feeling nervous</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>subjective emotional feeling</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t xml:space="preserve">A subjective feeling of being not at ease, of being anxious or nervous or agitated. </t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006087</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>financial opportunity</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity regarding whether the person has sufficient financial resources to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr"/>
-      <c r="H110" s="2" t="inlineStr"/>
-      <c r="I110" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006003</t>
+          <t>BCIO:006087</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>friendship network</t>
+          <t>financial opportunity</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>social environment system</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication among which transmission of knowledge, behaviour, values or of an infectious agent is possible.</t>
+          <t>An opportunity regarding whether the person has sufficient financial resources to enact a behaviour.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
@@ -4182,94 +4182,94 @@
       <c r="K111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006003</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>friendship network</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>social environment system</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication among which transmission of knowledge, behaviour, values or of an infectious agent is possible.</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr"/>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="inlineStr"/>
+      <c r="K112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>BCIO:006308</t>
         </is>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B113" s="3" t="inlineStr">
         <is>
           <t>fundamental need-based motivation</t>
         </is>
       </c>
-      <c r="C112" s="3" t="inlineStr">
+      <c r="C113" s="3" t="inlineStr">
         <is>
           <t>autonomous motivation</t>
         </is>
       </c>
-      <c r="D112" s="3" t="inlineStr">
+      <c r="D113" s="3" t="inlineStr">
         <is>
           <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
         </is>
       </c>
-      <c r="E112" s="3" t="inlineStr">
+      <c r="E113" s="3" t="inlineStr">
         <is>
           <t>integrated motivation; integrated regulation</t>
         </is>
       </c>
-      <c r="F112" s="3" t="inlineStr"/>
-      <c r="G112" s="3" t="inlineStr"/>
-      <c r="H112" s="3" t="inlineStr"/>
-      <c r="I112" s="3" t="inlineStr">
+      <c r="F113" s="3" t="inlineStr"/>
+      <c r="G113" s="3" t="inlineStr"/>
+      <c r="H113" s="3" t="inlineStr"/>
+      <c r="I113" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J112" s="3" t="inlineStr"/>
-      <c r="K112" s="3" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006124</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>generalisation (learning)</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr"/>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
+      <c r="J113" s="3" t="inlineStr"/>
+      <c r="K113" s="3" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006124</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>generalisation (learning)</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to strive towards an end state.</t>
+          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
@@ -4287,22 +4287,22 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A mental disposition to strive towards an end state.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
@@ -4320,22 +4320,22 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006114</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>goal setting process</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
@@ -4351,156 +4351,156 @@
       <c r="K116" s="2" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006114</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>goal setting process</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J117" s="2" t="inlineStr"/>
+      <c r="K117" s="2" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>MFOEM:000053</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>guilt</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr">
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="inlineStr">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
         <is>
           <t>BCIO:006309</t>
         </is>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B119" s="3" t="inlineStr">
         <is>
           <t>habit learning</t>
         </is>
       </c>
-      <c r="C118" s="3" t="inlineStr">
+      <c r="C119" s="3" t="inlineStr">
         <is>
           <t>associative learning</t>
         </is>
       </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="D119" s="3" t="inlineStr">
         <is>
           <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
         </is>
       </c>
-      <c r="E118" s="3" t="inlineStr"/>
-      <c r="F118" s="3" t="inlineStr"/>
-      <c r="G118" s="3" t="inlineStr"/>
-      <c r="H118" s="3" t="inlineStr"/>
-      <c r="I118" s="3" t="inlineStr">
+      <c r="E119" s="3" t="inlineStr"/>
+      <c r="F119" s="3" t="inlineStr"/>
+      <c r="G119" s="3" t="inlineStr"/>
+      <c r="H119" s="3" t="inlineStr"/>
+      <c r="I119" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J118" s="3" t="inlineStr"/>
-      <c r="K118" s="3" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="inlineStr">
+      <c r="J119" s="3" t="inlineStr"/>
+      <c r="K119" s="3" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
         <is>
           <t>BCIO:006158</t>
         </is>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>habitual behaviour</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D119" s="2" t="inlineStr">
+      <c r="D120" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
         </is>
       </c>
-      <c r="E119" s="2" t="inlineStr"/>
-      <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr"/>
-      <c r="H119" s="2" t="inlineStr"/>
-      <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J119" s="2" t="inlineStr"/>
-      <c r="K119" s="2" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>GO:0046959</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>habituation</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr"/>
+      <c r="K120" s="2" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MFOEM:000042</t>
+          <t>GO:0046959</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>habituation</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4516,57 +4516,57 @@
       <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006088</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>healthcare service accessibility</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="inlineStr"/>
-      <c r="F122" s="2" t="inlineStr"/>
-      <c r="G122" s="2" t="inlineStr"/>
-      <c r="H122" s="2" t="inlineStr"/>
-      <c r="I122" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J122" s="2" t="inlineStr"/>
-      <c r="K122" s="2" t="inlineStr"/>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MFOEM:000042</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>happiness</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006115</t>
+          <t>BCIO:006088</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>heuristic process</t>
+          <t>healthcare service accessibility</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
+          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -4584,22 +4584,22 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006130</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>iconic memory</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
@@ -4617,22 +4617,22 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006050</t>
+          <t>BCIO:006130</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>iconic memory</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
@@ -4648,57 +4648,57 @@
       <c r="K125" s="2" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>GO:0098596</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>imitative learning</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006050</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition relating to perceptions of oneself.</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
+      <c r="H126" s="2" t="inlineStr"/>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J126" s="2" t="inlineStr"/>
+      <c r="K126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BFO:0000004</t>
+          <t>GO:0098596</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>imitative learning</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>observational learning</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -4714,47 +4714,47 @@
       <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006094</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="inlineStr"/>
-      <c r="F128" s="2" t="inlineStr"/>
-      <c r="G128" s="2" t="inlineStr"/>
-      <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J128" s="2" t="inlineStr"/>
-      <c r="K128" s="2" t="inlineStr"/>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>BFO:0000004</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006100</t>
+          <t>BCIO:006094</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>internal reward for a response</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
@@ -4780,90 +4780,90 @@
       <c r="K129" s="2" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr"/>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
+      <c r="H130" s="2" t="inlineStr"/>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J130" s="2" t="inlineStr"/>
+      <c r="K130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>MF:0000021</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>interpersonal process</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>A process in which at least two human beings are agents.</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr">
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006097</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="inlineStr">
-        <is>
-          <t>Communication that is mutual between two or more people.</t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="inlineStr"/>
-      <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr"/>
-      <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J131" s="2" t="inlineStr"/>
-      <c r="K131" s="2" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:006097</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>intrinsic motivation</t>
+          <t>interpersonal reciprocal communication</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
+          <t>Communication that is mutual between two or more people.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
@@ -4881,22 +4881,22 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006105</t>
+          <t>BCIO:006136</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>introjected self-regulation</t>
+          <t>intrinsic motivation</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
+          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
@@ -4912,90 +4912,90 @@
       <c r="K133" s="2" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006105</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>introjected self-regulation</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr"/>
+      <c r="F134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr"/>
+      <c r="H134" s="2" t="inlineStr"/>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J134" s="2" t="inlineStr"/>
+      <c r="K134" s="2" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>MF:0000006</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006117</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>judging consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr"/>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
-      <c r="H135" s="2" t="inlineStr"/>
-      <c r="I135" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J135" s="2" t="inlineStr"/>
-      <c r="K135" s="2" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006117</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>judging consequences of behaviour</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -5013,22 +5013,22 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006052</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -5046,12 +5046,12 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding a behaviour</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -5079,12 +5079,12 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -5112,12 +5112,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -5145,22 +5145,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -5178,31 +5178,27 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
+          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="G142" s="2" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr">
         <is>
@@ -5215,27 +5211,31 @@
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
+          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
       <c r="H143" s="2" t="inlineStr"/>
       <c r="I143" s="2" t="inlineStr">
         <is>
@@ -5246,57 +5246,57 @@
       <c r="K143" s="2" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>GO:0007612</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006156</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-thought co-occurrence</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-response co-occurrence</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr"/>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr"/>
+      <c r="H144" s="2" t="inlineStr"/>
+      <c r="I144" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J144" s="2" t="inlineStr"/>
+      <c r="K144" s="2" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MF:0000086</t>
+          <t>GO:0007612</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>linguistic communication</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A communication process in which the information that is communicated is encoded in language.</t>
+          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -5312,123 +5312,123 @@
       <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>MF:0000086</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>linguistic communication</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>A communication process in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
         <is>
           <t>BCIO:006085</t>
         </is>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D146" s="2" t="inlineStr">
+      <c r="D147" s="2" t="inlineStr">
         <is>
           <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
         </is>
       </c>
-      <c r="E146" s="2" t="inlineStr"/>
-      <c r="F146" s="2" t="inlineStr"/>
-      <c r="G146" s="2" t="inlineStr"/>
-      <c r="H146" s="2" t="inlineStr"/>
-      <c r="I146" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J146" s="2" t="inlineStr"/>
-      <c r="K146" s="2" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr"/>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr"/>
+      <c r="H147" s="2" t="inlineStr"/>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J147" s="2" t="inlineStr"/>
+      <c r="K147" s="2" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="inlineStr"/>
-      <c r="F148" s="2" t="inlineStr"/>
-      <c r="G148" s="2" t="inlineStr"/>
-      <c r="H148" s="2" t="inlineStr"/>
-      <c r="I148" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J148" s="2" t="inlineStr"/>
-      <c r="K148" s="2" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000048 </t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>A capability that necessarily includes mental processes in its realisation.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -5444,123 +5444,123 @@
       <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006131</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>mental categorising</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GO:0007613</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
-      <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J150" s="2" t="inlineStr"/>
-      <c r="K150" s="2" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>MF:0000033</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006093</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>mental behavioural cue</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr"/>
+      <c r="H151" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J151" s="2" t="inlineStr"/>
+      <c r="K151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000048 </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>A capability that necessarily includes mental processes in its realisation.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006162</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr"/>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr"/>
-      <c r="H152" s="2" t="inlineStr"/>
-      <c r="I152" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J152" s="2" t="inlineStr"/>
-      <c r="K152" s="2" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006080</t>
+          <t>BCIO:006131</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>mental image</t>
+          <t>mental categorising</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr"/>
@@ -5576,97 +5576,93 @@
       <c r="K153" s="2" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006058</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>mental image disposition</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D154" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to represent a mental image.</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="inlineStr"/>
-      <c r="F154" s="2" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr"/>
-      <c r="H154" s="2" t="inlineStr"/>
-      <c r="I154" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J154" s="2" t="inlineStr"/>
-      <c r="K154" s="2" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr"/>
+      <c r="F155" s="2" t="inlineStr"/>
+      <c r="G155" s="2" t="inlineStr"/>
+      <c r="H155" s="2" t="inlineStr"/>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="inlineStr"/>
+      <c r="K155" s="2" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>mental plan</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to form a representation of a behaviour, the conditions under which it will be enacted and an intention to enact the behaviour under those conditions. </t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr"/>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr"/>
       <c r="H156" s="2" t="inlineStr"/>
@@ -5681,22 +5677,22 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006157</t>
+          <t>BCIO:006058</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>mental plan for coping with barriers</t>
+          <t>mental image disposition</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>mental plan</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+          <t>A mental disposition to represent a mental image.</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
@@ -5714,22 +5710,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MF:0000020</t>
+          <t>MF:0000083</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
+          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr"/>
@@ -5745,57 +5741,61 @@
       <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000075 </t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>mental quality</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental disposition to form a representation of a behaviour, the conditions under which it will be enacted and an intention to enact the behaviour under those conditions. </t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr"/>
+      <c r="G159" s="2" t="inlineStr"/>
+      <c r="H159" s="2" t="inlineStr"/>
+      <c r="I159" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J159" s="2" t="inlineStr"/>
+      <c r="K159" s="2" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006004</t>
+          <t>BCIO:006157</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>mental skill</t>
+          <t>mental plan for coping with barriers</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental plan</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training and practice.</t>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -5811,90 +5811,90 @@
       <c r="K160" s="2" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006132</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>mentally comparing against a standard</t>
-        </is>
-      </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D161" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which current conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="inlineStr"/>
-      <c r="F161" s="2" t="inlineStr"/>
-      <c r="G161" s="2" t="inlineStr"/>
-      <c r="H161" s="2" t="inlineStr"/>
-      <c r="I161" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J161" s="2" t="inlineStr"/>
-      <c r="K161" s="2" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006133</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that energises and directs behaviour.</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr"/>
-      <c r="F162" s="2" t="inlineStr"/>
-      <c r="G162" s="2" t="inlineStr"/>
-      <c r="H162" s="2" t="inlineStr"/>
-      <c r="I162" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J162" s="2" t="inlineStr"/>
-      <c r="K162" s="2" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000075 </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>mental quality</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006004</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation</t>
+          <t>mental skill</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A mental capability acquired through training and practice.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
@@ -5912,22 +5912,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A mental process in which current conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -5945,22 +5945,22 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>need for sense of security</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
@@ -5978,22 +5978,22 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>need for social relatedness</t>
+          <t>motivational orientation</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -6011,12 +6011,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006069</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>need to feel competent</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as able and effective.</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -6044,29 +6044,25 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006037</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>negative evaluation of self</t>
+          <t>need for sense of security</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's negative attributes.</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>low self-esteem; negative self-esteem</t>
-        </is>
-      </c>
+          <t>A psychological need to feel safe from threats.</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr"/>
       <c r="H168" s="2" t="inlineStr"/>
@@ -6079,93 +6075,97 @@
       <c r="K168" s="2" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006068</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>need for social relatedness</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to have caring relationships with other people.</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr"/>
+      <c r="F169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="inlineStr"/>
+      <c r="H169" s="2" t="inlineStr"/>
+      <c r="I169" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J169" s="2" t="inlineStr"/>
+      <c r="K169" s="2" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>MF:0000089</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>non-linguistic communication</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>A communication process in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006069</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>need to feel competent</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to experience oneself as able and effective.</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr"/>
+      <c r="H170" s="2" t="inlineStr"/>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="inlineStr"/>
+      <c r="K170" s="2" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:006037</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>negative evaluation of self</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr"/>
+          <t>A belief about one's negative attributes.</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>low self-esteem; negative self-esteem</t>
+        </is>
+      </c>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr"/>
       <c r="H171" s="2" t="inlineStr"/>
@@ -6178,57 +6178,57 @@
       <c r="K171" s="2" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006042</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>normative belief</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether important others think one should perform a behaviour.</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr"/>
-      <c r="F172" s="2" t="inlineStr"/>
-      <c r="G172" s="2" t="inlineStr"/>
-      <c r="H172" s="2" t="inlineStr"/>
-      <c r="I172" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J172" s="2" t="inlineStr"/>
-      <c r="K172" s="2" t="inlineStr"/>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>GO:0046958</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GO:0098597</t>
+          <t>MF:0000089</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>observational learning</t>
+          <t>non-linguistic communication</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
+          <t>A communication process in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -6246,22 +6246,22 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006083</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>personal social role</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>A social role that involves the person's occupation.</t>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -6279,22 +6279,22 @@
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006125</t>
+          <t>BCIO:006042</t>
         </is>
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>operant conditioning</t>
+          <t>normative belief</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+          <t>A belief about whether important others think one should perform a behaviour.</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr"/>
@@ -6310,90 +6310,90 @@
       <c r="K175" s="2" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006086</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="inlineStr">
-        <is>
-          <t>A quality of a person's environmental system that makes a behaviour possible or facilitates it.</t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="inlineStr"/>
-      <c r="F176" s="2" t="inlineStr"/>
-      <c r="G176" s="2" t="inlineStr"/>
-      <c r="H176" s="2" t="inlineStr"/>
-      <c r="I176" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J176" s="2" t="inlineStr"/>
-      <c r="K176" s="2" t="inlineStr"/>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>bodily feeling</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>A bodily process in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006083</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>occupational role</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>personal social role</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>A social role that involves the person's occupation.</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr"/>
+      <c r="F177" s="2" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr"/>
+      <c r="H177" s="2" t="inlineStr"/>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="inlineStr"/>
+      <c r="K177" s="2" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006040</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -6411,22 +6411,22 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006041</t>
+          <t>BCIO:006086</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>perceived injunctive norm</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular social group.</t>
+          <t>A quality of a person's environmental system that makes a behaviour possible or facilitates it.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -6442,94 +6442,90 @@
       <c r="K179" s="2" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006039</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>pain</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>bodily feeling</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>A bodily process in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006040</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>perceived descriptive norm</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>perceived norm</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>A belief about what is typical for people who belong to a particular social group.</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr"/>
-      <c r="G180" s="2" t="inlineStr"/>
-      <c r="H180" s="2" t="inlineStr"/>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J180" s="2" t="inlineStr"/>
-      <c r="K180" s="2" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>MF:0000019</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>perception</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006081</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>perceived injunctive norm</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular social group.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -6545,90 +6541,94 @@
       <c r="K182" s="2" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000043 </t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>A disposition inhering in an organism whose realization in the normal case brings benefits to an organism or group of organisms, where 'in the normal case' means not only in the normal range on the scale, but also in a context which is normal for the group to which the bearer or user belongs.</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006039</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>A belief about what is typical for people who belong to a particular social group.</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr"/>
+      <c r="G183" s="2" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="inlineStr"/>
+      <c r="K183" s="2" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>MF:0000019</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006084</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>personal financial resource</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>personal  role</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr"/>
-      <c r="F184" s="2" t="inlineStr"/>
-      <c r="G184" s="2" t="inlineStr"/>
-      <c r="H184" s="2" t="inlineStr"/>
-      <c r="I184" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J184" s="2" t="inlineStr"/>
-      <c r="K184" s="2" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>personal social role</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -6644,57 +6644,57 @@
       <c r="K185" s="2" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006063</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>personal value</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition regarding what is fundamentally important in life and which informs standards for behaviour.</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr"/>
-      <c r="F186" s="2" t="inlineStr"/>
-      <c r="G186" s="2" t="inlineStr"/>
-      <c r="H186" s="2" t="inlineStr"/>
-      <c r="I186" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J186" s="2" t="inlineStr"/>
-      <c r="K186" s="2" t="inlineStr"/>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000043 </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>A disposition inhering in an organism whose realization in the normal case brings benefits to an organism or group of organisms, where 'in the normal case' means not only in the normal range on the scale, but also in a context which is normal for the group to which the bearer or user belongs.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006084</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>physical capability</t>
+          <t>personal financial resource</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A capability to perform a behaviour by virtue of muscular-skeletal attributes or psychomotor control</t>
+          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -6712,22 +6712,22 @@
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>physical opportunity</t>
+          <t>personal social role</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>An opportunity of the physical environmental system that makes a behaviour possible or facilitates it.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr"/>
@@ -6745,22 +6745,22 @@
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>physical capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training and practice.</t>
+          <t>A mental disposition regarding what is fundamentally important in life and which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E189" s="2" t="inlineStr"/>
@@ -6776,57 +6776,57 @@
       <c r="K189" s="2" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>physiological response to emotion process</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>A bodily process which encompasses all the neurophysiological changes caused by the appraisal, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006009</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>physical capability</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>A capability to perform a behaviour by virtue of muscular-skeletal attributes or psychomotor control</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr"/>
+      <c r="F190" s="2" t="inlineStr"/>
+      <c r="G190" s="2" t="inlineStr"/>
+      <c r="H190" s="2" t="inlineStr"/>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J190" s="2" t="inlineStr"/>
+      <c r="K190" s="2" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006102</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>plan enactment</t>
+          <t>physical opportunity</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A process by which a person attempts to follow the steps in a plan.</t>
+          <t>An opportunity of the physical environmental system that makes a behaviour possible or facilitates it.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -6842,64 +6842,60 @@
       <c r="K191" s="2" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006010</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>physical skill</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>physical capability</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>A physical capability acquired through training and practice.</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr"/>
+      <c r="F192" s="2" t="inlineStr"/>
+      <c r="G192" s="2" t="inlineStr"/>
+      <c r="H192" s="2" t="inlineStr"/>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J192" s="2" t="inlineStr"/>
+      <c r="K192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>physiological response to emotion process</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction.</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+          <t>A bodily process which encompasses all the neurophysiological changes caused by the appraisal, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
@@ -6914,35 +6910,27 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006036</t>
+          <t>BCIO:006102</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>positive evaluation of self</t>
+          <t>plan enactment</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's positive attributes.</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>positive self-esteem</t>
-        </is>
-      </c>
+          <t>A process by which a person attempts to follow the steps in a plan.</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr"/>
       <c r="F194" s="2" t="inlineStr"/>
-      <c r="G194" s="2" t="inlineStr">
-        <is>
-          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
-        </is>
-      </c>
+      <c r="G194" s="2" t="inlineStr"/>
       <c r="H194" s="2" t="inlineStr"/>
       <c r="I194" s="2" t="inlineStr">
         <is>
@@ -6953,113 +6941,125 @@
       <c r="K194" s="2" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.  </t>
-        </is>
-      </c>
-      <c r="E195" s="2" t="inlineStr"/>
-      <c r="F195" s="2" t="inlineStr"/>
-      <c r="G195" s="2" t="inlineStr"/>
-      <c r="H195" s="2" t="inlineStr"/>
-      <c r="I195" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J195" s="2" t="inlineStr"/>
-      <c r="K195" s="2" t="inlineStr"/>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>MF:0000027</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006129</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>procedural memory</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
-        </is>
-      </c>
-      <c r="E196" s="2" t="inlineStr"/>
-      <c r="F196" s="2" t="inlineStr"/>
-      <c r="G196" s="2" t="inlineStr"/>
-      <c r="H196" s="2" t="inlineStr"/>
-      <c r="I196" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J196" s="2" t="inlineStr"/>
-      <c r="K196" s="2" t="inlineStr"/>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>BFO:0000144</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006036</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>positive evaluation of self</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's positive attributes.</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>positive self-esteem</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr"/>
+      <c r="G197" s="2" t="inlineStr">
+        <is>
+          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
+        </is>
+      </c>
+      <c r="H197" s="2" t="inlineStr"/>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J197" s="2" t="inlineStr"/>
+      <c r="K197" s="2" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006062</t>
+          <t>BCIO:006061</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>promotion focused motivational orientation</t>
+          <t>prevention focused motivational orientation</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.  </t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.  </t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -7087,31 +7087,27 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:006129</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>procedural memory</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
       <c r="F199" s="2" t="inlineStr"/>
-      <c r="G199" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
+      <c r="G199" s="2" t="inlineStr"/>
       <c r="H199" s="2" t="inlineStr"/>
       <c r="I199" s="2" t="inlineStr">
         <is>
@@ -7124,22 +7120,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>PATO:0000001</t>
+          <t>BFO:0000144</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -7155,99 +7151,99 @@
       <c r="K200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006112</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>reflective thinking</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr"/>
-      <c r="F201" s="2" t="inlineStr"/>
-      <c r="G201" s="2" t="inlineStr"/>
-      <c r="H201" s="2" t="inlineStr"/>
-      <c r="I201" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J201" s="2" t="inlineStr"/>
-      <c r="K201" s="2" t="inlineStr"/>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BCIO:050213</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>professional network</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> social environmental system</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>MF:0000030</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006062</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>promotion focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>motivational orientation</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.  </t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr"/>
+      <c r="F202" s="2" t="inlineStr"/>
+      <c r="G202" s="2" t="inlineStr"/>
+      <c r="H202" s="2" t="inlineStr"/>
+      <c r="I202" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J202" s="2" t="inlineStr"/>
+      <c r="K202" s="2" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006073</t>
+          <t>BCIO:006064</t>
         </is>
       </c>
       <c r="B203" s="2" t="inlineStr">
         <is>
-          <t>risk stereotype</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="C203" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D203" s="2" t="inlineStr">
         <is>
-          <t>A stereotype of a person who enacts a problem behaviour.</t>
-        </is>
-      </c>
-      <c r="E203" s="2" t="inlineStr">
-        <is>
-          <t>risk prototype</t>
-        </is>
-      </c>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr"/>
       <c r="F203" s="2" t="inlineStr"/>
-      <c r="G203" s="2" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
       <c r="H203" s="2" t="inlineStr"/>
       <c r="I203" s="2" t="inlineStr">
         <is>
@@ -7260,12 +7256,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BFO:0000023</t>
+          <t>PATO:0000001</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7275,7 +7271,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
@@ -7291,93 +7287,97 @@
       <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>sadness</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant, obstructive to one's goals and concerns, and one feels unable to cope with it or modify it.</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006112</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr"/>
+      <c r="F205" s="2" t="inlineStr"/>
+      <c r="G205" s="2" t="inlineStr"/>
+      <c r="H205" s="2" t="inlineStr"/>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J205" s="2" t="inlineStr"/>
+      <c r="K205" s="2" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>MF:0000030</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>A dependent continuant which is about a portion of reality.</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006071</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>self-concept</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr"/>
-      <c r="F206" s="2" t="inlineStr"/>
-      <c r="G206" s="2" t="inlineStr"/>
-      <c r="H206" s="2" t="inlineStr"/>
-      <c r="I206" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J206" s="2" t="inlineStr"/>
-      <c r="K206" s="2" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006073</t>
         </is>
       </c>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief</t>
+          <t>risk stereotype</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="D207" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
-        </is>
-      </c>
-      <c r="E207" s="2" t="inlineStr"/>
+          <t>A stereotype of a person who enacts a problem behaviour.</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>risk prototype</t>
+        </is>
+      </c>
       <c r="F207" s="2" t="inlineStr"/>
       <c r="G207" s="2" t="inlineStr"/>
       <c r="H207" s="2" t="inlineStr"/>
@@ -7390,99 +7390,95 @@
       <c r="K207" s="2" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>belief about control over behaviour</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="inlineStr"/>
-      <c r="F208" s="2" t="inlineStr"/>
-      <c r="G208" s="2" t="inlineStr"/>
-      <c r="H208" s="2" t="inlineStr"/>
-      <c r="I208" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J208" s="2" t="inlineStr"/>
-      <c r="K208" s="2" t="inlineStr"/>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006137</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>self-monitoring</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
-        </is>
-      </c>
-      <c r="E209" s="2" t="inlineStr"/>
-      <c r="F209" s="2" t="inlineStr"/>
-      <c r="G209" s="2" t="inlineStr"/>
-      <c r="H209" s="2" t="inlineStr"/>
-      <c r="I209" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J209" s="2" t="inlineStr"/>
-      <c r="K209" s="2" t="inlineStr"/>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant, obstructive to one's goals and concerns, and one feels unable to cope with it or modify it.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006071</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
       <c r="F210" s="2" t="inlineStr"/>
-      <c r="G210" s="2" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
+      <c r="G210" s="2" t="inlineStr"/>
       <c r="H210" s="2" t="inlineStr"/>
       <c r="I210" s="2" t="inlineStr">
         <is>
@@ -7495,22 +7491,22 @@
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-efficacy belief</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of an organism in response to external or internal stimuli and that is instigated by the organism itself.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
@@ -7528,22 +7524,22 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006106</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>self-reinforcing self-regulation</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -7561,22 +7557,22 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
+          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -7592,123 +7588,127 @@
       <c r="K213" s="2" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006005</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr"/>
+      <c r="F214" s="2" t="inlineStr"/>
+      <c r="G214" s="2" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
+      <c r="H214" s="2" t="inlineStr"/>
+      <c r="I214" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J214" s="2" t="inlineStr"/>
+      <c r="K214" s="2" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>MFOEM:000040</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction as a result of sexual activities.</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of an organism in response to external or internal stimuli and that is instigated by the organism itself.</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr"/>
+      <c r="F215" s="2" t="inlineStr"/>
+      <c r="G215" s="2" t="inlineStr"/>
+      <c r="H215" s="2" t="inlineStr"/>
+      <c r="I215" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J215" s="2" t="inlineStr"/>
+      <c r="K215" s="2" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>MFOEM:000055</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>shame</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006106</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>self-reinforcing self-regulation</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr"/>
+      <c r="F216" s="2" t="inlineStr"/>
+      <c r="G216" s="2" t="inlineStr"/>
+      <c r="H216" s="2" t="inlineStr"/>
+      <c r="I216" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J216" s="2" t="inlineStr"/>
+      <c r="K216" s="2" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006044</t>
+          <t>BCIO:006128</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>semantic memory</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>Self-efficacy belief for a behaviour under certain conditions.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
@@ -7724,123 +7724,123 @@
       <c r="K217" s="2" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006011</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>social capability</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="inlineStr">
-        <is>
-          <t>A capability to engage in interpersonal processes that influence ability to perform a behaviour, when appropriate circumstances occur.</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="inlineStr"/>
-      <c r="F218" s="2" t="inlineStr"/>
-      <c r="G218" s="2" t="inlineStr"/>
-      <c r="H218" s="2" t="inlineStr"/>
-      <c r="I218" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J218" s="2" t="inlineStr"/>
-      <c r="K218" s="2" t="inlineStr"/>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>GO:0046960</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>sensitization</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006118</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>social comparison process</t>
-        </is>
-      </c>
-      <c r="C219" s="2" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D219" s="2" t="inlineStr">
-        <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
-        </is>
-      </c>
-      <c r="E219" s="2" t="inlineStr"/>
-      <c r="F219" s="2" t="inlineStr"/>
-      <c r="G219" s="2" t="inlineStr"/>
-      <c r="H219" s="2" t="inlineStr"/>
-      <c r="I219" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J219" s="2" t="inlineStr"/>
-      <c r="K219" s="2" t="inlineStr"/>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction as a result of sexual activities.</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006074</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>social embeddedness</t>
-        </is>
-      </c>
-      <c r="C220" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D220" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
-        </is>
-      </c>
-      <c r="E220" s="2" t="inlineStr"/>
-      <c r="F220" s="2" t="inlineStr"/>
-      <c r="G220" s="2" t="inlineStr"/>
-      <c r="H220" s="2" t="inlineStr"/>
-      <c r="I220" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J220" s="2" t="inlineStr"/>
-      <c r="K220" s="2" t="inlineStr"/>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>social environment system</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, social and cultural institutions and processes involving these that influence the life of people and social groups.</t>
+          <t>Self-efficacy belief for a behaviour under certain conditions.</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -7858,22 +7858,22 @@
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social capability</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>Identity that is associated with the sense of belonging to a social group.</t>
+          <t>A capability to engage in interpersonal processes that influence ability to perform a behaviour, when appropriate circumstances occur.</t>
         </is>
       </c>
       <c r="E222" s="2" t="inlineStr"/>
@@ -7891,30 +7891,26 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>social influence process</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
+      <c r="F223" s="2" t="inlineStr"/>
       <c r="G223" s="2" t="inlineStr"/>
       <c r="H223" s="2" t="inlineStr"/>
       <c r="I223" s="2" t="inlineStr">
@@ -7928,22 +7924,22 @@
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>social opportunity</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>An opportunity of the social environment system that influences the performance of a behaviour.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr"/>
@@ -7961,22 +7957,22 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social environment system</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>social capability</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>A social capability acquired through training and practice.</t>
+          <t>An environmental system that consists of people, social and cultural institutions and processes involving these that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr"/>
@@ -7992,66 +7988,66 @@
       <c r="K225" s="2" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006051</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>social identity</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>Identity that is associated with the sense of belonging to a social group.</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr"/>
+      <c r="F226" s="2" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr"/>
+      <c r="H226" s="2" t="inlineStr"/>
+      <c r="I226" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J226" s="2" t="inlineStr"/>
+      <c r="K226" s="2" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social influence process</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>interpersonal process</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to represent attributes of members of a social group as shared by the virtue of their group membership.</t>
+          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
-      <c r="F227" s="2" t="inlineStr"/>
-      <c r="G227" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="inlineStr"/>
       <c r="H227" s="2" t="inlineStr"/>
       <c r="I227" s="2" t="inlineStr">
         <is>
@@ -8062,57 +8058,57 @@
       <c r="K227" s="2" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000006 </t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>A (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006090</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>social opportunity</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>An opportunity of the social environment system that influences the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr"/>
+      <c r="F228" s="2" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr"/>
+      <c r="H228" s="2" t="inlineStr"/>
+      <c r="I228" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J228" s="2" t="inlineStr"/>
+      <c r="K228" s="2" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006075</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>subjective need</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>social capability</t>
         </is>
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of anticipated relief from, or avoidance of, mental or physical discomfort.</t>
+          <t>A social capability acquired through training and practice.</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -8130,22 +8126,22 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000088 </t>
+          <t>BFO:0000020</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>subliminal process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>A bodily process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
         </is>
       </c>
       <c r="E230" t="inlineStr"/>
@@ -8161,90 +8157,94 @@
       <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>MFOEM:000032</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A neutral emotion caused by encountering unexpected events of all kinds. May be experienced as negative if the surprising event is evaluated as negative, or positive if the surprising event is evaluated as positive. </t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006072</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to represent attributes of members of a social group as shared by the virtue of their group membership.</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr"/>
+      <c r="F231" s="2" t="inlineStr"/>
+      <c r="G231" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
+      <c r="H231" s="2" t="inlineStr"/>
+      <c r="I231" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J231" s="2" t="inlineStr"/>
+      <c r="K231" s="2" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000006 </t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>A (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D232" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mental distancing that involves identifying particular immediate thoughts and detaching from these thoughts. </t>
-        </is>
-      </c>
-      <c r="E232" s="2" t="inlineStr"/>
-      <c r="F232" s="2" t="inlineStr"/>
-      <c r="G232" s="2" t="inlineStr"/>
-      <c r="H232" s="2" t="inlineStr"/>
-      <c r="I232" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J232" s="2" t="inlineStr"/>
-      <c r="K232" s="2" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:006075</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>temporal opportunity</t>
+          <t>subjective need</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>An opportunity regarding whether the person has sufficient time to enact a behaviour in the social and physical environment.</t>
+          <t>A mental disposition to experience a feeling of anticipated relief from, or avoidance of, mental or physical discomfort.</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr"/>
@@ -8260,57 +8260,57 @@
       <c r="K233" s="2" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006076</t>
-        </is>
-      </c>
-      <c r="B234" s="2" t="inlineStr">
-        <is>
-          <t>temporal orientation</t>
-        </is>
-      </c>
-      <c r="C234" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D234" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on present or future outcomes.</t>
-        </is>
-      </c>
-      <c r="E234" s="2" t="inlineStr"/>
-      <c r="F234" s="2" t="inlineStr"/>
-      <c r="G234" s="2" t="inlineStr"/>
-      <c r="H234" s="2" t="inlineStr"/>
-      <c r="I234" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J234" s="2" t="inlineStr"/>
-      <c r="K234" s="2" t="inlineStr"/>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000088 </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>subliminal process</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>A bodily process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>MF:0000013</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
+          <t xml:space="preserve">A neutral emotion caused by encountering unexpected events of all kinds. May be experienced as negative if the surprising event is evaluated as negative, or positive if the surprising event is evaluated as positive. </t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -8326,97 +8326,93 @@
       <c r="K235" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006107</t>
-        </is>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>value-congruent self-regulation</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation undertaken to achieve congruence between one's values and the behaviour performed.</t>
-        </is>
-      </c>
-      <c r="E236" s="2" t="inlineStr"/>
-      <c r="F236" s="2" t="inlineStr"/>
-      <c r="G236" s="2" t="inlineStr"/>
-      <c r="H236" s="2" t="inlineStr"/>
-      <c r="I236" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J236" s="2" t="inlineStr"/>
-      <c r="K236" s="2" t="inlineStr"/>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>MF:0000045</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>wanting</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental process that involves thinking about a state of affairs that does not yet obtain together with a desire for that state of affairs to obtain. </t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006163</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>targeted mental distancing</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mental distancing that involves identifying particular immediate thoughts and detaching from these thoughts. </t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="inlineStr"/>
+      <c r="F237" s="2" t="inlineStr"/>
+      <c r="G237" s="2" t="inlineStr"/>
+      <c r="H237" s="2" t="inlineStr"/>
+      <c r="I237" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J237" s="2" t="inlineStr"/>
+      <c r="K237" s="2" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006059</t>
+          <t>BCIO:006091</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>willingness to comply</t>
+          <t>temporal opportunity</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to be inclined to act in accordance with the likely approval of others</t>
-        </is>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>motivation to comply</t>
-        </is>
-      </c>
+          <t>An opportunity regarding whether the person has sufficient time to enact a behaviour in the social and physical environment.</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="inlineStr"/>
       <c r="F238" s="2" t="inlineStr"/>
       <c r="G238" s="2" t="inlineStr"/>
       <c r="H238" s="2" t="inlineStr"/>
@@ -8428,6 +8424,175 @@
       <c r="J238" s="2" t="inlineStr"/>
       <c r="K238" s="2" t="inlineStr"/>
     </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006076</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present or future outcomes.</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="inlineStr"/>
+      <c r="F239" s="2" t="inlineStr"/>
+      <c r="G239" s="2" t="inlineStr"/>
+      <c r="H239" s="2" t="inlineStr"/>
+      <c r="I239" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J239" s="2" t="inlineStr"/>
+      <c r="K239" s="2" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>MF:0000013</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006107</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>value-congruent self-regulation</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr">
+        <is>
+          <t>Self-regulation undertaken to achieve congruence between one's values and the behaviour performed.</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="inlineStr"/>
+      <c r="F241" s="2" t="inlineStr"/>
+      <c r="G241" s="2" t="inlineStr"/>
+      <c r="H241" s="2" t="inlineStr"/>
+      <c r="I241" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J241" s="2" t="inlineStr"/>
+      <c r="K241" s="2" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>MF:0000045</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>wanting</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental process that involves thinking about a state of affairs that does not yet obtain together with a desire for that state of affairs to obtain. </t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to be inclined to act in accordance with the likely approval of others</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
+        <is>
+          <t>motivation to comply</t>
+        </is>
+      </c>
+      <c r="F243" s="2" t="inlineStr"/>
+      <c r="G243" s="2" t="inlineStr"/>
+      <c r="H243" s="2" t="inlineStr"/>
+      <c r="I243" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J243" s="2" t="inlineStr"/>
+      <c r="K243" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K274"/>
+  <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4811,22 +4811,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MFOEM:000124</t>
+          <t xml:space="preserve">MFOEM:000112 </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>feeling nervous</t>
+          <t>feeling exhausted</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>feeling tired</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">A subjective feeling of being not at ease, of being anxious or nervous or agitated. </t>
+          <t>Feeling tired to an extremely strong degree.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -4842,127 +4842,123 @@
       <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006087</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>financial opportunity</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity regarding whether the person has sufficient financial resources to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="inlineStr"/>
-      <c r="F132" s="2" t="inlineStr"/>
-      <c r="G132" s="2" t="inlineStr"/>
-      <c r="H132" s="2" t="inlineStr"/>
-      <c r="I132" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J132" s="2" t="inlineStr"/>
-      <c r="K132" s="2" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MFOEM:000124</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>feeling nervous</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective feeling of being not at ease, of being anxious or nervous or agitated. </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>social environment system</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication among which transmission of knowledge, behaviour, values or of an infectious agent is possible.</t>
-        </is>
-      </c>
-      <c r="E133" s="2" t="inlineStr"/>
-      <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr"/>
-      <c r="H133" s="2" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J133" s="2" t="inlineStr"/>
-      <c r="K133" s="2" t="inlineStr"/>
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050233</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>feeling sadness</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr"/>
+      <c r="F133" s="3" t="inlineStr"/>
+      <c r="G133" s="3" t="inlineStr"/>
+      <c r="H133" s="3" t="inlineStr"/>
+      <c r="I133" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J133" s="3" t="inlineStr"/>
+      <c r="K133" s="3" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006308</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>fundamental need-based motivation</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
-        <is>
-          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
-        </is>
-      </c>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
-        </is>
-      </c>
-      <c r="F134" s="3" t="inlineStr"/>
-      <c r="G134" s="3" t="inlineStr"/>
-      <c r="H134" s="3" t="inlineStr"/>
-      <c r="I134" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J134" s="3" t="inlineStr"/>
-      <c r="K134" s="3" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MFOEM:000080</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006087</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>generalisation (learning)</t>
+          <t>financial opportunity</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
+          <t>An opportunity regarding whether the person has sufficient financial resources to enact a behaviour.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
@@ -4980,22 +4976,22 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>social environment system</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to strive towards an end state.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication among which transmission of knowledge, behaviour, values or of an infectious agent is possible.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -5011,57 +5007,61 @@
       <c r="K136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006096</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>goal pursuit process</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr"/>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr"/>
-      <c r="H137" s="2" t="inlineStr"/>
-      <c r="I137" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J137" s="2" t="inlineStr"/>
-      <c r="K137" s="2" t="inlineStr"/>
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006308</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>fundamental need-based motivation</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr"/>
+      <c r="G137" s="3" t="inlineStr"/>
+      <c r="H137" s="3" t="inlineStr"/>
+      <c r="I137" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J137" s="3" t="inlineStr"/>
+      <c r="K137" s="3" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006114</t>
+          <t>BCIO:006124</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>goal setting process</t>
+          <t>generalisation (learning)</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
+          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -5077,90 +5077,90 @@
       <c r="K138" s="2" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>MFOEM:000053</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>guilt</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006049</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>goal</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to strive towards an end state.</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
+      <c r="H139" s="2" t="inlineStr"/>
+      <c r="I139" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J139" s="2" t="inlineStr"/>
+      <c r="K139" s="2" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006309</t>
-        </is>
-      </c>
-      <c r="B140" s="3" t="inlineStr">
-        <is>
-          <t>habit learning</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D140" s="3" t="inlineStr">
-        <is>
-          <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
-        </is>
-      </c>
-      <c r="E140" s="3" t="inlineStr"/>
-      <c r="F140" s="3" t="inlineStr"/>
-      <c r="G140" s="3" t="inlineStr"/>
-      <c r="H140" s="3" t="inlineStr"/>
-      <c r="I140" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J140" s="3" t="inlineStr"/>
-      <c r="K140" s="3" t="inlineStr"/>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006096</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>goal pursuit process</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr"/>
+      <c r="F140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr"/>
+      <c r="H140" s="2" t="inlineStr"/>
+      <c r="I140" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J140" s="2" t="inlineStr"/>
+      <c r="K140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006158</t>
+          <t>BCIO:006114</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>habitual behaviour</t>
+          <t>goal setting process</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
+          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -5178,22 +5178,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GO:0046959</t>
+          <t>MFOEM:000053</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>habituation</t>
+          <t>guilt</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+          <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5209,57 +5209,57 @@
       <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>MFOEM:000042</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>happiness</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006309</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>habit learning</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr"/>
+      <c r="F143" s="3" t="inlineStr"/>
+      <c r="G143" s="3" t="inlineStr"/>
+      <c r="H143" s="3" t="inlineStr"/>
+      <c r="I143" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J143" s="3" t="inlineStr"/>
+      <c r="K143" s="3" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006088</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>healthcare service accessibility</t>
+          <t>habitual behaviour</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
+          <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr"/>
@@ -5275,90 +5275,90 @@
       <c r="K144" s="2" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006115</t>
-        </is>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>heuristic process</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr"/>
-      <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr"/>
-      <c r="H145" s="2" t="inlineStr"/>
-      <c r="I145" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J145" s="2" t="inlineStr"/>
-      <c r="K145" s="2" t="inlineStr"/>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GO:0046959</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>habituation</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006130</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>iconic memory</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
-        </is>
-      </c>
-      <c r="E146" s="2" t="inlineStr"/>
-      <c r="F146" s="2" t="inlineStr"/>
-      <c r="G146" s="2" t="inlineStr"/>
-      <c r="H146" s="2" t="inlineStr"/>
-      <c r="I146" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J146" s="2" t="inlineStr"/>
-      <c r="K146" s="2" t="inlineStr"/>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>MFOEM:000042</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>happiness</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006050</t>
+          <t>BCIO:006088</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>healthcare service accessibility</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
+          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
@@ -5374,57 +5374,57 @@
       <c r="K147" s="2" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>GO:0098596</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>imitative learning</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006115</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>heuristic process</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr"/>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr"/>
+      <c r="H148" s="2" t="inlineStr"/>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J148" s="2" t="inlineStr"/>
+      <c r="K148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BFO:0000004</t>
+          <t>MFOEM:000205</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>hunger</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -5442,22 +5442,22 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006094</t>
+          <t>BCIO:006130</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>iconic memory</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
@@ -5475,22 +5475,22 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006100</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>internal reward for a response</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+          <t>A mental disposition relating to perceptions of oneself.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -5508,22 +5508,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MFOEM:000022</t>
+          <t>GO:0098596</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>interpersonal disgust</t>
+          <t>imitative learning</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>observational learning</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -5539,90 +5539,90 @@
       <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>MF:0000021</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>interpersonal process</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>A process in which at least two human beings are agents.</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050234</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>impulse</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr"/>
+      <c r="F153" s="3" t="inlineStr"/>
+      <c r="G153" s="3" t="inlineStr"/>
+      <c r="H153" s="3" t="inlineStr"/>
+      <c r="I153" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J153" s="3" t="inlineStr"/>
+      <c r="K153" s="3" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BFO:0000004</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006097</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="inlineStr">
-        <is>
-          <t>Communication that is mutual between two or more people.</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="inlineStr"/>
-      <c r="F154" s="2" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr"/>
-      <c r="H154" s="2" t="inlineStr"/>
-      <c r="I154" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J154" s="2" t="inlineStr"/>
-      <c r="K154" s="2" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:006094</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>intrinsic motivation</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
@@ -5640,22 +5640,22 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006105</t>
+          <t>BCIO:006100</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>introjected self-regulation</t>
+          <t>internal reward for a response</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
+          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
@@ -5673,22 +5673,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MF:0000006</t>
+          <t>MFOEM:000022</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>interpersonal disgust</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -5704,57 +5704,57 @@
       <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006117</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>judging consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr">
-        <is>
-          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr"/>
-      <c r="H158" s="2" t="inlineStr"/>
-      <c r="I158" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J158" s="2" t="inlineStr"/>
-      <c r="K158" s="2" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MF:0000021</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>A process in which at least two human beings are agents.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006097</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>interpersonal reciprocal communication</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Communication that is mutual between two or more people.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
@@ -5772,22 +5772,22 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006136</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>intrinsic motivation</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -5805,22 +5805,22 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006105</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>introjected self-regulation</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
@@ -5836,57 +5836,57 @@
       <c r="K161" s="2" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006054</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>knowledge regarding an innovation</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr"/>
-      <c r="F162" s="2" t="inlineStr"/>
-      <c r="G162" s="2" t="inlineStr"/>
-      <c r="H162" s="2" t="inlineStr"/>
-      <c r="I162" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J162" s="2" t="inlineStr"/>
-      <c r="K162" s="2" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006117</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>judging consequences of behaviour</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
@@ -5904,22 +5904,22 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006052</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -5937,31 +5937,27 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>knowledge regarding a behaviour</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="G165" s="2" t="inlineStr"/>
       <c r="H165" s="2" t="inlineStr"/>
       <c r="I165" s="2" t="inlineStr">
         <is>
@@ -5974,22 +5970,22 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -6005,90 +6001,90 @@
       <c r="K166" s="2" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>GO:0007612</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006054</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>knowledge regarding an innovation</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr"/>
+      <c r="F167" s="2" t="inlineStr"/>
+      <c r="G167" s="2" t="inlineStr"/>
+      <c r="H167" s="2" t="inlineStr"/>
+      <c r="I167" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J167" s="2" t="inlineStr"/>
+      <c r="K167" s="2" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>MF:0000086</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>linguistic communication</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>A communication process in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006056</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>knowledge regarding treatment</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr"/>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr"/>
+      <c r="H168" s="2" t="inlineStr"/>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J168" s="2" t="inlineStr"/>
+      <c r="K168" s="2" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
+          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
@@ -6104,80 +6100,84 @@
       <c r="K169" s="2" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>UBERON:0000465</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>material anatomical entity</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Anatomical entity that has mass.</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006057</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-reponse co-occurrence</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
+      <c r="H170" s="2" t="inlineStr"/>
+      <c r="I170" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J170" s="2" t="inlineStr"/>
+      <c r="K170" s="2" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006156</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-thought co-occurrence</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-response co-occurrence</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr"/>
+      <c r="F171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr"/>
+      <c r="H171" s="2" t="inlineStr"/>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="inlineStr"/>
+      <c r="K171" s="2" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GO:0007613</t>
+          <t>GO:0007612</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
+          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -6203,123 +6203,123 @@
       <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr"/>
-      <c r="F173" s="2" t="inlineStr"/>
-      <c r="G173" s="2" t="inlineStr"/>
-      <c r="H173" s="2" t="inlineStr"/>
-      <c r="I173" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J173" s="2" t="inlineStr"/>
-      <c r="K173" s="2" t="inlineStr"/>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>MF:0000086</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>linguistic communication</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>A communication process in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000048 </t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>A capability that necessarily includes mental processes in its realisation.</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr"/>
+      <c r="H174" s="2" t="inlineStr"/>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006131</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>mental categorising</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr"/>
-      <c r="F175" s="2" t="inlineStr"/>
-      <c r="G175" s="2" t="inlineStr"/>
-      <c r="H175" s="2" t="inlineStr"/>
-      <c r="I175" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J175" s="2" t="inlineStr"/>
-      <c r="K175" s="2" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MF:0000033</t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -6335,57 +6335,57 @@
       <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006162</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr"/>
-      <c r="F177" s="2" t="inlineStr"/>
-      <c r="G177" s="2" t="inlineStr"/>
-      <c r="H177" s="2" t="inlineStr"/>
-      <c r="I177" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J177" s="2" t="inlineStr"/>
-      <c r="K177" s="2" t="inlineStr"/>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>GO:0007613</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006080</t>
+          <t>BCIO:006093</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>mental image</t>
+          <t>mental behavioural cue</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>bodily behavioural cue</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
@@ -6401,130 +6401,126 @@
       <c r="K178" s="2" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006058</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>mental image disposition</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000048 </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>A capability that necessarily includes mental processes in its realisation.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006131</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>mental categorising</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J180" s="2" t="inlineStr"/>
+      <c r="K180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to represent a mental image.</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr"/>
-      <c r="F179" s="2" t="inlineStr"/>
-      <c r="G179" s="2" t="inlineStr"/>
-      <c r="H179" s="2" t="inlineStr"/>
-      <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J179" s="2" t="inlineStr"/>
-      <c r="K179" s="2" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B181" s="3" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D181" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E181" s="3" t="inlineStr"/>
-      <c r="F181" s="3" t="inlineStr"/>
-      <c r="G181" s="3" t="inlineStr"/>
-      <c r="H181" s="3" t="inlineStr"/>
-      <c r="I181" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J181" s="3" t="inlineStr"/>
-      <c r="K181" s="3" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006162</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>mental plan for a behaviour</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to form a representation of a behaviour, the conditions under which it will be enacted and an intention to enact the behaviour under those conditions. </t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr"/>
       <c r="F182" s="2" t="inlineStr"/>
       <c r="G182" s="2" t="inlineStr"/>
       <c r="H182" s="2" t="inlineStr"/>
@@ -6539,22 +6535,22 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006157</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>mental plan for coping with barriers</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>mental plan</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -6570,57 +6566,57 @@
       <c r="K183" s="2" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>MF:0000020</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006058</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>mental image disposition</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to represent a mental image.</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr"/>
+      <c r="F184" s="2" t="inlineStr"/>
+      <c r="G184" s="2" t="inlineStr"/>
+      <c r="H184" s="2" t="inlineStr"/>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J184" s="2" t="inlineStr"/>
+      <c r="K184" s="2" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000075 </t>
+          <t>MF:0000083</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>mental quality</t>
+          <t>mental imagery</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>bodily quality</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
+          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
@@ -6636,60 +6632,64 @@
       <c r="K185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006004</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>mental skill</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>A mental capability acquired through training and practice.</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr"/>
-      <c r="F186" s="2" t="inlineStr"/>
-      <c r="G186" s="2" t="inlineStr"/>
-      <c r="H186" s="2" t="inlineStr"/>
-      <c r="I186" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J186" s="2" t="inlineStr"/>
-      <c r="K186" s="2" t="inlineStr"/>
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="3" t="inlineStr"/>
+      <c r="H186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J186" s="3" t="inlineStr"/>
+      <c r="K186" s="3" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006132</t>
+          <t>BCIO:006070</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>mentally comparing against a standard</t>
+          <t>mental plan for a behaviour</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which current conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A mental disposition to form a representation of a behaviour, the conditions under which it will be enacted and an intention to enact the behaviour under those conditions. </t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr"/>
       <c r="H187" s="2" t="inlineStr"/>
@@ -6702,123 +6702,123 @@
       <c r="K187" s="2" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006157</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr"/>
+      <c r="F188" s="2" t="inlineStr"/>
+      <c r="G188" s="2" t="inlineStr"/>
+      <c r="H188" s="2" t="inlineStr"/>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J188" s="2" t="inlineStr"/>
+      <c r="K188" s="2" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006133</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that energises and directs behaviour.</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr"/>
-      <c r="F189" s="2" t="inlineStr"/>
-      <c r="G189" s="2" t="inlineStr"/>
-      <c r="H189" s="2" t="inlineStr"/>
-      <c r="I189" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J189" s="2" t="inlineStr"/>
-      <c r="K189" s="2" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006060</t>
-        </is>
-      </c>
-      <c r="B190" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation</t>
-        </is>
-      </c>
-      <c r="C190" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
-        </is>
-      </c>
-      <c r="E190" s="2" t="inlineStr"/>
-      <c r="F190" s="2" t="inlineStr"/>
-      <c r="G190" s="2" t="inlineStr"/>
-      <c r="H190" s="2" t="inlineStr"/>
-      <c r="I190" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J190" s="2" t="inlineStr"/>
-      <c r="K190" s="2" t="inlineStr"/>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000075 </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>mental quality</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006004</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>mental skill</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A mental capability acquired through training and practice.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -6836,22 +6836,22 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>need for sense of security</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A mental process in which current conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
@@ -6867,57 +6867,57 @@
       <c r="K192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006068</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>need for social relatedness</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to have caring relationships with other people.</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr"/>
-      <c r="F193" s="2" t="inlineStr"/>
-      <c r="G193" s="2" t="inlineStr"/>
-      <c r="H193" s="2" t="inlineStr"/>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J193" s="2" t="inlineStr"/>
-      <c r="K193" s="2" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006069</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>need to feel competent</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as able and effective.</t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -6935,29 +6935,25 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006037</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>negative evaluation of self</t>
+          <t>motivational orientation</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's negative attributes.</t>
-        </is>
-      </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>low self-esteem; negative self-esteem</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr"/>
       <c r="F195" s="2" t="inlineStr"/>
       <c r="G195" s="2" t="inlineStr"/>
       <c r="H195" s="2" t="inlineStr"/>
@@ -6970,123 +6966,123 @@
       <c r="K195" s="2" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>MFOEM:000210</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>negative surprise</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Surprise with a negative valence.</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006066</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>need for self-esteem</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr"/>
+      <c r="F196" s="2" t="inlineStr"/>
+      <c r="G196" s="2" t="inlineStr"/>
+      <c r="H196" s="2" t="inlineStr"/>
+      <c r="I196" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J196" s="2" t="inlineStr"/>
+      <c r="K196" s="2" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006067</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>need for sense of security</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to feel safe from threats.</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="inlineStr"/>
+      <c r="F197" s="2" t="inlineStr"/>
+      <c r="G197" s="2" t="inlineStr"/>
+      <c r="H197" s="2" t="inlineStr"/>
+      <c r="I197" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J197" s="2" t="inlineStr"/>
+      <c r="K197" s="2" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>MF:0000089</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>non-linguistic communication</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>A communication process in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006068</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>need for social relatedness</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to have caring relationships with other people.</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="inlineStr"/>
+      <c r="F198" s="2" t="inlineStr"/>
+      <c r="G198" s="2" t="inlineStr"/>
+      <c r="H198" s="2" t="inlineStr"/>
+      <c r="I198" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J198" s="2" t="inlineStr"/>
+      <c r="K198" s="2" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:006069</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>need to feel competent</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A psychological need to experience oneself as able and effective.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -7104,25 +7100,29 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006042</t>
+          <t>BCIO:006037</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>normative belief</t>
+          <t>negative evaluation of self</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether important others think one should perform a behaviour.</t>
-        </is>
-      </c>
-      <c r="E200" s="2" t="inlineStr"/>
+          <t>A belief about one's negative attributes.</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>low self-esteem; negative self-esteem</t>
+        </is>
+      </c>
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr"/>
       <c r="H200" s="2" t="inlineStr"/>
@@ -7137,22 +7137,22 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>GO:0098597</t>
+          <t>MFOEM:000210</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>observational learning</t>
+          <t>negative surprise</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
+          <t>Surprise with a negative valence.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr"/>
@@ -7168,146 +7168,150 @@
       <c r="K201" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006083</t>
-        </is>
-      </c>
-      <c r="B202" s="2" t="inlineStr">
-        <is>
-          <t>occupational role</t>
-        </is>
-      </c>
-      <c r="C202" s="2" t="inlineStr">
-        <is>
-          <t>personal social role</t>
-        </is>
-      </c>
-      <c r="D202" s="2" t="inlineStr">
-        <is>
-          <t>A social role that involves the person's occupation.</t>
-        </is>
-      </c>
-      <c r="E202" s="2" t="inlineStr"/>
-      <c r="F202" s="2" t="inlineStr"/>
-      <c r="G202" s="2" t="inlineStr"/>
-      <c r="H202" s="2" t="inlineStr"/>
-      <c r="I202" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J202" s="2" t="inlineStr"/>
-      <c r="K202" s="2" t="inlineStr"/>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>GO:0046958</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006125</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>operant conditioning</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
-        </is>
-      </c>
-      <c r="E203" s="2" t="inlineStr"/>
-      <c r="F203" s="2" t="inlineStr"/>
-      <c r="G203" s="2" t="inlineStr"/>
-      <c r="H203" s="2" t="inlineStr"/>
-      <c r="I203" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J203" s="2" t="inlineStr"/>
-      <c r="K203" s="2" t="inlineStr"/>
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050235</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>non-judgemental acknowledgement</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>Acceptance</t>
+        </is>
+      </c>
+      <c r="F203" s="3" t="inlineStr"/>
+      <c r="G203" s="3" t="inlineStr"/>
+      <c r="H203" s="3" t="inlineStr"/>
+      <c r="I203" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J203" s="3" t="inlineStr"/>
+      <c r="K203" s="3" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006086</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>A quality of a person's environmental system that makes a behaviour possible or facilitates it.</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr"/>
-      <c r="F204" s="2" t="inlineStr"/>
-      <c r="G204" s="2" t="inlineStr"/>
-      <c r="H204" s="2" t="inlineStr"/>
-      <c r="I204" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J204" s="2" t="inlineStr"/>
-      <c r="K204" s="2" t="inlineStr"/>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>MF:0000089</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>non-linguistic communication</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>A communication process in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>bodily feeling</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>A bodily process in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006095</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr"/>
+      <c r="F205" s="2" t="inlineStr"/>
+      <c r="G205" s="2" t="inlineStr"/>
+      <c r="H205" s="2" t="inlineStr"/>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J205" s="2" t="inlineStr"/>
+      <c r="K205" s="2" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006040</t>
+          <t>BCIO:006042</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>normative belief</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
@@ -7317,7 +7321,7 @@
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+          <t>A belief about whether important others think one should perform a behaviour.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -7333,64 +7337,60 @@
       <c r="K206" s="2" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006041</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>perceived injunctive norm</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular social group.</t>
-        </is>
-      </c>
-      <c r="E207" s="2" t="inlineStr"/>
-      <c r="F207" s="2" t="inlineStr"/>
-      <c r="G207" s="2" t="inlineStr"/>
-      <c r="H207" s="2" t="inlineStr"/>
-      <c r="I207" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J207" s="2" t="inlineStr"/>
-      <c r="K207" s="2" t="inlineStr"/>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006039</t>
+          <t>BCIO:006083</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>personal social role</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>A belief about what is typical for people who belong to a particular social group.</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
+          <t>A social role that involves the person's occupation.</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr"/>
       <c r="H208" s="2" t="inlineStr"/>
@@ -7403,57 +7403,57 @@
       <c r="K208" s="2" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>MF:0000019</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>perception</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006125</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>operant conditioning</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr"/>
+      <c r="F209" s="2" t="inlineStr"/>
+      <c r="G209" s="2" t="inlineStr"/>
+      <c r="H209" s="2" t="inlineStr"/>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J209" s="2" t="inlineStr"/>
+      <c r="K209" s="2" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006081</t>
+          <t>BCIO:006086</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+          <t>A quality of a person's environmental system that makes a behaviour possible or facilitates it.</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
@@ -7471,22 +7471,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000043 </t>
+          <t>MFOEM:000203</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>pain</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>bodily feeling</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>A disposition inhering in an organism whose realization in the normal case brings benefits to an organism or group of organisms, where 'in the normal case' means not only in the normal range on the scale, but also in a context which is normal for the group to which the bearer or user belongs.</t>
+          <t>A bodily process in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -7504,22 +7504,22 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006084</t>
+          <t>BCIO:006040</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>personal financial resource</t>
+          <t>perceived descriptive norm</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -7537,22 +7537,22 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>personal social role</t>
+          <t>perceived injunctive norm</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular social group.</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -7570,25 +7570,29 @@
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006039</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition regarding what is fundamentally important in life and which informs standards for behaviour.</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="inlineStr"/>
+          <t>A belief about what is typical for people who belong to a particular social group.</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
       <c r="F214" s="2" t="inlineStr"/>
       <c r="G214" s="2" t="inlineStr"/>
       <c r="H214" s="2" t="inlineStr"/>
@@ -7601,57 +7605,57 @@
       <c r="K214" s="2" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006009</t>
-        </is>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>physical capability</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="inlineStr">
-        <is>
-          <t>A capability to perform a behaviour by virtue of muscular-skeletal attributes or psychomotor control</t>
-        </is>
-      </c>
-      <c r="E215" s="2" t="inlineStr"/>
-      <c r="F215" s="2" t="inlineStr"/>
-      <c r="G215" s="2" t="inlineStr"/>
-      <c r="H215" s="2" t="inlineStr"/>
-      <c r="I215" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J215" s="2" t="inlineStr"/>
-      <c r="K215" s="2" t="inlineStr"/>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>MF:0000019</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>physical opportunity</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>An opportunity of the physical environmental system that makes a behaviour possible or facilitates it.</t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
@@ -7667,90 +7671,90 @@
       <c r="K216" s="2" t="inlineStr"/>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006010</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>physical skill</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>physical capability</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>A physical capability acquired through training and practice.</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr"/>
-      <c r="F217" s="2" t="inlineStr"/>
-      <c r="G217" s="2" t="inlineStr"/>
-      <c r="H217" s="2" t="inlineStr"/>
-      <c r="I217" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J217" s="2" t="inlineStr"/>
-      <c r="K217" s="2" t="inlineStr"/>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000043 </t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>A disposition inhering in an organism whose realization in the normal case brings benefits to an organism or group of organisms, where 'in the normal case' means not only in the normal range on the scale, but also in a context which is normal for the group to which the bearer or user belongs.</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>physiological response to emotion process</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>A bodily process which encompasses all the neurophysiological changes caused by the appraisal, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006084</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>personal financial resource</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>personal  role</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr"/>
+      <c r="F218" s="2" t="inlineStr"/>
+      <c r="G218" s="2" t="inlineStr"/>
+      <c r="H218" s="2" t="inlineStr"/>
+      <c r="I218" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J218" s="2" t="inlineStr"/>
+      <c r="K218" s="2" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006102</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>plan enactment</t>
+          <t>personal social role</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>A process by which a person attempts to follow the steps in a plan.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -7766,107 +7770,95 @@
       <c r="K219" s="2" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006063</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>personal value</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition regarding what is fundamentally important in life and which informs standards for behaviour.</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="inlineStr"/>
+      <c r="F220" s="2" t="inlineStr"/>
+      <c r="G220" s="2" t="inlineStr"/>
+      <c r="H220" s="2" t="inlineStr"/>
+      <c r="I220" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J220" s="2" t="inlineStr"/>
+      <c r="K220" s="2" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>MFOEM:000035</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction.</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006009</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>physical capability</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>A capability to perform a behaviour by virtue of muscular-skeletal attributes or psychomotor control</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="inlineStr"/>
+      <c r="F221" s="2" t="inlineStr"/>
+      <c r="G221" s="2" t="inlineStr"/>
+      <c r="H221" s="2" t="inlineStr"/>
+      <c r="I221" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J221" s="2" t="inlineStr"/>
+      <c r="K221" s="2" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006036</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>positive evaluation of self</t>
+          <t>physical opportunity</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's positive attributes.</t>
-        </is>
-      </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>positive self-esteem</t>
-        </is>
-      </c>
+          <t>An opportunity of the physical environmental system that makes a behaviour possible or facilitates it.</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="inlineStr"/>
       <c r="F222" s="2" t="inlineStr"/>
-      <c r="G222" s="2" t="inlineStr">
-        <is>
-          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
-        </is>
-      </c>
+      <c r="G222" s="2" t="inlineStr"/>
       <c r="H222" s="2" t="inlineStr"/>
       <c r="I222" s="2" t="inlineStr">
         <is>
@@ -7877,94 +7869,90 @@
       <c r="K222" s="2" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>MFOEM:000209</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>positive surprise</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Surprise with a positive valence.</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>wonder; astonishment</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006010</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>physical skill</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>physical capability</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>A physical capability acquired through training and practice.</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="inlineStr"/>
+      <c r="F223" s="2" t="inlineStr"/>
+      <c r="G223" s="2" t="inlineStr"/>
+      <c r="H223" s="2" t="inlineStr"/>
+      <c r="I223" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J223" s="2" t="inlineStr"/>
+      <c r="K223" s="2" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000003 </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>physiological response to emotion process</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>A bodily process which encompasses all the neurophysiological changes caused by the appraisal, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.  </t>
-        </is>
-      </c>
-      <c r="E224" s="2" t="inlineStr"/>
-      <c r="F224" s="2" t="inlineStr"/>
-      <c r="G224" s="2" t="inlineStr"/>
-      <c r="H224" s="2" t="inlineStr"/>
-      <c r="I224" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J224" s="2" t="inlineStr"/>
-      <c r="K224" s="2" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006129</t>
+          <t>BCIO:006102</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>procedural memory</t>
+          <t>plan enactment</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
+          <t>A process by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr"/>
@@ -7982,22 +7970,22 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BFO:0000144</t>
+          <t>MF:0000027</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
         </is>
       </c>
       <c r="E226" t="inlineStr"/>
@@ -8013,132 +8001,144 @@
       <c r="K226" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050229</t>
-        </is>
-      </c>
-      <c r="B227" s="3" t="inlineStr">
-        <is>
-          <t>professional identity</t>
-        </is>
-      </c>
-      <c r="C227" s="3" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="D227" s="3" t="inlineStr">
-        <is>
-          <t>Identity that is associated with one's occupational role.</t>
-        </is>
-      </c>
-      <c r="E227" s="3" t="inlineStr"/>
-      <c r="F227" s="3" t="inlineStr"/>
-      <c r="G227" s="3" t="inlineStr"/>
-      <c r="H227" s="3" t="inlineStr"/>
-      <c r="I227" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J227" s="3" t="inlineStr"/>
-      <c r="K227" s="3" t="inlineStr"/>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>BCIO:050213</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>professional network</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> social environmental system</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006036</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>positive evaluation of self</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's positive attributes.</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>positive self-esteem</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr">
+        <is>
+          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
+        </is>
+      </c>
+      <c r="H228" s="2" t="inlineStr"/>
+      <c r="I228" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J228" s="2" t="inlineStr"/>
+      <c r="K228" s="2" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>MFOEM:000209</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>positive surprise</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Surprise with a positive valence.</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>wonder; astonishment</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006062</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>promotion focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation</t>
-        </is>
-      </c>
-      <c r="D229" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.  </t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr"/>
-      <c r="F229" s="2" t="inlineStr"/>
-      <c r="G229" s="2" t="inlineStr"/>
-      <c r="H229" s="2" t="inlineStr"/>
-      <c r="I229" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J229" s="2" t="inlineStr"/>
-      <c r="K229" s="2" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:006061</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>prevention focused motivational orientation</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>motivational orientation</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.  </t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>
       <c r="F230" s="2" t="inlineStr"/>
-      <c r="G230" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
+      <c r="G230" s="2" t="inlineStr"/>
       <c r="H230" s="2" t="inlineStr"/>
       <c r="I230" s="2" t="inlineStr">
         <is>
@@ -8149,90 +8149,90 @@
       <c r="K230" s="2" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006129</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>procedural memory</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr"/>
+      <c r="F231" s="2" t="inlineStr"/>
+      <c r="G231" s="2" t="inlineStr"/>
+      <c r="H231" s="2" t="inlineStr"/>
+      <c r="I231" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J231" s="2" t="inlineStr"/>
+      <c r="K231" s="2" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BFO:0000144</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006112</t>
-        </is>
-      </c>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>reflective thinking</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="D232" s="2" t="inlineStr">
-        <is>
-          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
-        </is>
-      </c>
-      <c r="E232" s="2" t="inlineStr"/>
-      <c r="F232" s="2" t="inlineStr"/>
-      <c r="G232" s="2" t="inlineStr"/>
-      <c r="H232" s="2" t="inlineStr"/>
-      <c r="I232" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J232" s="2" t="inlineStr"/>
-      <c r="K232" s="2" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050232</t>
+          <t>BCIO:050229</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>regret</t>
+          <t>professional identity</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
         <is>
-          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
+          <t>Identity that is associated with one's occupational role.</t>
         </is>
       </c>
       <c r="E233" s="3" t="inlineStr"/>
@@ -8250,22 +8250,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MF:0000030</t>
+          <t>BCIO:050213</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>professional network</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t xml:space="preserve"> social environmental system</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -8283,29 +8283,25 @@
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006073</t>
+          <t>BCIO:006062</t>
         </is>
       </c>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>risk stereotype</t>
+          <t>promotion focused motivational orientation</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>motivational orientation</t>
         </is>
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t>A stereotype of a person who enacts a problem behaviour.</t>
-        </is>
-      </c>
-      <c r="E235" s="2" t="inlineStr">
-        <is>
-          <t>risk prototype</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.  </t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="inlineStr"/>
       <c r="F235" s="2" t="inlineStr"/>
       <c r="G235" s="2" t="inlineStr"/>
       <c r="H235" s="2" t="inlineStr"/>
@@ -8318,57 +8314,61 @@
       <c r="K235" s="2" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>BFO:0000023</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr"/>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="H236" s="2" t="inlineStr"/>
+      <c r="I236" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J236" s="2" t="inlineStr"/>
+      <c r="K236" s="2" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
+          <t>PATO:0000001</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant, obstructive to one's goals and concerns, and one feels unable to cope with it or modify it.</t>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -8386,22 +8386,22 @@
     <row r="238">
       <c r="A238" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006071</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="D238" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
+          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
         </is>
       </c>
       <c r="E238" s="2" t="inlineStr"/>
@@ -8417,93 +8417,97 @@
       <c r="K238" s="2" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006043</t>
-        </is>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>belief about control over behaviour</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
-        </is>
-      </c>
-      <c r="E239" s="2" t="inlineStr"/>
-      <c r="F239" s="2" t="inlineStr"/>
-      <c r="G239" s="2" t="inlineStr"/>
-      <c r="H239" s="2" t="inlineStr"/>
-      <c r="I239" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J239" s="2" t="inlineStr"/>
-      <c r="K239" s="2" t="inlineStr"/>
+      <c r="A239" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050232</t>
+        </is>
+      </c>
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>regret</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D239" s="3" t="inlineStr">
+        <is>
+          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
+        </is>
+      </c>
+      <c r="E239" s="3" t="inlineStr"/>
+      <c r="F239" s="3" t="inlineStr"/>
+      <c r="G239" s="3" t="inlineStr"/>
+      <c r="H239" s="3" t="inlineStr"/>
+      <c r="I239" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J239" s="3" t="inlineStr"/>
+      <c r="K239" s="3" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>belief about control over behaviour</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E240" s="2" t="inlineStr"/>
-      <c r="F240" s="2" t="inlineStr"/>
-      <c r="G240" s="2" t="inlineStr"/>
-      <c r="H240" s="2" t="inlineStr"/>
-      <c r="I240" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J240" s="2" t="inlineStr"/>
-      <c r="K240" s="2" t="inlineStr"/>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>MF:0000030</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>A dependent continuant which is about a portion of reality.</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006073</t>
         </is>
       </c>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>risk stereotype</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="D241" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
-        </is>
-      </c>
-      <c r="E241" s="2" t="inlineStr"/>
+          <t>A stereotype of a person who enacts a problem behaviour.</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>risk prototype</t>
+        </is>
+      </c>
       <c r="F241" s="2" t="inlineStr"/>
       <c r="G241" s="2" t="inlineStr"/>
       <c r="H241" s="2" t="inlineStr"/>
@@ -8516,97 +8520,97 @@
       <c r="K241" s="2" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006005</t>
-        </is>
-      </c>
-      <c r="B242" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C242" s="2" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D242" s="2" t="inlineStr">
-        <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
-        </is>
-      </c>
-      <c r="E242" s="2" t="inlineStr"/>
-      <c r="F242" s="2" t="inlineStr"/>
-      <c r="G242" s="2" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
-      <c r="H242" s="2" t="inlineStr"/>
-      <c r="I242" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J242" s="2" t="inlineStr"/>
-      <c r="K242" s="2" t="inlineStr"/>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006103</t>
-        </is>
-      </c>
-      <c r="B243" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="C243" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D243" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of an organism in response to external or internal stimuli and that is instigated by the organism itself.</t>
-        </is>
-      </c>
-      <c r="E243" s="2" t="inlineStr"/>
-      <c r="F243" s="2" t="inlineStr"/>
-      <c r="G243" s="2" t="inlineStr"/>
-      <c r="H243" s="2" t="inlineStr"/>
-      <c r="I243" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J243" s="2" t="inlineStr"/>
-      <c r="K243" s="2" t="inlineStr"/>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant, obstructive to one's goals and concerns, and one feels unable to cope with it or modify it.</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050222</t>
+          <t>BCIO:050236</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>self-regulatory skill</t>
+          <t>self-binding</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr"/>
+          <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>Pre-commitment</t>
+        </is>
+      </c>
       <c r="F244" s="3" t="inlineStr"/>
       <c r="G244" s="3" t="inlineStr"/>
       <c r="H244" s="3" t="inlineStr"/>
@@ -8621,22 +8625,22 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006106</t>
+          <t>BCIO:006071</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>self-reinforcing self-regulation</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -8654,22 +8658,22 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-efficacy belief</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr"/>
@@ -8685,123 +8689,127 @@
       <c r="K246" s="2" t="inlineStr"/>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006154</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>belief about control over behaviour</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="inlineStr"/>
+      <c r="F247" s="2" t="inlineStr"/>
+      <c r="G247" s="2" t="inlineStr"/>
+      <c r="H247" s="2" t="inlineStr"/>
+      <c r="I247" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J247" s="2" t="inlineStr"/>
+      <c r="K247" s="2" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>MFOEM:000040</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction as a result of sexual activities.</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006137</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>self-monitoring</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="inlineStr"/>
+      <c r="F248" s="2" t="inlineStr"/>
+      <c r="G248" s="2" t="inlineStr"/>
+      <c r="H248" s="2" t="inlineStr"/>
+      <c r="I248" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J248" s="2" t="inlineStr"/>
+      <c r="K248" s="2" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>MFOEM:000055</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>shame</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006005</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr">
+        <is>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="inlineStr"/>
+      <c r="F249" s="2" t="inlineStr"/>
+      <c r="G249" s="2" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
+      <c r="H249" s="2" t="inlineStr"/>
+      <c r="I249" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J249" s="2" t="inlineStr"/>
+      <c r="K249" s="2" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006044</t>
+          <t>BCIO:006103</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>Self-efficacy belief for a behaviour under certain conditions.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of an organism in response to external or internal stimuli and that is instigated by the organism itself.</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr"/>
@@ -8817,57 +8825,57 @@
       <c r="K250" s="2" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006011</t>
-        </is>
-      </c>
-      <c r="B251" s="2" t="inlineStr">
-        <is>
-          <t>social capability</t>
-        </is>
-      </c>
-      <c r="C251" s="2" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D251" s="2" t="inlineStr">
-        <is>
-          <t>A capability to engage in interpersonal processes that influence ability to perform a behaviour, when appropriate circumstances occur.</t>
-        </is>
-      </c>
-      <c r="E251" s="2" t="inlineStr"/>
-      <c r="F251" s="2" t="inlineStr"/>
-      <c r="G251" s="2" t="inlineStr"/>
-      <c r="H251" s="2" t="inlineStr"/>
-      <c r="I251" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J251" s="2" t="inlineStr"/>
-      <c r="K251" s="2" t="inlineStr"/>
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050222</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>self-regulatory skill</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr"/>
+      <c r="F251" s="3" t="inlineStr"/>
+      <c r="G251" s="3" t="inlineStr"/>
+      <c r="H251" s="3" t="inlineStr"/>
+      <c r="I251" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J251" s="3" t="inlineStr"/>
+      <c r="K251" s="3" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr"/>
@@ -8885,22 +8893,22 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006128</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>semantic memory</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr"/>
@@ -8916,127 +8924,123 @@
       <c r="K253" s="2" t="inlineStr"/>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006001</t>
-        </is>
-      </c>
-      <c r="B254" s="2" t="inlineStr">
-        <is>
-          <t>social environment system</t>
-        </is>
-      </c>
-      <c r="C254" s="2" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="inlineStr">
-        <is>
-          <t>An environmental system that consists of people, social and cultural institutions and processes involving these that influence the life of people and social groups.</t>
-        </is>
-      </c>
-      <c r="E254" s="2" t="inlineStr"/>
-      <c r="F254" s="2" t="inlineStr"/>
-      <c r="G254" s="2" t="inlineStr"/>
-      <c r="H254" s="2" t="inlineStr"/>
-      <c r="I254" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J254" s="2" t="inlineStr"/>
-      <c r="K254" s="2" t="inlineStr"/>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>GO:0046960</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>sensitization</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006051</t>
-        </is>
-      </c>
-      <c r="B255" s="2" t="inlineStr">
-        <is>
-          <t>social identity</t>
-        </is>
-      </c>
-      <c r="C255" s="2" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="D255" s="2" t="inlineStr">
-        <is>
-          <t>Identity that is associated with the sense of belonging to a social group.</t>
-        </is>
-      </c>
-      <c r="E255" s="2" t="inlineStr"/>
-      <c r="F255" s="2" t="inlineStr"/>
-      <c r="G255" s="2" t="inlineStr"/>
-      <c r="H255" s="2" t="inlineStr"/>
-      <c r="I255" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J255" s="2" t="inlineStr"/>
-      <c r="K255" s="2" t="inlineStr"/>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction as a result of sexual activities.</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006099</t>
-        </is>
-      </c>
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t>social influence process</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="inlineStr">
-        <is>
-          <t>interpersonal process</t>
-        </is>
-      </c>
-      <c r="D256" s="2" t="inlineStr">
-        <is>
-          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
-        </is>
-      </c>
-      <c r="E256" s="2" t="inlineStr"/>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="inlineStr"/>
-      <c r="H256" s="2" t="inlineStr"/>
-      <c r="I256" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J256" s="2" t="inlineStr"/>
-      <c r="K256" s="2" t="inlineStr"/>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>social opportunity</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>An opportunity of the social environment system that influences the performance of a behaviour.</t>
+          <t>Self-efficacy belief for a behaviour under certain conditions.</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr"/>
@@ -9054,22 +9058,22 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social capability</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>social capability</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>A social capability acquired through training and practice.</t>
+          <t>A capability to engage in interpersonal processes that influence ability to perform a behaviour, when appropriate circumstances occur.</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr"/>
@@ -9085,47 +9089,47 @@
       <c r="K258" s="2" t="inlineStr"/>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006118</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="inlineStr">
+        <is>
+          <t>social comparison process</t>
+        </is>
+      </c>
+      <c r="C259" s="2" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="inlineStr">
+        <is>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="inlineStr"/>
+      <c r="F259" s="2" t="inlineStr"/>
+      <c r="G259" s="2" t="inlineStr"/>
+      <c r="H259" s="2" t="inlineStr"/>
+      <c r="I259" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J259" s="2" t="inlineStr"/>
+      <c r="K259" s="2" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
@@ -9135,16 +9139,12 @@
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to represent attributes of members of a social group as shared by the virtue of their group membership.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
       <c r="F260" s="2" t="inlineStr"/>
-      <c r="G260" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="G260" s="2" t="inlineStr"/>
       <c r="H260" s="2" t="inlineStr"/>
       <c r="I260" s="2" t="inlineStr">
         <is>
@@ -9155,57 +9155,57 @@
       <c r="K260" s="2" t="inlineStr"/>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000006 </t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>A (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006001</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="inlineStr">
+        <is>
+          <t>social environment system</t>
+        </is>
+      </c>
+      <c r="C261" s="2" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="inlineStr">
+        <is>
+          <t>An environmental system that consists of people, social and cultural institutions and processes involving these that influence the life of people and social groups.</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="inlineStr"/>
+      <c r="F261" s="2" t="inlineStr"/>
+      <c r="G261" s="2" t="inlineStr"/>
+      <c r="H261" s="2" t="inlineStr"/>
+      <c r="I261" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J261" s="2" t="inlineStr"/>
+      <c r="K261" s="2" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006075</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>subjective need</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of anticipated relief from, or avoidance of, mental or physical discomfort.</t>
+          <t>Identity that is associated with the sense of belonging to a social group.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
@@ -9221,161 +9221,169 @@
       <c r="K262" s="2" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>A bodily process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006099</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>social influence process</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="inlineStr">
+        <is>
+          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="inlineStr"/>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="inlineStr"/>
+      <c r="H263" s="2" t="inlineStr"/>
+      <c r="I263" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J263" s="2" t="inlineStr"/>
+      <c r="K263" s="2" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006090</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>social opportunity</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>An opportunity of the social environment system that influences the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="inlineStr"/>
+      <c r="F264" s="2" t="inlineStr"/>
+      <c r="G264" s="2" t="inlineStr"/>
+      <c r="H264" s="2" t="inlineStr"/>
+      <c r="I264" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J264" s="2" t="inlineStr"/>
+      <c r="K264" s="2" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006012</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>social skill</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>social capability</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="inlineStr">
+        <is>
+          <t>A social capability acquired through training and practice.</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="inlineStr"/>
+      <c r="F265" s="2" t="inlineStr"/>
+      <c r="G265" s="2" t="inlineStr"/>
+      <c r="H265" s="2" t="inlineStr"/>
+      <c r="I265" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J265" s="2" t="inlineStr"/>
+      <c r="K265" s="2" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>MFOEM:000032</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A neutral emotion caused by encountering unexpected events of all kinds. May be experienced as negative if the surprising event is evaluated as negative, or positive if the surprising event is evaluated as positive. </t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>RO:0002577</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mental distancing that involves identifying particular immediate thoughts and detaching from these thoughts. </t>
-        </is>
-      </c>
-      <c r="E266" s="2" t="inlineStr"/>
-      <c r="F266" s="2" t="inlineStr"/>
-      <c r="G266" s="2" t="inlineStr"/>
-      <c r="H266" s="2" t="inlineStr"/>
-      <c r="I266" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J266" s="2" t="inlineStr"/>
-      <c r="K266" s="2" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:006072</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>temporal opportunity</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>An opportunity regarding whether the person has sufficient time to enact a behaviour in the social and physical environment.</t>
+          <t>A mental disposition to represent attributes of members of a social group as shared by the virtue of their group membership.</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr"/>
       <c r="F267" s="2" t="inlineStr"/>
-      <c r="G267" s="2" t="inlineStr"/>
+      <c r="G267" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
       <c r="H267" s="2" t="inlineStr"/>
       <c r="I267" s="2" t="inlineStr">
         <is>
@@ -9386,123 +9394,123 @@
       <c r="K267" s="2" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006076</t>
-        </is>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>temporal orientation</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000006 </t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>A (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006075</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>subjective need</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D268" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on present or future outcomes.</t>
-        </is>
-      </c>
-      <c r="E268" s="2" t="inlineStr"/>
-      <c r="F268" s="2" t="inlineStr"/>
-      <c r="G268" s="2" t="inlineStr"/>
-      <c r="H268" s="2" t="inlineStr"/>
-      <c r="I268" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J268" s="2" t="inlineStr"/>
-      <c r="K268" s="2" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050230</t>
-        </is>
-      </c>
-      <c r="B269" s="3" t="inlineStr">
-        <is>
-          <t>temporal orientation to the future</t>
-        </is>
-      </c>
-      <c r="C269" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D269" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
-        </is>
-      </c>
-      <c r="E269" s="3" t="inlineStr"/>
-      <c r="F269" s="3" t="inlineStr"/>
-      <c r="G269" s="3" t="inlineStr"/>
-      <c r="H269" s="3" t="inlineStr"/>
-      <c r="I269" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J269" s="3" t="inlineStr"/>
-      <c r="K269" s="3" t="inlineStr"/>
+      <c r="D269" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to experience a feeling of anticipated relief from, or avoidance of, mental or physical discomfort.</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="inlineStr"/>
+      <c r="F269" s="2" t="inlineStr"/>
+      <c r="G269" s="2" t="inlineStr"/>
+      <c r="H269" s="2" t="inlineStr"/>
+      <c r="I269" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J269" s="2" t="inlineStr"/>
+      <c r="K269" s="2" t="inlineStr"/>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050231</t>
-        </is>
-      </c>
-      <c r="B270" s="3" t="inlineStr">
-        <is>
-          <t>temporal orientation to the present</t>
-        </is>
-      </c>
-      <c r="C270" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D270" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
-        </is>
-      </c>
-      <c r="E270" s="3" t="inlineStr"/>
-      <c r="F270" s="3" t="inlineStr"/>
-      <c r="G270" s="3" t="inlineStr"/>
-      <c r="H270" s="3" t="inlineStr"/>
-      <c r="I270" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J270" s="3" t="inlineStr"/>
-      <c r="K270" s="3" t="inlineStr"/>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000088 </t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>subliminal process</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>A bodily process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MF:0000013</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
+          <t xml:space="preserve">A neutral emotion caused by encountering unexpected events of all kinds. May be experienced as negative if the surprising event is evaluated as negative, or positive if the surprising event is evaluated as positive. </t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -9518,97 +9526,93 @@
       <c r="K271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006107</t>
-        </is>
-      </c>
-      <c r="B272" s="2" t="inlineStr">
-        <is>
-          <t>value-congruent self-regulation</t>
-        </is>
-      </c>
-      <c r="C272" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D272" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation undertaken to achieve congruence between one's values and the behaviour performed.</t>
-        </is>
-      </c>
-      <c r="E272" s="2" t="inlineStr"/>
-      <c r="F272" s="2" t="inlineStr"/>
-      <c r="G272" s="2" t="inlineStr"/>
-      <c r="H272" s="2" t="inlineStr"/>
-      <c r="I272" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J272" s="2" t="inlineStr"/>
-      <c r="K272" s="2" t="inlineStr"/>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>MF:0000045</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>wanting</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental process that involves thinking about a state of affairs that does not yet obtain together with a desire for that state of affairs to obtain. </t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="A273" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006163</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="inlineStr">
+        <is>
+          <t>targeted mental distancing</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mental distancing that involves identifying particular immediate thoughts and detaching from these thoughts. </t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="inlineStr"/>
+      <c r="F273" s="2" t="inlineStr"/>
+      <c r="G273" s="2" t="inlineStr"/>
+      <c r="H273" s="2" t="inlineStr"/>
+      <c r="I273" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J273" s="2" t="inlineStr"/>
+      <c r="K273" s="2" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006059</t>
+          <t>BCIO:006091</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>willingness to comply</t>
+          <t>temporal opportunity</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to be inclined to act in accordance with the likely approval of others</t>
-        </is>
-      </c>
-      <c r="E274" s="2" t="inlineStr">
-        <is>
-          <t>motivation to comply</t>
-        </is>
-      </c>
+          <t>An opportunity regarding whether the person has sufficient time to enact a behaviour in the social and physical environment.</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="inlineStr"/>
       <c r="F274" s="2" t="inlineStr"/>
       <c r="G274" s="2" t="inlineStr"/>
       <c r="H274" s="2" t="inlineStr"/>
@@ -9620,6 +9624,241 @@
       <c r="J274" s="2" t="inlineStr"/>
       <c r="K274" s="2" t="inlineStr"/>
     </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006076</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present or future outcomes.</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="inlineStr"/>
+      <c r="F275" s="2" t="inlineStr"/>
+      <c r="G275" s="2" t="inlineStr"/>
+      <c r="H275" s="2" t="inlineStr"/>
+      <c r="I275" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J275" s="2" t="inlineStr"/>
+      <c r="K275" s="2" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050230</t>
+        </is>
+      </c>
+      <c r="B276" s="3" t="inlineStr">
+        <is>
+          <t>temporal orientation to the future</t>
+        </is>
+      </c>
+      <c r="C276" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D276" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
+        </is>
+      </c>
+      <c r="E276" s="3" t="inlineStr"/>
+      <c r="F276" s="3" t="inlineStr"/>
+      <c r="G276" s="3" t="inlineStr"/>
+      <c r="H276" s="3" t="inlineStr"/>
+      <c r="I276" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J276" s="3" t="inlineStr"/>
+      <c r="K276" s="3" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D277" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E277" s="3" t="inlineStr"/>
+      <c r="F277" s="3" t="inlineStr"/>
+      <c r="G277" s="3" t="inlineStr"/>
+      <c r="H277" s="3" t="inlineStr"/>
+      <c r="I277" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J277" s="3" t="inlineStr"/>
+      <c r="K277" s="3" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>MF:0000013</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006107</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="inlineStr">
+        <is>
+          <t>value-congruent self-regulation</t>
+        </is>
+      </c>
+      <c r="C279" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="inlineStr">
+        <is>
+          <t>Self-regulation undertaken to achieve congruence between one's values and the behaviour performed.</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="inlineStr"/>
+      <c r="F279" s="2" t="inlineStr"/>
+      <c r="G279" s="2" t="inlineStr"/>
+      <c r="H279" s="2" t="inlineStr"/>
+      <c r="I279" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J279" s="2" t="inlineStr"/>
+      <c r="K279" s="2" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>MF:0000045</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>wanting</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental process that involves thinking about a state of affairs that does not yet obtain together with a desire for that state of affairs to obtain. </t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to be inclined to act in accordance with the likely approval of others</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>motivation to comply</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr"/>
+      <c r="G281" s="2" t="inlineStr"/>
+      <c r="H281" s="2" t="inlineStr"/>
+      <c r="I281" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J281" s="2" t="inlineStr"/>
+      <c r="K281" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -867,37 +873,37 @@
       <c r="K12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>BCIO:006077</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>appraisal as caused by factors external to the person</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>appraisal of causal agency</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>An appraisal that represents an evaluation that an event was caused by factors external to the person.</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="4" t="inlineStr"/>
+      <c r="H13" s="4" t="inlineStr"/>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr"/>
+      <c r="K13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1597,37 +1603,37 @@
       <c r="K34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>BCIO:006098</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>behaviour-influencing social interaction process</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>interpersonal reciprocal communication</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>An interpersonal process in which one person's  reciprocal communication with one or more others may facilitate or hinder the person's behaviour.</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr"/>
+      <c r="K35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -1696,41 +1702,41 @@
       <c r="K37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>BCIO:006304</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">behavioural importance-based motivation </t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>autonomous motivation</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>Autonomous motivation due to the perceived value or importance of the behaviour to oneself.</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E38" s="4" t="inlineStr">
         <is>
           <t>identified motivation; identified regulation</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="inlineStr"/>
-      <c r="H38" s="3" t="inlineStr"/>
-      <c r="I38" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J38" s="3" t="inlineStr"/>
-      <c r="K38" s="3" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2170,37 +2176,37 @@
       <c r="K51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>BCIO:006153</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>belief about control over the environment</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>belief about control over behaviour</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A belief about one's resources and opportunities within an environment to perform a behaviour. </t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr"/>
+      <c r="H52" s="4" t="inlineStr"/>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J52" s="4" t="inlineStr"/>
+      <c r="K52" s="4" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -3300,37 +3306,37 @@
       <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="4" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="4" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" s="4" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="E86" s="4" t="inlineStr"/>
+      <c r="F86" s="4" t="inlineStr"/>
+      <c r="G86" s="4" t="inlineStr"/>
+      <c r="H86" s="4" t="inlineStr"/>
+      <c r="I86" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J86" s="4" t="inlineStr"/>
+      <c r="K86" s="4" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3366,37 +3372,37 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000074 </t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="4" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
+      <c r="G88" s="4" t="inlineStr"/>
+      <c r="H88" s="4" t="inlineStr"/>
+      <c r="I88" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J88" s="4" t="inlineStr"/>
+      <c r="K88" s="4" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -4434,37 +4440,37 @@
       <c r="K119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
+      <c r="A120" s="4" t="inlineStr">
         <is>
           <t>BCIO:006151</t>
         </is>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" s="4" t="inlineStr">
         <is>
           <t>evaluative belief about a stereotype</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" s="4" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="D120" s="2" t="inlineStr">
+      <c r="D120" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
         </is>
       </c>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
-      <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J120" s="2" t="inlineStr"/>
-      <c r="K120" s="2" t="inlineStr"/>
+      <c r="E120" s="4" t="inlineStr"/>
+      <c r="F120" s="4" t="inlineStr"/>
+      <c r="G120" s="4" t="inlineStr"/>
+      <c r="H120" s="4" t="inlineStr"/>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J120" s="4" t="inlineStr"/>
+      <c r="K120" s="4" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
@@ -4566,45 +4572,45 @@
       <c r="K123" s="2" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
+      <c r="A124" s="4" t="inlineStr">
         <is>
           <t>BCIO:006101</t>
         </is>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" s="4" t="inlineStr">
         <is>
           <t>experiential rightness of goal pursuit</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" s="4" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D124" s="2" t="inlineStr">
+      <c r="D124" s="4" t="inlineStr">
         <is>
           <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
         </is>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" s="4" t="inlineStr">
         <is>
           <t>perceived regulatory fit process</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr">
+      <c r="F124" s="4" t="inlineStr"/>
+      <c r="G124" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
         </is>
       </c>
-      <c r="H124" s="2" t="inlineStr"/>
-      <c r="I124" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J124" s="2" t="inlineStr"/>
-      <c r="K124" s="2" t="inlineStr"/>
+      <c r="H124" s="4" t="inlineStr"/>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr"/>
+      <c r="K124" s="4" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
@@ -4673,41 +4679,41 @@
       <c r="K126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
+      <c r="A127" s="4" t="inlineStr">
         <is>
           <t>BCIO:006135</t>
         </is>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" s="4" t="inlineStr">
         <is>
           <t>extrinsic motivation</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" s="4" t="inlineStr">
         <is>
           <t>controlled motivation</t>
         </is>
       </c>
-      <c r="D127" s="2" t="inlineStr">
+      <c r="D127" s="4" t="inlineStr">
         <is>
           <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
         </is>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" s="4" t="inlineStr">
         <is>
           <t>external motivation</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
-      <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J127" s="2" t="inlineStr"/>
-      <c r="K127" s="2" t="inlineStr"/>
+      <c r="F127" s="4" t="inlineStr"/>
+      <c r="G127" s="4" t="inlineStr"/>
+      <c r="H127" s="4" t="inlineStr"/>
+      <c r="I127" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr"/>
+      <c r="K127" s="4" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -5737,37 +5743,37 @@
       <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="inlineStr">
+      <c r="A159" s="4" t="inlineStr">
         <is>
           <t>BCIO:006097</t>
         </is>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" s="4" t="inlineStr">
         <is>
           <t>interpersonal reciprocal communication</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" s="4" t="inlineStr">
         <is>
           <t>communication</t>
         </is>
       </c>
-      <c r="D159" s="2" t="inlineStr">
+      <c r="D159" s="4" t="inlineStr">
         <is>
           <t>Communication that is mutual between two or more people.</t>
         </is>
       </c>
-      <c r="E159" s="2" t="inlineStr"/>
-      <c r="F159" s="2" t="inlineStr"/>
-      <c r="G159" s="2" t="inlineStr"/>
-      <c r="H159" s="2" t="inlineStr"/>
-      <c r="I159" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J159" s="2" t="inlineStr"/>
-      <c r="K159" s="2" t="inlineStr"/>
+      <c r="E159" s="4" t="inlineStr"/>
+      <c r="F159" s="4" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr"/>
+      <c r="H159" s="4" t="inlineStr"/>
+      <c r="I159" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J159" s="4" t="inlineStr"/>
+      <c r="K159" s="4" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
@@ -5869,37 +5875,37 @@
       <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
+      <c r="A163" s="4" t="inlineStr">
         <is>
           <t>BCIO:006117</t>
         </is>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" s="4" t="inlineStr">
         <is>
           <t>judging consequences of behaviour</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" s="4" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="D163" s="2" t="inlineStr">
+      <c r="D163" s="4" t="inlineStr">
         <is>
           <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
         </is>
       </c>
-      <c r="E163" s="2" t="inlineStr"/>
-      <c r="F163" s="2" t="inlineStr"/>
-      <c r="G163" s="2" t="inlineStr"/>
-      <c r="H163" s="2" t="inlineStr"/>
-      <c r="I163" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J163" s="2" t="inlineStr"/>
-      <c r="K163" s="2" t="inlineStr"/>
+      <c r="E163" s="4" t="inlineStr"/>
+      <c r="F163" s="4" t="inlineStr"/>
+      <c r="G163" s="4" t="inlineStr"/>
+      <c r="H163" s="4" t="inlineStr"/>
+      <c r="I163" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J163" s="4" t="inlineStr"/>
+      <c r="K163" s="4" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
@@ -6768,37 +6774,37 @@
       <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="4" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D190" s="4" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="E190" s="4" t="inlineStr"/>
+      <c r="F190" s="4" t="inlineStr"/>
+      <c r="G190" s="4" t="inlineStr"/>
+      <c r="H190" s="4" t="inlineStr"/>
+      <c r="I190" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J190" s="4" t="inlineStr"/>
+      <c r="K190" s="4" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
@@ -7098,41 +7104,41 @@
       <c r="K199" s="2" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="inlineStr">
+      <c r="A200" s="4" t="inlineStr">
         <is>
           <t>BCIO:006037</t>
         </is>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" s="4" t="inlineStr">
         <is>
           <t>negative evaluation of self</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" s="4" t="inlineStr">
         <is>
           <t>evaluation of self</t>
         </is>
       </c>
-      <c r="D200" s="2" t="inlineStr">
+      <c r="D200" s="4" t="inlineStr">
         <is>
           <t>A belief about one's negative attributes.</t>
         </is>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" s="4" t="inlineStr">
         <is>
           <t>low self-esteem; negative self-esteem</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr"/>
-      <c r="G200" s="2" t="inlineStr"/>
-      <c r="H200" s="2" t="inlineStr"/>
-      <c r="I200" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J200" s="2" t="inlineStr"/>
-      <c r="K200" s="2" t="inlineStr"/>
+      <c r="F200" s="4" t="inlineStr"/>
+      <c r="G200" s="4" t="inlineStr"/>
+      <c r="H200" s="4" t="inlineStr"/>
+      <c r="I200" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J200" s="4" t="inlineStr"/>
+      <c r="K200" s="4" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7704,37 +7710,37 @@
       <c r="K217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
+      <c r="A218" s="4" t="inlineStr">
         <is>
           <t>BCIO:006084</t>
         </is>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" s="4" t="inlineStr">
         <is>
           <t>personal financial resource</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" s="4" t="inlineStr">
         <is>
           <t>personal  role</t>
         </is>
       </c>
-      <c r="D218" s="2" t="inlineStr">
+      <c r="D218" s="4" t="inlineStr">
         <is>
           <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
         </is>
       </c>
-      <c r="E218" s="2" t="inlineStr"/>
-      <c r="F218" s="2" t="inlineStr"/>
-      <c r="G218" s="2" t="inlineStr"/>
-      <c r="H218" s="2" t="inlineStr"/>
-      <c r="I218" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J218" s="2" t="inlineStr"/>
-      <c r="K218" s="2" t="inlineStr"/>
+      <c r="E218" s="4" t="inlineStr"/>
+      <c r="F218" s="4" t="inlineStr"/>
+      <c r="G218" s="4" t="inlineStr"/>
+      <c r="H218" s="4" t="inlineStr"/>
+      <c r="I218" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J218" s="4" t="inlineStr"/>
+      <c r="K218" s="4" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
@@ -8038,45 +8044,45 @@
       <c r="K227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="inlineStr">
+      <c r="A228" s="4" t="inlineStr">
         <is>
           <t>BCIO:006036</t>
         </is>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" s="4" t="inlineStr">
         <is>
           <t>positive evaluation of self</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" s="4" t="inlineStr">
         <is>
           <t>evaluation of self</t>
         </is>
       </c>
-      <c r="D228" s="2" t="inlineStr">
+      <c r="D228" s="4" t="inlineStr">
         <is>
           <t>A belief about one's positive attributes.</t>
         </is>
       </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="E228" s="4" t="inlineStr">
         <is>
           <t>positive self-esteem</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr"/>
-      <c r="G228" s="2" t="inlineStr">
+      <c r="F228" s="4" t="inlineStr"/>
+      <c r="G228" s="4" t="inlineStr">
         <is>
           <t>Self-esteem is often used to refer to positive evaluations of self.</t>
         </is>
       </c>
-      <c r="H228" s="2" t="inlineStr"/>
-      <c r="I228" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J228" s="2" t="inlineStr"/>
-      <c r="K228" s="2" t="inlineStr"/>
+      <c r="H228" s="4" t="inlineStr"/>
+      <c r="I228" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J228" s="4" t="inlineStr"/>
+      <c r="K228" s="4" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8483,41 +8489,41 @@
       <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="inlineStr">
+      <c r="A241" s="4" t="inlineStr">
         <is>
           <t>BCIO:006073</t>
         </is>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" s="4" t="inlineStr">
         <is>
           <t>risk stereotype</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" s="4" t="inlineStr">
         <is>
           <t>stereotype</t>
         </is>
       </c>
-      <c r="D241" s="2" t="inlineStr">
+      <c r="D241" s="4" t="inlineStr">
         <is>
           <t>A stereotype of a person who enacts a problem behaviour.</t>
         </is>
       </c>
-      <c r="E241" s="2" t="inlineStr">
+      <c r="E241" s="4" t="inlineStr">
         <is>
           <t>risk prototype</t>
         </is>
       </c>
-      <c r="F241" s="2" t="inlineStr"/>
-      <c r="G241" s="2" t="inlineStr"/>
-      <c r="H241" s="2" t="inlineStr"/>
-      <c r="I241" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J241" s="2" t="inlineStr"/>
-      <c r="K241" s="2" t="inlineStr"/>
+      <c r="F241" s="4" t="inlineStr"/>
+      <c r="G241" s="4" t="inlineStr"/>
+      <c r="H241" s="4" t="inlineStr"/>
+      <c r="I241" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J241" s="4" t="inlineStr"/>
+      <c r="K241" s="4" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8623,37 +8629,37 @@
       <c r="K244" s="3" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="inlineStr">
+      <c r="A245" s="4" t="inlineStr">
         <is>
           <t>BCIO:006071</t>
         </is>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" s="4" t="inlineStr">
         <is>
           <t>self-concept</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" s="4" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D245" s="2" t="inlineStr">
+      <c r="D245" s="4" t="inlineStr">
         <is>
           <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
         </is>
       </c>
-      <c r="E245" s="2" t="inlineStr"/>
-      <c r="F245" s="2" t="inlineStr"/>
-      <c r="G245" s="2" t="inlineStr"/>
-      <c r="H245" s="2" t="inlineStr"/>
-      <c r="I245" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J245" s="2" t="inlineStr"/>
-      <c r="K245" s="2" t="inlineStr"/>
+      <c r="E245" s="4" t="inlineStr"/>
+      <c r="F245" s="4" t="inlineStr"/>
+      <c r="G245" s="4" t="inlineStr"/>
+      <c r="H245" s="4" t="inlineStr"/>
+      <c r="I245" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J245" s="4" t="inlineStr"/>
+      <c r="K245" s="4" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
@@ -9625,37 +9631,37 @@
       <c r="K274" s="2" t="inlineStr"/>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="inlineStr">
+      <c r="A275" s="4" t="inlineStr">
         <is>
           <t>BCIO:006076</t>
         </is>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" s="4" t="inlineStr">
         <is>
           <t>temporal orientation</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" s="4" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D275" s="2" t="inlineStr">
+      <c r="D275" s="4" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on present or future outcomes.</t>
         </is>
       </c>
-      <c r="E275" s="2" t="inlineStr"/>
-      <c r="F275" s="2" t="inlineStr"/>
-      <c r="G275" s="2" t="inlineStr"/>
-      <c r="H275" s="2" t="inlineStr"/>
-      <c r="I275" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J275" s="2" t="inlineStr"/>
-      <c r="K275" s="2" t="inlineStr"/>
+      <c r="E275" s="4" t="inlineStr"/>
+      <c r="F275" s="4" t="inlineStr"/>
+      <c r="G275" s="4" t="inlineStr"/>
+      <c r="H275" s="4" t="inlineStr"/>
+      <c r="I275" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J275" s="4" t="inlineStr"/>
+      <c r="K275" s="4" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>material anatomical entity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -663,8 +663,17 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>The structure of the stomach and intestines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The formal definition for this definition does not include the influence of the environment on anatomical structure, as the class was reused from the Uber-anatomy ontology. This ontology defines anatomical structure for all organisms, including those whose anatomical structure might not be directly influenced by an interaction between genes and the environment.
+An example for this class serving as a mechanism of action would be in an intervention that targets change in anatomical structure. For instance, a gastric bypass surgery can change the structure of the stomach and intestines, and thereby change eating behaviours.</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
@@ -1887,17 +1896,21 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A belief about the potential emotional processes experienced as the result of an event. </t>
+          <t>A belief about the potential emotions experienced as result of an event.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
+        </is>
+      </c>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr">
         <is>
@@ -2052,7 +2065,7 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -2066,7 +2079,11 @@
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr">
         <is>
@@ -2089,7 +2106,7 @@
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -2099,7 +2116,12 @@
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.
+Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
+        </is>
+      </c>
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr">
         <is>
@@ -2343,22 +2365,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006024</t>
+          <t>BCIO:006026</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of potential outcomes</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>A belief about the likelihood a particular behaviour will result in particular outcomes.</t>
+          <t>A belief about the probability that a given event or state will occur in the future.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -2374,90 +2396,90 @@
       <c r="K57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006024</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>belief about likelihood of consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>belief about likelihood of potential outcomes</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the likelihood a particular behaviour will result in particular outcomes.</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>BCIO:050220</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>belief about likelihood of emotional consequences of behaviour</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>A belief about the probability of a behaviour resulting or not resulting in a change to emotions.</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="3" t="inlineStr"/>
-      <c r="G58" s="3" t="inlineStr"/>
-      <c r="H58" s="3" t="inlineStr"/>
-      <c r="I58" s="3" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
+      <c r="G59" s="3" t="inlineStr"/>
+      <c r="H59" s="3" t="inlineStr"/>
+      <c r="I59" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J58" s="3" t="inlineStr"/>
-      <c r="K58" s="3" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006025</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of health consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the likelihood of a behaviour resulting in a change in a threat to health and wellbeing.</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr"/>
+      <c r="K59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006026</t>
+          <t>BCIO:006025</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of potential outcomes</t>
+          <t>belief about likelihood of health consequences of behaviour</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>A belief about the probability that a given event or state will occur in the future.</t>
+          <t>A belief about the likelihood of a behaviour resulting in a change in a threat to health and wellbeing.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -3153,12 +3175,12 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A belief about how long after the performance of behaviour particular consequences will occur.</t>
+          <t>A belief about outcomes in terms of how long after the performance of a behaviour they will occur.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -3295,7 +3317,12 @@
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Extended organism refers to an organism and its microbiome (e.g., the bacteria that live in one's digestive system)
+Bodily disposition would include features, such as a person's strength (which can be used in a specific context), but not weight. A person would have a certain weight independent of most circumstances they are in.</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
@@ -4218,7 +4245,7 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability to modulate one’s emotions.</t>
+          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
         </is>
       </c>
       <c r="E113" s="2" t="inlineStr">
@@ -4316,7 +4343,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>system</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4326,7 +4353,13 @@
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>'The term 'disposition' is used to describe that an environmental system can surround and interact with one or more material entities. This conditionality is important, as an entity does not necessarily have to be in an specific environment system at all times.
+The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).
+'environmental system' includes physical and social aspects of the environment. As all subclasses of 'environmental system' will have physical aspects, a separate subclass for 'physical environmental system' would not capture a unique aspect of its parent class.</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
@@ -4723,7 +4756,7 @@
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>family environment system</t>
+          <t>family environmental system</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -4733,7 +4766,7 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage, or adoption.</t>
+          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
@@ -4997,7 +5030,7 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication among which transmission of knowledge, behaviour, values or of an infectious agent is possible.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
@@ -6424,7 +6457,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>A capability that necessarily includes mental processes in its realisation.</t>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -6824,12 +6857,16 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training and practice.</t>
+          <t>A mental capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
-      <c r="G191" s="2" t="inlineStr"/>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+        </is>
+      </c>
       <c r="H191" s="2" t="inlineStr"/>
       <c r="I191" s="2" t="inlineStr">
         <is>
@@ -7694,12 +7731,17 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>A disposition inhering in an organism whose realization in the normal case brings benefits to an organism or group of organisms, where 'in the normal case' means not only in the normal range on the scale, but also in a context which is normal for the group to which the bearer or user belongs.</t>
+          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
+For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
+        </is>
+      </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
@@ -7816,17 +7858,17 @@
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>physical capability</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>A capability to perform a behaviour by virtue of muscular-skeletal attributes or psychomotor control</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -9069,17 +9111,17 @@
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>social capability</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>A capability to engage in interpersonal processes that influence ability to perform a behaviour, when appropriate circumstances occur.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr"/>
@@ -9168,7 +9210,7 @@
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>social environment system</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
@@ -9178,7 +9220,7 @@
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, social and cultural institutions and processes involving these that influence the life of people and social groups.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -504,31 +504,36 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006046</t>
+          <t>BCIO:006027</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>action schema</t>
+          <t>Belief about reduction</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>A cognitive schema that guides a sequence of behaviours.</t>
+          <t>A belief about the existence of a decrease from an initial reference point.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>action script</t>
+          <t>perceived loss; belief about loss</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>The perceived loss could be in anything internal or external, such as wealth or health.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about reduction' might be about an existing loss.</t>
+        </is>
+      </c>
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
@@ -539,61 +544,61 @@
       <c r="K2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000349</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>addiction</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm. </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>I have made this an external entity using the definition from AddictO as I think this is one in which AddictO should be the primary source</t>
-        </is>
-      </c>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006046</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>action schema</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive schema that when activate, guides a sequence of behaviours.</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>action script</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000195 </t>
+          <t>ADDICTO:0000349</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>affective process</t>
+          <t>addiction</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Any process that has positive or negative valence. </t>
+          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -606,107 +611,111 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>I have made this an external entity using the definition from AddictO as I think this is one in which AddictO should be the primary source</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000195 </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Any process that has positive or negative valence. </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>BCIO:006014</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>alienation</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>UBERON:0000061</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>anatomical structure</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>material anatomical entity</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A material anatomical entity that is a single connected structure with inherent 3D shape generated by coordinated expression of the organism's own genome.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>The structure of the stomach and intestines</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>The formal definition for this definition does not include the influence of the environment on anatomical structure, as the class was reused from the Uber-anatomy ontology. This ontology defines anatomical structure for all organisms, including those whose anatomical structure might not be directly influenced by an interaction between genes and the environment.
 An example for this class serving as a mechanism of action would be in an intervention that targets change in anatomical structure. For instance, a gastric bypass surgery can change the structure of the stomach and intestines, and thereby change eating behaviours.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MFOEM:000009</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>anger</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>A negative emotion, characterised by feelings of unpleasantness and high arousal, in the form of antagonistic feelings and action tendencies.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
@@ -719,22 +728,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFOEM:000021</t>
+          <t>MFOEM:000009</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>animal-nature disgust</t>
+          <t>anger</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Disgust elicited by poor hygiene, inappropriate sex, gore or violations of bodily boundaries, and death or the odor of decay.</t>
+          <t>A negative emotion, characterised by feelings of unpleasantness and high arousal, in the form of antagonistic feelings and action tendencies.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -752,22 +761,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFOEM:000028</t>
+          <t>MFOEM:000021</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>anxiety</t>
+          <t>animal-nature disgust</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>An emotion that is negative, aversive and provoked by the prospect of distal future threat.</t>
+          <t>Disgust elicited by poor hygiene, inappropriate sex, gore or violations of bodily boundaries, and death or the odor of decay.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -785,22 +794,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFOEM:000005</t>
+          <t>MFOEM:000028</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>anxiety</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cognitive representation which represents an evaluation of the relevance of some triggering object or event to the organism. </t>
+          <t>An emotion that is negative, aversive and provoked by the prospect of distal future threat.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -818,22 +827,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MFOEM:000078</t>
+          <t>MFOEM:000005</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>appraisal as caused by an other</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>appraisal of causal agency</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation that an event was caused by another person.</t>
+          <t xml:space="preserve">A cognitive representation which represents an evaluation of the relevance of some triggering object or event to the organism. </t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -849,123 +858,123 @@
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MFOEM:000078</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>appraisal as caused by an other</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>appraisal of causal agency</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>An appraisal that represents an evaluation that an event was caused by another person.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>BCIO:050223</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>appraisal as caused by external non-human factors</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>appraisal of causal agency</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>An appraisal that represents an evaluation that an event was caused by natural events and not by humans.</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr"/>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="inlineStr"/>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
+      <c r="G13" s="3" t="inlineStr"/>
+      <c r="H13" s="3" t="inlineStr"/>
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr"/>
-      <c r="K12" s="3" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr"/>
+      <c r="K13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>BCIO:006077</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>appraisal as caused by factors external to the person</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>appraisal of causal agency</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>An appraisal that represents an evaluation that an event was caused by factors external to the person.</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr"/>
-      <c r="G13" s="4" t="inlineStr"/>
-      <c r="H13" s="4" t="inlineStr"/>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
+      <c r="G14" s="4" t="inlineStr"/>
+      <c r="H14" s="4" t="inlineStr"/>
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr"/>
-      <c r="K13" s="4" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MFOEM:000076</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>appraisal as caused by self</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>appraisal of causal agency</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An appraisal that represents an evaluation that an event was caused by the self.  </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" s="4" t="inlineStr"/>
+      <c r="K14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MFOEM:000091</t>
+          <t>MFOEM:000076</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>appraisal of avoidability of consequences</t>
+          <t>appraisal as caused by self</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>appraisal</t>
+          <t>appraisal of causal agency</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>An appraisal which represents a judgement about how avoidable the expected consequences of an event will be.</t>
+          <t xml:space="preserve">An appraisal that represents an evaluation that an event was caused by the self.  </t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -983,12 +992,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFOEM:000075</t>
+          <t>MFOEM:000091</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>appraisal of causal agency</t>
+          <t>appraisal of avoidability of consequences</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -998,7 +1007,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">An appraisal that represents an evaluation of who or what caused an event. </t>
+          <t>An appraisal which represents a judgement about how avoidable the expected consequences of an event will be.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1016,12 +1025,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFOEM:000103</t>
+          <t>MFOEM:000075</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>appraisal of dangerousness</t>
+          <t>appraisal of causal agency</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1031,7 +1040,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">An appraisal which represents an evaluation of the dangerousness of an object or situation. </t>
+          <t xml:space="preserve">An appraisal that represents an evaluation of who or what caused an event. </t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1049,12 +1058,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFOEM:000085</t>
+          <t>MFOEM:000103</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>appraisal of desirability of consequences</t>
+          <t>appraisal of dangerousness</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1064,7 +1073,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation of the desirability of the expected consequences of an event.</t>
+          <t xml:space="preserve">An appraisal which represents an evaluation of the dangerousness of an object or situation. </t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1082,12 +1091,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFOEM:000060</t>
+          <t>MFOEM:000085</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>appraisal of expectedness</t>
+          <t>appraisal of desirability of consequences</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1097,7 +1106,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">An appraisal that represents an evaluation of whether an event was expected to occur. </t>
+          <t>An appraisal that represents an evaluation of the desirability of the expected consequences of an event.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1115,12 +1124,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFOEM:000072</t>
+          <t>MFOEM:000060</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>appraisal of goal importance</t>
+          <t>appraisal of expectedness</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1130,7 +1139,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>An appraisal that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
+          <t xml:space="preserve">An appraisal that represents an evaluation of whether an event was expected to occur. </t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1146,90 +1155,90 @@
       <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MFOEM:000072</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>appraisal of goal importance</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>appraisal</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>An appraisal that represents an evaluation of whether an event or object is important to the person's goals or needs.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>BCIO:006078</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>appraisal of obligation to act</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>appraisal</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>An appraisal that represents an evaluation of how much one is personally obliged to respond to an event or person in need.</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MFOEM:000061</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>appraisal of pleasantness</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>appraisal</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>An appraisal that represents an evaluation of the pleasantness of an object or event.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFOEM:000002</t>
+          <t>MFOEM:000061</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>appraisal process</t>
+          <t>appraisal of pleasantness</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>appraisal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A mental process that gives rise to an appraisal.</t>
+          <t>An appraisal that represents an evaluation of the pleasantness of an object or event.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1245,127 +1254,127 @@
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MFOEM:000002</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>appraisal process</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A mental process that gives rise to an appraisal.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>BCIO:006300</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>approval-based motivation</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>controlled motivation</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>Controlled motivation to gain or maintain a positive evaluation of self or feel others approval of oneself.</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>introjected motivation; Introjected regulation</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr"/>
-      <c r="G24" s="3" t="inlineStr"/>
-      <c r="H24" s="3" t="inlineStr"/>
-      <c r="I24" s="3" t="inlineStr">
+      <c r="F25" s="3" t="inlineStr"/>
+      <c r="G25" s="3" t="inlineStr"/>
+      <c r="H25" s="3" t="inlineStr"/>
+      <c r="I25" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J24" s="3" t="inlineStr"/>
-      <c r="K24" s="3" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="J25" s="3" t="inlineStr"/>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>MF:0000012</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>arousal</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>A physiological and psychological state of being awake or reactive to stimuli.</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006119</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>Learning that involves changing strength of association between two or more mental processes.</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006126</t>
+          <t>BCIO:006119</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>associative memory</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding the set of entities associated with a particular object or event.</t>
+          <t>Learning that involves changing strength of association between two or more mental processes.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
@@ -1381,189 +1390,189 @@
       <c r="K27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006126</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>associative memory</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding the set of entities associated with a particular object or event.</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>MF:0000018</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>attending</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t xml:space="preserve">A mental process whereby relevant aspects of our mental experience are focused on specific targets. </t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>BCIO:050214</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>attentional self-regulation capability</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>self-regulation capability</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>A self-regulation capability to modulate one’s attention toward internal or external stimuli.</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr"/>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="inlineStr"/>
+      <c r="I30" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J29" s="3" t="inlineStr"/>
-      <c r="K29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="J30" s="3" t="inlineStr"/>
+      <c r="K30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>BCIO:006134</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>automatic motivation</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>motivation</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>A mental process that energises and directs behaviour via emotions and impulses that arise from associative learning or innate dispositions.</t>
         </is>
       </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>BCIO:006302</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>autonomous motivation</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>motivation</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>Motivation that is internally generated and based on a behaviour being interesting or valuable to an individual.</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr"/>
+      <c r="H32" s="3" t="inlineStr"/>
+      <c r="I32" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J31" s="3" t="inlineStr"/>
-      <c r="K31" s="3" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006065</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>autonomy need</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to have a sense of personal agency and initiative</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
+      <c r="J32" s="3" t="inlineStr"/>
+      <c r="K32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006161</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>avoidance mental process</t>
+          <t>autonomy need</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental process that reduces the frequency by which an aversive cognitive representation is evoked. </t>
+          <t>A psychological need to have a sense of personal agency and initiative</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -1581,22 +1590,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006015</t>
+          <t>BCIO:006161</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>avoidance mental process</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to be conscious of events, objects or sensory patterns.</t>
+          <t xml:space="preserve">A mental process that reduces the frequency by which an aversive cognitive representation is evoked. </t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
@@ -1612,200 +1621,200 @@
       <c r="K34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006015</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>awareness</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realized by attending to events, objects or sensory patterns in experience.</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>The events attended to can include internal and external events.</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>BCIO:006098</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>behaviour-influencing social interaction process</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>interpersonal reciprocal communication</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>An interpersonal process in which one person's  reciprocal communication with one or more others may facilitate or hinder the person's behaviour.</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr"/>
-      <c r="I35" s="4" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
+      <c r="G36" s="4" t="inlineStr"/>
+      <c r="H36" s="4" t="inlineStr"/>
+      <c r="I36" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J35" s="4" t="inlineStr"/>
-      <c r="K35" s="4" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="J36" s="4" t="inlineStr"/>
+      <c r="K36" s="4" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>BCIO:050215</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>behavioural capability</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>A personal capability that includes behaviours in its realisation.</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr"/>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="inlineStr"/>
-      <c r="H36" s="3" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr"/>
+      <c r="I37" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr"/>
-      <c r="K36" s="3" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="J37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>BCIO:006048</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>behavioural decision</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>decision</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>A decision that one behaviour is preferred from at least two behavioural options.</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>BCIO:006304</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">behavioural importance-based motivation </t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>autonomous motivation</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>Autonomous motivation due to the perceived value or importance of the behaviour to oneself.</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr">
         <is>
           <t>identified motivation; identified regulation</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr"/>
-      <c r="G38" s="4" t="inlineStr"/>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="inlineStr">
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J38" s="4" t="inlineStr"/>
-      <c r="K38" s="4" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006016</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>behavioural intention</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition that is a commitment to enact or not enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006006</t>
+          <t>BCIO:006016</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>behavioural self-regulation capability</t>
+          <t>behavioural intention</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A self-regulation capability to modulate one's behaviour. </t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>behavioural regulation capability</t>
-        </is>
-      </c>
+          <t>A mental disposition to commit to enact or not enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr"/>
@@ -1820,27 +1829,33 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006104</t>
+          <t>BCIO:006086</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>behavioural self-regulation of behaviour</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of an organism in response to external or internal stimuli, and that is instigated by the organism itself.</t>
+          <t>An environmental disposition of that enables or facilitates a behaviour.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>The term 'enables' is used in the definition to specify that 'behavioural opportunity' is a necessary condition for behaviour to occur. Although other MoAs will help bring behaviour about, there has to be a 'behavioural opportunity' for behaviour to occur.
+The term 'facilitates' is used to specify that 'behavioural opportunity' will make the behaviour easier. Higher behavioural opportunity will increase the likelihood of behaviour across situations and people.
+The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'behavioural opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).</t>
+        </is>
+      </c>
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr">
         <is>
@@ -1851,66 +1866,66 @@
       <c r="K41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MF:0000041</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>A disposition to mental processes that represent some proposition X to be true.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006006</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>behavioural self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A self-regulation capability to modulate one's behaviour. </t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>behavioural regulation capability</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006140</t>
+          <t>BCIO:006104</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>belief about anticipated emotion</t>
+          <t>behavioural self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A belief about the potential emotions experienced as result of an event.</t>
+          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of an organism in response to external or internal stimuli, and that is instigated by the organism itself.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
-        </is>
-      </c>
+      <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr">
         <is>
@@ -1921,62 +1936,66 @@
       <c r="K43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050216</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>belief about anticipated regret</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>belief about anticipated emotion</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the potential regret experienced as a result of an event.</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MF:0000041</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A mental disposition to represent a proposition to be true.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006017</t>
+          <t>BCIO:006140</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers</t>
+          <t>belief about anticipated emotion</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>A belief about the extent to which factors exist that could restrict or impede the person from engaging in a behaviour.</t>
+          <t>A belief about the potential emotions experienced as result of an event.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
+        </is>
+      </c>
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr">
         <is>
@@ -1987,103 +2006,95 @@
       <c r="K45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006018</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>belief about conformity to behavioural norms</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050216</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>belief about anticipated regret</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>belief about anticipated emotion</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the potential regret experienced as a result of an event.</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr"/>
+      <c r="H46" s="3" t="inlineStr"/>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr"/>
+      <c r="K46" s="3" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006017</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>belief about barriers</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the extent to which one's own behaviour is similar to that of referent others.</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050217</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>belief about consequences of an occurrence</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the outcomes resulting from an occurrence.</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="3" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>A belief about a factor could restrict or impede a person from engaging in a behaviour.</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006019</t>
+          <t>BCIO:006018</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about conformity to behavioural norms</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes resulting from a behaviour.</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>response efficacy</t>
-        </is>
-      </c>
+          <t>A belief about the extent to which one's own behaviour is similar to that of referent others.</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr">
         <is>
@@ -2094,100 +2105,108 @@
       <c r="K48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050217</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>belief about consequences of an occurrence</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the outcomes resulting from an occurrence.</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006019</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>belief about consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>belief about consequences of an occurrence</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the outcomes resulting from a behaviour.</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>response efficacy</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>BCIO:006021</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>belief about consequences of goal attainment</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>belief about consequences of an occurrence</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>A belief about the outcomes resulting from achieving a goal.</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>Consequences can be either positive or negative.
 Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
         </is>
       </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006152</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>belief about control over behaviour</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A belief about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006022</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>belief about control over one's future</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the extent to which one can direct what happens in one's future.</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr">
         <is>
@@ -2198,113 +2217,113 @@
       <c r="K51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006152</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>belief about control over behaviour</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A belief about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr"/>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006022</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>belief about control over one's future</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the extent to which one can direct what happens in one's future.</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>BCIO:006153</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>belief about control over the environment</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>belief about control over behaviour</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A belief about one's resources and opportunities within an environment to perform a behaviour. </t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr"/>
-      <c r="F52" s="4" t="inlineStr"/>
-      <c r="G52" s="4" t="inlineStr"/>
-      <c r="H52" s="4" t="inlineStr"/>
-      <c r="I52" s="4" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr"/>
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J52" s="4" t="inlineStr"/>
-      <c r="K52" s="4" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050218</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>belief about emotional consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>belief about consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the outcomes of behaviour in terms of resulting emotions.</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr"/>
-      <c r="H53" s="3" t="inlineStr"/>
-      <c r="I53" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006023</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>belief about gain</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the existence of an increase from an initial reference point.</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
+      <c r="J54" s="4" t="inlineStr"/>
+      <c r="K54" s="4" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050219</t>
+          <t>BCIO:050218</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2314,7 +2333,7 @@
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>A belief about the outcomes of behaviour in terms of one's health and wellbeing.</t>
+          <t>A belief about the outcomes of behaviour in terms of resulting emotions.</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr"/>
@@ -2330,156 +2349,165 @@
       <c r="K55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006023</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>belief about gain</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the existence of an increase from an initial reference point.</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Perceived gain</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050219</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>belief about health consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>belief about consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the outcomes of behaviour in terms of one's health and wellbeing.</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr"/>
+      <c r="F57" s="3" t="inlineStr"/>
+      <c r="G57" s="3" t="inlineStr"/>
+      <c r="H57" s="3" t="inlineStr"/>
+      <c r="I57" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="inlineStr"/>
+      <c r="K57" s="3" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>BCIO:050224</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>belief about healthcare accessibility</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>belief about one's environment</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>A belief about one's environment in terms of how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr"/>
-      <c r="F56" s="3" t="inlineStr"/>
-      <c r="G56" s="3" t="inlineStr"/>
-      <c r="H56" s="3" t="inlineStr"/>
-      <c r="I56" s="3" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr"/>
+      <c r="F58" s="3" t="inlineStr"/>
+      <c r="G58" s="3" t="inlineStr"/>
+      <c r="H58" s="3" t="inlineStr"/>
+      <c r="I58" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J56" s="3" t="inlineStr"/>
-      <c r="K56" s="3" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="J58" s="3" t="inlineStr"/>
+      <c r="K58" s="3" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>BCIO:006026</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>belief about consequences of an occurrence</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>A belief about the probability that a given event or state will occur in the future.</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006024</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of potential outcomes</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the likelihood a particular behaviour will result in particular outcomes.</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050220</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>belief about likelihood of emotional consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>belief about likelihood of consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the probability of a behaviour resulting or not resulting in a change to emotions.</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr"/>
-      <c r="F59" s="3" t="inlineStr"/>
-      <c r="G59" s="3" t="inlineStr"/>
-      <c r="H59" s="3" t="inlineStr"/>
-      <c r="I59" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J59" s="3" t="inlineStr"/>
-      <c r="K59" s="3" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006025</t>
+          <t>BCIO:006024</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of health consequences of behaviour</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>A belief about the likelihood of a behaviour resulting in a change in a threat to health and wellbeing.</t>
+          <t xml:space="preserve"> A belief about the probability a particular behaviour will result or not result in particular outcomes.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -2497,12 +2525,12 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050221</t>
+          <t>BCIO:050220</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>belief about likelihood of social consequences of behaviour</t>
+          <t>belief about likelihood of emotional consequences of behaviour</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -2512,7 +2540,7 @@
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>A belief about the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
+          <t>A belief about the probability of a behaviour resulting or not resulting in a change to emotions.</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr"/>
@@ -2530,22 +2558,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006027</t>
+          <t>BCIO:006025</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>belief about loss</t>
+          <t>belief about likelihood of health consequences of behaviour</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>A belief about the existence of a decrease from an initial reference point.</t>
+          <t>A belief about the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -2561,57 +2589,57 @@
       <c r="K62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006141</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>belief about message</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A belief regarding aspects of a verbal, graphic, written or recorded communication. </t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050221</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>belief about likelihood of social consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>belief about likelihood of consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr"/>
+      <c r="F63" s="3" t="inlineStr"/>
+      <c r="G63" s="3" t="inlineStr"/>
+      <c r="H63" s="3" t="inlineStr"/>
+      <c r="I63" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="inlineStr"/>
+      <c r="K63" s="3" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006028</t>
+          <t>BCIO:006141</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>belief about message relevance</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
+          <t xml:space="preserve">A belief regarding aspects of a verbal, graphic, written or recorded communication. </t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -2629,12 +2657,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006143</t>
+          <t>BCIO:006028</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>belief about message trustworthiness</t>
+          <t>belief about message relevance</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -2644,7 +2672,7 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A belief about whether a verbal, graphic, written or recorded communication provides reliable information. </t>
+          <t>A belief regarding whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
@@ -2662,22 +2690,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006144</t>
+          <t>BCIO:006143</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>belief about need satisfaction</t>
+          <t>belief about message trustworthiness</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether one's psychological needs have been met.</t>
+          <t>A belief about whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
@@ -2695,12 +2723,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006029</t>
+          <t>BCIO:006144</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>belief about one's environment</t>
+          <t>belief about need satisfaction</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -2710,7 +2738,7 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>A belief about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
+          <t>A belief regarding whether one or more of the person's needs have been met.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
@@ -2726,229 +2754,229 @@
       <c r="K67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006029</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>belief about one's environment</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>BCIO:050225</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>belief about one's physical environment</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>belief about one's environment</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>A belief about parts of one's environment that do not involve people or organisations.</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr"/>
-      <c r="F68" s="3" t="inlineStr"/>
-      <c r="G68" s="3" t="inlineStr"/>
-      <c r="H68" s="3" t="inlineStr"/>
-      <c r="I68" s="3" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr"/>
+      <c r="F69" s="3" t="inlineStr"/>
+      <c r="G69" s="3" t="inlineStr"/>
+      <c r="H69" s="3" t="inlineStr"/>
+      <c r="I69" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J68" s="3" t="inlineStr"/>
-      <c r="K68" s="3" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="J69" s="3" t="inlineStr"/>
+      <c r="K69" s="3" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>BCIO:006145</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>belief about one's social environment</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>belief about one's environment</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>A belief about the aspects of one's immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>BCIO:006301</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t>belief about others' susceptibility</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>belief about susceptibility to a threat</t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>A belief about how vulnerable others are to a threat.</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr"/>
-      <c r="F70" s="3" t="inlineStr"/>
-      <c r="G70" s="3" t="inlineStr"/>
-      <c r="H70" s="3" t="inlineStr"/>
-      <c r="I70" s="3" t="inlineStr">
+      <c r="E71" s="3" t="inlineStr"/>
+      <c r="F71" s="3" t="inlineStr"/>
+      <c r="G71" s="3" t="inlineStr"/>
+      <c r="H71" s="3" t="inlineStr"/>
+      <c r="I71" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J70" s="3" t="inlineStr"/>
-      <c r="K70" s="3" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="J71" s="3" t="inlineStr"/>
+      <c r="K71" s="3" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>BCIO:006031</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>belief about personal susceptibility</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>belief about susceptibility to a threat</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>A belief about how vulnerable one is to a threat.</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's personal vulnerability to a threat.</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>BCIO:006303</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>belief about responsibility to act</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t>A belief about whether someone is obliged to take a certain course of action.</t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="inlineStr"/>
-      <c r="F72" s="3" t="inlineStr"/>
-      <c r="G72" s="3" t="inlineStr"/>
-      <c r="H72" s="3" t="inlineStr"/>
-      <c r="I72" s="3" t="inlineStr">
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>A belief about whether oneself or another person is obligated to take a certain course of action.</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr"/>
+      <c r="F73" s="3" t="inlineStr"/>
+      <c r="G73" s="3" t="inlineStr"/>
+      <c r="H73" s="3" t="inlineStr"/>
+      <c r="I73" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J72" s="3" t="inlineStr"/>
-      <c r="K72" s="3" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006030</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>belief about severity of an outcome</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>A belief about how serious the harm associated with an outcome could be.</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat severity</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr"/>
-      <c r="G73" s="2" t="inlineStr"/>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J73" s="2" t="inlineStr"/>
-      <c r="K73" s="2" t="inlineStr"/>
+      <c r="J73" s="3" t="inlineStr"/>
+      <c r="K73" s="3" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006020</t>
+          <t>BCIO:006030</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes of a behaviour in terms of social processes or attributes.</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr"/>
+          <t>A belief about how serious the harm associated with an outcome could be.</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat severity</t>
+        </is>
+      </c>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr"/>
@@ -2963,27 +2991,31 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006146</t>
+          <t>BCIO:006020</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>belief about social support</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>belief about one's social environment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether others will provide assistance or comfort to help the person cope with one or more stressors.</t>
+          <t>A belief about the outcomes of a behaviour in terms of social processes.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr">
         <is>
@@ -2994,47 +3026,47 @@
       <c r="K75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050226</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>belief about sufficient time for a behaviour</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
-          <t>A belief about having enough time or a suitable period of time to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="inlineStr"/>
-      <c r="F76" s="3" t="inlineStr"/>
-      <c r="G76" s="3" t="inlineStr"/>
-      <c r="H76" s="3" t="inlineStr"/>
-      <c r="I76" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J76" s="3" t="inlineStr"/>
-      <c r="K76" s="3" t="inlineStr"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006146</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>belief about social support</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>belief about one's social environment</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>A belief about whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006305</t>
+          <t>BCIO:050226</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief about sufficient time for a behaviour</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3044,14 +3076,10 @@
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>A belief about vulnerability to a threat.</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a risk</t>
-        </is>
-      </c>
+          <t>A belief about having enough time or a suitable period of time to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr"/>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr"/>
       <c r="H77" s="3" t="inlineStr"/>
@@ -3064,57 +3092,61 @@
       <c r="K77" s="3" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006142</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>belief about the credibility of a message's source</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>belief about message</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who are trustworthy. </t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr"/>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J78" s="2" t="inlineStr"/>
-      <c r="K78" s="2" t="inlineStr"/>
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006305</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a threat</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>A belief about vulnerability to a threat.</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a risk</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr"/>
+      <c r="G78" s="3" t="inlineStr"/>
+      <c r="H78" s="3" t="inlineStr"/>
+      <c r="I78" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J78" s="3" t="inlineStr"/>
+      <c r="K78" s="3" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006032</t>
+          <t>BCIO:006142</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>belief about the desirability of consequences of behaviour</t>
+          <t>belief about the credibility of a message's source</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
+          <t>A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
@@ -3132,22 +3164,22 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006149</t>
+          <t>BCIO:006032</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>belief about the personal desirability of consequences of behaviour</t>
+          <t>belief about the desirability of consequences of behaviour</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcome</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A belief about the worth of the outcomes of a behaviour to oneself.</t>
+          <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
@@ -3165,22 +3197,22 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006033</t>
+          <t>BCIO:006149</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>belief about the timing of the consequences of behaviour</t>
+          <t>belief about the personal desirability of consequences of a behaviour</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>evaluative belief about behavioural outcome</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>A belief about outcomes in terms of how long after the performance of a behaviour they will occur.</t>
+          <t>An evaluative belief about the value of the outcomes of a behaviour to oneself.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -3196,93 +3228,97 @@
       <c r="K81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006033</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>belief about the timing of the consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>belief about consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>A belief about outcomes in terms of how long after the performance of a behaviour they will occur.</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>BCIO:006306</t>
         </is>
       </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t>belief about threat</t>
         </is>
       </c>
-      <c r="C82" s="3" t="inlineStr">
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>A belief about a potential harm.</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr"/>
-      <c r="F82" s="3" t="inlineStr"/>
-      <c r="G82" s="3" t="inlineStr"/>
-      <c r="H82" s="3" t="inlineStr"/>
-      <c r="I82" s="3" t="inlineStr">
+      <c r="E83" s="3" t="inlineStr"/>
+      <c r="F83" s="3" t="inlineStr"/>
+      <c r="G83" s="3" t="inlineStr"/>
+      <c r="H83" s="3" t="inlineStr"/>
+      <c r="I83" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J82" s="3" t="inlineStr"/>
-      <c r="K82" s="3" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006034</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>belief about voluntariness of behaviour</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
-      <c r="H83" s="2" t="inlineStr"/>
-      <c r="I83" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J83" s="2" t="inlineStr"/>
-      <c r="K83" s="2" t="inlineStr"/>
+      <c r="J83" s="3" t="inlineStr"/>
+      <c r="K83" s="3" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006092</t>
+          <t>BCIO:006034</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>bodily behavioural cue</t>
+          <t>belief about voluntariness of behaviour</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>A stimulus that arises from bodily processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr"/>
+          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>belief about autonomy in performing behaviours</t>
+        </is>
+      </c>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr"/>
@@ -3295,194 +3331,194 @@
       <c r="K84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006092</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from bodily processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr"/>
+      <c r="F85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="inlineStr"/>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr"/>
+      <c r="K85" s="2" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>MF:0000032</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>A disposition that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>Extended organism refers to an organism and its microbiome (e.g., the bacteria that live in one's digestive system)
 Bodily disposition would include features, such as a person's strength (which can be used in a specific context), but not weight. A person would have a certain weight independent of most circumstances they are in.</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="inlineStr">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr">
+      <c r="C87" s="4" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D86" s="4" t="inlineStr">
+      <c r="D87" s="4" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E86" s="4" t="inlineStr"/>
-      <c r="F86" s="4" t="inlineStr"/>
-      <c r="G86" s="4" t="inlineStr"/>
-      <c r="H86" s="4" t="inlineStr"/>
-      <c r="I86" s="4" t="inlineStr">
+      <c r="E87" s="4" t="inlineStr"/>
+      <c r="F87" s="4" t="inlineStr"/>
+      <c r="G87" s="4" t="inlineStr"/>
+      <c r="H87" s="4" t="inlineStr"/>
+      <c r="I87" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J86" s="4" t="inlineStr"/>
-      <c r="K86" s="4" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="J87" s="4" t="inlineStr"/>
+      <c r="K87" s="4" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>OGMS:0000060</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>A process in which at least one bodily component of an organism participates.</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="4" t="inlineStr">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000074 </t>
         </is>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="B89" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
+      <c r="C89" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D88" s="4" t="inlineStr">
+      <c r="D89" s="4" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr"/>
-      <c r="F88" s="4" t="inlineStr"/>
-      <c r="G88" s="4" t="inlineStr"/>
-      <c r="H88" s="4" t="inlineStr"/>
-      <c r="I88" s="4" t="inlineStr">
+      <c r="E89" s="4" t="inlineStr"/>
+      <c r="F89" s="4" t="inlineStr"/>
+      <c r="G89" s="4" t="inlineStr"/>
+      <c r="H89" s="4" t="inlineStr"/>
+      <c r="I89" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J88" s="4" t="inlineStr"/>
-      <c r="K88" s="4" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006120</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>classical conditioning</t>
-        </is>
-      </c>
-      <c r="C89" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr"/>
-      <c r="G89" s="2" t="inlineStr"/>
-      <c r="H89" s="2" t="inlineStr"/>
-      <c r="I89" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J89" s="2" t="inlineStr"/>
-      <c r="K89" s="2" t="inlineStr"/>
+      <c r="J89" s="4" t="inlineStr"/>
+      <c r="K89" s="4" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006108</t>
+          <t>BCIO:006120</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>cognitive dissonance</t>
+          <t>classical conditioning</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>An unpleasant subjective emotional feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
+          <t>Associative learning that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -3498,66 +3534,62 @@
       <c r="K90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MF:0000008</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006108</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>cognitive dissonance</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>An unpleasant subjective emotional feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr"/>
+      <c r="H91" s="2" t="inlineStr"/>
+      <c r="I91" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J91" s="2" t="inlineStr"/>
+      <c r="K91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MF:0000031</t>
+          <t>MF:0000008</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">A representation which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a mental disposition is activated, the content of that belief is a cognitive representation. </t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
@@ -3568,57 +3600,61 @@
       <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006045</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>cognitive schema</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition about an entity that guides perception, thought or behaviour.</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr"/>
-      <c r="F93" s="2" t="inlineStr"/>
-      <c r="G93" s="2" t="inlineStr"/>
-      <c r="H93" s="2" t="inlineStr"/>
-      <c r="I93" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J93" s="2" t="inlineStr"/>
-      <c r="K93" s="2" t="inlineStr"/>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MF:0000031</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A representation which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a mental disposition is activated, the content of that belief is a cognitive representation. </t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006007</t>
+          <t>BCIO:006045</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>cognitive self-regulation capability</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A self-regulation capability to modulate one's cognitive processes. </t>
+          <t>A mental disposition that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
@@ -3634,222 +3670,222 @@
       <c r="K94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006007</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>cognitive self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A self-regulation capability to modulate one's cognitive processes. </t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr"/>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr"/>
+      <c r="H95" s="2" t="inlineStr"/>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr"/>
+      <c r="K95" s="2" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>MF:0000040</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>communication</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>interpersonal process</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>An interpersonal process that involves the transmission of information between two organisms.</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="inlineStr">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>BCIO:006110</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr">
+      <c r="D97" s="2" t="inlineStr">
         <is>
           <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
-      <c r="E96" s="2" t="inlineStr"/>
-      <c r="F96" s="2" t="inlineStr"/>
-      <c r="G96" s="2" t="inlineStr"/>
-      <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J96" s="2" t="inlineStr"/>
-      <c r="K96" s="2" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr"/>
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr"/>
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J97" s="2" t="inlineStr"/>
+      <c r="K97" s="2" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>MF:0000017</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>consciousness</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>BCIO:006307</t>
         </is>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
         <is>
           <t>controlled motivation</t>
         </is>
       </c>
-      <c r="C98" s="3" t="inlineStr">
+      <c r="C99" s="3" t="inlineStr">
         <is>
           <t>motivation</t>
         </is>
       </c>
-      <c r="D98" s="3" t="inlineStr">
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
         </is>
       </c>
-      <c r="E98" s="3" t="inlineStr"/>
-      <c r="F98" s="3" t="inlineStr"/>
-      <c r="G98" s="3" t="inlineStr"/>
-      <c r="H98" s="3" t="inlineStr"/>
-      <c r="I98" s="3" t="inlineStr">
+      <c r="E99" s="3" t="inlineStr"/>
+      <c r="F99" s="3" t="inlineStr"/>
+      <c r="G99" s="3" t="inlineStr"/>
+      <c r="H99" s="3" t="inlineStr"/>
+      <c r="I99" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J98" s="3" t="inlineStr"/>
-      <c r="K98" s="3" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="J99" s="3" t="inlineStr"/>
+      <c r="K99" s="3" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>MFOEM:000020</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>core disgust</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006160</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>craving</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective experience of powerful want or need for something or urge to engage in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
-      <c r="H100" s="2" t="inlineStr"/>
-      <c r="I100" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J100" s="2" t="inlineStr"/>
-      <c r="K100" s="2" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006047</t>
+          <t>BCIO:006160</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>craving</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
+          <t xml:space="preserve">A subjective experience of powerful want or need for something or urge to engage in a behaviour. </t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
@@ -3867,27 +3903,31 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006111</t>
+          <t>BCIO:006047</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">decision simplification </t>
+          <t>decision</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that simplifies decision making.</t>
+          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
+        </is>
+      </c>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr">
         <is>
@@ -3900,22 +3940,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006116</t>
+          <t>BCIO:006111</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t xml:space="preserve">decision simplification </t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Judging during which a decision is created.</t>
+          <t>A cognitive process that simplifies decision making.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
@@ -3933,22 +3973,22 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006079</t>
+          <t>BCIO:006116</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
+          <t>Judging during which a decision is created.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -3966,22 +4006,22 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006121</t>
+          <t>BCIO:006079</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>discrimination learning</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
@@ -3997,90 +4037,90 @@
       <c r="K105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006121</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>discrimination learning</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr"/>
+      <c r="H106" s="2" t="inlineStr"/>
+      <c r="I106" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J106" s="2" t="inlineStr"/>
+      <c r="K106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
         <is>
           <t>BCIO:050227</t>
         </is>
       </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="B107" s="3" t="inlineStr">
         <is>
           <t>disengagement due to workload</t>
         </is>
       </c>
-      <c r="C106" s="3" t="inlineStr">
+      <c r="C107" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="D107" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to be detached from other people due to exhaustion experienced in one's working environment.</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr"/>
-      <c r="F106" s="3" t="inlineStr"/>
-      <c r="G106" s="3" t="inlineStr"/>
-      <c r="H106" s="3" t="inlineStr"/>
-      <c r="I106" s="3" t="inlineStr">
+      <c r="E107" s="3" t="inlineStr"/>
+      <c r="F107" s="3" t="inlineStr"/>
+      <c r="G107" s="3" t="inlineStr"/>
+      <c r="H107" s="3" t="inlineStr"/>
+      <c r="I107" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J106" s="3" t="inlineStr"/>
-      <c r="K106" s="3" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000019 </t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>A negative emotion which guards the body against dangerous foods and microbial infections. The basic physiological disgust has also culturally evolved to incorporate moral disgust which protects the self from nonphysical threats such as moral violations.</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" s="3" t="inlineStr"/>
+      <c r="K107" s="3" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BFO:0000016</t>
+          <t xml:space="preserve">MFOEM:000019 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
+          <t>A negative emotion which guards the body against dangerous foods and microbial infections. The basic physiological disgust has also culturally evolved to incorporate moral disgust which protects the self from nonphysical threats such as moral violations.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -4096,90 +4136,90 @@
       <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="inlineStr">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>BFO:0000016</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
         <is>
           <t>BCIO:006113</t>
         </is>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>dissonance reduction process</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D109" s="2" t="inlineStr">
+      <c r="D110" s="2" t="inlineStr">
         <is>
           <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
         </is>
       </c>
-      <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J109" s="2" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>ENVO:01001110</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ecosystem</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>An environmental system which includes both living and non-living components.</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J110" s="2" t="inlineStr"/>
+      <c r="K110" s="2" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000001 </t>
+          <t>ENVO:01001110</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>ecosystem</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>affective process</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
+          <t>An environmental system which includes both living and non-living components.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -4197,22 +4237,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000007 </t>
+          <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>emotional action tendency</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>An emotional action tendency is a disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -4228,64 +4268,72 @@
       <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006008</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>emotional self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000007 </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Flight and fight action tendencies</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006159</t>
+          <t>BCIO:006008</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>enjoyment of behaviour</t>
+          <t>emotional self-regulation capability</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr"/>
+          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
@@ -4298,138 +4346,138 @@
       <c r="K114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>ENVO:01000452</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006159</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>enjoyment of behaviour</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="inlineStr"/>
+      <c r="K115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ENVO:01000254</t>
+          <t>ENVO:01000452</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
+          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ENVO:01000254</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>'The term 'disposition' is used to describe that an environmental system can surround and interact with one or more material entities. This conditionality is important, as an entity does not necessarily have to be in an specific environment system at all times.
 The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).
 'environmental system' includes physical and social aspects of the environment. As all subclasses of 'environmental system' will have physical aspects, a separate subclass for 'physical environmental system' would not capture a unique aspect of its parent class.</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006127</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="inlineStr">
-        <is>
-          <t>episodic memory</t>
-        </is>
-      </c>
-      <c r="C117" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="inlineStr"/>
-      <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
-      <c r="H117" s="2" t="inlineStr"/>
-      <c r="I117" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J117" s="2" t="inlineStr"/>
-      <c r="K117" s="2" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006035</t>
+          <t>BCIO:006127</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>episodic memory</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept is used to form an evaluation of self.</t>
-        </is>
-      </c>
+      <c r="G118" s="2" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr">
         <is>
@@ -4442,27 +4490,36 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006038</t>
+          <t>BCIO:006035</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr"/>
+          <t>An evaluative belief about one's attributes.</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept</t>
+        </is>
+      </c>
       <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept is used to form an evaluation of self.
+One's attributes can be evaluated as positive or negative.</t>
+        </is>
+      </c>
       <c r="H119" s="2" t="inlineStr"/>
       <c r="I119" s="2" t="inlineStr">
         <is>
@@ -4473,80 +4530,80 @@
       <c r="K119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006038</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>evaluative belief</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr"/>
+      <c r="K120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="inlineStr">
         <is>
           <t>BCIO:006151</t>
         </is>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="B121" s="4" t="inlineStr">
         <is>
           <t>evaluative belief about a stereotype</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
+      <c r="C121" s="4" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="D120" s="4" t="inlineStr">
+      <c r="D121" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr"/>
-      <c r="F120" s="4" t="inlineStr"/>
-      <c r="G120" s="4" t="inlineStr"/>
-      <c r="H120" s="4" t="inlineStr"/>
-      <c r="I120" s="4" t="inlineStr">
+      <c r="E121" s="4" t="inlineStr"/>
+      <c r="F121" s="4" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr"/>
+      <c r="H121" s="4" t="inlineStr"/>
+      <c r="I121" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J120" s="4" t="inlineStr"/>
-      <c r="K120" s="4" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006147</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about behaviour</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
-        </is>
-      </c>
-      <c r="E121" s="2" t="inlineStr"/>
-      <c r="F121" s="2" t="inlineStr"/>
-      <c r="G121" s="2" t="inlineStr"/>
-      <c r="H121" s="2" t="inlineStr"/>
-      <c r="I121" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J121" s="2" t="inlineStr"/>
-      <c r="K121" s="2" t="inlineStr"/>
+      <c r="J121" s="4" t="inlineStr"/>
+      <c r="K121" s="4" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006147</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcomes</t>
+          <t>evaluative belief about behaviour</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -4556,7 +4613,7 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether the consequences of a behaviour are positive or negative.</t>
+          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -4574,12 +4631,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006150</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about others</t>
+          <t>evaluative belief about behavioural outcomes</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -4589,7 +4646,7 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the attributes of others.</t>
+          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -4605,88 +4662,88 @@
       <c r="K123" s="2" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="inlineStr">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006150</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>evaluative belief about others</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>evaluative belief</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about the attributes of others.</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr"/>
+      <c r="I124" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J124" s="2" t="inlineStr"/>
+      <c r="K124" s="2" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
         <is>
           <t>BCIO:006101</t>
         </is>
       </c>
-      <c r="B124" s="4" t="inlineStr">
+      <c r="B125" s="4" t="inlineStr">
         <is>
           <t>experiential rightness of goal pursuit</t>
         </is>
       </c>
-      <c r="C124" s="4" t="inlineStr">
+      <c r="C125" s="4" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D124" s="4" t="inlineStr">
+      <c r="D125" s="4" t="inlineStr">
         <is>
           <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
         </is>
       </c>
-      <c r="E124" s="4" t="inlineStr">
+      <c r="E125" s="4" t="inlineStr">
         <is>
           <t>perceived regulatory fit process</t>
         </is>
       </c>
-      <c r="F124" s="4" t="inlineStr"/>
-      <c r="G124" s="4" t="inlineStr">
+      <c r="F125" s="4" t="inlineStr"/>
+      <c r="G125" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
         </is>
       </c>
-      <c r="H124" s="4" t="inlineStr"/>
-      <c r="I124" s="4" t="inlineStr">
+      <c r="H125" s="4" t="inlineStr"/>
+      <c r="I125" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J124" s="4" t="inlineStr"/>
-      <c r="K124" s="4" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006122</t>
-        </is>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>extinction in classical conditioning</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr"/>
-      <c r="F125" s="2" t="inlineStr"/>
-      <c r="G125" s="2" t="inlineStr"/>
-      <c r="H125" s="2" t="inlineStr"/>
-      <c r="I125" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J125" s="2" t="inlineStr"/>
-      <c r="K125" s="2" t="inlineStr"/>
+      <c r="J125" s="4" t="inlineStr"/>
+      <c r="K125" s="4" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006123</t>
+          <t>BCIO:006122</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>extinction in operant learning</t>
+          <t>extinction in classical conditioning</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -4696,7 +4753,7 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
+          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
@@ -4712,193 +4769,193 @@
       <c r="K126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006123</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>extinction in operant learning</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr"/>
+      <c r="F127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr"/>
+      <c r="H127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J127" s="2" t="inlineStr"/>
+      <c r="K127" s="2" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="inlineStr">
         <is>
           <t>BCIO:006135</t>
         </is>
       </c>
-      <c r="B127" s="4" t="inlineStr">
+      <c r="B128" s="4" t="inlineStr">
         <is>
           <t>extrinsic motivation</t>
         </is>
       </c>
-      <c r="C127" s="4" t="inlineStr">
+      <c r="C128" s="4" t="inlineStr">
         <is>
           <t>controlled motivation</t>
         </is>
       </c>
-      <c r="D127" s="4" t="inlineStr">
+      <c r="D128" s="4" t="inlineStr">
         <is>
           <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
         </is>
       </c>
-      <c r="E127" s="4" t="inlineStr">
+      <c r="E128" s="4" t="inlineStr">
         <is>
           <t>external motivation</t>
         </is>
       </c>
-      <c r="F127" s="4" t="inlineStr"/>
-      <c r="G127" s="4" t="inlineStr"/>
-      <c r="H127" s="4" t="inlineStr"/>
-      <c r="I127" s="4" t="inlineStr">
+      <c r="F128" s="4" t="inlineStr"/>
+      <c r="G128" s="4" t="inlineStr"/>
+      <c r="H128" s="4" t="inlineStr"/>
+      <c r="I128" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J127" s="4" t="inlineStr"/>
-      <c r="K127" s="4" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="inlineStr">
+      <c r="J128" s="4" t="inlineStr"/>
+      <c r="K128" s="4" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>BCIO:006002</t>
         </is>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>family environmental system</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>social environment system</t>
         </is>
       </c>
-      <c r="D128" s="2" t="inlineStr">
+      <c r="D129" s="2" t="inlineStr">
         <is>
           <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
         </is>
       </c>
-      <c r="E128" s="2" t="inlineStr"/>
-      <c r="F128" s="2" t="inlineStr"/>
-      <c r="G128" s="2" t="inlineStr"/>
-      <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J128" s="2" t="inlineStr"/>
-      <c r="K128" s="2" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="E129" s="2" t="inlineStr"/>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr"/>
+      <c r="H129" s="2" t="inlineStr"/>
+      <c r="I129" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J129" s="2" t="inlineStr"/>
+      <c r="K129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>MFOEM:000026</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>An activated, aversive emotion that motivates attempts to cope with events that provide threats to the survival or well-being of organisms. Characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>BCIO:006109</t>
         </is>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>feeling an urge</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>subjective emotional feeling</t>
         </is>
       </c>
-      <c r="D130" s="2" t="inlineStr">
+      <c r="D131" s="2" t="inlineStr">
         <is>
           <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
         </is>
       </c>
-      <c r="E130" s="2" t="inlineStr"/>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr"/>
-      <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J130" s="2" t="inlineStr"/>
-      <c r="K130" s="2" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000112 </t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>feeling exhausted</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>feeling tired</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Feeling tired to an extremely strong degree.</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="E131" s="2" t="inlineStr"/>
+      <c r="F131" s="2" t="inlineStr"/>
+      <c r="G131" s="2" t="inlineStr"/>
+      <c r="H131" s="2" t="inlineStr"/>
+      <c r="I131" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J131" s="2" t="inlineStr"/>
+      <c r="K131" s="2" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MFOEM:000124</t>
+          <t xml:space="preserve">MFOEM:000112 </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>feeling nervous</t>
+          <t>feeling exhausted</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>feeling tired</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">A subjective feeling of being not at ease, of being anxious or nervous or agitated. </t>
+          <t>Feeling tired to an extremely strong degree.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -4914,128 +4971,136 @@
       <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="inlineStr">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MFOEM:000124</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>feeling nervous</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of being not at ease or agitated.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="inlineStr">
         <is>
           <t>BCIO:050233</t>
         </is>
       </c>
-      <c r="B133" s="3" t="inlineStr">
+      <c r="B134" s="3" t="inlineStr">
         <is>
           <t>feeling sadness</t>
         </is>
       </c>
-      <c r="C133" s="3" t="inlineStr">
+      <c r="C134" s="3" t="inlineStr">
         <is>
           <t>subjective emotional feeling</t>
         </is>
       </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="D134" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A subjective affective feeling of sadness. </t>
         </is>
       </c>
-      <c r="E133" s="3" t="inlineStr"/>
-      <c r="F133" s="3" t="inlineStr"/>
-      <c r="G133" s="3" t="inlineStr"/>
-      <c r="H133" s="3" t="inlineStr"/>
-      <c r="I133" s="3" t="inlineStr">
+      <c r="E134" s="3" t="inlineStr"/>
+      <c r="F134" s="3" t="inlineStr"/>
+      <c r="G134" s="3" t="inlineStr"/>
+      <c r="H134" s="3" t="inlineStr"/>
+      <c r="I134" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J133" s="3" t="inlineStr"/>
-      <c r="K133" s="3" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="J134" s="3" t="inlineStr"/>
+      <c r="K134" s="3" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>MFOEM:000080</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>feeling tired</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>subjective emotional feeling</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>A subjective affective feeling of tiredness, needing sleep.</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006087</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>financial opportunity</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity regarding whether the person has sufficient financial resources to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr"/>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
-      <c r="H135" s="2" t="inlineStr"/>
-      <c r="I135" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J135" s="2" t="inlineStr"/>
-      <c r="K135" s="2" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006003</t>
+          <t>BCIO:006087</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>friendship network</t>
+          <t>financial behavioural opportunity</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>social environment system</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
+          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
+        </is>
+      </c>
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr">
         <is>
@@ -5046,94 +5111,94 @@
       <c r="K136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006003</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>friendship network</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr"/>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
+      <c r="H137" s="2" t="inlineStr"/>
+      <c r="I137" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J137" s="2" t="inlineStr"/>
+      <c r="K137" s="2" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="inlineStr">
         <is>
           <t>BCIO:006308</t>
         </is>
       </c>
-      <c r="B137" s="3" t="inlineStr">
+      <c r="B138" s="3" t="inlineStr">
         <is>
           <t>fundamental need-based motivation</t>
         </is>
       </c>
-      <c r="C137" s="3" t="inlineStr">
+      <c r="C138" s="3" t="inlineStr">
         <is>
           <t>autonomous motivation</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="D138" s="3" t="inlineStr">
         <is>
           <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
+      <c r="E138" s="3" t="inlineStr">
         <is>
           <t>integrated motivation; integrated regulation</t>
         </is>
       </c>
-      <c r="F137" s="3" t="inlineStr"/>
-      <c r="G137" s="3" t="inlineStr"/>
-      <c r="H137" s="3" t="inlineStr"/>
-      <c r="I137" s="3" t="inlineStr">
+      <c r="F138" s="3" t="inlineStr"/>
+      <c r="G138" s="3" t="inlineStr"/>
+      <c r="H138" s="3" t="inlineStr"/>
+      <c r="I138" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J137" s="3" t="inlineStr"/>
-      <c r="K137" s="3" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006124</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>generalisation (learning)</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="inlineStr">
-        <is>
-          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr"/>
-      <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr"/>
-      <c r="H138" s="2" t="inlineStr"/>
-      <c r="I138" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J138" s="2" t="inlineStr"/>
-      <c r="K138" s="2" t="inlineStr"/>
+      <c r="J138" s="3" t="inlineStr"/>
+      <c r="K138" s="3" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006124</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>generalisation (learning)</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to strive towards an end state.</t>
+          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -5151,22 +5216,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -5184,22 +5249,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006114</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>goal setting process</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -5215,156 +5280,156 @@
       <c r="K141" s="2" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006114</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>goal setting process</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr"/>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
+      <c r="H142" s="2" t="inlineStr"/>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J142" s="2" t="inlineStr"/>
+      <c r="K142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>MFOEM:000053</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>guilt</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="3" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>BCIO:006309</t>
         </is>
       </c>
-      <c r="B143" s="3" t="inlineStr">
+      <c r="B144" s="3" t="inlineStr">
         <is>
           <t>habit learning</t>
         </is>
       </c>
-      <c r="C143" s="3" t="inlineStr">
+      <c r="C144" s="3" t="inlineStr">
         <is>
           <t>associative learning</t>
         </is>
       </c>
-      <c r="D143" s="3" t="inlineStr">
+      <c r="D144" s="3" t="inlineStr">
         <is>
           <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
         </is>
       </c>
-      <c r="E143" s="3" t="inlineStr"/>
-      <c r="F143" s="3" t="inlineStr"/>
-      <c r="G143" s="3" t="inlineStr"/>
-      <c r="H143" s="3" t="inlineStr"/>
-      <c r="I143" s="3" t="inlineStr">
+      <c r="E144" s="3" t="inlineStr"/>
+      <c r="F144" s="3" t="inlineStr"/>
+      <c r="G144" s="3" t="inlineStr"/>
+      <c r="H144" s="3" t="inlineStr"/>
+      <c r="I144" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J143" s="3" t="inlineStr"/>
-      <c r="K143" s="3" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
+      <c r="J144" s="3" t="inlineStr"/>
+      <c r="K144" s="3" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
         <is>
           <t>BCIO:006158</t>
         </is>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>habitual behaviour</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D144" s="2" t="inlineStr">
+      <c r="D145" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
         </is>
       </c>
-      <c r="E144" s="2" t="inlineStr"/>
-      <c r="F144" s="2" t="inlineStr"/>
-      <c r="G144" s="2" t="inlineStr"/>
-      <c r="H144" s="2" t="inlineStr"/>
-      <c r="I144" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J144" s="2" t="inlineStr"/>
-      <c r="K144" s="2" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>GO:0046959</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>habituation</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="E145" s="2" t="inlineStr"/>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr"/>
+      <c r="H145" s="2" t="inlineStr"/>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J145" s="2" t="inlineStr"/>
+      <c r="K145" s="2" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MFOEM:000042</t>
+          <t>GO:0046959</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>habituation</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -5380,57 +5445,57 @@
       <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006088</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>healthcare service accessibility</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="inlineStr"/>
-      <c r="F147" s="2" t="inlineStr"/>
-      <c r="G147" s="2" t="inlineStr"/>
-      <c r="H147" s="2" t="inlineStr"/>
-      <c r="I147" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J147" s="2" t="inlineStr"/>
-      <c r="K147" s="2" t="inlineStr"/>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>MFOEM:000042</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>happiness</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006115</t>
+          <t>BCIO:006088</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>heuristic process</t>
+          <t>healthcare service accessibility</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
+          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
@@ -5446,90 +5511,90 @@
       <c r="K148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006115</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>heuristic process</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr"/>
+      <c r="F149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr"/>
+      <c r="H149" s="2" t="inlineStr"/>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J149" s="2" t="inlineStr"/>
+      <c r="K149" s="2" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>MFOEM:000205</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>hunger</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>subjective emotional feeling</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006130</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>iconic memory</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
-      <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J150" s="2" t="inlineStr"/>
-      <c r="K150" s="2" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006050</t>
+          <t>BCIO:006130</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>iconic memory</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -5545,146 +5610,146 @@
       <c r="K151" s="2" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006050</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition relating to perceptions of oneself.</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr"/>
+      <c r="H152" s="2" t="inlineStr"/>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="inlineStr"/>
+      <c r="K152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>GO:0098596</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>imitative learning</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>observational learning</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="3" t="inlineStr">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="inlineStr">
         <is>
           <t>BCIO:050234</t>
         </is>
       </c>
-      <c r="B153" s="3" t="inlineStr">
+      <c r="B154" s="3" t="inlineStr">
         <is>
           <t>impulse</t>
         </is>
       </c>
-      <c r="C153" s="3" t="inlineStr">
+      <c r="C154" s="3" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D153" s="3" t="inlineStr">
+      <c r="D154" s="3" t="inlineStr">
         <is>
           <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
         </is>
       </c>
-      <c r="E153" s="3" t="inlineStr"/>
-      <c r="F153" s="3" t="inlineStr"/>
-      <c r="G153" s="3" t="inlineStr"/>
-      <c r="H153" s="3" t="inlineStr"/>
-      <c r="I153" s="3" t="inlineStr">
+      <c r="E154" s="3" t="inlineStr"/>
+      <c r="F154" s="3" t="inlineStr"/>
+      <c r="G154" s="3" t="inlineStr"/>
+      <c r="H154" s="3" t="inlineStr"/>
+      <c r="I154" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J153" s="3" t="inlineStr"/>
-      <c r="K153" s="3" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="J154" s="3" t="inlineStr"/>
+      <c r="K154" s="3" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>BFO:0000004</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>independent continuant</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006094</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr">
-        <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr"/>
-      <c r="F155" s="2" t="inlineStr"/>
-      <c r="G155" s="2" t="inlineStr"/>
-      <c r="H155" s="2" t="inlineStr"/>
-      <c r="I155" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J155" s="2" t="inlineStr"/>
-      <c r="K155" s="2" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006100</t>
+          <t>BCIO:006094</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>internal reward for a response</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
@@ -5694,7 +5759,7 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr"/>
@@ -5710,156 +5775,156 @@
       <c r="K156" s="2" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr"/>
+      <c r="F157" s="3" t="inlineStr"/>
+      <c r="G157" s="3" t="inlineStr"/>
+      <c r="H157" s="3" t="inlineStr"/>
+      <c r="I157" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J157" s="3" t="inlineStr"/>
+      <c r="K157" s="3" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr"/>
+      <c r="F158" s="2" t="inlineStr"/>
+      <c r="G158" s="2" t="inlineStr"/>
+      <c r="H158" s="2" t="inlineStr"/>
+      <c r="I158" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J158" s="2" t="inlineStr"/>
+      <c r="K158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>MFOEM:000022</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>interpersonal disgust</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>MF:0000021</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>interpersonal process</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>A process in which at least two human beings are agents.</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="4" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
         <is>
           <t>BCIO:006097</t>
         </is>
       </c>
-      <c r="B159" s="4" t="inlineStr">
+      <c r="B160" s="4" t="inlineStr">
         <is>
           <t>interpersonal reciprocal communication</t>
         </is>
       </c>
-      <c r="C159" s="4" t="inlineStr">
+      <c r="C160" s="4" t="inlineStr">
         <is>
           <t>communication</t>
         </is>
       </c>
-      <c r="D159" s="4" t="inlineStr">
+      <c r="D160" s="4" t="inlineStr">
         <is>
           <t>Communication that is mutual between two or more people.</t>
         </is>
       </c>
-      <c r="E159" s="4" t="inlineStr"/>
-      <c r="F159" s="4" t="inlineStr"/>
-      <c r="G159" s="4" t="inlineStr"/>
-      <c r="H159" s="4" t="inlineStr"/>
-      <c r="I159" s="4" t="inlineStr">
+      <c r="E160" s="4" t="inlineStr"/>
+      <c r="F160" s="4" t="inlineStr"/>
+      <c r="G160" s="4" t="inlineStr"/>
+      <c r="H160" s="4" t="inlineStr"/>
+      <c r="I160" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J159" s="4" t="inlineStr"/>
-      <c r="K159" s="4" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006136</t>
-        </is>
-      </c>
-      <c r="B160" s="2" t="inlineStr">
-        <is>
-          <t>intrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="inlineStr"/>
-      <c r="F160" s="2" t="inlineStr"/>
-      <c r="G160" s="2" t="inlineStr"/>
-      <c r="H160" s="2" t="inlineStr"/>
-      <c r="I160" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J160" s="2" t="inlineStr"/>
-      <c r="K160" s="2" t="inlineStr"/>
+      <c r="J160" s="4" t="inlineStr"/>
+      <c r="K160" s="4" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006105</t>
+          <t>BCIO:006136</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>introjected self-regulation</t>
+          <t>intrinsic motivation</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
+          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
@@ -5875,128 +5940,132 @@
       <c r="K161" s="2" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006105</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>introjected self-regulation</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr"/>
+      <c r="F162" s="2" t="inlineStr"/>
+      <c r="G162" s="2" t="inlineStr"/>
+      <c r="H162" s="2" t="inlineStr"/>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="inlineStr"/>
+      <c r="K162" s="2" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>MF:0000006</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="4" t="inlineStr">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="inlineStr">
         <is>
           <t>BCIO:006117</t>
         </is>
       </c>
-      <c r="B163" s="4" t="inlineStr">
+      <c r="B164" s="4" t="inlineStr">
         <is>
           <t>judging consequences of behaviour</t>
         </is>
       </c>
-      <c r="C163" s="4" t="inlineStr">
+      <c r="C164" s="4" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="D163" s="4" t="inlineStr">
+      <c r="D164" s="4" t="inlineStr">
         <is>
           <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
         </is>
       </c>
-      <c r="E163" s="4" t="inlineStr"/>
-      <c r="F163" s="4" t="inlineStr"/>
-      <c r="G163" s="4" t="inlineStr"/>
-      <c r="H163" s="4" t="inlineStr"/>
-      <c r="I163" s="4" t="inlineStr">
+      <c r="E164" s="4" t="inlineStr"/>
+      <c r="F164" s="4" t="inlineStr"/>
+      <c r="G164" s="4" t="inlineStr"/>
+      <c r="H164" s="4" t="inlineStr"/>
+      <c r="I164" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J163" s="4" t="inlineStr"/>
-      <c r="K163" s="4" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006052</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
-        </is>
-      </c>
-      <c r="E164" s="2" t="inlineStr"/>
-      <c r="F164" s="2" t="inlineStr"/>
-      <c r="G164" s="2" t="inlineStr"/>
-      <c r="H164" s="2" t="inlineStr"/>
-      <c r="I164" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J164" s="2" t="inlineStr"/>
-      <c r="K164" s="2" t="inlineStr"/>
+      <c r="J164" s="4" t="inlineStr"/>
+      <c r="K164" s="4" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006052</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="inlineStr"/>
+      <c r="G165" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
       <c r="H165" s="2" t="inlineStr"/>
       <c r="I165" s="2" t="inlineStr">
         <is>
@@ -6009,12 +6078,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding a behaviour</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -6024,7 +6093,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -6042,12 +6111,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -6057,7 +6126,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -6075,12 +6144,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -6090,7 +6159,7 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -6108,22 +6177,22 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
@@ -6141,31 +6210,27 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
+          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="G170" s="2" t="inlineStr"/>
       <c r="H170" s="2" t="inlineStr"/>
       <c r="I170" s="2" t="inlineStr">
         <is>
@@ -6178,27 +6243,31 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
+          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
       <c r="H171" s="2" t="inlineStr"/>
       <c r="I171" s="2" t="inlineStr">
         <is>
@@ -6209,57 +6278,57 @@
       <c r="K171" s="2" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>GO:0007612</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006156</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-thought co-occurrence</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-response co-occurrence</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr"/>
+      <c r="F172" s="2" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr"/>
+      <c r="H172" s="2" t="inlineStr"/>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="inlineStr"/>
+      <c r="K172" s="2" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MF:0000086</t>
+          <t>GO:0007612</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>linguistic communication</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>A communication process in which the information that is communicated is encoded in language.</t>
+          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -6275,90 +6344,90 @@
       <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="inlineStr">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>MF:0000086</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>linguistic communication</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>A communication process in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
         <is>
           <t>BCIO:006085</t>
         </is>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D174" s="2" t="inlineStr">
+      <c r="D175" s="2" t="inlineStr">
         <is>
           <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
         </is>
       </c>
-      <c r="E174" s="2" t="inlineStr"/>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr"/>
-      <c r="H174" s="2" t="inlineStr"/>
-      <c r="I174" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J174" s="2" t="inlineStr"/>
-      <c r="K174" s="2" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>UBERON:0000465</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>material anatomical entity</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Anatomical entity that has mass.</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="E175" s="2" t="inlineStr"/>
+      <c r="F175" s="2" t="inlineStr"/>
+      <c r="G175" s="2" t="inlineStr"/>
+      <c r="H175" s="2" t="inlineStr"/>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="inlineStr"/>
+      <c r="K175" s="2" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
+          <t>UBERON:0000465</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>Anatomical entity that has mass.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -6376,22 +6445,22 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GO:0007613</t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -6407,189 +6476,189 @@
       <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="inlineStr">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>GO:0007613</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
         <is>
           <t>BCIO:006093</t>
         </is>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>mental behavioural cue</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>bodily behavioural cue</t>
         </is>
       </c>
-      <c r="D178" s="2" t="inlineStr">
+      <c r="D179" s="2" t="inlineStr">
         <is>
           <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
         </is>
       </c>
-      <c r="E178" s="2" t="inlineStr"/>
-      <c r="F178" s="2" t="inlineStr"/>
-      <c r="G178" s="2" t="inlineStr"/>
-      <c r="H178" s="2" t="inlineStr"/>
-      <c r="I178" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J178" s="2" t="inlineStr"/>
-      <c r="K178" s="2" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr"/>
+      <c r="F179" s="2" t="inlineStr"/>
+      <c r="G179" s="2" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr"/>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr"/>
+      <c r="K179" s="2" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000048 </t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>mental capability</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>A personal capability that  includes mental processes in its realisation.</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="inlineStr">
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
         <is>
           <t>BCIO:006131</t>
         </is>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>mental categorising</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D180" s="2" t="inlineStr">
+      <c r="D181" s="2" t="inlineStr">
         <is>
           <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
         </is>
       </c>
-      <c r="E180" s="2" t="inlineStr"/>
-      <c r="F180" s="2" t="inlineStr"/>
-      <c r="G180" s="2" t="inlineStr"/>
-      <c r="H180" s="2" t="inlineStr"/>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J180" s="2" t="inlineStr"/>
-      <c r="K180" s="2" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>MF:0000033</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>A bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006162</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr"/>
-      <c r="F182" s="2" t="inlineStr"/>
-      <c r="G182" s="2" t="inlineStr"/>
-      <c r="H182" s="2" t="inlineStr"/>
-      <c r="I182" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J182" s="2" t="inlineStr"/>
-      <c r="K182" s="2" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006080</t>
+          <t>BCIO:006162</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>mental image</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
+          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -6607,22 +6676,22 @@
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006058</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>mental image disposition</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to represent a mental image.</t>
+          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -6638,117 +6707,113 @@
       <c r="K184" s="2" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006058</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>mental image disposition</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to represent a mental image.</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr"/>
+      <c r="F185" s="2" t="inlineStr"/>
+      <c r="G185" s="2" t="inlineStr"/>
+      <c r="H185" s="2" t="inlineStr"/>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J185" s="2" t="inlineStr"/>
+      <c r="K185" s="2" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>MF:0000083</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>mental imagery</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="3" t="inlineStr">
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
         <is>
           <t>BCIO:050228</t>
         </is>
       </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="B187" s="3" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="C186" s="3" t="inlineStr">
+      <c r="C187" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D186" s="3" t="inlineStr">
+      <c r="D187" s="3" t="inlineStr">
         <is>
           <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
-      <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3" t="inlineStr"/>
-      <c r="G186" s="3" t="inlineStr"/>
-      <c r="H186" s="3" t="inlineStr"/>
-      <c r="I186" s="3" t="inlineStr">
+      <c r="E187" s="3" t="inlineStr"/>
+      <c r="F187" s="3" t="inlineStr"/>
+      <c r="G187" s="3" t="inlineStr"/>
+      <c r="H187" s="3" t="inlineStr"/>
+      <c r="I187" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J186" s="3" t="inlineStr"/>
-      <c r="K186" s="3" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006070</t>
-        </is>
-      </c>
-      <c r="B187" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D187" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition to form a representation of a behaviour, the conditions under which it will be enacted and an intention to enact the behaviour under those conditions. </t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr"/>
-      <c r="G187" s="2" t="inlineStr"/>
-      <c r="H187" s="2" t="inlineStr"/>
-      <c r="I187" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J187" s="2" t="inlineStr"/>
-      <c r="K187" s="2" t="inlineStr"/>
+      <c r="J187" s="3" t="inlineStr"/>
+      <c r="K187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006157</t>
+          <t>BCIO:006070</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>mental plan for coping with barriers</t>
+          <t>mental plan for a behaviour</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
@@ -6758,10 +6823,14 @@
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="inlineStr"/>
+          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr"/>
       <c r="H188" s="2" t="inlineStr"/>
@@ -6774,132 +6843,132 @@
       <c r="K188" s="2" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006157</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr"/>
+      <c r="F189" s="2" t="inlineStr"/>
+      <c r="G189" s="2" t="inlineStr"/>
+      <c r="H189" s="2" t="inlineStr"/>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J189" s="2" t="inlineStr"/>
+      <c r="K189" s="2" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr">
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="4" t="inlineStr">
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B190" s="4" t="inlineStr">
+      <c r="B191" s="4" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C190" s="4" t="inlineStr">
+      <c r="C191" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D190" s="4" t="inlineStr">
+      <c r="D191" s="4" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E190" s="4" t="inlineStr"/>
-      <c r="F190" s="4" t="inlineStr"/>
-      <c r="G190" s="4" t="inlineStr"/>
-      <c r="H190" s="4" t="inlineStr"/>
-      <c r="I190" s="4" t="inlineStr">
+      <c r="E191" s="4" t="inlineStr"/>
+      <c r="F191" s="4" t="inlineStr"/>
+      <c r="G191" s="4" t="inlineStr"/>
+      <c r="H191" s="4" t="inlineStr"/>
+      <c r="I191" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J190" s="4" t="inlineStr"/>
-      <c r="K190" s="4" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006004</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>mental skill</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="inlineStr">
-        <is>
-          <t>A mental capability acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E191" s="2" t="inlineStr"/>
-      <c r="F191" s="2" t="inlineStr"/>
-      <c r="G191" s="2" t="inlineStr">
-        <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
-        </is>
-      </c>
-      <c r="H191" s="2" t="inlineStr"/>
-      <c r="I191" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J191" s="2" t="inlineStr"/>
-      <c r="K191" s="2" t="inlineStr"/>
+      <c r="J191" s="4" t="inlineStr"/>
+      <c r="K191" s="4" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006132</t>
+          <t>BCIO:006004</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>mentally comparing against a standard</t>
+          <t>mental skill</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which current conditions are compared against a particular reference level.</t>
+          <t>A mental capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
-      <c r="G192" s="2" t="inlineStr"/>
+      <c r="G192" s="2" t="inlineStr">
+        <is>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+        </is>
+      </c>
       <c r="H192" s="2" t="inlineStr"/>
       <c r="I192" s="2" t="inlineStr">
         <is>
@@ -6910,90 +6979,90 @@
       <c r="K192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006132</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>mentally comparing against a standard</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which current conditions are compared against a particular reference level.</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr"/>
+      <c r="F193" s="2" t="inlineStr"/>
+      <c r="G193" s="2" t="inlineStr"/>
+      <c r="H193" s="2" t="inlineStr"/>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J193" s="2" t="inlineStr"/>
+      <c r="K193" s="2" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>MFOEM:000023</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>moral disgust</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr">
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006133</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that energises and directs behaviour.</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr"/>
-      <c r="F194" s="2" t="inlineStr"/>
-      <c r="G194" s="2" t="inlineStr"/>
-      <c r="H194" s="2" t="inlineStr"/>
-      <c r="I194" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J194" s="2" t="inlineStr"/>
-      <c r="K194" s="2" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -7011,22 +7080,22 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>motivational orientation</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -7044,12 +7113,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>need for sense of security</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -7059,7 +7128,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -7077,12 +7146,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>need for social relatedness</t>
+          <t>need for sense of security</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -7092,7 +7161,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -7110,12 +7179,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006069</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>need to feel competent</t>
+          <t>need for social relatedness</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -7125,7 +7194,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as able and effective.</t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -7141,94 +7210,94 @@
       <c r="K199" s="2" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="4" t="inlineStr">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006069</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>need to feel competent</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to experience oneself as able and effective.</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr"/>
+      <c r="F200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr"/>
+      <c r="H200" s="2" t="inlineStr"/>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J200" s="2" t="inlineStr"/>
+      <c r="K200" s="2" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="inlineStr">
         <is>
           <t>BCIO:006037</t>
         </is>
       </c>
-      <c r="B200" s="4" t="inlineStr">
+      <c r="B201" s="4" t="inlineStr">
         <is>
           <t>negative evaluation of self</t>
         </is>
       </c>
-      <c r="C200" s="4" t="inlineStr">
+      <c r="C201" s="4" t="inlineStr">
         <is>
           <t>evaluation of self</t>
         </is>
       </c>
-      <c r="D200" s="4" t="inlineStr">
+      <c r="D201" s="4" t="inlineStr">
         <is>
           <t>A belief about one's negative attributes.</t>
         </is>
       </c>
-      <c r="E200" s="4" t="inlineStr">
+      <c r="E201" s="4" t="inlineStr">
         <is>
           <t>low self-esteem; negative self-esteem</t>
         </is>
       </c>
-      <c r="F200" s="4" t="inlineStr"/>
-      <c r="G200" s="4" t="inlineStr"/>
-      <c r="H200" s="4" t="inlineStr"/>
-      <c r="I200" s="4" t="inlineStr">
+      <c r="F201" s="4" t="inlineStr"/>
+      <c r="G201" s="4" t="inlineStr"/>
+      <c r="H201" s="4" t="inlineStr"/>
+      <c r="I201" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J200" s="4" t="inlineStr"/>
-      <c r="K200" s="4" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>MFOEM:000210</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>negative surprise</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Surprise with a negative valence.</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" s="4" t="inlineStr"/>
+      <c r="K201" s="4" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GO:0046958</t>
+          <t>MFOEM:000210</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>negative surprise</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+          <t>Surprise with a negative valence.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -7244,127 +7313,127 @@
       <c r="K202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="inlineStr">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GO:0046958</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="3" t="inlineStr">
         <is>
           <t>BCIO:050235</t>
         </is>
       </c>
-      <c r="B203" s="3" t="inlineStr">
+      <c r="B204" s="3" t="inlineStr">
         <is>
           <t>non-judgemental acknowledgement</t>
         </is>
       </c>
-      <c r="C203" s="3" t="inlineStr">
+      <c r="C204" s="3" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D203" s="3" t="inlineStr">
+      <c r="D204" s="3" t="inlineStr">
         <is>
           <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
         </is>
       </c>
-      <c r="E203" s="3" t="inlineStr">
+      <c r="E204" s="3" t="inlineStr">
         <is>
           <t>Acceptance</t>
         </is>
       </c>
-      <c r="F203" s="3" t="inlineStr"/>
-      <c r="G203" s="3" t="inlineStr"/>
-      <c r="H203" s="3" t="inlineStr"/>
-      <c r="I203" s="3" t="inlineStr">
+      <c r="F204" s="3" t="inlineStr"/>
+      <c r="G204" s="3" t="inlineStr"/>
+      <c r="H204" s="3" t="inlineStr"/>
+      <c r="I204" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J203" s="3" t="inlineStr"/>
-      <c r="K203" s="3" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="J204" s="3" t="inlineStr"/>
+      <c r="K204" s="3" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>MF:0000089</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>non-linguistic communication</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>communication</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>A communication process in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr">
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006095</t>
-        </is>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>normative behaviour</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
-        </is>
-      </c>
-      <c r="E205" s="2" t="inlineStr"/>
-      <c r="F205" s="2" t="inlineStr"/>
-      <c r="G205" s="2" t="inlineStr"/>
-      <c r="H205" s="2" t="inlineStr"/>
-      <c r="I205" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J205" s="2" t="inlineStr"/>
-      <c r="K205" s="2" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006042</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>normative belief</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether important others think one should perform a behaviour.</t>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -7380,95 +7449,99 @@
       <c r="K206" s="2" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006042</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>normative belief</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>A belief about whether important others think one should perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr"/>
+      <c r="F207" s="2" t="inlineStr"/>
+      <c r="G207" s="2" t="inlineStr"/>
+      <c r="H207" s="2" t="inlineStr"/>
+      <c r="I207" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J207" s="2" t="inlineStr"/>
+      <c r="K207" s="2" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>GO:0098597</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>observational learning</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>Learning that occurs through observing the behaviour of others.</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006083</t>
-        </is>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>occupational role</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>personal social role</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="inlineStr">
-        <is>
-          <t>A social role that involves the person's occupation.</t>
-        </is>
-      </c>
-      <c r="E208" s="2" t="inlineStr"/>
-      <c r="F208" s="2" t="inlineStr"/>
-      <c r="G208" s="2" t="inlineStr"/>
-      <c r="H208" s="2" t="inlineStr"/>
-      <c r="I208" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J208" s="2" t="inlineStr"/>
-      <c r="K208" s="2" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006125</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>operant conditioning</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
-      <c r="G209" s="2" t="inlineStr"/>
+      <c r="G209" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="H209" s="2" t="inlineStr"/>
       <c r="I209" s="2" t="inlineStr">
         <is>
@@ -7481,22 +7554,22 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006086</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D210" s="2" t="inlineStr">
         <is>
-          <t>A quality of a person's environmental system that makes a behaviour possible or facilitates it.</t>
+          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E210" s="2" t="inlineStr"/>
@@ -7524,12 +7597,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>bodily feeling</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>A bodily process in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -7595,7 +7668,7 @@
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular social group.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E213" s="2" t="inlineStr"/>
@@ -7628,7 +7701,7 @@
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>A belief about what is typical for people who belong to a particular social group.</t>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr">
@@ -7637,7 +7710,11 @@
         </is>
       </c>
       <c r="F214" s="2" t="inlineStr"/>
-      <c r="G214" s="2" t="inlineStr"/>
+      <c r="G214" s="2" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
       <c r="H214" s="2" t="inlineStr"/>
       <c r="I214" s="2" t="inlineStr">
         <is>
@@ -7681,108 +7758,108 @@
       <c r="K215" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>personal  role</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E216" s="2" t="inlineStr"/>
-      <c r="F216" s="2" t="inlineStr"/>
-      <c r="G216" s="2" t="inlineStr"/>
-      <c r="H216" s="2" t="inlineStr"/>
-      <c r="I216" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J216" s="2" t="inlineStr"/>
-      <c r="K216" s="2" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="A216" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr">
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
         <is>
           <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
 For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr">
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006084</t>
+        </is>
+      </c>
+      <c r="B217" s="4" t="inlineStr">
+        <is>
+          <t>personal financial resource</t>
+        </is>
+      </c>
+      <c r="C217" s="4" t="inlineStr">
+        <is>
+          <t>personal  role</t>
+        </is>
+      </c>
+      <c r="D217" s="4" t="inlineStr">
+        <is>
+          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
+        </is>
+      </c>
+      <c r="E217" s="4" t="inlineStr"/>
+      <c r="F217" s="4" t="inlineStr"/>
+      <c r="G217" s="4" t="inlineStr"/>
+      <c r="H217" s="4" t="inlineStr"/>
+      <c r="I217" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J217" s="4" t="inlineStr"/>
+      <c r="K217" s="4" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006084</t>
-        </is>
-      </c>
-      <c r="B218" s="4" t="inlineStr">
-        <is>
-          <t>personal financial resource</t>
-        </is>
-      </c>
-      <c r="C218" s="4" t="inlineStr">
-        <is>
-          <t>personal  role</t>
-        </is>
-      </c>
-      <c r="D218" s="4" t="inlineStr">
-        <is>
-          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
-        </is>
-      </c>
-      <c r="E218" s="4" t="inlineStr"/>
-      <c r="F218" s="4" t="inlineStr"/>
-      <c r="G218" s="4" t="inlineStr"/>
-      <c r="H218" s="4" t="inlineStr"/>
-      <c r="I218" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J218" s="4" t="inlineStr"/>
-      <c r="K218" s="4" t="inlineStr"/>
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006081</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="inlineStr"/>
+      <c r="F218" s="2" t="inlineStr"/>
+      <c r="G218" s="2" t="inlineStr"/>
+      <c r="H218" s="2" t="inlineStr"/>
+      <c r="I218" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J218" s="2" t="inlineStr"/>
+      <c r="K218" s="2" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
@@ -7891,12 +7968,12 @@
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>physical opportunity</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D222" s="2" t="inlineStr">
@@ -7929,12 +8006,12 @@
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>physical capability</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training and practice.</t>
+          <t>A physical capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -8706,27 +8783,32 @@
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr"/>
       <c r="F246" s="2" t="inlineStr"/>
-      <c r="G246" s="2" t="inlineStr"/>
+      <c r="G246" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
       <c r="H246" s="2" t="inlineStr"/>
       <c r="I246" s="2" t="inlineStr">
         <is>
@@ -8739,27 +8821,32 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006154</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr"/>
       <c r="F247" s="2" t="inlineStr"/>
-      <c r="G247" s="2" t="inlineStr"/>
+      <c r="G247" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
       <c r="H247" s="2" t="inlineStr"/>
       <c r="I247" s="2" t="inlineStr">
         <is>
@@ -9088,7 +9175,7 @@
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>Self-efficacy belief for a behaviour under certain conditions.</t>
+          <t>Self-efficacy belief for a behaviour when a particular situation that may affect the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr"/>
@@ -9139,22 +9226,22 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>An opportunity of the social environment system that influences the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr"/>
@@ -9172,22 +9259,22 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
@@ -9205,22 +9292,22 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
@@ -9238,22 +9325,22 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>Identity that is associated with the sense of belonging to a social group.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
@@ -9271,30 +9358,26 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>social influence process</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
+          <t>Identity that is associated with the sense of belonging to a social group.</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr"/>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
+      <c r="F263" s="2" t="inlineStr"/>
       <c r="G263" s="2" t="inlineStr"/>
       <c r="H263" s="2" t="inlineStr"/>
       <c r="I263" s="2" t="inlineStr">
@@ -9308,26 +9391,30 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>social opportunity</t>
+          <t>social influence process</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>interpersonal process</t>
         </is>
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>An opportunity of the social environment system that influences the performance of a behaviour.</t>
+          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr"/>
-      <c r="F264" s="2" t="inlineStr"/>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
       <c r="G264" s="2" t="inlineStr"/>
       <c r="H264" s="2" t="inlineStr"/>
       <c r="I264" s="2" t="inlineStr">
@@ -9351,12 +9438,12 @@
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>social capability</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>A social capability acquired through training and practice.</t>
+          <t>A social capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr"/>
@@ -9417,12 +9504,12 @@
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to represent attributes of members of a social group as shared by the virtue of their group membership.</t>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr"/>
@@ -9487,12 +9574,12 @@
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of anticipated relief from, or avoidance of, mental or physical discomfort.</t>
+          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -9520,12 +9607,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>A bodily process that involves neuronal activity in response to a sensory stimuli but which is not the subject of consciousness.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -9647,17 +9734,17 @@
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>temporal opportunity</t>
+          <t>temporal behavioural opportunity</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>An opportunity regarding whether the person has sufficient time to enact a behaviour in the social and physical environment.</t>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -1557,22 +1557,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006161</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>autonomy need</t>
+          <t>avoidance mental process</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative</t>
+          <t xml:space="preserve">A mental process that reduces the frequency by which an aversive cognitive representation is evoked. </t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -1590,27 +1590,31 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006161</t>
+          <t>BCIO:006015</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>avoidance mental process</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental process that reduces the frequency by which an aversive cognitive representation is evoked. </t>
+          <t>A mental disposition that is realized by attending to events, objects or sensory patterns in experience.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>The events attended to can include internal and external events.</t>
+        </is>
+      </c>
       <c r="H34" s="2" t="inlineStr"/>
       <c r="I34" s="2" t="inlineStr">
         <is>
@@ -1621,241 +1625,241 @@
       <c r="K34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006015</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>awareness</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006098</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>behaviour-influencing social interaction process</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>interpersonal reciprocal communication</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>An interpersonal process in which one person's  reciprocal communication with one or more others may facilitate or hinder the person's behaviour.</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="G35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr"/>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J35" s="4" t="inlineStr"/>
+      <c r="K35" s="4" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050215</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>A personal capability that includes behaviours in its realisation.</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
+      <c r="G36" s="3" t="inlineStr"/>
+      <c r="H36" s="3" t="inlineStr"/>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006048</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>behavioural decision</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>decision</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>A decision that one behaviour is preferred from at least two behavioural options.</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006304</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">behavioural importance-based motivation </t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to the perceived value or importance of the behaviour to oneself.</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>identified motivation; identified regulation</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr"/>
+      <c r="G38" s="4" t="inlineStr"/>
+      <c r="H38" s="4" t="inlineStr"/>
+      <c r="I38" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J38" s="4" t="inlineStr"/>
+      <c r="K38" s="4" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006016</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>behavioural intention</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realized by attending to events, objects or sensory patterns in experience.</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>The events attended to can include internal and external events.</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006098</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>behaviour-influencing social interaction process</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>An interpersonal process in which one person's  reciprocal communication with one or more others may facilitate or hinder the person's behaviour.</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="4" t="inlineStr"/>
-      <c r="G36" s="4" t="inlineStr"/>
-      <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J36" s="4" t="inlineStr"/>
-      <c r="K36" s="4" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050215</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="inlineStr">
-        <is>
-          <t>behavioural capability</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>A personal capability that includes behaviours in its realisation.</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr"/>
-      <c r="G37" s="3" t="inlineStr"/>
-      <c r="H37" s="3" t="inlineStr"/>
-      <c r="I37" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J37" s="3" t="inlineStr"/>
-      <c r="K37" s="3" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006048</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>behavioural decision</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>decision</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>A decision that one behaviour is preferred from at least two behavioural options.</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006304</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">behavioural importance-based motivation </t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>Autonomous motivation due to the perceived value or importance of the behaviour to oneself.</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>identified motivation; identified regulation</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J39" s="4" t="inlineStr"/>
-      <c r="K39" s="4" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to commit to enact or not enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006016</t>
+          <t>BCIO:006086</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>behavioural intention</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to commit to enact or not enact a behaviour.</t>
+          <t>An environmental disposition of that enables or facilitates a behaviour.</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006086</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>An environmental disposition of that enables or facilitates a behaviour.</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr">
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>The term 'enables' is used in the definition to specify that 'behavioural opportunity' is a necessary condition for behaviour to occur. Although other MoAs will help bring behaviour about, there has to be a 'behavioural opportunity' for behaviour to occur.
 The term 'facilitates' is used to specify that 'behavioural opportunity' will make the behaviour easier. Higher behavioural opportunity will increase the likelihood of behaviour across situations and people.
 The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'behavioural opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).</t>
         </is>
       </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006006</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>behavioural self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A self-regulation capability to modulate one's behaviour. </t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>behavioural regulation capability</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr">
         <is>
@@ -1868,29 +1872,25 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006006</t>
+          <t>BCIO:006104</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>behavioural self-regulation capability</t>
+          <t>behavioural self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A self-regulation capability to modulate one's behaviour. </t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>behavioural regulation capability</t>
-        </is>
-      </c>
+          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of an organism in response to external or internal stimuli, and that is instigated by the organism itself.</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
@@ -1903,150 +1903,150 @@
       <c r="K42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006104</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>behavioural self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of an organism in response to external or internal stimuli, and that is instigated by the organism itself.</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MF:0000041</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>A mental disposition to represent a proposition to be true.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MF:0000041</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006140</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>belief about anticipated emotion</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>belief about consequences of an occurrence</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the potential emotions experienced as result of an event.</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050216</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>belief about anticipated regret</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>belief about anticipated emotion</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the potential regret experienced as a result of an event.</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="inlineStr"/>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006017</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>belief about barriers</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>A mental disposition to represent a proposition to be true.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006140</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>belief about anticipated emotion</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>belief about consequences of an occurrence</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the potential emotions experienced as result of an event.</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>'Belief about anticipated emotions' is about the consequences of anything, not just behaviour. In contrast, the class 'belief about emotional consequences of behaviour' is about the emotions resulting from behaviours.</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050216</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>belief about anticipated regret</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>belief about anticipated emotion</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the potential regret experienced as a result of an event.</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="3" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>A belief about a factor could restrict or impede a person from engaging in a behaviour.</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006017</t>
+          <t>BCIO:006018</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers</t>
+          <t>belief about conformity to behavioural norms</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>A belief about a factor could restrict or impede a person from engaging in a behaviour.</t>
+          <t>A belief about the extent to which one's own behaviour is similar to that of referent others.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
@@ -2072,80 +2072,88 @@
       <c r="K47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006018</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>belief about conformity to behavioural norms</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050217</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>belief about consequences of an occurrence</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the extent to which one's own behaviour is similar to that of referent others.</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the outcomes resulting from an occurrence.</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr"/>
+      <c r="H48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr"/>
+      <c r="K48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050217</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006019</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>belief about consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>belief about consequences of an occurrence</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the outcomes resulting from an occurrence.</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr"/>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the outcomes resulting from a behaviour.</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>response efficacy</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006019</t>
+          <t>BCIO:006021</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about consequences of goal attainment</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2155,18 +2163,15 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes resulting from a behaviour.</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>response efficacy</t>
-        </is>
-      </c>
+          <t>A belief about the outcomes resulting from achieving a goal.</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Consequences can be either positive or negative.</t>
+          <t>Consequences can be either positive or negative.
+Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -2181,32 +2186,27 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006021</t>
+          <t>BCIO:006152</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of goal attainment</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of an occurrence</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes resulting from achieving a goal.</t>
+          <t xml:space="preserve">A belief about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.
-Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
-        </is>
-      </c>
+      <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr">
         <is>
@@ -2219,12 +2219,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006152</t>
+          <t>BCIO:006022</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>belief about control over one's future</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A belief about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
+          <t>A belief about the extent to which one can direct what happens in one's future.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
@@ -2250,165 +2250,165 @@
       <c r="K52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006022</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>belief about control over one's future</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006153</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>belief about control over the environment</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>belief about control over behaviour</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A belief about one's resources and opportunities within an environment to perform a behaviour. </t>
+        </is>
+      </c>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr"/>
+      <c r="H53" s="4" t="inlineStr"/>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr"/>
+      <c r="K53" s="4" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050218</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>belief about emotional consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>belief about consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the outcomes of behaviour in terms of resulting emotions.</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr"/>
+      <c r="F54" s="3" t="inlineStr"/>
+      <c r="G54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="inlineStr"/>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr"/>
+      <c r="K54" s="3" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006023</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>belief about gain</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the extent to which one can direct what happens in one's future.</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006153</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>belief about control over the environment</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>belief about control over behaviour</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A belief about one's resources and opportunities within an environment to perform a behaviour. </t>
-        </is>
-      </c>
-      <c r="E54" s="4" t="inlineStr"/>
-      <c r="F54" s="4" t="inlineStr"/>
-      <c r="G54" s="4" t="inlineStr"/>
-      <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J54" s="4" t="inlineStr"/>
-      <c r="K54" s="4" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050218</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>belief about emotional consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>belief about consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the outcomes of behaviour in terms of resulting emotions.</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr"/>
-      <c r="G55" s="3" t="inlineStr"/>
-      <c r="H55" s="3" t="inlineStr"/>
-      <c r="I55" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006023</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>belief about gain</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>A belief about the existence of an increase from an initial reference point.</t>
         </is>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>Perceived gain</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
 The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050219</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>belief about health consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>belief about consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the outcomes of behaviour in terms of one's health and wellbeing.</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr"/>
+      <c r="F56" s="3" t="inlineStr"/>
+      <c r="G56" s="3" t="inlineStr"/>
+      <c r="H56" s="3" t="inlineStr"/>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr"/>
+      <c r="K56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050219</t>
+          <t>BCIO:050224</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>belief about health consequences of behaviour</t>
+          <t>belief about healthcare accessibility</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about one's environment</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>A belief about the outcomes of behaviour in terms of one's health and wellbeing.</t>
+          <t>A belief about one's environment in terms of how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr"/>
@@ -2424,57 +2424,57 @@
       <c r="K57" s="3" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050224</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>belief about healthcare accessibility</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>belief about one's environment</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's environment in terms of how easy it is for a person to approach and use a healthcare service.</t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="3" t="inlineStr"/>
-      <c r="G58" s="3" t="inlineStr"/>
-      <c r="H58" s="3" t="inlineStr"/>
-      <c r="I58" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J58" s="3" t="inlineStr"/>
-      <c r="K58" s="3" t="inlineStr"/>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006026</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>belief about likelihood of consequences of an occurrence</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>belief about consequences of an occurrence</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the probability that a given event or state will occur in the future.</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006026</t>
+          <t>BCIO:006024</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
+          <t>belief about likelihood of consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
           <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>belief about consequences of an occurrence</t>
-        </is>
-      </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>A belief about the probability that a given event or state will occur in the future.</t>
+          <t xml:space="preserve"> A belief about the probability a particular behaviour will result or not result in particular outcomes.</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
@@ -2490,156 +2490,156 @@
       <c r="K59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006024</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050220</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>belief about likelihood of emotional consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A belief about the probability a particular behaviour will result or not result in particular outcomes.</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the probability of a behaviour resulting or not resulting in a change to emotions.</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr"/>
+      <c r="F60" s="3" t="inlineStr"/>
+      <c r="G60" s="3" t="inlineStr"/>
+      <c r="H60" s="3" t="inlineStr"/>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr"/>
+      <c r="K60" s="3" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050220</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>belief about likelihood of emotional consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006025</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>belief about likelihood of health consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the probability of a behaviour resulting or not resulting in a change to emotions.</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3" t="inlineStr"/>
-      <c r="G61" s="3" t="inlineStr"/>
-      <c r="H61" s="3" t="inlineStr"/>
-      <c r="I61" s="3" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050221</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>belief about likelihood of social consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>belief about likelihood of consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr"/>
+      <c r="F62" s="3" t="inlineStr"/>
+      <c r="G62" s="3" t="inlineStr"/>
+      <c r="H62" s="3" t="inlineStr"/>
+      <c r="I62" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J61" s="3" t="inlineStr"/>
-      <c r="K61" s="3" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006025</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of health consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
+      <c r="J62" s="3" t="inlineStr"/>
+      <c r="K62" s="3" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050221</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>belief about likelihood of social consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>belief about likelihood of consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr"/>
-      <c r="F63" s="3" t="inlineStr"/>
-      <c r="G63" s="3" t="inlineStr"/>
-      <c r="H63" s="3" t="inlineStr"/>
-      <c r="I63" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J63" s="3" t="inlineStr"/>
-      <c r="K63" s="3" t="inlineStr"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006141</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>belief about message</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A belief regarding aspects of a verbal, graphic, written or recorded communication. </t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006141</t>
+          <t>BCIO:006028</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
+          <t>belief about message relevance</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
           <t>belief about message</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A belief regarding aspects of a verbal, graphic, written or recorded communication. </t>
+          <t>A belief regarding whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -2657,12 +2657,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006028</t>
+          <t>BCIO:006143</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>belief about message relevance</t>
+          <t>belief about message trustworthiness</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
+          <t>A belief about whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
@@ -2690,22 +2690,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006143</t>
+          <t>BCIO:006144</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>belief about message trustworthiness</t>
+          <t>belief about need satisfaction</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
+          <t>A belief regarding whether one or more of the person's needs have been met.</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
@@ -2723,12 +2723,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006144</t>
+          <t>BCIO:006029</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>belief about need satisfaction</t>
+          <t>belief about one's environment</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether one or more of the person's needs have been met.</t>
+          <t>A belief about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
@@ -2754,231 +2754,235 @@
       <c r="K67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006029</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050225</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>belief about one's physical environment</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>belief about one's environment</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>A belief about parts of one's environment that do not involve people or organisations.</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr"/>
+      <c r="F68" s="3" t="inlineStr"/>
+      <c r="G68" s="3" t="inlineStr"/>
+      <c r="H68" s="3" t="inlineStr"/>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr"/>
+      <c r="K68" s="3" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006145</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>belief about one's social environment</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>belief about one's environment</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the aspects of one's immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006301</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>belief about others' susceptibility</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a threat</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>A belief about how vulnerable others are to a threat.</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr"/>
+      <c r="F70" s="3" t="inlineStr"/>
+      <c r="G70" s="3" t="inlineStr"/>
+      <c r="H70" s="3" t="inlineStr"/>
+      <c r="I70" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="inlineStr"/>
+      <c r="K70" s="3" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006031</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>belief about personal susceptibility</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a threat</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's personal vulnerability to a threat.</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006303</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>belief about responsibility to act</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050225</t>
-        </is>
-      </c>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>belief about one's physical environment</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>belief about one's environment</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>A belief about parts of one's environment that do not involve people or organisations.</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr"/>
-      <c r="F69" s="3" t="inlineStr"/>
-      <c r="G69" s="3" t="inlineStr"/>
-      <c r="H69" s="3" t="inlineStr"/>
-      <c r="I69" s="3" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>A belief about whether oneself or another person is obligated to take a certain course of action.</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr"/>
+      <c r="F72" s="3" t="inlineStr"/>
+      <c r="G72" s="3" t="inlineStr"/>
+      <c r="H72" s="3" t="inlineStr"/>
+      <c r="I72" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J69" s="3" t="inlineStr"/>
-      <c r="K69" s="3" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006145</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>belief about one's social environment</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>belief about one's environment</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the aspects of one's immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006301</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>belief about others' susceptibility</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a threat</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>A belief about how vulnerable others are to a threat.</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr"/>
-      <c r="G71" s="3" t="inlineStr"/>
-      <c r="H71" s="3" t="inlineStr"/>
-      <c r="I71" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J71" s="3" t="inlineStr"/>
-      <c r="K71" s="3" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006031</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>belief about personal susceptibility</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a threat</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>A belief about one's personal vulnerability to a threat.</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
+      <c r="J72" s="3" t="inlineStr"/>
+      <c r="K72" s="3" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006303</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>belief about responsibility to act</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006030</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>belief about severity of an outcome</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>A belief about whether oneself or another person is obligated to take a certain course of action.</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr"/>
-      <c r="F73" s="3" t="inlineStr"/>
-      <c r="G73" s="3" t="inlineStr"/>
-      <c r="H73" s="3" t="inlineStr"/>
-      <c r="I73" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J73" s="3" t="inlineStr"/>
-      <c r="K73" s="3" t="inlineStr"/>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>A belief about how serious the harm associated with an outcome could be.</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat severity</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006030</t>
+          <t>BCIO:006020</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>belief about severity of an outcome</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A belief about how serious the harm associated with an outcome could be.</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat severity</t>
-        </is>
-      </c>
+          <t>A belief about the outcomes of a behaviour in terms of social processes.</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr">
         <is>
@@ -2991,31 +2995,27 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006020</t>
+          <t>BCIO:006146</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about social support</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about one's social environment</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes of a behaviour in terms of social processes.</t>
+          <t>A belief about whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="G75" s="2" t="inlineStr"/>
       <c r="H75" s="2" t="inlineStr"/>
       <c r="I75" s="2" t="inlineStr">
         <is>
@@ -3026,47 +3026,47 @@
       <c r="K75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006146</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>belief about social support</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>belief about one's social environment</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J76" s="2" t="inlineStr"/>
-      <c r="K76" s="2" t="inlineStr"/>
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050226</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>belief about sufficient time for a behaviour</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>A belief about having enough time or a suitable period of time to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr"/>
+      <c r="F76" s="3" t="inlineStr"/>
+      <c r="G76" s="3" t="inlineStr"/>
+      <c r="H76" s="3" t="inlineStr"/>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="inlineStr"/>
+      <c r="K76" s="3" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050226</t>
+          <t>BCIO:006305</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>belief about sufficient time for a behaviour</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -3076,10 +3076,14 @@
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>A belief about having enough time or a suitable period of time to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr"/>
+          <t>A belief about vulnerability to a threat.</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a risk</t>
+        </is>
+      </c>
       <c r="F77" s="3" t="inlineStr"/>
       <c r="G77" s="3" t="inlineStr"/>
       <c r="H77" s="3" t="inlineStr"/>
@@ -3092,61 +3096,57 @@
       <c r="K77" s="3" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006305</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a threat</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>A belief about vulnerability to a threat.</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a risk</t>
-        </is>
-      </c>
-      <c r="F78" s="3" t="inlineStr"/>
-      <c r="G78" s="3" t="inlineStr"/>
-      <c r="H78" s="3" t="inlineStr"/>
-      <c r="I78" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J78" s="3" t="inlineStr"/>
-      <c r="K78" s="3" t="inlineStr"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006142</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>belief about the credibility of a message's source</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>belief about message</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006142</t>
+          <t>BCIO:006032</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>belief about the credibility of a message's source</t>
+          <t>belief about the desirability of consequences of behaviour</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
+          <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
@@ -3164,22 +3164,22 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006032</t>
+          <t>BCIO:006149</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>belief about the desirability of consequences of behaviour</t>
+          <t>belief about the personal desirability of consequences of a behaviour</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>evaluative belief about behavioural outcome</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
+          <t>An evaluative belief about the value of the outcomes of a behaviour to oneself.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
@@ -3197,22 +3197,22 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006149</t>
+          <t>BCIO:006033</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>belief about the personal desirability of consequences of a behaviour</t>
+          <t>belief about the timing of the consequences of behaviour</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcome</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the value of the outcomes of a behaviour to oneself.</t>
+          <t>A belief about outcomes in terms of how long after the performance of a behaviour they will occur.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -3228,97 +3228,97 @@
       <c r="K81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006033</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>belief about the timing of the consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>belief about consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>A belief about outcomes in terms of how long after the performance of a behaviour they will occur.</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
-      <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J82" s="2" t="inlineStr"/>
-      <c r="K82" s="2" t="inlineStr"/>
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006306</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>belief about threat</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>A belief about a potential harm.</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr"/>
+      <c r="F82" s="3" t="inlineStr"/>
+      <c r="G82" s="3" t="inlineStr"/>
+      <c r="H82" s="3" t="inlineStr"/>
+      <c r="I82" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J82" s="3" t="inlineStr"/>
+      <c r="K82" s="3" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006306</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t>belief about threat</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006034</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>belief about voluntariness of behaviour</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>A belief about a potential harm.</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="inlineStr"/>
-      <c r="F83" s="3" t="inlineStr"/>
-      <c r="G83" s="3" t="inlineStr"/>
-      <c r="H83" s="3" t="inlineStr"/>
-      <c r="I83" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J83" s="3" t="inlineStr"/>
-      <c r="K83" s="3" t="inlineStr"/>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>belief about autonomy in performing behaviours</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006034</t>
+          <t>BCIO:006092</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>belief about voluntariness of behaviour</t>
+          <t>bodily behavioural cue</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>belief about autonomy in performing behaviours</t>
-        </is>
-      </c>
+          <t>A stimulus that arises from bodily processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr"/>
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr"/>
@@ -3331,194 +3331,194 @@
       <c r="K84" s="2" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006092</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from bodily processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E85" s="2" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr"/>
-      <c r="G85" s="2" t="inlineStr"/>
-      <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J85" s="2" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>MF:0000032</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>A disposition that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>Extended organism refers to an organism and its microbiome (e.g., the bacteria that live in one's digestive system)
 Bodily disposition would include features, such as a person's strength (which can be used in a specific context), but not weight. A person would have a certain weight independent of most circumstances they are in.</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>MFOEM:000202</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>bodily feeling</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>An affective process involving sensory experience of physiological stimuli.</t>
+        </is>
+      </c>
+      <c r="E86" s="4" t="inlineStr"/>
+      <c r="F86" s="4" t="inlineStr"/>
+      <c r="G86" s="4" t="inlineStr"/>
+      <c r="H86" s="4" t="inlineStr"/>
+      <c r="I86" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J86" s="4" t="inlineStr"/>
+      <c r="K86" s="4" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="inlineStr">
-        <is>
-          <t>MFOEM:000202</t>
-        </is>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
-        <is>
-          <t>bodily feeling</t>
-        </is>
-      </c>
-      <c r="C87" s="4" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D87" s="4" t="inlineStr">
-        <is>
-          <t>An affective process involving sensory experience of physiological stimuli.</t>
-        </is>
-      </c>
-      <c r="E87" s="4" t="inlineStr"/>
-      <c r="F87" s="4" t="inlineStr"/>
-      <c r="G87" s="4" t="inlineStr"/>
-      <c r="H87" s="4" t="inlineStr"/>
-      <c r="I87" s="4" t="inlineStr">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>OGMS:0000060</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>A process in which at least one bodily component of an organism participates.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000074 </t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>A quality that inheres in some extended organism.</t>
+        </is>
+      </c>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
+      <c r="G88" s="4" t="inlineStr"/>
+      <c r="H88" s="4" t="inlineStr"/>
+      <c r="I88" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J87" s="4" t="inlineStr"/>
-      <c r="K87" s="4" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>OGMS:0000060</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>A process in which at least one bodily component of an organism participates.</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" s="4" t="inlineStr"/>
+      <c r="K88" s="4" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000074 </t>
-        </is>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="C89" s="4" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D89" s="4" t="inlineStr">
-        <is>
-          <t>A quality that inheres in some extended organism.</t>
-        </is>
-      </c>
-      <c r="E89" s="4" t="inlineStr"/>
-      <c r="F89" s="4" t="inlineStr"/>
-      <c r="G89" s="4" t="inlineStr"/>
-      <c r="H89" s="4" t="inlineStr"/>
-      <c r="I89" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J89" s="4" t="inlineStr"/>
-      <c r="K89" s="4" t="inlineStr"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006120</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>classical conditioning</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr"/>
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr"/>
+      <c r="H89" s="2" t="inlineStr"/>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr"/>
+      <c r="K89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006120</t>
+          <t>BCIO:006108</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>classical conditioning</t>
+          <t>cognitive dissonance</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>subjective emotional feeling</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Associative learning that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
+          <t>An unpleasant subjective emotional feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -3534,62 +3534,66 @@
       <c r="K90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006108</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>cognitive dissonance</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>An unpleasant subjective emotional feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr"/>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J91" s="2" t="inlineStr"/>
-      <c r="K91" s="2" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MF:0000008</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MF:0000008</t>
+          <t>MF:0000031</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+          <t xml:space="preserve">A representation which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a mental disposition is activated, the content of that belief is a cognitive representation. </t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
@@ -3600,61 +3604,57 @@
       <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>MF:0000031</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A representation which specifically depends on an anatomical structure in the cognitive system of an organism. </t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a mental disposition is activated, the content of that belief is a cognitive representation. </t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006045</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr"/>
+      <c r="H93" s="2" t="inlineStr"/>
+      <c r="I93" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J93" s="2" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006045</t>
+          <t>BCIO:006007</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>cognitive self-regulation capability</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition that when activated, guides an interconnected network of perception, thought, emotion or behaviour.</t>
+          <t xml:space="preserve">A self-regulation capability to modulate one's cognitive processes. </t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
@@ -3670,227 +3670,231 @@
       <c r="K94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006007</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>cognitive self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C95" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A self-regulation capability to modulate one's cognitive processes. </t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr"/>
-      <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J95" s="2" t="inlineStr"/>
-      <c r="K95" s="2" t="inlineStr"/>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MF:0000040</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>interpersonal process</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>An interpersonal process that involves the transmission of information between two organisms.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>MF:0000040</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>interpersonal process</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>An interpersonal process that involves the transmission of information between two organisms.</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006110</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr"/>
+      <c r="H96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="inlineStr"/>
+      <c r="K96" s="2" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MF:0000017</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>consciousness</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006110</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
-      <c r="C97" s="2" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr"/>
-      <c r="G97" s="2" t="inlineStr"/>
-      <c r="H97" s="2" t="inlineStr"/>
-      <c r="I97" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J97" s="2" t="inlineStr"/>
-      <c r="K97" s="2" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>MF:0000017</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>consciousness</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006307</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr"/>
+      <c r="F98" s="3" t="inlineStr"/>
+      <c r="G98" s="3" t="inlineStr"/>
+      <c r="H98" s="3" t="inlineStr"/>
+      <c r="I98" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J98" s="3" t="inlineStr"/>
+      <c r="K98" s="3" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MFOEM:000020</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>core disgust</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006307</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>controlled motivation</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
-        </is>
-      </c>
-      <c r="E99" s="3" t="inlineStr"/>
-      <c r="F99" s="3" t="inlineStr"/>
-      <c r="G99" s="3" t="inlineStr"/>
-      <c r="H99" s="3" t="inlineStr"/>
-      <c r="I99" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J99" s="3" t="inlineStr"/>
-      <c r="K99" s="3" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>MFOEM:000020</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>core disgust</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006160</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>craving</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective experience of powerful want or need for something or urge to engage in a behaviour. </t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr"/>
+      <c r="F100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr"/>
+      <c r="H100" s="2" t="inlineStr"/>
+      <c r="I100" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J100" s="2" t="inlineStr"/>
+      <c r="K100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006160</t>
+          <t>BCIO:006047</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>craving</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A subjective experience of powerful want or need for something or urge to engage in a behaviour. </t>
+          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
+        </is>
+      </c>
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr">
         <is>
@@ -3903,31 +3907,27 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006047</t>
+          <t>BCIO:006111</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t xml:space="preserve">decision simplification </t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
+          <t>A cognitive process that simplifies decision making.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr">
-        <is>
-          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
-        </is>
-      </c>
+      <c r="G102" s="2" t="inlineStr"/>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr">
         <is>
@@ -3940,22 +3940,22 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006111</t>
+          <t>BCIO:006116</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">decision simplification </t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that simplifies decision making.</t>
+          <t>Judging during which a decision is created.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
@@ -3973,22 +3973,22 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006116</t>
+          <t>BCIO:006079</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Judging during which a decision is created.</t>
+          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
@@ -4006,22 +4006,22 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006079</t>
+          <t>BCIO:006121</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>discrimination learning</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
+          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
@@ -4037,90 +4037,90 @@
       <c r="K105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006121</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>discrimination learning</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr"/>
-      <c r="F106" s="2" t="inlineStr"/>
-      <c r="G106" s="2" t="inlineStr"/>
-      <c r="H106" s="2" t="inlineStr"/>
-      <c r="I106" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J106" s="2" t="inlineStr"/>
-      <c r="K106" s="2" t="inlineStr"/>
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050227</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>disengagement due to workload</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to be detached from other people due to exhaustion experienced in one's working environment.</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr"/>
+      <c r="F106" s="3" t="inlineStr"/>
+      <c r="G106" s="3" t="inlineStr"/>
+      <c r="H106" s="3" t="inlineStr"/>
+      <c r="I106" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J106" s="3" t="inlineStr"/>
+      <c r="K106" s="3" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050227</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>disengagement due to workload</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to be detached from other people due to exhaustion experienced in one's working environment.</t>
-        </is>
-      </c>
-      <c r="E107" s="3" t="inlineStr"/>
-      <c r="F107" s="3" t="inlineStr"/>
-      <c r="G107" s="3" t="inlineStr"/>
-      <c r="H107" s="3" t="inlineStr"/>
-      <c r="I107" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J107" s="3" t="inlineStr"/>
-      <c r="K107" s="3" t="inlineStr"/>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000019 </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>A negative emotion which guards the body against dangerous foods and microbial infections. The basic physiological disgust has also culturally evolved to incorporate moral disgust which protects the self from nonphysical threats such as moral violations.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000019 </t>
+          <t>BFO:0000016</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>A negative emotion which guards the body against dangerous foods and microbial infections. The basic physiological disgust has also culturally evolved to incorporate moral disgust which protects the self from nonphysical threats such as moral violations.</t>
+          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -4136,90 +4136,90 @@
       <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>BFO:0000016</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006113</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>dissonance reduction process</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr"/>
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr"/>
+      <c r="H109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J109" s="2" t="inlineStr"/>
+      <c r="K109" s="2" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ENVO:01001110</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ecosystem</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>An environmental system which includes both living and non-living components.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006113</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>dissonance reduction process</t>
-        </is>
-      </c>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr"/>
-      <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr"/>
-      <c r="H110" s="2" t="inlineStr"/>
-      <c r="I110" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ENVO:01001110</t>
+          <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ecosystem</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>An environmental system which includes both living and non-living components.</t>
+          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -4237,27 +4237,35 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000001 </t>
+          <t xml:space="preserve">MFOEM:000007 </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>emotional action tendency</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>affective process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Flight and fight action tendencies</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
@@ -4268,72 +4276,64 @@
       <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000007 </t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>emotional action tendency</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Flight and fight action tendencies</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006008</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>emotional self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr"/>
+      <c r="K113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006008</t>
+          <t>BCIO:006159</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>emotional self-regulation capability</t>
+          <t>enjoyment of behaviour</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
@@ -4346,138 +4346,147 @@
       <c r="K114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006159</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>enjoyment of behaviour</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="inlineStr"/>
-      <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
-      <c r="H115" s="2" t="inlineStr"/>
-      <c r="I115" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J115" s="2" t="inlineStr"/>
-      <c r="K115" s="2" t="inlineStr"/>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ENVO:01000452</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>system</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>ENVO:01000254</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr">
-        <is>
           <t>'The term 'disposition' is used to describe that an environmental system can surround and interact with one or more material entities. This conditionality is important, as an entity does not necessarily have to be in an specific environment system at all times.
 The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).
 'environmental system' includes physical and social aspects of the environment. As all subclasses of 'environmental system' will have physical aspects, a separate subclass for 'physical environmental system' would not capture a unique aspect of its parent class.</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr">
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006127</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>episodic memory</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J117" s="2" t="inlineStr"/>
+      <c r="K117" s="2" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006127</t>
+          <t>BCIO:006035</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>episodic memory</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr"/>
+          <t>An evaluative belief about one's attributes.</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept</t>
+        </is>
+      </c>
       <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
+      <c r="G118" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept is used to form an evaluation of self.
+One's attributes can be evaluated as positive or negative.</t>
+        </is>
+      </c>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr">
         <is>
@@ -4490,36 +4499,27 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006035</t>
+          <t>BCIO:006038</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept</t>
-        </is>
-      </c>
+          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept is used to form an evaluation of self.
-One's attributes can be evaluated as positive or negative.</t>
-        </is>
-      </c>
+      <c r="G119" s="2" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr"/>
       <c r="I119" s="2" t="inlineStr">
         <is>
@@ -4530,80 +4530,80 @@
       <c r="K119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006038</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006151</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>evaluative belief about a stereotype</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
-      <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J120" s="2" t="inlineStr"/>
-      <c r="K120" s="2" t="inlineStr"/>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr"/>
+      <c r="F120" s="4" t="inlineStr"/>
+      <c r="G120" s="4" t="inlineStr"/>
+      <c r="H120" s="4" t="inlineStr"/>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J120" s="4" t="inlineStr"/>
+      <c r="K120" s="4" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006151</t>
-        </is>
-      </c>
-      <c r="B121" s="4" t="inlineStr">
-        <is>
-          <t>evaluative belief about a stereotype</t>
-        </is>
-      </c>
-      <c r="C121" s="4" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006147</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>evaluative belief about behaviour</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="D121" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
-        </is>
-      </c>
-      <c r="E121" s="4" t="inlineStr"/>
-      <c r="F121" s="4" t="inlineStr"/>
-      <c r="G121" s="4" t="inlineStr"/>
-      <c r="H121" s="4" t="inlineStr"/>
-      <c r="I121" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J121" s="4" t="inlineStr"/>
-      <c r="K121" s="4" t="inlineStr"/>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr"/>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
+      <c r="H121" s="2" t="inlineStr"/>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="inlineStr"/>
+      <c r="K121" s="2" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006147</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behaviour</t>
+          <t>evaluative belief about behavioural outcomes</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006150</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcomes</t>
+          <t>evaluative belief about others</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
+          <t>An evaluative belief about the attributes of others.</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr"/>
@@ -4662,88 +4662,88 @@
       <c r="K123" s="2" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006150</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about others</t>
-        </is>
-      </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the attributes of others.</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="inlineStr"/>
-      <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr"/>
-      <c r="H124" s="2" t="inlineStr"/>
-      <c r="I124" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J124" s="2" t="inlineStr"/>
-      <c r="K124" s="2" t="inlineStr"/>
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006101</t>
+        </is>
+      </c>
+      <c r="B124" s="4" t="inlineStr">
+        <is>
+          <t>experiential rightness of goal pursuit</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
+        </is>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t>perceived regulatory fit process</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr"/>
+      <c r="G124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
+        </is>
+      </c>
+      <c r="H124" s="4" t="inlineStr"/>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr"/>
+      <c r="K124" s="4" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006101</t>
-        </is>
-      </c>
-      <c r="B125" s="4" t="inlineStr">
-        <is>
-          <t>experiential rightness of goal pursuit</t>
-        </is>
-      </c>
-      <c r="C125" s="4" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D125" s="4" t="inlineStr">
-        <is>
-          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
-        </is>
-      </c>
-      <c r="E125" s="4" t="inlineStr">
-        <is>
-          <t>perceived regulatory fit process</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr"/>
-      <c r="G125" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
-        </is>
-      </c>
-      <c r="H125" s="4" t="inlineStr"/>
-      <c r="I125" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J125" s="4" t="inlineStr"/>
-      <c r="K125" s="4" t="inlineStr"/>
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006122</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>extinction in classical conditioning</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr"/>
+      <c r="F125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr"/>
+      <c r="H125" s="2" t="inlineStr"/>
+      <c r="I125" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J125" s="2" t="inlineStr"/>
+      <c r="K125" s="2" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006122</t>
+          <t>BCIO:006123</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>extinction in classical conditioning</t>
+          <t>extinction in operant learning</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr"/>
@@ -4769,198 +4769,202 @@
       <c r="K126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006123</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>extinction in operant learning</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr"/>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
-      <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J127" s="2" t="inlineStr"/>
-      <c r="K127" s="2" t="inlineStr"/>
+      <c r="A127" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006135</t>
+        </is>
+      </c>
+      <c r="B127" s="4" t="inlineStr">
+        <is>
+          <t>extrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C127" s="4" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
+        </is>
+      </c>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
+        </is>
+      </c>
+      <c r="E127" s="4" t="inlineStr">
+        <is>
+          <t>external motivation</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr"/>
+      <c r="G127" s="4" t="inlineStr"/>
+      <c r="H127" s="4" t="inlineStr"/>
+      <c r="I127" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr"/>
+      <c r="K127" s="4" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006135</t>
-        </is>
-      </c>
-      <c r="B128" s="4" t="inlineStr">
-        <is>
-          <t>extrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C128" s="4" t="inlineStr">
-        <is>
-          <t>controlled motivation</t>
-        </is>
-      </c>
-      <c r="D128" s="4" t="inlineStr">
-        <is>
-          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
-        </is>
-      </c>
-      <c r="E128" s="4" t="inlineStr">
-        <is>
-          <t>external motivation</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr"/>
-      <c r="G128" s="4" t="inlineStr"/>
-      <c r="H128" s="4" t="inlineStr"/>
-      <c r="I128" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J128" s="4" t="inlineStr"/>
-      <c r="K128" s="4" t="inlineStr"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006002</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>family environmental system</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>social environment system</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr"/>
+      <c r="F128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="inlineStr"/>
+      <c r="H128" s="2" t="inlineStr"/>
+      <c r="I128" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J128" s="2" t="inlineStr"/>
+      <c r="K128" s="2" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006002</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>family environmental system</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>social environment system</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
-        </is>
-      </c>
-      <c r="E129" s="2" t="inlineStr"/>
-      <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr"/>
-      <c r="H129" s="2" t="inlineStr"/>
-      <c r="I129" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J129" s="2" t="inlineStr"/>
-      <c r="K129" s="2" t="inlineStr"/>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MFOEM:000026</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>An activated, aversive emotion that motivates attempts to cope with events that provide threats to the survival or well-being of organisms. Characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>MFOEM:000026</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>An activated, aversive emotion that motivates attempts to cope with events that provide threats to the survival or well-being of organisms. Characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006109</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>feeling an urge</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr"/>
+      <c r="F130" s="2" t="inlineStr"/>
+      <c r="G130" s="2" t="inlineStr"/>
+      <c r="H130" s="2" t="inlineStr"/>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J130" s="2" t="inlineStr"/>
+      <c r="K130" s="2" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000112 </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>feeling exhausted</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Feeling tired to an extremely strong degree.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006109</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>feeling an urge</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="inlineStr">
-        <is>
-          <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="inlineStr"/>
-      <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr"/>
-      <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J131" s="2" t="inlineStr"/>
-      <c r="K131" s="2" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000112 </t>
+          <t>MFOEM:000124</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>feeling exhausted</t>
+          <t>feeling nervous</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>feeling tired</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Feeling tired to an extremely strong degree.</t>
+          <t>A subjective affective feeling of being not at ease or agitated.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
@@ -4971,136 +4975,132 @@
       <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>MFOEM:000124</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>feeling nervous</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of being not at ease or agitated.</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050233</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>feeling sadness</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr"/>
+      <c r="F133" s="3" t="inlineStr"/>
+      <c r="G133" s="3" t="inlineStr"/>
+      <c r="H133" s="3" t="inlineStr"/>
+      <c r="I133" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J133" s="3" t="inlineStr"/>
+      <c r="K133" s="3" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MFOEM:000080</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050233</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>feeling sadness</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
-        </is>
-      </c>
-      <c r="E134" s="3" t="inlineStr"/>
-      <c r="F134" s="3" t="inlineStr"/>
-      <c r="G134" s="3" t="inlineStr"/>
-      <c r="H134" s="3" t="inlineStr"/>
-      <c r="I134" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J134" s="3" t="inlineStr"/>
-      <c r="K134" s="3" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>MFOEM:000080</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>feeling tired</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of tiredness, needing sleep.</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006087</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>financial behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr"/>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J135" s="2" t="inlineStr"/>
+      <c r="K135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006087</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>financial behavioural opportunity</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr">
-        <is>
-          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
-        </is>
-      </c>
+      <c r="G136" s="2" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr">
         <is>
@@ -5111,94 +5111,94 @@
       <c r="K136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr"/>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr"/>
-      <c r="H137" s="2" t="inlineStr"/>
-      <c r="I137" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J137" s="2" t="inlineStr"/>
-      <c r="K137" s="2" t="inlineStr"/>
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006308</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>fundamental need-based motivation</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr"/>
+      <c r="G137" s="3" t="inlineStr"/>
+      <c r="H137" s="3" t="inlineStr"/>
+      <c r="I137" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J137" s="3" t="inlineStr"/>
+      <c r="K137" s="3" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006308</t>
-        </is>
-      </c>
-      <c r="B138" s="3" t="inlineStr">
-        <is>
-          <t>fundamental need-based motivation</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
-        <is>
-          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
-        </is>
-      </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
-        </is>
-      </c>
-      <c r="F138" s="3" t="inlineStr"/>
-      <c r="G138" s="3" t="inlineStr"/>
-      <c r="H138" s="3" t="inlineStr"/>
-      <c r="I138" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J138" s="3" t="inlineStr"/>
-      <c r="K138" s="3" t="inlineStr"/>
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006124</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>generalisation (learning)</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr"/>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="inlineStr"/>
+      <c r="H138" s="2" t="inlineStr"/>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J138" s="2" t="inlineStr"/>
+      <c r="K138" s="2" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>generalisation (learning)</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
+          <t>A cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
@@ -5216,22 +5216,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of an end state towards which one is striving.</t>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -5249,22 +5249,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006114</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal setting process</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -5280,156 +5280,156 @@
       <c r="K141" s="2" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006114</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>goal setting process</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr"/>
-      <c r="F142" s="2" t="inlineStr"/>
-      <c r="G142" s="2" t="inlineStr"/>
-      <c r="H142" s="2" t="inlineStr"/>
-      <c r="I142" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J142" s="2" t="inlineStr"/>
-      <c r="K142" s="2" t="inlineStr"/>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>MFOEM:000053</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>guilt</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>MFOEM:000053</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>guilt</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006309</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>habit learning</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr"/>
+      <c r="F143" s="3" t="inlineStr"/>
+      <c r="G143" s="3" t="inlineStr"/>
+      <c r="H143" s="3" t="inlineStr"/>
+      <c r="I143" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J143" s="3" t="inlineStr"/>
+      <c r="K143" s="3" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006158</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr"/>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr"/>
+      <c r="H144" s="2" t="inlineStr"/>
+      <c r="I144" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J144" s="2" t="inlineStr"/>
+      <c r="K144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GO:0046959</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>habituation</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006309</t>
-        </is>
-      </c>
-      <c r="B144" s="3" t="inlineStr">
-        <is>
-          <t>habit learning</t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
-        <is>
-          <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
-        </is>
-      </c>
-      <c r="E144" s="3" t="inlineStr"/>
-      <c r="F144" s="3" t="inlineStr"/>
-      <c r="G144" s="3" t="inlineStr"/>
-      <c r="H144" s="3" t="inlineStr"/>
-      <c r="I144" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J144" s="3" t="inlineStr"/>
-      <c r="K144" s="3" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006158</t>
-        </is>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr"/>
-      <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr"/>
-      <c r="H145" s="2" t="inlineStr"/>
-      <c r="I145" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J145" s="2" t="inlineStr"/>
-      <c r="K145" s="2" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>GO:0046959</t>
+          <t>MFOEM:000042</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>habituation</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -5445,57 +5445,57 @@
       <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>MFOEM:000042</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>happiness</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006088</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>healthcare service accessibility</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr"/>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr"/>
+      <c r="H147" s="2" t="inlineStr"/>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J147" s="2" t="inlineStr"/>
+      <c r="K147" s="2" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006088</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>healthcare service accessibility</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
@@ -5511,90 +5511,90 @@
       <c r="K148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006115</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>heuristic process</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr"/>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
-      <c r="H149" s="2" t="inlineStr"/>
-      <c r="I149" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J149" s="2" t="inlineStr"/>
-      <c r="K149" s="2" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>MFOEM:000205</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>hunger</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>subjective emotional feeling</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>MFOEM:000205</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>hunger</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006130</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>iconic memory</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr"/>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr"/>
+      <c r="H150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J150" s="2" t="inlineStr"/>
+      <c r="K150" s="2" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006130</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>iconic memory</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
+          <t>A mental disposition relating to perceptions of oneself.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -5610,321 +5610,321 @@
       <c r="K151" s="2" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006050</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr"/>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr"/>
-      <c r="H152" s="2" t="inlineStr"/>
-      <c r="I152" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J152" s="2" t="inlineStr"/>
-      <c r="K152" s="2" t="inlineStr"/>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GO:0098596</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>imitative learning</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>GO:0098596</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>imitative learning</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050234</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>impulse</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr"/>
+      <c r="F153" s="3" t="inlineStr"/>
+      <c r="G153" s="3" t="inlineStr"/>
+      <c r="H153" s="3" t="inlineStr"/>
+      <c r="I153" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J153" s="3" t="inlineStr"/>
+      <c r="K153" s="3" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BFO:0000004</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050234</t>
-        </is>
-      </c>
-      <c r="B154" s="3" t="inlineStr">
-        <is>
-          <t>impulse</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D154" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
-        </is>
-      </c>
-      <c r="E154" s="3" t="inlineStr"/>
-      <c r="F154" s="3" t="inlineStr"/>
-      <c r="G154" s="3" t="inlineStr"/>
-      <c r="H154" s="3" t="inlineStr"/>
-      <c r="I154" s="3" t="inlineStr">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006094</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr"/>
+      <c r="F155" s="2" t="inlineStr"/>
+      <c r="G155" s="2" t="inlineStr"/>
+      <c r="H155" s="2" t="inlineStr"/>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="inlineStr"/>
+      <c r="K155" s="2" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr"/>
+      <c r="F156" s="3" t="inlineStr"/>
+      <c r="G156" s="3" t="inlineStr"/>
+      <c r="H156" s="3" t="inlineStr"/>
+      <c r="I156" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J154" s="3" t="inlineStr"/>
-      <c r="K154" s="3" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>BFO:0000004</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
+      <c r="J156" s="3" t="inlineStr"/>
+      <c r="K156" s="3" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr"/>
+      <c r="F157" s="2" t="inlineStr"/>
+      <c r="G157" s="2" t="inlineStr"/>
+      <c r="H157" s="2" t="inlineStr"/>
+      <c r="I157" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="inlineStr"/>
+      <c r="K157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MFOEM:000022</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>interpersonal disgust</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006094</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr"/>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr"/>
-      <c r="H156" s="2" t="inlineStr"/>
-      <c r="I156" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J156" s="2" t="inlineStr"/>
-      <c r="K156" s="2" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B157" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C157" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D157" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E157" s="3" t="inlineStr"/>
-      <c r="F157" s="3" t="inlineStr"/>
-      <c r="G157" s="3" t="inlineStr"/>
-      <c r="H157" s="3" t="inlineStr"/>
-      <c r="I157" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J157" s="3" t="inlineStr"/>
-      <c r="K157" s="3" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006100</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>internal reward for a response</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr">
-        <is>
-          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr"/>
-      <c r="H158" s="2" t="inlineStr"/>
-      <c r="I158" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J158" s="2" t="inlineStr"/>
-      <c r="K158" s="2" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>MFOEM:000022</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>interpersonal disgust</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="A159" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006097</t>
+        </is>
+      </c>
+      <c r="B159" s="4" t="inlineStr">
+        <is>
+          <t>interpersonal reciprocal communication</t>
+        </is>
+      </c>
+      <c r="C159" s="4" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t>Communication that is mutual between two or more people.</t>
+        </is>
+      </c>
+      <c r="E159" s="4" t="inlineStr"/>
+      <c r="F159" s="4" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr"/>
+      <c r="H159" s="4" t="inlineStr"/>
+      <c r="I159" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J159" s="4" t="inlineStr"/>
+      <c r="K159" s="4" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006097</t>
-        </is>
-      </c>
-      <c r="B160" s="4" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="C160" s="4" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D160" s="4" t="inlineStr">
-        <is>
-          <t>Communication that is mutual between two or more people.</t>
-        </is>
-      </c>
-      <c r="E160" s="4" t="inlineStr"/>
-      <c r="F160" s="4" t="inlineStr"/>
-      <c r="G160" s="4" t="inlineStr"/>
-      <c r="H160" s="4" t="inlineStr"/>
-      <c r="I160" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J160" s="4" t="inlineStr"/>
-      <c r="K160" s="4" t="inlineStr"/>
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006136</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>intrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr"/>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr"/>
+      <c r="H160" s="2" t="inlineStr"/>
+      <c r="I160" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="inlineStr"/>
+      <c r="K160" s="2" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:006105</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>intrinsic motivation</t>
+          <t>introjected self-regulation</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
+          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
@@ -5940,132 +5940,132 @@
       <c r="K161" s="2" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006105</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>introjected self-regulation</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr"/>
-      <c r="F162" s="2" t="inlineStr"/>
-      <c r="G162" s="2" t="inlineStr"/>
-      <c r="H162" s="2" t="inlineStr"/>
-      <c r="I162" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J162" s="2" t="inlineStr"/>
-      <c r="K162" s="2" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
+      <c r="A163" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006117</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="inlineStr">
+        <is>
+          <t>judging consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="D163" s="4" t="inlineStr">
+        <is>
+          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
+        </is>
+      </c>
+      <c r="E163" s="4" t="inlineStr"/>
+      <c r="F163" s="4" t="inlineStr"/>
+      <c r="G163" s="4" t="inlineStr"/>
+      <c r="H163" s="4" t="inlineStr"/>
+      <c r="I163" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J163" s="4" t="inlineStr"/>
+      <c r="K163" s="4" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006117</t>
-        </is>
-      </c>
-      <c r="B164" s="4" t="inlineStr">
-        <is>
-          <t>judging consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C164" s="4" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D164" s="4" t="inlineStr">
-        <is>
-          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
-        </is>
-      </c>
-      <c r="E164" s="4" t="inlineStr"/>
-      <c r="F164" s="4" t="inlineStr"/>
-      <c r="G164" s="4" t="inlineStr"/>
-      <c r="H164" s="4" t="inlineStr"/>
-      <c r="I164" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J164" s="4" t="inlineStr"/>
-      <c r="K164" s="4" t="inlineStr"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006052</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr"/>
+      <c r="F164" s="2" t="inlineStr"/>
+      <c r="G164" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
+      <c r="H164" s="2" t="inlineStr"/>
+      <c r="I164" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J164" s="2" t="inlineStr"/>
+      <c r="K164" s="2" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
+          <t>knowledge regarding a behaviour</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
           <t>knowledge</t>
         </is>
       </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
+      <c r="G165" s="2" t="inlineStr"/>
       <c r="H165" s="2" t="inlineStr"/>
       <c r="I165" s="2" t="inlineStr">
         <is>
@@ -6078,12 +6078,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -6111,12 +6111,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -6144,12 +6144,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -6177,27 +6177,35 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr"/>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>Habit</t>
+        </is>
+      </c>
       <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="inlineStr">
+        <is>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+        </is>
+      </c>
       <c r="H169" s="2" t="inlineStr"/>
       <c r="I169" s="2" t="inlineStr">
         <is>
@@ -6210,27 +6218,31 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an event in a person's environment, which is acquired through habit learning.</t>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
       <c r="H170" s="2" t="inlineStr"/>
       <c r="I170" s="2" t="inlineStr">
         <is>
@@ -6243,31 +6255,31 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>learned stimulus-thought co-occurrence</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to respond in a particular way to an event to an event in a person's environment, which is acquired through an associative learning process.</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr"/>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
       <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="G171" s="2" t="inlineStr"/>
       <c r="H171" s="2" t="inlineStr"/>
       <c r="I171" s="2" t="inlineStr">
         <is>
@@ -6278,57 +6290,57 @@
       <c r="K171" s="2" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006156</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-thought co-occurrence</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-response co-occurrence</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition to think in a particular way in response to an event in a person's environment. </t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr"/>
-      <c r="F172" s="2" t="inlineStr"/>
-      <c r="G172" s="2" t="inlineStr"/>
-      <c r="H172" s="2" t="inlineStr"/>
-      <c r="I172" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J172" s="2" t="inlineStr"/>
-      <c r="K172" s="2" t="inlineStr"/>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>GO:0007612</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GO:0007612</t>
+          <t>MF:0000086</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>linguistic communication</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
+          <t>A communication process in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -6344,90 +6356,90 @@
       <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>MF:0000086</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>linguistic communication</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>A communication process in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr"/>
+      <c r="H174" s="2" t="inlineStr"/>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr"/>
-      <c r="F175" s="2" t="inlineStr"/>
-      <c r="G175" s="2" t="inlineStr"/>
-      <c r="H175" s="2" t="inlineStr"/>
-      <c r="I175" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J175" s="2" t="inlineStr"/>
-      <c r="K175" s="2" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>UBERON:0000465</t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>material anatomical entity</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Anatomical entity that has mass.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -6445,22 +6457,22 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -6476,189 +6488,189 @@
       <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006093</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>mental behavioural cue</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="inlineStr"/>
+      <c r="H178" s="2" t="inlineStr"/>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000048 </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006131</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>mental categorising</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J180" s="2" t="inlineStr"/>
+      <c r="K180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr"/>
-      <c r="F179" s="2" t="inlineStr"/>
-      <c r="G179" s="2" t="inlineStr"/>
-      <c r="H179" s="2" t="inlineStr"/>
-      <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J179" s="2" t="inlineStr"/>
-      <c r="K179" s="2" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000048 </t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006131</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>mental categorising</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr"/>
-      <c r="F181" s="2" t="inlineStr"/>
-      <c r="G181" s="2" t="inlineStr"/>
-      <c r="H181" s="2" t="inlineStr"/>
-      <c r="I181" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J181" s="2" t="inlineStr"/>
-      <c r="K181" s="2" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>MF:0000033</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr"/>
+      <c r="F182" s="2" t="inlineStr"/>
+      <c r="G182" s="2" t="inlineStr"/>
+      <c r="H182" s="2" t="inlineStr"/>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="inlineStr"/>
+      <c r="K182" s="2" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006162</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
+          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
@@ -6674,37 +6686,37 @@
       <c r="K183" s="2" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006080</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>mental image</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr"/>
-      <c r="F184" s="2" t="inlineStr"/>
-      <c r="G184" s="2" t="inlineStr"/>
-      <c r="H184" s="2" t="inlineStr"/>
-      <c r="I184" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J184" s="2" t="inlineStr"/>
-      <c r="K184" s="2" t="inlineStr"/>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
@@ -6714,7 +6726,7 @@
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>mental image disposition</t>
+          <t>mental imagery disposition</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
@@ -6724,7 +6736,7 @@
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to represent a mental image.</t>
+          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E185" s="2" t="inlineStr"/>
@@ -6740,97 +6752,97 @@
       <c r="K185" s="2" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="3" t="inlineStr"/>
+      <c r="H186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J186" s="3" t="inlineStr"/>
+      <c r="K186" s="3" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="inlineStr">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D187" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E187" s="3" t="inlineStr"/>
-      <c r="F187" s="3" t="inlineStr"/>
-      <c r="G187" s="3" t="inlineStr"/>
-      <c r="H187" s="3" t="inlineStr"/>
-      <c r="I187" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J187" s="3" t="inlineStr"/>
-      <c r="K187" s="3" t="inlineStr"/>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr"/>
+      <c r="G187" s="2" t="inlineStr"/>
+      <c r="H187" s="2" t="inlineStr"/>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J187" s="2" t="inlineStr"/>
+      <c r="K187" s="2" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006157</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr"/>
       <c r="H188" s="2" t="inlineStr"/>
@@ -6843,132 +6855,132 @@
       <c r="K188" s="2" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006157</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for coping with barriers</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr"/>
-      <c r="F189" s="2" t="inlineStr"/>
-      <c r="G189" s="2" t="inlineStr"/>
-      <c r="H189" s="2" t="inlineStr"/>
-      <c r="I189" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J189" s="2" t="inlineStr"/>
-      <c r="K189" s="2" t="inlineStr"/>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>MF:0000020</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="A190" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000075 </t>
+        </is>
+      </c>
+      <c r="B190" s="4" t="inlineStr">
+        <is>
+          <t>mental quality</t>
+        </is>
+      </c>
+      <c r="C190" s="4" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="D190" s="4" t="inlineStr">
+        <is>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
+        </is>
+      </c>
+      <c r="E190" s="4" t="inlineStr"/>
+      <c r="F190" s="4" t="inlineStr"/>
+      <c r="G190" s="4" t="inlineStr"/>
+      <c r="H190" s="4" t="inlineStr"/>
+      <c r="I190" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J190" s="4" t="inlineStr"/>
+      <c r="K190" s="4" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000075 </t>
-        </is>
-      </c>
-      <c r="B191" s="4" t="inlineStr">
-        <is>
-          <t>mental quality</t>
-        </is>
-      </c>
-      <c r="C191" s="4" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="D191" s="4" t="inlineStr">
-        <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
-        </is>
-      </c>
-      <c r="E191" s="4" t="inlineStr"/>
-      <c r="F191" s="4" t="inlineStr"/>
-      <c r="G191" s="4" t="inlineStr"/>
-      <c r="H191" s="4" t="inlineStr"/>
-      <c r="I191" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J191" s="4" t="inlineStr"/>
-      <c r="K191" s="4" t="inlineStr"/>
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006004</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>mental skill</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>A mental capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr"/>
+      <c r="F191" s="2" t="inlineStr"/>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="inlineStr"/>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J191" s="2" t="inlineStr"/>
+      <c r="K191" s="2" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006004</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>mental skill</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training or practice.</t>
+          <t>A mental process in which current conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
-      <c r="G192" s="2" t="inlineStr">
-        <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
-        </is>
-      </c>
+      <c r="G192" s="2" t="inlineStr"/>
       <c r="H192" s="2" t="inlineStr"/>
       <c r="I192" s="2" t="inlineStr">
         <is>
@@ -6979,90 +6991,90 @@
       <c r="K192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006132</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>mentally comparing against a standard</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006133</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which current conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr"/>
-      <c r="F193" s="2" t="inlineStr"/>
-      <c r="G193" s="2" t="inlineStr"/>
-      <c r="H193" s="2" t="inlineStr"/>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J193" s="2" t="inlineStr"/>
-      <c r="K193" s="2" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that energises and directs behaviour.</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr"/>
+      <c r="F194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr"/>
+      <c r="H194" s="2" t="inlineStr"/>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J194" s="2" t="inlineStr"/>
+      <c r="K194" s="2" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -7080,22 +7092,22 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -7113,12 +7125,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -7128,7 +7140,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -7146,12 +7158,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>need for sense of security</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -7161,7 +7173,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to have a sense of personal agency and initiative</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -7179,12 +7191,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>need for social relatedness</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -7194,7 +7206,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -7227,10 +7239,14 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as able and effective.</t>
-        </is>
-      </c>
-      <c r="E200" s="2" t="inlineStr"/>
+          <t>A psychological need to experience oneself as capable and effective.</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr"/>
       <c r="H200" s="2" t="inlineStr"/>
@@ -7912,7 +7928,7 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition regarding what is fundamentally important in life and which informs standards for behaviour.</t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
@@ -8253,12 +8269,12 @@
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.  </t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>
@@ -8418,12 +8434,12 @@
       </c>
       <c r="C235" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D235" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.  </t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E235" s="2" t="inlineStr"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -546,27 +546,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006046</t>
+          <t>BCIO:006159</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>action schema</t>
+          <t>Pleasure associated with behaviour</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activate, guides a sequence of behaviours.</t>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>action script</t>
+          <t>Enjoyment of behaviour</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr"/>
@@ -581,61 +581,61 @@
       <c r="K3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000349</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>addiction</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>I have made this an external entity using the definition from AddictO as I think this is one in which AddictO should be the primary source</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006046</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>action schema</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive schema that when activate, guides a sequence of behaviours.</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>action script</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000195 </t>
+          <t>ADDICTO:0000349</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>affective process</t>
+          <t>addiction</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Any process that has positive or negative valence. </t>
+          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -648,40 +648,48 @@
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>I have made this an external entity using the definition from AddictO as I think this is one in which AddictO should be the primary source</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006014</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>alienation</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000195 </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A mental process that has positive or negative valence.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -809,12 +817,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>An emotion that is negative, aversive and provoked by the prospect of distal future threat.</t>
+          <t>A negative emotion that is aversive and provoked by the prospect of distal threat.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Experiencing 'anxious mood' can give rise to 'anxiety'. An 'anxious mood' does not have an object but involves generalised feeling of anxiety that a person experiences. In contrast, 'anxiety' will be about something, even if this object is not well-specified.
+The term 'distal' can refer to future threats or geographically distant threats.
+Distinguished from fear since it is triggered by a distal threat whereas fear is triggered by an immediate threat. Often gradual and long-lasting, whereas fear usually has sudden onset and offset.</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
@@ -847,7 +861,13 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Appraisals are a part of emotion processes, representing how a triggering stimulus is relevant to oneself. Appraisal captures the ‘aboutness’ of an emotion process.
+For instance, a stimulus (the image of a tiger) can produce different emotion processes depending on how the relevance of this stimulus is evaluated. The image of a tiger on TV would not be evaluated as dangerous. However, the image of a tiger two meters away from a person would be relevant to a person in terms of its dangerousness. Therefore, the appraisal of the dangerousness of the tiger would be part of the emotion process 'fear'.
+There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal does not necessarily precede a physiological process part of the emotion process).</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
@@ -974,7 +994,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">An appraisal that represents an evaluation that an event was caused by the self.  </t>
+          <t>An appraisal that represents an evaluation that an event was caused by oneself.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1073,7 +1093,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">An appraisal which represents an evaluation of the dangerousness of an object or situation. </t>
+          <t>An appraisal which represents an evaluation of how threatening an object or situation is.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1887,12 +1907,16 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A behaviour undertaken to modulate the frequency, rate or extent of a different behaviour, the specific actions or reactions of an organism in response to external or internal stimuli, and that is instigated by the organism itself.</t>
+          <t>Self-regulation of behaviour through the performance of a different behaviour.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Behavioural self-regulation of behaviour can be an MoA or outcome depending on how 'behavioural self-regulation of behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets behavioural self-regulation of behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr">
         <is>
@@ -3513,12 +3537,12 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>An unpleasant subjective emotional feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
+          <t>An unpleasant subjective affective feeling experienced due to perceived inconsistency between two concurrently held cognitive representations.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -3591,7 +3615,8 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve">When a mental disposition is activated, the content of that belief is a cognitive representation. </t>
+          <t>When a mental disposition is activated, the content of that belief is a cognitive representation. 
+The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -3670,37 +3695,37 @@
       <c r="K94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>MF:0000040</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>interpersonal process</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>An interpersonal process that involves the transmission of information between two organisms.</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>An inter-personal behaviour that involves the intentional transmission of information.</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr"/>
+      <c r="F95" s="3" t="inlineStr"/>
+      <c r="G95" s="3" t="inlineStr"/>
+      <c r="H95" s="3" t="inlineStr"/>
+      <c r="I95" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J95" s="3" t="inlineStr"/>
+      <c r="K95" s="3" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -3847,7 +3872,7 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
@@ -3993,7 +4018,11 @@
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
-      <c r="G104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
+        </is>
+      </c>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr">
         <is>
@@ -4087,7 +4116,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>A negative emotion which guards the body against dangerous foods and microbial infections. The basic physiological disgust has also culturally evolved to incorporate moral disgust which protects the self from nonphysical threats such as moral violations.</t>
+          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -4219,12 +4248,18 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A mental process that involves a complex aggregate of constituent processes, is valenced and has an object.</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal process does not necessarily precede a physiological process part of the emotion process). 
+Emotion processes are distinguished from other affective processes (e.g., mood) by having an object. Even if an emotion is experienced due to physiological reasons, they would be felt as being about something or someone. For instance, a person might be angry at a situation that they would normally not be angry at, because they are hungry. However, that person would still be angry at a specific situation. 
+Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
@@ -4313,138 +4348,147 @@
       <c r="K113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006159</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>enjoyment of behaviour</t>
-        </is>
-      </c>
-      <c r="C114" s="2" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr"/>
-      <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr"/>
-      <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J114" s="2" t="inlineStr"/>
-      <c r="K114" s="2" t="inlineStr"/>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ENVO:01000452</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>system</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>ENVO:01000254</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
-        <is>
           <t>'The term 'disposition' is used to describe that an environmental system can surround and interact with one or more material entities. This conditionality is important, as an entity does not necessarily have to be in an specific environment system at all times.
 The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).
 'environmental system' includes physical and social aspects of the environment. As all subclasses of 'environmental system' will have physical aspects, a separate subclass for 'physical environmental system' would not capture a unique aspect of its parent class.</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006127</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>episodic memory</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr"/>
+      <c r="F116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr"/>
+      <c r="H116" s="2" t="inlineStr"/>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="inlineStr"/>
+      <c r="K116" s="2" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006127</t>
+          <t>BCIO:006035</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>episodic memory</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="inlineStr"/>
+          <t>An evaluative belief about one's attributes.</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept</t>
+        </is>
+      </c>
       <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept is used to form an evaluation of self.
+One's attributes can be evaluated as positive or negative.</t>
+        </is>
+      </c>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr">
         <is>
@@ -4457,36 +4501,27 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006035</t>
+          <t>BCIO:006038</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept</t>
-        </is>
-      </c>
+          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept is used to form an evaluation of self.
-One's attributes can be evaluated as positive or negative.</t>
-        </is>
-      </c>
+      <c r="G118" s="2" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr"/>
       <c r="I118" s="2" t="inlineStr">
         <is>
@@ -4497,80 +4532,80 @@
       <c r="K118" s="2" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006038</t>
-        </is>
-      </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="A119" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006151</t>
+        </is>
+      </c>
+      <c r="B119" s="4" t="inlineStr">
+        <is>
+          <t>evaluative belief about a stereotype</t>
+        </is>
+      </c>
+      <c r="C119" s="4" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr"/>
-      <c r="F119" s="2" t="inlineStr"/>
-      <c r="G119" s="2" t="inlineStr"/>
-      <c r="H119" s="2" t="inlineStr"/>
-      <c r="I119" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J119" s="2" t="inlineStr"/>
-      <c r="K119" s="2" t="inlineStr"/>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
+        </is>
+      </c>
+      <c r="E119" s="4" t="inlineStr"/>
+      <c r="F119" s="4" t="inlineStr"/>
+      <c r="G119" s="4" t="inlineStr"/>
+      <c r="H119" s="4" t="inlineStr"/>
+      <c r="I119" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J119" s="4" t="inlineStr"/>
+      <c r="K119" s="4" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006151</t>
-        </is>
-      </c>
-      <c r="B120" s="4" t="inlineStr">
-        <is>
-          <t>evaluative belief about a stereotype</t>
-        </is>
-      </c>
-      <c r="C120" s="4" t="inlineStr">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006147</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>evaluative belief about behaviour</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="D120" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
-        </is>
-      </c>
-      <c r="E120" s="4" t="inlineStr"/>
-      <c r="F120" s="4" t="inlineStr"/>
-      <c r="G120" s="4" t="inlineStr"/>
-      <c r="H120" s="4" t="inlineStr"/>
-      <c r="I120" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J120" s="4" t="inlineStr"/>
-      <c r="K120" s="4" t="inlineStr"/>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr"/>
+      <c r="F120" s="2" t="inlineStr"/>
+      <c r="G120" s="2" t="inlineStr"/>
+      <c r="H120" s="2" t="inlineStr"/>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr"/>
+      <c r="K120" s="2" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006147</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behaviour</t>
+          <t>evaluative belief about behavioural outcomes</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -4580,7 +4615,7 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
@@ -4598,12 +4633,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006150</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcomes</t>
+          <t>evaluative belief about others</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -4613,7 +4648,7 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
+          <t>An evaluative belief about the attributes of others.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -4629,88 +4664,88 @@
       <c r="K122" s="2" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006150</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about others</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the attributes of others.</t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="inlineStr"/>
-      <c r="F123" s="2" t="inlineStr"/>
-      <c r="G123" s="2" t="inlineStr"/>
-      <c r="H123" s="2" t="inlineStr"/>
-      <c r="I123" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J123" s="2" t="inlineStr"/>
-      <c r="K123" s="2" t="inlineStr"/>
+      <c r="A123" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006101</t>
+        </is>
+      </c>
+      <c r="B123" s="4" t="inlineStr">
+        <is>
+          <t>experiential rightness of goal pursuit</t>
+        </is>
+      </c>
+      <c r="C123" s="4" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
+        </is>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
+          <t>perceived regulatory fit process</t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="inlineStr"/>
+      <c r="G123" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
+        </is>
+      </c>
+      <c r="H123" s="4" t="inlineStr"/>
+      <c r="I123" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J123" s="4" t="inlineStr"/>
+      <c r="K123" s="4" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006101</t>
-        </is>
-      </c>
-      <c r="B124" s="4" t="inlineStr">
-        <is>
-          <t>experiential rightness of goal pursuit</t>
-        </is>
-      </c>
-      <c r="C124" s="4" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D124" s="4" t="inlineStr">
-        <is>
-          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
-        </is>
-      </c>
-      <c r="E124" s="4" t="inlineStr">
-        <is>
-          <t>perceived regulatory fit process</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr"/>
-      <c r="G124" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
-        </is>
-      </c>
-      <c r="H124" s="4" t="inlineStr"/>
-      <c r="I124" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J124" s="4" t="inlineStr"/>
-      <c r="K124" s="4" t="inlineStr"/>
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006122</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>extinction in classical conditioning</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr"/>
+      <c r="I124" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J124" s="2" t="inlineStr"/>
+      <c r="K124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006122</t>
+          <t>BCIO:006123</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>extinction in classical conditioning</t>
+          <t>extinction in operant learning</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -4720,7 +4755,7 @@
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr"/>
@@ -4736,198 +4771,206 @@
       <c r="K125" s="2" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006123</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>extinction in operant learning</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr"/>
-      <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr"/>
-      <c r="H126" s="2" t="inlineStr"/>
-      <c r="I126" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J126" s="2" t="inlineStr"/>
-      <c r="K126" s="2" t="inlineStr"/>
+      <c r="A126" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006135</t>
+        </is>
+      </c>
+      <c r="B126" s="4" t="inlineStr">
+        <is>
+          <t>extrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C126" s="4" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
+        </is>
+      </c>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
+        </is>
+      </c>
+      <c r="E126" s="4" t="inlineStr">
+        <is>
+          <t>external motivation</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr"/>
+      <c r="G126" s="4" t="inlineStr"/>
+      <c r="H126" s="4" t="inlineStr"/>
+      <c r="I126" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J126" s="4" t="inlineStr"/>
+      <c r="K126" s="4" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006135</t>
-        </is>
-      </c>
-      <c r="B127" s="4" t="inlineStr">
-        <is>
-          <t>extrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C127" s="4" t="inlineStr">
-        <is>
-          <t>controlled motivation</t>
-        </is>
-      </c>
-      <c r="D127" s="4" t="inlineStr">
-        <is>
-          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
-        </is>
-      </c>
-      <c r="E127" s="4" t="inlineStr">
-        <is>
-          <t>external motivation</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr"/>
-      <c r="G127" s="4" t="inlineStr"/>
-      <c r="H127" s="4" t="inlineStr"/>
-      <c r="I127" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J127" s="4" t="inlineStr"/>
-      <c r="K127" s="4" t="inlineStr"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006002</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>family environmental system</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>social environment system</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr"/>
+      <c r="F127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr"/>
+      <c r="H127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J127" s="2" t="inlineStr"/>
+      <c r="K127" s="2" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006002</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>family environmental system</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>social environment system</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="inlineStr"/>
-      <c r="F128" s="2" t="inlineStr"/>
-      <c r="G128" s="2" t="inlineStr"/>
-      <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J128" s="2" t="inlineStr"/>
-      <c r="K128" s="2" t="inlineStr"/>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>MFOEM:000026</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Distinguished from anxiety since it usually has sudden onset and offset. Anxiety is often gradual and long-lasting and is triggered by a distal threat.</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>MFOEM:000026</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>An activated, aversive emotion that motivates attempts to cope with events that provide threats to the survival or well-being of organisms. Characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006109</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>feeling an urge</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr"/>
+      <c r="F129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr"/>
+      <c r="H129" s="2" t="inlineStr"/>
+      <c r="I129" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J129" s="2" t="inlineStr"/>
+      <c r="K129" s="2" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000112 </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>feeling exhausted</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Feeling tired to an extremely strong degree.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006109</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>feeling an urge</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="inlineStr">
-        <is>
-          <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr"/>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr"/>
-      <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J130" s="2" t="inlineStr"/>
-      <c r="K130" s="2" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000112 </t>
+          <t>MFOEM:000124</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>feeling exhausted</t>
+          <t>feeling nervous</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>feeling tired</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Feeling tired to an extremely strong degree.</t>
+          <t>A subjective affective feeling of being not at ease or agitated.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
@@ -4938,136 +4981,132 @@
       <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>MFOEM:000124</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>feeling nervous</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050233</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>feeling sadness</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of being not at ease or agitated.</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr">
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr"/>
+      <c r="F132" s="3" t="inlineStr"/>
+      <c r="G132" s="3" t="inlineStr"/>
+      <c r="H132" s="3" t="inlineStr"/>
+      <c r="I132" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J132" s="3" t="inlineStr"/>
+      <c r="K132" s="3" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MFOEM:000080</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050233</t>
-        </is>
-      </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>feeling sadness</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
-        </is>
-      </c>
-      <c r="E133" s="3" t="inlineStr"/>
-      <c r="F133" s="3" t="inlineStr"/>
-      <c r="G133" s="3" t="inlineStr"/>
-      <c r="H133" s="3" t="inlineStr"/>
-      <c r="I133" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J133" s="3" t="inlineStr"/>
-      <c r="K133" s="3" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>MFOEM:000080</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>feeling tired</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of tiredness, needing sleep.</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006087</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>financial behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr"/>
+      <c r="F134" s="2" t="inlineStr"/>
+      <c r="G134" s="2" t="inlineStr">
+        <is>
+          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
+        </is>
+      </c>
+      <c r="H134" s="2" t="inlineStr"/>
+      <c r="I134" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J134" s="2" t="inlineStr"/>
+      <c r="K134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006087</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>financial behavioural opportunity</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr">
-        <is>
-          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
-        </is>
-      </c>
+      <c r="G135" s="2" t="inlineStr"/>
       <c r="H135" s="2" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr">
         <is>
@@ -5078,94 +5117,94 @@
       <c r="K135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr"/>
-      <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr"/>
-      <c r="H136" s="2" t="inlineStr"/>
-      <c r="I136" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J136" s="2" t="inlineStr"/>
-      <c r="K136" s="2" t="inlineStr"/>
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006308</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>fundamental need-based motivation</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
+        </is>
+      </c>
+      <c r="F136" s="3" t="inlineStr"/>
+      <c r="G136" s="3" t="inlineStr"/>
+      <c r="H136" s="3" t="inlineStr"/>
+      <c r="I136" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J136" s="3" t="inlineStr"/>
+      <c r="K136" s="3" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006308</t>
-        </is>
-      </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t>fundamental need-based motivation</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D137" s="3" t="inlineStr">
-        <is>
-          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
-        </is>
-      </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
-        </is>
-      </c>
-      <c r="F137" s="3" t="inlineStr"/>
-      <c r="G137" s="3" t="inlineStr"/>
-      <c r="H137" s="3" t="inlineStr"/>
-      <c r="I137" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J137" s="3" t="inlineStr"/>
-      <c r="K137" s="3" t="inlineStr"/>
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006124</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>generalisation (learning)</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr"/>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
+      <c r="H137" s="2" t="inlineStr"/>
+      <c r="I137" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J137" s="2" t="inlineStr"/>
+      <c r="K137" s="2" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>generalisation (learning)</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
+          <t>A cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
@@ -5183,27 +5222,31 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of an end state towards which one is striving.</t>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
-      <c r="G139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+        </is>
+      </c>
       <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr">
         <is>
@@ -5216,22 +5259,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006114</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal setting process</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -5247,156 +5290,161 @@
       <c r="K140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006114</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>goal setting process</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
-        </is>
-      </c>
-      <c r="E141" s="2" t="inlineStr"/>
-      <c r="F141" s="2" t="inlineStr"/>
-      <c r="G141" s="2" t="inlineStr"/>
-      <c r="H141" s="2" t="inlineStr"/>
-      <c r="I141" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J141" s="2" t="inlineStr"/>
-      <c r="K141" s="2" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>MFOEM:000053</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>guilt</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>MFOEM:000053</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>guilt</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A self-evaluative emotino that occurs when a person brings about a negative outcome by acts of commission or omission. </t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006309</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>habit learning</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr"/>
+      <c r="F142" s="3" t="inlineStr"/>
+      <c r="G142" s="3" t="inlineStr"/>
+      <c r="H142" s="3" t="inlineStr"/>
+      <c r="I142" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J142" s="3" t="inlineStr"/>
+      <c r="K142" s="3" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006158</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>habitual behaviour</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour that results from a learnt stimulus-behaviour co-occurrence.</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr"/>
+      <c r="F143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr">
+        <is>
+          <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
+Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
+      <c r="H143" s="2" t="inlineStr"/>
+      <c r="I143" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J143" s="2" t="inlineStr"/>
+      <c r="K143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>GO:0046959</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>habituation</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006309</t>
-        </is>
-      </c>
-      <c r="B143" s="3" t="inlineStr">
-        <is>
-          <t>habit learning</t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D143" s="3" t="inlineStr">
-        <is>
-          <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
-        </is>
-      </c>
-      <c r="E143" s="3" t="inlineStr"/>
-      <c r="F143" s="3" t="inlineStr"/>
-      <c r="G143" s="3" t="inlineStr"/>
-      <c r="H143" s="3" t="inlineStr"/>
-      <c r="I143" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J143" s="3" t="inlineStr"/>
-      <c r="K143" s="3" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006158</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour that is strongly influenced by a learnt stimulus-behaviour association. </t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="inlineStr"/>
-      <c r="F144" s="2" t="inlineStr"/>
-      <c r="G144" s="2" t="inlineStr"/>
-      <c r="H144" s="2" t="inlineStr"/>
-      <c r="I144" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J144" s="2" t="inlineStr"/>
-      <c r="K144" s="2" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>GO:0046959</t>
+          <t>MFOEM:000042</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>habituation</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -5412,57 +5460,61 @@
       <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>MFOEM:000042</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>happiness</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006088</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>healthcare access</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr"/>
+      <c r="F146" s="2" t="inlineStr"/>
+      <c r="G146" s="2" t="inlineStr">
+        <is>
+          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
+        </is>
+      </c>
+      <c r="H146" s="2" t="inlineStr"/>
+      <c r="I146" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J146" s="2" t="inlineStr"/>
+      <c r="K146" s="2" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006088</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>healthcare service accessibility</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>An opportunity regarding  how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr"/>
@@ -5478,90 +5530,90 @@
       <c r="K147" s="2" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006115</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>heuristic process</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="inlineStr"/>
-      <c r="F148" s="2" t="inlineStr"/>
-      <c r="G148" s="2" t="inlineStr"/>
-      <c r="H148" s="2" t="inlineStr"/>
-      <c r="I148" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J148" s="2" t="inlineStr"/>
-      <c r="K148" s="2" t="inlineStr"/>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>MFOEM:000205</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>hunger</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>MFOEM:000205</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>hunger</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>subjective emotional feeling</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006130</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>iconic memory</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr"/>
+      <c r="F149" s="2" t="inlineStr"/>
+      <c r="G149" s="2" t="inlineStr"/>
+      <c r="H149" s="2" t="inlineStr"/>
+      <c r="I149" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J149" s="2" t="inlineStr"/>
+      <c r="K149" s="2" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006130</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>iconic memory</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
+          <t>A mental disposition relating to perceptions of oneself.</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
@@ -5577,321 +5629,326 @@
       <c r="K150" s="2" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006050</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr"/>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr"/>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J151" s="2" t="inlineStr"/>
-      <c r="K151" s="2" t="inlineStr"/>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GO:0098596</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>imitative learning</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>GO:0098596</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>imitative learning</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr">
+      <c r="A152" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050234</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>impulse</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr"/>
+      <c r="F152" s="3" t="inlineStr"/>
+      <c r="G152" s="3" t="inlineStr"/>
+      <c r="H152" s="3" t="inlineStr"/>
+      <c r="I152" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J152" s="3" t="inlineStr"/>
+      <c r="K152" s="3" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>BFO:0000004</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050234</t>
-        </is>
-      </c>
-      <c r="B153" s="3" t="inlineStr">
-        <is>
-          <t>impulse</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D153" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
-        </is>
-      </c>
-      <c r="E153" s="3" t="inlineStr"/>
-      <c r="F153" s="3" t="inlineStr"/>
-      <c r="G153" s="3" t="inlineStr"/>
-      <c r="H153" s="3" t="inlineStr"/>
-      <c r="I153" s="3" t="inlineStr">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006094</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr"/>
+      <c r="F154" s="2" t="inlineStr"/>
+      <c r="G154" s="2" t="inlineStr">
+        <is>
+          <t>The striated muscles referred to do not ordinarily involve the cardiac muscles.
+Behaviour can be an MoA or outcome depending on how 'behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class  'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets one behaviour to achieve an outcome behaviour (e.g. exercise for smoking cessation), the former qualifies as an MoA.</t>
+        </is>
+      </c>
+      <c r="H154" s="2" t="inlineStr"/>
+      <c r="I154" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J154" s="2" t="inlineStr"/>
+      <c r="K154" s="2" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr"/>
+      <c r="F155" s="3" t="inlineStr"/>
+      <c r="G155" s="3" t="inlineStr"/>
+      <c r="H155" s="3" t="inlineStr"/>
+      <c r="I155" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J153" s="3" t="inlineStr"/>
-      <c r="K153" s="3" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>BFO:0000004</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr">
+      <c r="J155" s="3" t="inlineStr"/>
+      <c r="K155" s="3" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr"/>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
+      <c r="H156" s="2" t="inlineStr"/>
+      <c r="I156" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J156" s="2" t="inlineStr"/>
+      <c r="K156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>MFOEM:000022</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>interpersonal disgust</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006094</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr">
-        <is>
-          <t>Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr"/>
-      <c r="F155" s="2" t="inlineStr"/>
-      <c r="G155" s="2" t="inlineStr"/>
-      <c r="H155" s="2" t="inlineStr"/>
-      <c r="I155" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J155" s="2" t="inlineStr"/>
-      <c r="K155" s="2" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B156" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C156" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D156" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E156" s="3" t="inlineStr"/>
-      <c r="F156" s="3" t="inlineStr"/>
-      <c r="G156" s="3" t="inlineStr"/>
-      <c r="H156" s="3" t="inlineStr"/>
-      <c r="I156" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J156" s="3" t="inlineStr"/>
-      <c r="K156" s="3" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006100</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>internal reward for a response</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="inlineStr">
-        <is>
-          <t>A process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="inlineStr"/>
-      <c r="F157" s="2" t="inlineStr"/>
-      <c r="G157" s="2" t="inlineStr"/>
-      <c r="H157" s="2" t="inlineStr"/>
-      <c r="I157" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J157" s="2" t="inlineStr"/>
-      <c r="K157" s="2" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>MFOEM:000022</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>interpersonal disgust</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="A158" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006097</t>
+        </is>
+      </c>
+      <c r="B158" s="4" t="inlineStr">
+        <is>
+          <t>interpersonal reciprocal communication</t>
+        </is>
+      </c>
+      <c r="C158" s="4" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t>Communication that is mutual between two or more people.</t>
+        </is>
+      </c>
+      <c r="E158" s="4" t="inlineStr"/>
+      <c r="F158" s="4" t="inlineStr"/>
+      <c r="G158" s="4" t="inlineStr"/>
+      <c r="H158" s="4" t="inlineStr"/>
+      <c r="I158" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J158" s="4" t="inlineStr"/>
+      <c r="K158" s="4" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006097</t>
-        </is>
-      </c>
-      <c r="B159" s="4" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="C159" s="4" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D159" s="4" t="inlineStr">
-        <is>
-          <t>Communication that is mutual between two or more people.</t>
-        </is>
-      </c>
-      <c r="E159" s="4" t="inlineStr"/>
-      <c r="F159" s="4" t="inlineStr"/>
-      <c r="G159" s="4" t="inlineStr"/>
-      <c r="H159" s="4" t="inlineStr"/>
-      <c r="I159" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J159" s="4" t="inlineStr"/>
-      <c r="K159" s="4" t="inlineStr"/>
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006136</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>intrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr"/>
+      <c r="F159" s="2" t="inlineStr"/>
+      <c r="G159" s="2" t="inlineStr"/>
+      <c r="H159" s="2" t="inlineStr"/>
+      <c r="I159" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J159" s="2" t="inlineStr"/>
+      <c r="K159" s="2" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:006105</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>intrinsic motivation</t>
+          <t>introjected self-regulation</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
+          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr"/>
@@ -5907,132 +5964,132 @@
       <c r="K160" s="2" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006105</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>introjected self-regulation</t>
-        </is>
-      </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation undertaken to manage a sense of guilt, anxiety or obligation.</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="inlineStr"/>
-      <c r="F161" s="2" t="inlineStr"/>
-      <c r="G161" s="2" t="inlineStr"/>
-      <c r="H161" s="2" t="inlineStr"/>
-      <c r="I161" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J161" s="2" t="inlineStr"/>
-      <c r="K161" s="2" t="inlineStr"/>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
+      <c r="A162" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006117</t>
+        </is>
+      </c>
+      <c r="B162" s="4" t="inlineStr">
+        <is>
+          <t>judging consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C162" s="4" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="D162" s="4" t="inlineStr">
+        <is>
+          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
+        </is>
+      </c>
+      <c r="E162" s="4" t="inlineStr"/>
+      <c r="F162" s="4" t="inlineStr"/>
+      <c r="G162" s="4" t="inlineStr"/>
+      <c r="H162" s="4" t="inlineStr"/>
+      <c r="I162" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J162" s="4" t="inlineStr"/>
+      <c r="K162" s="4" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006117</t>
-        </is>
-      </c>
-      <c r="B163" s="4" t="inlineStr">
-        <is>
-          <t>judging consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C163" s="4" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D163" s="4" t="inlineStr">
-        <is>
-          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
-        </is>
-      </c>
-      <c r="E163" s="4" t="inlineStr"/>
-      <c r="F163" s="4" t="inlineStr"/>
-      <c r="G163" s="4" t="inlineStr"/>
-      <c r="H163" s="4" t="inlineStr"/>
-      <c r="I163" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J163" s="4" t="inlineStr"/>
-      <c r="K163" s="4" t="inlineStr"/>
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006052</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr"/>
+      <c r="F163" s="2" t="inlineStr"/>
+      <c r="G163" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
+      <c r="H163" s="2" t="inlineStr"/>
+      <c r="I163" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J163" s="2" t="inlineStr"/>
+      <c r="K163" s="2" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
+          <t>knowledge regarding a behaviour</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
           <t>knowledge</t>
         </is>
       </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
       <c r="F164" s="2" t="inlineStr"/>
-      <c r="G164" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
+      <c r="G164" s="2" t="inlineStr"/>
       <c r="H164" s="2" t="inlineStr"/>
       <c r="I164" s="2" t="inlineStr">
         <is>
@@ -6045,12 +6102,12 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -6060,7 +6117,7 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
@@ -6078,12 +6135,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -6093,7 +6150,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -6111,12 +6168,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -6126,7 +6183,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -6144,27 +6201,35 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr"/>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>Habit</t>
+        </is>
+      </c>
       <c r="F168" s="2" t="inlineStr"/>
-      <c r="G168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr">
+        <is>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+        </is>
+      </c>
       <c r="H168" s="2" t="inlineStr"/>
       <c r="I168" s="2" t="inlineStr">
         <is>
@@ -6177,33 +6242,29 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>Habit</t>
-        </is>
-      </c>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr"/>
@@ -6218,31 +6279,31 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>learned stimulus-thought co-occurrence</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr"/>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
       <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="G170" s="2" t="inlineStr"/>
       <c r="H170" s="2" t="inlineStr"/>
       <c r="I170" s="2" t="inlineStr">
         <is>
@@ -6253,65 +6314,65 @@
       <c r="K170" s="2" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006156</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-thought co-occurrence</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-response co-occurrence</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>Mental habit</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr"/>
-      <c r="H171" s="2" t="inlineStr"/>
-      <c r="I171" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J171" s="2" t="inlineStr"/>
-      <c r="K171" s="2" t="inlineStr"/>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>GO:0007612</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GO:0007612</t>
+          <t>MF:0000086</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>communication behaviour</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
+          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
@@ -6323,90 +6384,94 @@
       <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>MF:0000086</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>linguistic communication</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>A communication process in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr"/>
+      <c r="F173" s="2" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
+      <c r="H173" s="2" t="inlineStr"/>
+      <c r="I173" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J173" s="2" t="inlineStr"/>
+      <c r="K173" s="2" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>A spatial quality inhering in a bearer by virtue of the bearer's spatial location relative to other objects in the vicinity.</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr"/>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr"/>
-      <c r="H174" s="2" t="inlineStr"/>
-      <c r="I174" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J174" s="2" t="inlineStr"/>
-      <c r="K174" s="2" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>UBERON:0000465</t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>material anatomical entity</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Anatomical entity that has mass.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -6424,22 +6489,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -6455,189 +6520,189 @@
       <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006093</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>mental behavioural cue</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr"/>
+      <c r="F177" s="2" t="inlineStr"/>
+      <c r="G177" s="2" t="inlineStr"/>
+      <c r="H177" s="2" t="inlineStr"/>
+      <c r="I177" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J177" s="2" t="inlineStr"/>
+      <c r="K177" s="2" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000048 </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006131</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>mental categorising</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr">
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr"/>
+      <c r="F179" s="2" t="inlineStr"/>
+      <c r="G179" s="2" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr"/>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr"/>
+      <c r="K179" s="2" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B178" s="2" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C178" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="inlineStr"/>
-      <c r="F178" s="2" t="inlineStr"/>
-      <c r="G178" s="2" t="inlineStr"/>
-      <c r="H178" s="2" t="inlineStr"/>
-      <c r="I178" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J178" s="2" t="inlineStr"/>
-      <c r="K178" s="2" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000048 </t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006131</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
-        <is>
-          <t>mental categorising</t>
-        </is>
-      </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr"/>
-      <c r="F180" s="2" t="inlineStr"/>
-      <c r="G180" s="2" t="inlineStr"/>
-      <c r="H180" s="2" t="inlineStr"/>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J180" s="2" t="inlineStr"/>
-      <c r="K180" s="2" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>MF:0000033</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006162</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr"/>
@@ -6653,163 +6718,163 @@
       <c r="K182" s="2" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006080</t>
-        </is>
-      </c>
-      <c r="B183" s="2" t="inlineStr">
-        <is>
-          <t>mental image</t>
-        </is>
-      </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D183" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation of the visual appearance of some objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr"/>
-      <c r="F183" s="2" t="inlineStr"/>
-      <c r="G183" s="2" t="inlineStr"/>
-      <c r="H183" s="2" t="inlineStr"/>
-      <c r="I183" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J183" s="2" t="inlineStr"/>
-      <c r="K183" s="2" t="inlineStr"/>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006058</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>mental imagery disposition</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="inlineStr"/>
+      <c r="F184" s="2" t="inlineStr"/>
+      <c r="G184" s="2" t="inlineStr"/>
+      <c r="H184" s="2" t="inlineStr"/>
+      <c r="I184" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J184" s="2" t="inlineStr"/>
+      <c r="K184" s="2" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006058</t>
-        </is>
-      </c>
-      <c r="B185" s="2" t="inlineStr">
-        <is>
-          <t>mental imagery disposition</t>
-        </is>
-      </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D185" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E185" s="2" t="inlineStr"/>
-      <c r="F185" s="2" t="inlineStr"/>
-      <c r="G185" s="2" t="inlineStr"/>
-      <c r="H185" s="2" t="inlineStr"/>
-      <c r="I185" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J185" s="2" t="inlineStr"/>
-      <c r="K185" s="2" t="inlineStr"/>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr"/>
+      <c r="F185" s="3" t="inlineStr"/>
+      <c r="G185" s="3" t="inlineStr"/>
+      <c r="H185" s="3" t="inlineStr"/>
+      <c r="I185" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J185" s="3" t="inlineStr"/>
+      <c r="K185" s="3" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="C186" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D186" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3" t="inlineStr"/>
-      <c r="G186" s="3" t="inlineStr"/>
-      <c r="H186" s="3" t="inlineStr"/>
-      <c r="I186" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J186" s="3" t="inlineStr"/>
-      <c r="K186" s="3" t="inlineStr"/>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr"/>
+      <c r="G186" s="2" t="inlineStr"/>
+      <c r="H186" s="2" t="inlineStr"/>
+      <c r="I186" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J186" s="2" t="inlineStr"/>
+      <c r="K186" s="2" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006157</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr"/>
       <c r="H187" s="2" t="inlineStr"/>
@@ -6822,132 +6887,137 @@
       <c r="K187" s="2" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006157</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for coping with barriers</t>
-        </is>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="inlineStr">
-        <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="inlineStr"/>
-      <c r="F188" s="2" t="inlineStr"/>
-      <c r="G188" s="2" t="inlineStr"/>
-      <c r="H188" s="2" t="inlineStr"/>
-      <c r="I188" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J188" s="2" t="inlineStr"/>
-      <c r="K188" s="2" t="inlineStr"/>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Mental processes can varying in the degree to which they involve consciousness.
+A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>MF:0000020</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental process is a bodily process that is of a type such that it can of itself be conscious. </t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="A189" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000075 </t>
+        </is>
+      </c>
+      <c r="B189" s="4" t="inlineStr">
+        <is>
+          <t>mental quality</t>
+        </is>
+      </c>
+      <c r="C189" s="4" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="D189" s="4" t="inlineStr">
+        <is>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
+        </is>
+      </c>
+      <c r="E189" s="4" t="inlineStr"/>
+      <c r="F189" s="4" t="inlineStr"/>
+      <c r="G189" s="4" t="inlineStr"/>
+      <c r="H189" s="4" t="inlineStr"/>
+      <c r="I189" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J189" s="4" t="inlineStr"/>
+      <c r="K189" s="4" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000075 </t>
-        </is>
-      </c>
-      <c r="B190" s="4" t="inlineStr">
-        <is>
-          <t>mental quality</t>
-        </is>
-      </c>
-      <c r="C190" s="4" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="D190" s="4" t="inlineStr">
-        <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
-        </is>
-      </c>
-      <c r="E190" s="4" t="inlineStr"/>
-      <c r="F190" s="4" t="inlineStr"/>
-      <c r="G190" s="4" t="inlineStr"/>
-      <c r="H190" s="4" t="inlineStr"/>
-      <c r="I190" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J190" s="4" t="inlineStr"/>
-      <c r="K190" s="4" t="inlineStr"/>
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006004</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>mental skill</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>A mental capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="inlineStr"/>
+      <c r="F190" s="2" t="inlineStr"/>
+      <c r="G190" s="2" t="inlineStr">
+        <is>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+        </is>
+      </c>
+      <c r="H190" s="2" t="inlineStr"/>
+      <c r="I190" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J190" s="2" t="inlineStr"/>
+      <c r="K190" s="2" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006004</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>mental skill</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training or practice.</t>
+          <t>A mental process in which current conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
-      <c r="G191" s="2" t="inlineStr">
-        <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
-        </is>
-      </c>
+      <c r="G191" s="2" t="inlineStr"/>
       <c r="H191" s="2" t="inlineStr"/>
       <c r="I191" s="2" t="inlineStr">
         <is>
@@ -6958,90 +7028,90 @@
       <c r="K191" s="2" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006132</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>mentally comparing against a standard</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006133</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D192" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which current conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E192" s="2" t="inlineStr"/>
-      <c r="F192" s="2" t="inlineStr"/>
-      <c r="G192" s="2" t="inlineStr"/>
-      <c r="H192" s="2" t="inlineStr"/>
-      <c r="I192" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J192" s="2" t="inlineStr"/>
-      <c r="K192" s="2" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that energises and directs behaviour.</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="inlineStr"/>
+      <c r="F193" s="2" t="inlineStr"/>
+      <c r="G193" s="2" t="inlineStr"/>
+      <c r="H193" s="2" t="inlineStr"/>
+      <c r="I193" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J193" s="2" t="inlineStr"/>
+      <c r="K193" s="2" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -7059,22 +7129,22 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -7092,12 +7162,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -7107,7 +7177,7 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -7125,12 +7195,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -7140,7 +7210,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to have a sense of personal agency and initiative</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -7158,12 +7228,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>need for autonomy</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -7173,7 +7243,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -7191,12 +7261,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006069</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need to feel competent</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -7206,10 +7276,14 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="inlineStr"/>
+          <t>A psychological need to experience oneself as capable and effective.</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr"/>
       <c r="H199" s="2" t="inlineStr"/>
@@ -7222,98 +7296,94 @@
       <c r="K199" s="2" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006069</t>
-        </is>
-      </c>
-      <c r="B200" s="2" t="inlineStr">
-        <is>
-          <t>need to feel competent</t>
-        </is>
-      </c>
-      <c r="C200" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D200" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
-        </is>
-      </c>
-      <c r="E200" s="2" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
-      <c r="F200" s="2" t="inlineStr"/>
-      <c r="G200" s="2" t="inlineStr"/>
-      <c r="H200" s="2" t="inlineStr"/>
-      <c r="I200" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J200" s="2" t="inlineStr"/>
-      <c r="K200" s="2" t="inlineStr"/>
+      <c r="A200" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006037</t>
+        </is>
+      </c>
+      <c r="B200" s="4" t="inlineStr">
+        <is>
+          <t>negative evaluation of self</t>
+        </is>
+      </c>
+      <c r="C200" s="4" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D200" s="4" t="inlineStr">
+        <is>
+          <t>A belief about one's negative attributes.</t>
+        </is>
+      </c>
+      <c r="E200" s="4" t="inlineStr">
+        <is>
+          <t>low self-esteem; negative self-esteem</t>
+        </is>
+      </c>
+      <c r="F200" s="4" t="inlineStr"/>
+      <c r="G200" s="4" t="inlineStr"/>
+      <c r="H200" s="4" t="inlineStr"/>
+      <c r="I200" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J200" s="4" t="inlineStr"/>
+      <c r="K200" s="4" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006037</t>
-        </is>
-      </c>
-      <c r="B201" s="4" t="inlineStr">
-        <is>
-          <t>negative evaluation of self</t>
-        </is>
-      </c>
-      <c r="C201" s="4" t="inlineStr">
-        <is>
-          <t>evaluation of self</t>
-        </is>
-      </c>
-      <c r="D201" s="4" t="inlineStr">
-        <is>
-          <t>A belief about one's negative attributes.</t>
-        </is>
-      </c>
-      <c r="E201" s="4" t="inlineStr">
-        <is>
-          <t>low self-esteem; negative self-esteem</t>
-        </is>
-      </c>
-      <c r="F201" s="4" t="inlineStr"/>
-      <c r="G201" s="4" t="inlineStr"/>
-      <c r="H201" s="4" t="inlineStr"/>
-      <c r="I201" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J201" s="4" t="inlineStr"/>
-      <c r="K201" s="4" t="inlineStr"/>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>MFOEM:000210</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>negative surprise</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Surprise with a negative valence.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>MFOEM:000210</t>
+          <t>GO:0046958</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>negative surprise</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Surprise with a negative valence.</t>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr"/>
@@ -7329,127 +7399,135 @@
       <c r="K202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050235</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>non-judgemental acknowledgement</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>Acceptance</t>
+        </is>
+      </c>
+      <c r="F203" s="3" t="inlineStr"/>
+      <c r="G203" s="3" t="inlineStr"/>
+      <c r="H203" s="3" t="inlineStr"/>
+      <c r="I203" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J203" s="3" t="inlineStr"/>
+      <c r="K203" s="3" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>MF:0000089</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050235</t>
-        </is>
-      </c>
-      <c r="B204" s="3" t="inlineStr">
-        <is>
-          <t>non-judgemental acknowledgement</t>
-        </is>
-      </c>
-      <c r="C204" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D204" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
-        </is>
-      </c>
-      <c r="E204" s="3" t="inlineStr">
-        <is>
-          <t>Acceptance</t>
-        </is>
-      </c>
-      <c r="F204" s="3" t="inlineStr"/>
-      <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="3" t="inlineStr"/>
-      <c r="I204" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J204" s="3" t="inlineStr"/>
-      <c r="K204" s="3" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>MF:0000089</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>non-linguistic communication</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>A communication process in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006095</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="inlineStr"/>
+      <c r="F205" s="2" t="inlineStr"/>
+      <c r="G205" s="2" t="inlineStr">
+        <is>
+          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
+      <c r="H205" s="2" t="inlineStr"/>
+      <c r="I205" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J205" s="2" t="inlineStr"/>
+      <c r="K205" s="2" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:006042</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>normative belief</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A belief about whether important others think one should perform a behaviour.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -7465,99 +7543,99 @@
       <c r="K206" s="2" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006042</t>
-        </is>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>normative belief</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether important others think one should perform a behaviour.</t>
-        </is>
-      </c>
-      <c r="E207" s="2" t="inlineStr"/>
-      <c r="F207" s="2" t="inlineStr"/>
-      <c r="G207" s="2" t="inlineStr"/>
-      <c r="H207" s="2" t="inlineStr"/>
-      <c r="I207" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J207" s="2" t="inlineStr"/>
-      <c r="K207" s="2" t="inlineStr"/>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>GO:0098597</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015430</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>occupational role</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr"/>
+      <c r="F208" s="2" t="inlineStr"/>
+      <c r="G208" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="H208" s="2" t="inlineStr"/>
+      <c r="I208" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J208" s="2" t="inlineStr"/>
+      <c r="K208" s="2" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
       <c r="F209" s="2" t="inlineStr"/>
-      <c r="G209" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="G209" s="2" t="inlineStr"/>
       <c r="H209" s="2" t="inlineStr"/>
       <c r="I209" s="2" t="inlineStr">
         <is>
@@ -7568,80 +7646,80 @@
       <c r="K209" s="2" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006125</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>operant conditioning</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr"/>
-      <c r="F210" s="2" t="inlineStr"/>
-      <c r="G210" s="2" t="inlineStr"/>
-      <c r="H210" s="2" t="inlineStr"/>
-      <c r="I210" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J210" s="2" t="inlineStr"/>
-      <c r="K210" s="2" t="inlineStr"/>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>pain</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006040</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>perceived descriptive norm</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr"/>
+      <c r="F211" s="2" t="inlineStr"/>
+      <c r="G211" s="2" t="inlineStr"/>
+      <c r="H211" s="2" t="inlineStr"/>
+      <c r="I211" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J211" s="2" t="inlineStr"/>
+      <c r="K211" s="2" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006040</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>perceived injunctive norm</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
@@ -7651,7 +7729,7 @@
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -7669,27 +7747,35 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006041</t>
+          <t>BCIO:006039</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>perceived injunctive norm</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr"/>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
       <c r="F213" s="2" t="inlineStr"/>
-      <c r="G213" s="2" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
       <c r="H213" s="2" t="inlineStr"/>
       <c r="I213" s="2" t="inlineStr">
         <is>
@@ -7700,70 +7786,67 @@
       <c r="K213" s="2" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006039</t>
-        </is>
-      </c>
-      <c r="B214" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="C214" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr"/>
-      <c r="G214" s="2" t="inlineStr">
-        <is>
-          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
-        </is>
-      </c>
-      <c r="H214" s="2" t="inlineStr"/>
-      <c r="I214" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J214" s="2" t="inlineStr"/>
-      <c r="K214" s="2" t="inlineStr"/>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>MF:0000019</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MF:0000019</t>
+          <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
+For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
+        </is>
+      </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
@@ -7774,95 +7857,94 @@
       <c r="K215" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000043 </t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
-For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="A216" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006084</t>
+        </is>
+      </c>
+      <c r="B216" s="4" t="inlineStr">
+        <is>
+          <t>personal financial resource</t>
+        </is>
+      </c>
+      <c r="C216" s="4" t="inlineStr">
+        <is>
+          <t>personal  role</t>
+        </is>
+      </c>
+      <c r="D216" s="4" t="inlineStr">
+        <is>
+          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
+        </is>
+      </c>
+      <c r="E216" s="4" t="inlineStr"/>
+      <c r="F216" s="4" t="inlineStr"/>
+      <c r="G216" s="4" t="inlineStr"/>
+      <c r="H216" s="4" t="inlineStr"/>
+      <c r="I216" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J216" s="4" t="inlineStr"/>
+      <c r="K216" s="4" t="inlineStr"/>
     </row>
     <row r="217">
-      <c r="A217" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006084</t>
-        </is>
-      </c>
-      <c r="B217" s="4" t="inlineStr">
-        <is>
-          <t>personal financial resource</t>
-        </is>
-      </c>
-      <c r="C217" s="4" t="inlineStr">
-        <is>
-          <t>personal  role</t>
-        </is>
-      </c>
-      <c r="D217" s="4" t="inlineStr">
-        <is>
-          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
-        </is>
-      </c>
-      <c r="E217" s="4" t="inlineStr"/>
-      <c r="F217" s="4" t="inlineStr"/>
-      <c r="G217" s="4" t="inlineStr"/>
-      <c r="H217" s="4" t="inlineStr"/>
-      <c r="I217" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J217" s="4" t="inlineStr"/>
-      <c r="K217" s="4" t="inlineStr"/>
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006081</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="inlineStr"/>
+      <c r="F217" s="2" t="inlineStr"/>
+      <c r="G217" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="H217" s="2" t="inlineStr"/>
+      <c r="I217" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J217" s="2" t="inlineStr"/>
+      <c r="K217" s="2" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006081</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -7880,22 +7962,22 @@
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>personal social role</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
@@ -7913,27 +7995,31 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
       <c r="F220" s="2" t="inlineStr"/>
-      <c r="G220" s="2" t="inlineStr"/>
+      <c r="G220" s="2" t="inlineStr">
+        <is>
+          <t>An 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
       <c r="H220" s="2" t="inlineStr"/>
       <c r="I220" s="2" t="inlineStr">
         <is>
@@ -7946,22 +8032,22 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
+          <t>physical skill</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
           <t>physical behavioural capability</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
-        <is>
-          <t>behavioural capability</t>
-        </is>
-      </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A physical capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -7977,57 +8063,57 @@
       <c r="K221" s="2" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006089</t>
-        </is>
-      </c>
-      <c r="B222" s="2" t="inlineStr">
-        <is>
-          <t>physical behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="C222" s="2" t="inlineStr">
-        <is>
-          <t>behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D222" s="2" t="inlineStr">
-        <is>
-          <t>An opportunity of the physical environmental system that makes a behaviour possible or facilitates it.</t>
-        </is>
-      </c>
-      <c r="E222" s="2" t="inlineStr"/>
-      <c r="F222" s="2" t="inlineStr"/>
-      <c r="G222" s="2" t="inlineStr"/>
-      <c r="H222" s="2" t="inlineStr"/>
-      <c r="I222" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J222" s="2" t="inlineStr"/>
-      <c r="K222" s="2" t="inlineStr"/>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000003 </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>physiological process involved in an emotion</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006102</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>plan enactment</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -8045,22 +8131,22 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
+          <t>MF:0000027</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>physiological response to emotion process</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>A bodily process which encompasses all the neurophysiological changes caused by the appraisal, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
@@ -8076,95 +8162,107 @@
       <c r="K224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006102</t>
-        </is>
-      </c>
-      <c r="B225" s="2" t="inlineStr">
-        <is>
-          <t>plan enactment</t>
-        </is>
-      </c>
-      <c r="C225" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D225" s="2" t="inlineStr">
-        <is>
-          <t>A process by which a person attempts to follow the steps in a plan.</t>
-        </is>
-      </c>
-      <c r="E225" s="2" t="inlineStr"/>
-      <c r="F225" s="2" t="inlineStr"/>
-      <c r="G225" s="2" t="inlineStr"/>
-      <c r="H225" s="2" t="inlineStr"/>
-      <c r="I225" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J225" s="2" t="inlineStr"/>
-      <c r="K225" s="2" t="inlineStr"/>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="A226" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006036</t>
+        </is>
+      </c>
+      <c r="B226" s="4" t="inlineStr">
+        <is>
+          <t>positive evaluation of self</t>
+        </is>
+      </c>
+      <c r="C226" s="4" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D226" s="4" t="inlineStr">
+        <is>
+          <t>A belief about one's positive attributes.</t>
+        </is>
+      </c>
+      <c r="E226" s="4" t="inlineStr">
+        <is>
+          <t>positive self-esteem</t>
+        </is>
+      </c>
+      <c r="F226" s="4" t="inlineStr"/>
+      <c r="G226" s="4" t="inlineStr">
+        <is>
+          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
+        </is>
+      </c>
+      <c r="H226" s="4" t="inlineStr"/>
+      <c r="I226" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J226" s="4" t="inlineStr"/>
+      <c r="K226" s="4" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t>MFOEM:000209</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>positive surprise</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction.</t>
+          <t>Surprise with a positive valence.</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>wonder; astonishment</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -8179,168 +8277,156 @@
       <c r="K227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006036</t>
-        </is>
-      </c>
-      <c r="B228" s="4" t="inlineStr">
-        <is>
-          <t>positive evaluation of self</t>
-        </is>
-      </c>
-      <c r="C228" s="4" t="inlineStr">
-        <is>
-          <t>evaluation of self</t>
-        </is>
-      </c>
-      <c r="D228" s="4" t="inlineStr">
-        <is>
-          <t>A belief about one's positive attributes.</t>
-        </is>
-      </c>
-      <c r="E228" s="4" t="inlineStr">
-        <is>
-          <t>positive self-esteem</t>
-        </is>
-      </c>
-      <c r="F228" s="4" t="inlineStr"/>
-      <c r="G228" s="4" t="inlineStr">
-        <is>
-          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
-        </is>
-      </c>
-      <c r="H228" s="4" t="inlineStr"/>
-      <c r="I228" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J228" s="4" t="inlineStr"/>
-      <c r="K228" s="4" t="inlineStr"/>
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006061</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>prevention focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>motivational orientation towards types of outcomes</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="inlineStr"/>
+      <c r="F228" s="2" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr"/>
+      <c r="H228" s="2" t="inlineStr"/>
+      <c r="I228" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J228" s="2" t="inlineStr"/>
+      <c r="K228" s="2" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>MFOEM:000209</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>positive surprise</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Surprise with a positive valence.</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>wonder; astonishment</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006129</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>procedural memory</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="inlineStr"/>
+      <c r="F229" s="2" t="inlineStr"/>
+      <c r="G229" s="2" t="inlineStr"/>
+      <c r="H229" s="2" t="inlineStr"/>
+      <c r="I229" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J229" s="2" t="inlineStr"/>
+      <c r="K229" s="2" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BFO:0000144</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B230" s="2" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C230" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D230" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
-        </is>
-      </c>
-      <c r="E230" s="2" t="inlineStr"/>
-      <c r="F230" s="2" t="inlineStr"/>
-      <c r="G230" s="2" t="inlineStr"/>
-      <c r="H230" s="2" t="inlineStr"/>
-      <c r="I230" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J230" s="2" t="inlineStr"/>
-      <c r="K230" s="2" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006129</t>
-        </is>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>procedural memory</t>
-        </is>
-      </c>
-      <c r="C231" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D231" s="2" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
-        </is>
-      </c>
-      <c r="E231" s="2" t="inlineStr"/>
-      <c r="F231" s="2" t="inlineStr"/>
-      <c r="G231" s="2" t="inlineStr"/>
-      <c r="H231" s="2" t="inlineStr"/>
-      <c r="I231" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J231" s="2" t="inlineStr"/>
-      <c r="K231" s="2" t="inlineStr"/>
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050229</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>professional identity</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>Identity that is associated with one's occupational role.</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="inlineStr"/>
+      <c r="F231" s="3" t="inlineStr"/>
+      <c r="G231" s="3" t="inlineStr"/>
+      <c r="H231" s="3" t="inlineStr"/>
+      <c r="I231" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J231" s="3" t="inlineStr"/>
+      <c r="K231" s="3" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BFO:0000144</t>
+          <t>BCIO:050213</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>professional network</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>process</t>
+          <t xml:space="preserve"> social environmental system</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -8356,132 +8442,132 @@
       <c r="K232" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050229</t>
-        </is>
-      </c>
-      <c r="B233" s="3" t="inlineStr">
-        <is>
-          <t>professional identity</t>
-        </is>
-      </c>
-      <c r="C233" s="3" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="D233" s="3" t="inlineStr">
-        <is>
-          <t>Identity that is associated with one's occupational role.</t>
-        </is>
-      </c>
-      <c r="E233" s="3" t="inlineStr"/>
-      <c r="F233" s="3" t="inlineStr"/>
-      <c r="G233" s="3" t="inlineStr"/>
-      <c r="H233" s="3" t="inlineStr"/>
-      <c r="I233" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J233" s="3" t="inlineStr"/>
-      <c r="K233" s="3" t="inlineStr"/>
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006062</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>promotion focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>motivational orientation towards types of outcomes</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="inlineStr"/>
+      <c r="F233" s="2" t="inlineStr"/>
+      <c r="G233" s="2" t="inlineStr"/>
+      <c r="H233" s="2" t="inlineStr"/>
+      <c r="I233" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J233" s="2" t="inlineStr"/>
+      <c r="K233" s="2" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>BCIO:050213</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>professional network</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> social environmental system</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr"/>
+      <c r="F234" s="2" t="inlineStr"/>
+      <c r="G234" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="H234" s="2" t="inlineStr"/>
+      <c r="I234" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J234" s="2" t="inlineStr"/>
+      <c r="K234" s="2" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>PATO:0000001</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006062</t>
-        </is>
-      </c>
-      <c r="B235" s="2" t="inlineStr">
-        <is>
-          <t>promotion focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C235" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D235" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
-        </is>
-      </c>
-      <c r="E235" s="2" t="inlineStr"/>
-      <c r="F235" s="2" t="inlineStr"/>
-      <c r="G235" s="2" t="inlineStr"/>
-      <c r="H235" s="2" t="inlineStr"/>
-      <c r="I235" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J235" s="2" t="inlineStr"/>
-      <c r="K235" s="2" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="D236" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr"/>
       <c r="F236" s="2" t="inlineStr"/>
-      <c r="G236" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
+      <c r="G236" s="2" t="inlineStr"/>
       <c r="H236" s="2" t="inlineStr"/>
       <c r="I236" s="2" t="inlineStr">
         <is>
@@ -8492,113 +8578,117 @@
       <c r="K236" s="2" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
+      <c r="A237" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050232</t>
+        </is>
+      </c>
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>regret</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D237" s="3" t="inlineStr">
+        <is>
+          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
+        </is>
+      </c>
+      <c r="E237" s="3" t="inlineStr"/>
+      <c r="F237" s="3" t="inlineStr"/>
+      <c r="G237" s="3" t="inlineStr"/>
+      <c r="H237" s="3" t="inlineStr"/>
+      <c r="I237" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J237" s="3" t="inlineStr"/>
+      <c r="K237" s="3" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>MF:0000030</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>A dependent continuant which is about a portion of reality.</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006112</t>
-        </is>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>reflective thinking</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="inlineStr">
-        <is>
-          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
-        </is>
-      </c>
-      <c r="E238" s="2" t="inlineStr"/>
-      <c r="F238" s="2" t="inlineStr"/>
-      <c r="G238" s="2" t="inlineStr"/>
-      <c r="H238" s="2" t="inlineStr"/>
-      <c r="I238" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J238" s="2" t="inlineStr"/>
-      <c r="K238" s="2" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050232</t>
-        </is>
-      </c>
-      <c r="B239" s="3" t="inlineStr">
-        <is>
-          <t>regret</t>
-        </is>
-      </c>
-      <c r="C239" s="3" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D239" s="3" t="inlineStr">
-        <is>
-          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
-        </is>
-      </c>
-      <c r="E239" s="3" t="inlineStr"/>
-      <c r="F239" s="3" t="inlineStr"/>
-      <c r="G239" s="3" t="inlineStr"/>
-      <c r="H239" s="3" t="inlineStr"/>
-      <c r="I239" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J239" s="3" t="inlineStr"/>
-      <c r="K239" s="3" t="inlineStr"/>
+      <c r="A239" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006073</t>
+        </is>
+      </c>
+      <c r="B239" s="4" t="inlineStr">
+        <is>
+          <t>risk stereotype</t>
+        </is>
+      </c>
+      <c r="C239" s="4" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="D239" s="4" t="inlineStr">
+        <is>
+          <t>A stereotype of a person who enacts a problem behaviour.</t>
+        </is>
+      </c>
+      <c r="E239" s="4" t="inlineStr">
+        <is>
+          <t>risk prototype</t>
+        </is>
+      </c>
+      <c r="F239" s="4" t="inlineStr"/>
+      <c r="G239" s="4" t="inlineStr"/>
+      <c r="H239" s="4" t="inlineStr"/>
+      <c r="I239" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J239" s="4" t="inlineStr"/>
+      <c r="K239" s="4" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MF:0000030</t>
+          <t>BFO:0000023</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>role</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8608,7 +8698,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
+          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -8624,207 +8714,208 @@
       <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006073</t>
-        </is>
-      </c>
-      <c r="B241" s="4" t="inlineStr">
-        <is>
-          <t>risk stereotype</t>
-        </is>
-      </c>
-      <c r="C241" s="4" t="inlineStr">
-        <is>
-          <t>stereotype</t>
-        </is>
-      </c>
-      <c r="D241" s="4" t="inlineStr">
-        <is>
-          <t>A stereotype of a person who enacts a problem behaviour.</t>
-        </is>
-      </c>
-      <c r="E241" s="4" t="inlineStr">
-        <is>
-          <t>risk prototype</t>
-        </is>
-      </c>
-      <c r="F241" s="4" t="inlineStr"/>
-      <c r="G241" s="4" t="inlineStr"/>
-      <c r="H241" s="4" t="inlineStr"/>
-      <c r="I241" s="4" t="inlineStr">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050236</t>
+        </is>
+      </c>
+      <c r="B242" s="3" t="inlineStr">
+        <is>
+          <t>self-binding</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D242" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr">
+        <is>
+          <t>Pre-commitment</t>
+        </is>
+      </c>
+      <c r="F242" s="3" t="inlineStr"/>
+      <c r="G242" s="3" t="inlineStr"/>
+      <c r="H242" s="3" t="inlineStr"/>
+      <c r="I242" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J242" s="3" t="inlineStr"/>
+      <c r="K242" s="3" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006071</t>
+        </is>
+      </c>
+      <c r="B243" s="4" t="inlineStr">
+        <is>
+          <t>self-concept</t>
+        </is>
+      </c>
+      <c r="C243" s="4" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D243" s="4" t="inlineStr">
+        <is>
+          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
+        </is>
+      </c>
+      <c r="E243" s="4" t="inlineStr"/>
+      <c r="F243" s="4" t="inlineStr"/>
+      <c r="G243" s="4" t="inlineStr"/>
+      <c r="H243" s="4" t="inlineStr"/>
+      <c r="I243" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J241" s="4" t="inlineStr"/>
-      <c r="K241" s="4" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>BFO:0000023</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>sadness</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant, obstructive to one's goals and concerns, and one feels unable to cope with it or modify it.</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" s="4" t="inlineStr"/>
+      <c r="K243" s="4" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050236</t>
-        </is>
-      </c>
-      <c r="B244" s="3" t="inlineStr">
-        <is>
-          <t>self-binding</t>
-        </is>
-      </c>
-      <c r="C244" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D244" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr">
-        <is>
-          <t>Pre-commitment</t>
-        </is>
-      </c>
-      <c r="F244" s="3" t="inlineStr"/>
-      <c r="G244" s="3" t="inlineStr"/>
-      <c r="H244" s="3" t="inlineStr"/>
-      <c r="I244" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J244" s="3" t="inlineStr"/>
-      <c r="K244" s="3" t="inlineStr"/>
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006154</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="inlineStr"/>
+      <c r="F244" s="2" t="inlineStr"/>
+      <c r="G244" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
+      <c r="H244" s="2" t="inlineStr"/>
+      <c r="I244" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J244" s="2" t="inlineStr"/>
+      <c r="K244" s="2" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006071</t>
-        </is>
-      </c>
-      <c r="B245" s="4" t="inlineStr">
-        <is>
-          <t>self-concept</t>
-        </is>
-      </c>
-      <c r="C245" s="4" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D245" s="4" t="inlineStr">
-        <is>
-          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
-        </is>
-      </c>
-      <c r="E245" s="4" t="inlineStr"/>
-      <c r="F245" s="4" t="inlineStr"/>
-      <c r="G245" s="4" t="inlineStr"/>
-      <c r="H245" s="4" t="inlineStr"/>
-      <c r="I245" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J245" s="4" t="inlineStr"/>
-      <c r="K245" s="4" t="inlineStr"/>
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006043</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="inlineStr"/>
+      <c r="F245" s="2" t="inlineStr"/>
+      <c r="G245" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
+      <c r="H245" s="2" t="inlineStr"/>
+      <c r="I245" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J245" s="2" t="inlineStr"/>
+      <c r="K245" s="2" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006154</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
+          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr"/>
       <c r="F246" s="2" t="inlineStr"/>
-      <c r="G246" s="2" t="inlineStr">
-        <is>
-          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
+      <c r="G246" s="2" t="inlineStr"/>
       <c r="H246" s="2" t="inlineStr"/>
       <c r="I246" s="2" t="inlineStr">
         <is>
@@ -8837,30 +8928,29 @@
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr"/>
       <c r="F247" s="2" t="inlineStr"/>
       <c r="G247" s="2" t="inlineStr">
         <is>
-          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
         </is>
       </c>
       <c r="H247" s="2" t="inlineStr"/>
@@ -8875,22 +8965,22 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006103</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of a person in response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr"/>
@@ -8906,61 +8996,57 @@
       <c r="K248" s="2" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006005</t>
-        </is>
-      </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="A249" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050222</t>
+        </is>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>self-regulatory skill</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="inlineStr">
         <is>
           <t>self-regulation capability</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D249" s="2" t="inlineStr">
-        <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
-        </is>
-      </c>
-      <c r="E249" s="2" t="inlineStr"/>
-      <c r="F249" s="2" t="inlineStr"/>
-      <c r="G249" s="2" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
-      <c r="H249" s="2" t="inlineStr"/>
-      <c r="I249" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J249" s="2" t="inlineStr"/>
-      <c r="K249" s="2" t="inlineStr"/>
+      <c r="D249" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E249" s="3" t="inlineStr"/>
+      <c r="F249" s="3" t="inlineStr"/>
+      <c r="G249" s="3" t="inlineStr"/>
+      <c r="H249" s="3" t="inlineStr"/>
+      <c r="I249" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J249" s="3" t="inlineStr"/>
+      <c r="K249" s="3" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
+          <t>self-reinforcing self-regulation</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of an organism in response to external or internal stimuli and that is instigated by the organism itself.</t>
+          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr"/>
@@ -8976,123 +9062,123 @@
       <c r="K250" s="2" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050222</t>
-        </is>
-      </c>
-      <c r="B251" s="3" t="inlineStr">
-        <is>
-          <t>self-regulatory skill</t>
-        </is>
-      </c>
-      <c r="C251" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D251" s="3" t="inlineStr">
-        <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E251" s="3" t="inlineStr"/>
-      <c r="F251" s="3" t="inlineStr"/>
-      <c r="G251" s="3" t="inlineStr"/>
-      <c r="H251" s="3" t="inlineStr"/>
-      <c r="I251" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J251" s="3" t="inlineStr"/>
-      <c r="K251" s="3" t="inlineStr"/>
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006128</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>semantic memory</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="inlineStr"/>
+      <c r="F251" s="2" t="inlineStr"/>
+      <c r="G251" s="2" t="inlineStr"/>
+      <c r="H251" s="2" t="inlineStr"/>
+      <c r="I251" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J251" s="2" t="inlineStr"/>
+      <c r="K251" s="2" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006106</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="inlineStr">
-        <is>
-          <t>self-reinforcing self-regulation</t>
-        </is>
-      </c>
-      <c r="C252" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D252" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="E252" s="2" t="inlineStr"/>
-      <c r="F252" s="2" t="inlineStr"/>
-      <c r="G252" s="2" t="inlineStr"/>
-      <c r="H252" s="2" t="inlineStr"/>
-      <c r="I252" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J252" s="2" t="inlineStr"/>
-      <c r="K252" s="2" t="inlineStr"/>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GO:0046960</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>sensitization</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006128</t>
-        </is>
-      </c>
-      <c r="B253" s="2" t="inlineStr">
-        <is>
-          <t>semantic memory</t>
-        </is>
-      </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D253" s="2" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
-        </is>
-      </c>
-      <c r="E253" s="2" t="inlineStr"/>
-      <c r="F253" s="2" t="inlineStr"/>
-      <c r="G253" s="2" t="inlineStr"/>
-      <c r="H253" s="2" t="inlineStr"/>
-      <c r="I253" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J253" s="2" t="inlineStr"/>
-      <c r="K253" s="2" t="inlineStr"/>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>GO:0046960</t>
+          <t>MFOEM:000055</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>sensitization</t>
+          <t>shame</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -9108,90 +9194,90 @@
       <c r="K254" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>MFOEM:000040</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>A positively experienced emotion which is sought out (approached) and is associated with happiness, enjoyment, and satisfaction as a result of sexual activities.</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006044</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>situational self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>Self-efficacy belief for a behaviour when a particular situation that may affect the behaviour is encountered.</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="inlineStr"/>
+      <c r="F255" s="2" t="inlineStr"/>
+      <c r="G255" s="2" t="inlineStr"/>
+      <c r="H255" s="2" t="inlineStr"/>
+      <c r="I255" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J255" s="2" t="inlineStr"/>
+      <c r="K255" s="2" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>MFOEM:000055</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>shame</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006014</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>social alienation</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="inlineStr"/>
+      <c r="F256" s="2" t="inlineStr"/>
+      <c r="G256" s="2" t="inlineStr"/>
+      <c r="H256" s="2" t="inlineStr"/>
+      <c r="I256" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J256" s="2" t="inlineStr"/>
+      <c r="K256" s="2" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006044</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>Self-efficacy belief for a behaviour when a particular situation that may affect the behaviour is encountered.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr"/>
@@ -9209,22 +9295,22 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr"/>
@@ -9242,22 +9328,22 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>An opportunity of the social environment system that influences the performance of a behaviour.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr"/>
@@ -9275,22 +9361,22 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
@@ -9308,22 +9394,22 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
@@ -9341,27 +9427,31 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>An identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
       <c r="F262" s="2" t="inlineStr"/>
-      <c r="G262" s="2" t="inlineStr"/>
+      <c r="G262" s="2" t="inlineStr">
+        <is>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
+        </is>
+      </c>
       <c r="H262" s="2" t="inlineStr"/>
       <c r="I262" s="2" t="inlineStr">
         <is>
@@ -9374,26 +9464,30 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>Identity that is associated with the sense of belonging to a social group.</t>
+          <t>An interpersonal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr"/>
-      <c r="F263" s="2" t="inlineStr"/>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
       <c r="G263" s="2" t="inlineStr"/>
       <c r="H263" s="2" t="inlineStr"/>
       <c r="I263" s="2" t="inlineStr">
@@ -9407,31 +9501,31 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>social influence process</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>interpersonal process</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>An interpersonal process where one or more person exerts an influence on the behaviour of another.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr"/>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="inlineStr"/>
+      <c r="F264" s="2" t="inlineStr"/>
+      <c r="G264" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="H264" s="2" t="inlineStr"/>
       <c r="I264" s="2" t="inlineStr">
         <is>
@@ -9552,7 +9646,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>subjective emotional feeling</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9562,12 +9656,22 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>A (fiat) part of the emotion process by which the organism experiences its own emotion.</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr"/>
+          <t>An affective process that involves the experience internal or external sensory stimuli.</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Feeling calm; hunger; pain</t>
+        </is>
+      </c>
       <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
+Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
+As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
+        </is>
+      </c>
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
@@ -9661,7 +9765,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve">A neutral emotion caused by encountering unexpected events of all kinds. May be experienced as negative if the surprising event is evaluated as negative, or positive if the surprising event is evaluated as positive. </t>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -9925,7 +10029,7 @@
       </c>
       <c r="D279" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation undertaken to achieve congruence between one's values and the behaviour performed.</t>
+          <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
       <c r="E279" s="2" t="inlineStr"/>
@@ -9991,7 +10095,7 @@
       </c>
       <c r="D281" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to be inclined to act in accordance with the likely approval of others</t>
+          <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
       <c r="E281" s="2" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A physiological and psychological state of being awake or reactive to stimuli.</t>
+          <t>A mental process that involves heightened responding to an internal or external stimulus.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1399,7 +1399,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>While associative learning is often defined as learning an association between a stimulus and response, the stimulus has to be perceived. Therefore, associative learning is between perceiving or processing information about a stimulus (a mental process) and one or more other mental processes.
+The label 'associative learning' is also used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Present a neutral stimulus jointly with a stimulus that already elicits the behavior repeatedly until the neutral stimulus elicits that behavior.' As indicated by the definition, the BCT is the deliberate presentation of a stimulus, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr">
         <is>
@@ -1427,7 +1432,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding the set of entities associated with a particular object or event.</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a set of entities associated with a particular object or event.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -1460,7 +1465,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental process whereby relevant aspects of our mental experience are focused on specific targets. </t>
+          <t xml:space="preserve">A mental process whereby relevant aspects of one's mental experience are focused on specific targets. </t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1526,7 +1531,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour via emotions and impulses that arise from associative learning or innate dispositions.</t>
+          <t>Motivation that arises from emotions and impulses that result from associative learning or innate dispositions.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
@@ -3509,7 +3514,7 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Associative learning that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
+          <t>Associative learning process that occurs when the pairing of a conditioned and unconditioned stimulus leads to the conditioned stimulus producing a response that would otherwise have only been produced by the unconditioned stimulus.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr"/>
@@ -3794,95 +3799,99 @@
       <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006307</t>
-        </is>
-      </c>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t>controlled motivation</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
-        </is>
-      </c>
-      <c r="E98" s="3" t="inlineStr"/>
-      <c r="F98" s="3" t="inlineStr"/>
-      <c r="G98" s="3" t="inlineStr"/>
-      <c r="H98" s="3" t="inlineStr"/>
-      <c r="I98" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J98" s="3" t="inlineStr"/>
-      <c r="K98" s="3" t="inlineStr"/>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MFOEM:000020</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>core disgust</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>MFOEM:000020</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>core disgust</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006160</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>craving</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of desiring or needing something.</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr"/>
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr"/>
+      <c r="H99" s="2" t="inlineStr"/>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="inlineStr"/>
+      <c r="K99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006160</t>
+          <t>BCIO:006047</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>craving</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A subjective experience of powerful want or need for something or urge to engage in a behaviour. </t>
+          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
+        </is>
+      </c>
       <c r="H100" s="2" t="inlineStr"/>
       <c r="I100" s="2" t="inlineStr">
         <is>
@@ -3895,31 +3904,27 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006047</t>
+          <t>BCIO:006111</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t xml:space="preserve">decision simplification </t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
+          <t>A cognitive process used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr">
-        <is>
-          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
-        </is>
-      </c>
+      <c r="G101" s="2" t="inlineStr"/>
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr">
         <is>
@@ -3932,27 +3937,31 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006111</t>
+          <t>BCIO:006116</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">decision simplification </t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that simplifies decision making.</t>
+          <t>Judging during which one proposition is selected as preferred from at least two.</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>The output of decision-making is a decision.</t>
+        </is>
+      </c>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr">
         <is>
@@ -3965,27 +3974,31 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006116</t>
+          <t>BCIO:006079</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Judging during which a decision is created.</t>
+          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
-      <c r="G103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
+        </is>
+      </c>
       <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr">
         <is>
@@ -3998,31 +4011,27 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006079</t>
+          <t>BCIO:006121</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>discrimination learning</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
+          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
-        </is>
-      </c>
+      <c r="G104" s="2" t="inlineStr"/>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr">
         <is>
@@ -4033,90 +4042,90 @@
       <c r="K104" s="2" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006121</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>discrimination learning</t>
-        </is>
-      </c>
-      <c r="C105" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="inlineStr"/>
-      <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="inlineStr"/>
-      <c r="H105" s="2" t="inlineStr"/>
-      <c r="I105" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J105" s="2" t="inlineStr"/>
-      <c r="K105" s="2" t="inlineStr"/>
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050227</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>disengagement due to workload</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to be detached from other people due to exhaustion experienced in one's working environment.</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr"/>
+      <c r="F105" s="3" t="inlineStr"/>
+      <c r="G105" s="3" t="inlineStr"/>
+      <c r="H105" s="3" t="inlineStr"/>
+      <c r="I105" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J105" s="3" t="inlineStr"/>
+      <c r="K105" s="3" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050227</t>
-        </is>
-      </c>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t>disengagement due to workload</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to be detached from other people due to exhaustion experienced in one's working environment.</t>
-        </is>
-      </c>
-      <c r="E106" s="3" t="inlineStr"/>
-      <c r="F106" s="3" t="inlineStr"/>
-      <c r="G106" s="3" t="inlineStr"/>
-      <c r="H106" s="3" t="inlineStr"/>
-      <c r="I106" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J106" s="3" t="inlineStr"/>
-      <c r="K106" s="3" t="inlineStr"/>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000019 </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000019 </t>
+          <t>BFO:0000016</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
+          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -4132,134 +4141,142 @@
       <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>BFO:0000016</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006113</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>dissonance reduction process</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J108" s="2" t="inlineStr"/>
+      <c r="K108" s="2" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ENVO:01001110</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ecosystem</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>An environmental system which includes both living and non-living components.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006113</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="inlineStr">
-        <is>
-          <t>dissonance reduction process</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr"/>
-      <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J109" s="2" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ENVO:01001110</t>
+          <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ecosystem</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>An environmental system which includes both living and non-living components.</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000001 </t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal process does not necessarily precede a physiological process part of the emotion process). 
 Emotion processes are distinguished from other affective processes (e.g., mood) by having an object. Even if an emotion is experienced due to physiological reasons, they would be felt as being about something or someone. For instance, a person might be angry at a situation that they would normally not be angry at, because they are hungry. However, that person would still be angry at a specific situation. 
 Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000007 </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Flight and fight action tendencies</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
@@ -4270,183 +4287,184 @@
       <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000007 </t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>emotional action tendency</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Flight and fight action tendencies</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006008</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>emotional self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr"/>
+      <c r="G112" s="2" t="inlineStr"/>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="inlineStr"/>
+      <c r="K112" s="2" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ENVO:01000452</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006008</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>emotional self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>system</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>ENVO:01000254</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
           <t>'The term 'disposition' is used to describe that an environmental system can surround and interact with one or more material entities. This conditionality is important, as an entity does not necessarily have to be in an specific environment system at all times.
 The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).
 'environmental system' includes physical and social aspects of the environment. As all subclasses of 'environmental system' will have physical aspects, a separate subclass for 'physical environmental system' would not capture a unique aspect of its parent class.</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr">
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006127</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>episodic memory</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a personally experienced event at a particular time or place.</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr"/>
+      <c r="G115" s="2" t="inlineStr"/>
+      <c r="H115" s="2" t="inlineStr"/>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="inlineStr"/>
+      <c r="K115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006127</t>
+          <t>BCIO:006035</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>episodic memory</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli regarding a personally experienced event at a particular time or place.</t>
-        </is>
-      </c>
-      <c r="E116" s="2" t="inlineStr"/>
+          <t>An evaluative belief about one's attributes.</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept</t>
+        </is>
+      </c>
       <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept is used to form an evaluation of self.
+One's attributes can be evaluated as positive or negative.</t>
+        </is>
+      </c>
       <c r="H116" s="2" t="inlineStr"/>
       <c r="I116" s="2" t="inlineStr">
         <is>
@@ -4459,36 +4477,27 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006035</t>
+          <t>BCIO:006038</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept</t>
-        </is>
-      </c>
+          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept is used to form an evaluation of self.
-One's attributes can be evaluated as positive or negative.</t>
-        </is>
-      </c>
+      <c r="G117" s="2" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr">
         <is>
@@ -4499,80 +4508,80 @@
       <c r="K117" s="2" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006038</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="A118" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006151</t>
+        </is>
+      </c>
+      <c r="B118" s="4" t="inlineStr">
+        <is>
+          <t>evaluative belief about a stereotype</t>
+        </is>
+      </c>
+      <c r="C118" s="4" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr"/>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
-      <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J118" s="2" t="inlineStr"/>
-      <c r="K118" s="2" t="inlineStr"/>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
+        </is>
+      </c>
+      <c r="E118" s="4" t="inlineStr"/>
+      <c r="F118" s="4" t="inlineStr"/>
+      <c r="G118" s="4" t="inlineStr"/>
+      <c r="H118" s="4" t="inlineStr"/>
+      <c r="I118" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J118" s="4" t="inlineStr"/>
+      <c r="K118" s="4" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006151</t>
-        </is>
-      </c>
-      <c r="B119" s="4" t="inlineStr">
-        <is>
-          <t>evaluative belief about a stereotype</t>
-        </is>
-      </c>
-      <c r="C119" s="4" t="inlineStr">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006147</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>evaluative belief about behaviour</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="D119" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
-        </is>
-      </c>
-      <c r="E119" s="4" t="inlineStr"/>
-      <c r="F119" s="4" t="inlineStr"/>
-      <c r="G119" s="4" t="inlineStr"/>
-      <c r="H119" s="4" t="inlineStr"/>
-      <c r="I119" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J119" s="4" t="inlineStr"/>
-      <c r="K119" s="4" t="inlineStr"/>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr"/>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
+      <c r="H119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J119" s="2" t="inlineStr"/>
+      <c r="K119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006147</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behaviour</t>
+          <t>evaluative belief about behavioural outcomes</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -4582,7 +4591,7 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
@@ -4600,12 +4609,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006150</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcomes</t>
+          <t>evaluative belief about others</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -4615,7 +4624,7 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
+          <t>An evaluative belief about the attributes of others.</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
@@ -4631,88 +4640,93 @@
       <c r="K121" s="2" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006150</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about others</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the attributes of others.</t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="inlineStr"/>
-      <c r="F122" s="2" t="inlineStr"/>
-      <c r="G122" s="2" t="inlineStr"/>
-      <c r="H122" s="2" t="inlineStr"/>
-      <c r="I122" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J122" s="2" t="inlineStr"/>
-      <c r="K122" s="2" t="inlineStr"/>
+      <c r="A122" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006101</t>
+        </is>
+      </c>
+      <c r="B122" s="4" t="inlineStr">
+        <is>
+          <t>experiential rightness of goal pursuit</t>
+        </is>
+      </c>
+      <c r="C122" s="4" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
+        </is>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>perceived regulatory fit process</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr"/>
+      <c r="G122" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
+        </is>
+      </c>
+      <c r="H122" s="4" t="inlineStr"/>
+      <c r="I122" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J122" s="4" t="inlineStr"/>
+      <c r="K122" s="4" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006101</t>
-        </is>
-      </c>
-      <c r="B123" s="4" t="inlineStr">
-        <is>
-          <t>experiential rightness of goal pursuit</t>
-        </is>
-      </c>
-      <c r="C123" s="4" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D123" s="4" t="inlineStr">
-        <is>
-          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
-        </is>
-      </c>
-      <c r="E123" s="4" t="inlineStr">
-        <is>
-          <t>perceived regulatory fit process</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr"/>
-      <c r="G123" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
-        </is>
-      </c>
-      <c r="H123" s="4" t="inlineStr"/>
-      <c r="I123" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J123" s="4" t="inlineStr"/>
-      <c r="K123" s="4" t="inlineStr"/>
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006122</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>extinction in classical conditioning</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr"/>
+      <c r="F123" s="2" t="inlineStr"/>
+      <c r="G123" s="2" t="inlineStr">
+        <is>
+          <t>An unconditioned stimulus is "a stimulus that elicits a reflexive or innate response (the unconditioned response) without prior learning." (p., 280, Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)
+A conditioned stimulus is a stimulus that, through association with an unconditioned stimulus, comes to elicit a conditioned response similar to the original unconditioned response (Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
+        </is>
+      </c>
+      <c r="H123" s="2" t="inlineStr"/>
+      <c r="I123" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J123" s="2" t="inlineStr"/>
+      <c r="K123" s="2" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006122</t>
+          <t>BCIO:006123</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>extinction in classical conditioning</t>
+          <t>extinction in operant learning</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -4722,12 +4736,16 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a reinforcer. </t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr"/>
       <c r="F124" s="2" t="inlineStr"/>
-      <c r="G124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr">
+        <is>
+          <t>Discriminative stimulus is "a signal that a particular response will produce certain consequences." (p. 291; Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
+        </is>
+      </c>
       <c r="H124" s="2" t="inlineStr"/>
       <c r="I124" s="2" t="inlineStr">
         <is>
@@ -4738,37 +4756,41 @@
       <c r="K124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006123</t>
-        </is>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>extinction in operant learning</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a positive reinforcer. </t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr"/>
-      <c r="F125" s="2" t="inlineStr"/>
-      <c r="G125" s="2" t="inlineStr"/>
-      <c r="H125" s="2" t="inlineStr"/>
-      <c r="I125" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J125" s="2" t="inlineStr"/>
-      <c r="K125" s="2" t="inlineStr"/>
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006307</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>extrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr"/>
+      <c r="G125" s="3" t="inlineStr"/>
+      <c r="H125" s="3" t="inlineStr"/>
+      <c r="I125" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J125" s="3" t="inlineStr"/>
+      <c r="K125" s="3" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="4" t="inlineStr">
@@ -4895,12 +4917,16 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A subjective emotional feeling that arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+          <t>A subjective affective feeling that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>An urge is felt when an impulse is frustrated.</t>
+        </is>
+      </c>
       <c r="H129" s="2" t="inlineStr"/>
       <c r="I129" s="2" t="inlineStr">
         <is>
@@ -5134,7 +5160,7 @@
       </c>
       <c r="D136" s="3" t="inlineStr">
         <is>
-          <t>Autonomous motivation for behaviours that are perceived as satisfying core psychological needs.</t>
+          <t>Autonomous motivation due to a behaviour being perceived to satisfy core psychological need.</t>
         </is>
       </c>
       <c r="E136" s="3" t="inlineStr">
@@ -5161,7 +5187,7 @@
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>generalisation (learning)</t>
+          <t>generalisation in learning</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -5171,12 +5197,17 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Process in which the effects of conditioning on behaviour spread to stimuli that differ in certain aspects from the stimulus present during the original conditioning.</t>
+          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr">
+        <is>
+          <t>The label 'Generalisation of target
+ behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr">
         <is>
@@ -5274,7 +5305,7 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A mental process that establishes a cognitive representation of the end state to which one is striving.</t>
+          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -5340,7 +5371,7 @@
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
-          <t>Associative learning that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+          <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
         </is>
       </c>
       <c r="E142" s="3" t="inlineStr"/>
@@ -5580,7 +5611,7 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves very brief sensory memory of some visual stimuli</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus,</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
@@ -5646,7 +5677,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Learning in which new behaviours are acquired through imitation.    </t>
+          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -5915,12 +5946,16 @@
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour’s inherent enjoyment or satisfaction for oneself.</t>
+          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
         </is>
       </c>
       <c r="E159" s="2" t="inlineStr"/>
       <c r="F159" s="2" t="inlineStr"/>
-      <c r="G159" s="2" t="inlineStr"/>
+      <c r="G159" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
+        </is>
+      </c>
       <c r="H159" s="2" t="inlineStr"/>
       <c r="I159" s="2" t="inlineStr">
         <is>
@@ -5981,7 +6016,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>A mental process during which a decision is made and the outcome of which is a belief or opinion. Judging is the evaluation of evidence to make a decision or form a belief.</t>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -6331,12 +6366,16 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Any process in an organism in which a relatively long-lasting adaptive behavioural change occurs as the result of experience. </t>
+          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
         </is>
       </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
@@ -6669,10 +6708,14 @@
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that involves detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr"/>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr"/>
       <c r="H181" s="2" t="inlineStr"/>
@@ -6735,7 +6778,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>A mental process that evokes the visual representation of objects or events when these are not immendiately present to the senses.</t>
+          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -7012,12 +7055,16 @@
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which current conditions are compared against a particular reference level.</t>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
-      <c r="G191" s="2" t="inlineStr"/>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
+        </is>
+      </c>
       <c r="H191" s="2" t="inlineStr"/>
       <c r="I191" s="2" t="inlineStr">
         <is>
@@ -7630,7 +7677,7 @@
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>Associative learning in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
@@ -8327,7 +8374,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and automatically retrieves informational stimuli regarding how to perform a complex activity without conscious awareness</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -8562,7 +8609,7 @@
       </c>
       <c r="D236" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves generation of inferences based on syllogistic reasoning or  decision making based on the evaluation of anticipated consequences or the construction of propositional representations.</t>
+          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr"/>
@@ -9079,7 +9126,7 @@
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves meanings, understandings, and conceptual facts about the world</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
         </is>
       </c>
       <c r="E251" s="2" t="inlineStr"/>
@@ -9831,10 +9878,14 @@
       </c>
       <c r="D273" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mental distancing that involves identifying particular immediate thoughts and detaching from these thoughts. </t>
-        </is>
-      </c>
-      <c r="E273" s="2" t="inlineStr"/>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="F273" s="2" t="inlineStr"/>
       <c r="G273" s="2" t="inlineStr"/>
       <c r="H273" s="2" t="inlineStr"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -1319,12 +1319,12 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>controlled motivation</t>
+          <t>extrinsic motivation</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Controlled motivation to gain or maintain a positive evaluation of self or feel others approval of oneself.</t>
+          <t>Extrinsic motivation to gain or maintain social approval or a positive self-evaluation.</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -7850,12 +7850,17 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>A mental process which is a) produced by a causal process (for example involving light rays or air vibrations) involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+          <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
+'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
+        </is>
+      </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
@@ -8193,12 +8198,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some objective, e.g. to bring about a desired state of affairs. The outcome of this mental process is a plan which has the potential to be followed to bring about the desired outcome.</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
@@ -8957,12 +8966,18 @@
       </c>
       <c r="D246" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which one observes and evaluates one's own behaviour.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E246" s="2" t="inlineStr"/>
       <c r="F246" s="2" t="inlineStr"/>
-      <c r="G246" s="2" t="inlineStr"/>
+      <c r="G246" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+        </is>
+      </c>
       <c r="H246" s="2" t="inlineStr"/>
       <c r="I246" s="2" t="inlineStr">
         <is>
@@ -10113,7 +10128,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental process that involves thinking about a state of affairs that does not yet obtain together with a desire for that state of affairs to obtain. </t>
+          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -3398,37 +3398,37 @@
       <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="inlineStr">
+      <c r="A86" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D86" s="4" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E86" s="4" t="inlineStr"/>
-      <c r="F86" s="4" t="inlineStr"/>
-      <c r="G86" s="4" t="inlineStr"/>
-      <c r="H86" s="4" t="inlineStr"/>
-      <c r="I86" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J86" s="4" t="inlineStr"/>
-      <c r="K86" s="4" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3464,37 +3464,37 @@
       <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="inlineStr">
+      <c r="A88" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000074 </t>
         </is>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D88" s="4" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr"/>
-      <c r="F88" s="4" t="inlineStr"/>
-      <c r="G88" s="4" t="inlineStr"/>
-      <c r="H88" s="4" t="inlineStr"/>
-      <c r="I88" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J88" s="4" t="inlineStr"/>
-      <c r="K88" s="4" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -6388,7 +6388,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MF:0000086</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -6968,37 +6968,37 @@
       <c r="K188" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="4" t="inlineStr">
+      <c r="A189" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B189" s="4" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C189" s="4" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D189" s="4" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E189" s="4" t="inlineStr"/>
-      <c r="F189" s="4" t="inlineStr"/>
-      <c r="G189" s="4" t="inlineStr"/>
-      <c r="H189" s="4" t="inlineStr"/>
-      <c r="I189" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J189" s="4" t="inlineStr"/>
-      <c r="K189" s="4" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
@@ -7485,7 +7485,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MF:0000089</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -6351,7 +6351,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GO:0007612</t>
+          <t>BCIO:050239</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -9718,7 +9718,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>An affective process that involves the experience internal or external sensory stimuli.</t>
+          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -3620,8 +3620,7 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>When a mental disposition is activated, the content of that belief is a cognitive representation. 
-The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.</t>
+          <t>The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -8448,7 +8448,7 @@
       </c>
       <c r="D231" s="3" t="inlineStr">
         <is>
-          <t>Identity that is associated with one's occupational role.</t>
+          <t>A self-identity that is associated with one's occupational role.</t>
         </is>
       </c>
       <c r="E231" s="3" t="inlineStr"/>
@@ -9503,7 +9503,7 @@
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>An identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K281"/>
+  <dimension ref="A1:K284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,41 +1749,41 @@
       <c r="K37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>BCIO:006304</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">behavioural importance-based motivation </t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>autonomous motivation</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>Autonomous motivation due to the perceived value or importance of the behaviour to oneself.</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>identified motivation; identified regulation</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr"/>
-      <c r="G38" s="4" t="inlineStr"/>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J38" s="4" t="inlineStr"/>
-      <c r="K38" s="4" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr"/>
+      <c r="H38" s="3" t="inlineStr"/>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -4938,22 +4938,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000112 </t>
+          <t>MFOEM:000107</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>feeling exhausted</t>
+          <t>feeling at ease</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>feeling tired</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Feeling tired to an extremely strong degree.</t>
+          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4971,12 +4971,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MFOEM:000124</t>
+          <t>MFOEM:000109</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>feeling nervous</t>
+          <t>feeling energetic</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4986,16 +4986,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of being not at ease or agitated.</t>
+          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
-        </is>
-      </c>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
@@ -5006,47 +5002,47 @@
       <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050233</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>feeling sadness</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
-        </is>
-      </c>
-      <c r="E132" s="3" t="inlineStr"/>
-      <c r="F132" s="3" t="inlineStr"/>
-      <c r="G132" s="3" t="inlineStr"/>
-      <c r="H132" s="3" t="inlineStr"/>
-      <c r="I132" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J132" s="3" t="inlineStr"/>
-      <c r="K132" s="3" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000112 </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>feeling exhausted</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Feeling tired to an extremely strong degree.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MFOEM:000080</t>
+          <t>MFOEM:000124</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>feeling tired</t>
+          <t>feeling nervous</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5056,12 +5052,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+          <t>A subjective affective feeling of being not at ease or agitated.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
@@ -5072,141 +5072,132 @@
       <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050233</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>feeling sadness</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr"/>
+      <c r="F134" s="3" t="inlineStr"/>
+      <c r="G134" s="3" t="inlineStr"/>
+      <c r="H134" s="3" t="inlineStr"/>
+      <c r="I134" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J134" s="3" t="inlineStr"/>
+      <c r="K134" s="3" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>MFOEM:000080</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
         <is>
           <t>BCIO:006087</t>
         </is>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>financial behavioural opportunity</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>physical behavioural opportunity</t>
         </is>
       </c>
-      <c r="D134" s="2" t="inlineStr">
+      <c r="D136" s="2" t="inlineStr">
         <is>
           <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
         </is>
       </c>
-      <c r="E134" s="2" t="inlineStr"/>
-      <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr"/>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr">
         <is>
           <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
         </is>
       </c>
-      <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J134" s="2" t="inlineStr"/>
-      <c r="K134" s="2" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr"/>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
-      <c r="H135" s="2" t="inlineStr"/>
-      <c r="I135" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J135" s="2" t="inlineStr"/>
-      <c r="K135" s="2" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006308</t>
-        </is>
-      </c>
-      <c r="B136" s="3" t="inlineStr">
-        <is>
-          <t>fundamental need-based motivation</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D136" s="3" t="inlineStr">
-        <is>
-          <t>Autonomous motivation due to a behaviour being perceived to satisfy core psychological need.</t>
-        </is>
-      </c>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
-        </is>
-      </c>
-      <c r="F136" s="3" t="inlineStr"/>
-      <c r="G136" s="3" t="inlineStr"/>
-      <c r="H136" s="3" t="inlineStr"/>
-      <c r="I136" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J136" s="3" t="inlineStr"/>
-      <c r="K136" s="3" t="inlineStr"/>
+      <c r="H136" s="2" t="inlineStr"/>
+      <c r="I136" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J136" s="2" t="inlineStr"/>
+      <c r="K136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>generalisation in learning</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr">
-        <is>
-          <t>The label 'Generalisation of target
- behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
-        </is>
-      </c>
+      <c r="G137" s="2" t="inlineStr"/>
       <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr">
         <is>
@@ -5217,64 +5208,69 @@
       <c r="K137" s="2" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006049</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>goal</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation of an end state towards which one is striving.</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr"/>
-      <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr"/>
-      <c r="H138" s="2" t="inlineStr"/>
-      <c r="I138" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J138" s="2" t="inlineStr"/>
-      <c r="K138" s="2" t="inlineStr"/>
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006308</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>fundamental need-based motivation</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour being perceived to satisfy core psychological need.</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
+        </is>
+      </c>
+      <c r="F138" s="3" t="inlineStr"/>
+      <c r="G138" s="3" t="inlineStr"/>
+      <c r="H138" s="3" t="inlineStr"/>
+      <c r="I138" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J138" s="3" t="inlineStr"/>
+      <c r="K138" s="3" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006124</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>generalisation in learning</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+          <t>The label 'Generalisation of target
+ behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -5289,22 +5285,22 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006114</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>goal setting process</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
+          <t>A cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
@@ -5320,297 +5316,301 @@
       <c r="K140" s="2" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006096</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>goal pursuit process</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr"/>
+      <c r="F141" s="2" t="inlineStr"/>
+      <c r="G141" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+        </is>
+      </c>
+      <c r="H141" s="2" t="inlineStr"/>
+      <c r="I141" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J141" s="2" t="inlineStr"/>
+      <c r="K141" s="2" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006114</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>goal setting process</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr"/>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
+      <c r="H142" s="2" t="inlineStr"/>
+      <c r="I142" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J142" s="2" t="inlineStr"/>
+      <c r="K142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>MFOEM:000053</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>guilt</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="3" t="inlineStr">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>BCIO:006309</t>
         </is>
       </c>
-      <c r="B142" s="3" t="inlineStr">
+      <c r="B144" s="3" t="inlineStr">
         <is>
           <t>habit learning</t>
         </is>
       </c>
-      <c r="C142" s="3" t="inlineStr">
+      <c r="C144" s="3" t="inlineStr">
         <is>
           <t>associative learning</t>
         </is>
       </c>
-      <c r="D142" s="3" t="inlineStr">
+      <c r="D144" s="3" t="inlineStr">
         <is>
           <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
         </is>
       </c>
-      <c r="E142" s="3" t="inlineStr"/>
-      <c r="F142" s="3" t="inlineStr"/>
-      <c r="G142" s="3" t="inlineStr"/>
-      <c r="H142" s="3" t="inlineStr"/>
-      <c r="I142" s="3" t="inlineStr">
+      <c r="E144" s="3" t="inlineStr"/>
+      <c r="F144" s="3" t="inlineStr"/>
+      <c r="G144" s="3" t="inlineStr"/>
+      <c r="H144" s="3" t="inlineStr"/>
+      <c r="I144" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J142" s="3" t="inlineStr"/>
-      <c r="K142" s="3" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="inlineStr">
+      <c r="J144" s="3" t="inlineStr"/>
+      <c r="K144" s="3" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
         <is>
           <t>BCIO:006158</t>
         </is>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>habitual behaviour</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D143" s="2" t="inlineStr">
+      <c r="D145" s="2" t="inlineStr">
         <is>
           <t>A behaviour that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
-      <c r="E143" s="2" t="inlineStr"/>
-      <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr"/>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr">
         <is>
           <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
 Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
         </is>
       </c>
-      <c r="H143" s="2" t="inlineStr"/>
-      <c r="I143" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J143" s="2" t="inlineStr"/>
-      <c r="K143" s="2" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="H145" s="2" t="inlineStr"/>
+      <c r="I145" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J145" s="2" t="inlineStr"/>
+      <c r="K145" s="2" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>GO:0046959</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>habituation</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>non-associative learning</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>A decrease in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr">
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>MFOEM:000042</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>happiness</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr">
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
         <is>
           <t>BCIO:006088</t>
         </is>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>healthcare access</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
         <is>
           <t>opportunity</t>
         </is>
       </c>
-      <c r="D146" s="2" t="inlineStr">
+      <c r="D148" s="2" t="inlineStr">
         <is>
           <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
-      <c r="E146" s="2" t="inlineStr"/>
-      <c r="F146" s="2" t="inlineStr"/>
-      <c r="G146" s="2" t="inlineStr">
+      <c r="E148" s="2" t="inlineStr"/>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr">
         <is>
           <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
         </is>
       </c>
-      <c r="H146" s="2" t="inlineStr"/>
-      <c r="I146" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J146" s="2" t="inlineStr"/>
-      <c r="K146" s="2" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006115</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>heuristic process</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="inlineStr"/>
-      <c r="F147" s="2" t="inlineStr"/>
-      <c r="G147" s="2" t="inlineStr"/>
-      <c r="H147" s="2" t="inlineStr"/>
-      <c r="I147" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J147" s="2" t="inlineStr"/>
-      <c r="K147" s="2" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>MFOEM:000205</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>hunger</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="H148" s="2" t="inlineStr"/>
+      <c r="I148" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J148" s="2" t="inlineStr"/>
+      <c r="K148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006130</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>iconic memory</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus,</t>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
@@ -5626,123 +5626,123 @@
       <c r="K149" s="2" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>MFOEM:000205</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>hunger</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006130</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>iconic memory</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus,</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr"/>
+      <c r="H151" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J151" s="2" t="inlineStr"/>
+      <c r="K151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
         <is>
           <t>BCIO:006050</t>
         </is>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>identity</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D150" s="2" t="inlineStr">
+      <c r="D152" s="2" t="inlineStr">
         <is>
           <t>A mental disposition relating to perceptions of oneself.</t>
         </is>
       </c>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
-      <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J150" s="2" t="inlineStr"/>
-      <c r="K150" s="2" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>GO:0098596</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>imitative learning</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050234</t>
-        </is>
-      </c>
-      <c r="B152" s="3" t="inlineStr">
-        <is>
-          <t>impulse</t>
-        </is>
-      </c>
-      <c r="C152" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D152" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
-        </is>
-      </c>
-      <c r="E152" s="3" t="inlineStr"/>
-      <c r="F152" s="3" t="inlineStr"/>
-      <c r="G152" s="3" t="inlineStr"/>
-      <c r="H152" s="3" t="inlineStr"/>
-      <c r="I152" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J152" s="3" t="inlineStr"/>
-      <c r="K152" s="3" t="inlineStr"/>
+      <c r="E152" s="2" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr"/>
+      <c r="H152" s="2" t="inlineStr"/>
+      <c r="I152" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J152" s="2" t="inlineStr"/>
+      <c r="K152" s="2" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BFO:0000004</t>
+          <t>GO:0098596</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>imitative learning</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>observational learning</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -5758,100 +5758,100 @@
       <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050234</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>impulse</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr"/>
+      <c r="F154" s="3" t="inlineStr"/>
+      <c r="G154" s="3" t="inlineStr"/>
+      <c r="H154" s="3" t="inlineStr"/>
+      <c r="I154" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J154" s="3" t="inlineStr"/>
+      <c r="K154" s="3" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BFO:0000004</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
         <is>
           <t>BCIO:006094</t>
         </is>
       </c>
-      <c r="B154" s="2" t="inlineStr">
+      <c r="B156" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C154" s="2" t="inlineStr">
+      <c r="C156" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D154" s="2" t="inlineStr">
+      <c r="D156" s="2" t="inlineStr">
         <is>
           <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
-      <c r="E154" s="2" t="inlineStr"/>
-      <c r="F154" s="2" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr">
+      <c r="E156" s="2" t="inlineStr"/>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr">
         <is>
           <t>The striated muscles referred to do not ordinarily involve the cardiac muscles.
 Behaviour can be an MoA or outcome depending on how 'behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class  'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets one behaviour to achieve an outcome behaviour (e.g. exercise for smoking cessation), the former qualifies as an MoA.</t>
         </is>
       </c>
-      <c r="H154" s="2" t="inlineStr"/>
-      <c r="I154" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J154" s="2" t="inlineStr"/>
-      <c r="K154" s="2" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B155" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D155" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E155" s="3" t="inlineStr"/>
-      <c r="F155" s="3" t="inlineStr"/>
-      <c r="G155" s="3" t="inlineStr"/>
-      <c r="H155" s="3" t="inlineStr"/>
-      <c r="I155" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J155" s="3" t="inlineStr"/>
-      <c r="K155" s="3" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006100</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>internal reward for a response</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr"/>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr"/>
       <c r="H156" s="2" t="inlineStr"/>
       <c r="I156" s="2" t="inlineStr">
         <is>
@@ -5862,301 +5862,301 @@
       <c r="K156" s="2" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr"/>
+      <c r="F157" s="3" t="inlineStr"/>
+      <c r="G157" s="3" t="inlineStr"/>
+      <c r="H157" s="3" t="inlineStr"/>
+      <c r="I157" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J157" s="3" t="inlineStr"/>
+      <c r="K157" s="3" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr"/>
+      <c r="F158" s="2" t="inlineStr"/>
+      <c r="G158" s="2" t="inlineStr"/>
+      <c r="H158" s="2" t="inlineStr"/>
+      <c r="I158" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J158" s="2" t="inlineStr"/>
+      <c r="K158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>MFOEM:000022</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>interpersonal disgust</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr">
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="4" t="inlineStr">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
         <is>
           <t>BCIO:006097</t>
         </is>
       </c>
-      <c r="B158" s="4" t="inlineStr">
+      <c r="B160" s="4" t="inlineStr">
         <is>
           <t>interpersonal reciprocal communication</t>
         </is>
       </c>
-      <c r="C158" s="4" t="inlineStr">
+      <c r="C160" s="4" t="inlineStr">
         <is>
           <t>communication</t>
         </is>
       </c>
-      <c r="D158" s="4" t="inlineStr">
+      <c r="D160" s="4" t="inlineStr">
         <is>
           <t>Communication that is mutual between two or more people.</t>
         </is>
       </c>
-      <c r="E158" s="4" t="inlineStr"/>
-      <c r="F158" s="4" t="inlineStr"/>
-      <c r="G158" s="4" t="inlineStr"/>
-      <c r="H158" s="4" t="inlineStr"/>
-      <c r="I158" s="4" t="inlineStr">
+      <c r="E160" s="4" t="inlineStr"/>
+      <c r="F160" s="4" t="inlineStr"/>
+      <c r="G160" s="4" t="inlineStr"/>
+      <c r="H160" s="4" t="inlineStr"/>
+      <c r="I160" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J158" s="4" t="inlineStr"/>
-      <c r="K158" s="4" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="inlineStr">
+      <c r="J160" s="4" t="inlineStr"/>
+      <c r="K160" s="4" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
         <is>
           <t>BCIO:006136</t>
         </is>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>intrinsic motivation</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>autonomous motivation</t>
         </is>
       </c>
-      <c r="D159" s="2" t="inlineStr">
+      <c r="D161" s="2" t="inlineStr">
         <is>
           <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
         </is>
       </c>
-      <c r="E159" s="2" t="inlineStr"/>
-      <c r="F159" s="2" t="inlineStr"/>
-      <c r="G159" s="2" t="inlineStr">
+      <c r="E161" s="2" t="inlineStr"/>
+      <c r="F161" s="2" t="inlineStr"/>
+      <c r="G161" s="2" t="inlineStr">
         <is>
           <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
         </is>
       </c>
-      <c r="H159" s="2" t="inlineStr"/>
-      <c r="I159" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J159" s="2" t="inlineStr"/>
-      <c r="K159" s="2" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="inlineStr">
+      <c r="H161" s="2" t="inlineStr"/>
+      <c r="I161" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J161" s="2" t="inlineStr"/>
+      <c r="K161" s="2" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
         <is>
           <t>BCIO:006105</t>
         </is>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>introjected self-regulation</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D160" s="2" t="inlineStr">
+      <c r="D162" s="2" t="inlineStr">
         <is>
           <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
-      <c r="E160" s="2" t="inlineStr"/>
-      <c r="F160" s="2" t="inlineStr"/>
-      <c r="G160" s="2" t="inlineStr"/>
-      <c r="H160" s="2" t="inlineStr"/>
-      <c r="I160" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J160" s="2" t="inlineStr"/>
-      <c r="K160" s="2" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr"/>
+      <c r="F162" s="2" t="inlineStr"/>
+      <c r="G162" s="2" t="inlineStr"/>
+      <c r="H162" s="2" t="inlineStr"/>
+      <c r="I162" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J162" s="2" t="inlineStr"/>
+      <c r="K162" s="2" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>MF:0000006</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr">
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="4" t="inlineStr">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="inlineStr">
         <is>
           <t>BCIO:006117</t>
         </is>
       </c>
-      <c r="B162" s="4" t="inlineStr">
+      <c r="B164" s="4" t="inlineStr">
         <is>
           <t>judging consequences of behaviour</t>
         </is>
       </c>
-      <c r="C162" s="4" t="inlineStr">
+      <c r="C164" s="4" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="D162" s="4" t="inlineStr">
+      <c r="D164" s="4" t="inlineStr">
         <is>
           <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
         </is>
       </c>
-      <c r="E162" s="4" t="inlineStr"/>
-      <c r="F162" s="4" t="inlineStr"/>
-      <c r="G162" s="4" t="inlineStr"/>
-      <c r="H162" s="4" t="inlineStr"/>
-      <c r="I162" s="4" t="inlineStr">
+      <c r="E164" s="4" t="inlineStr"/>
+      <c r="F164" s="4" t="inlineStr"/>
+      <c r="G164" s="4" t="inlineStr"/>
+      <c r="H164" s="4" t="inlineStr"/>
+      <c r="I164" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J162" s="4" t="inlineStr"/>
-      <c r="K162" s="4" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006052</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D163" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
-        </is>
-      </c>
-      <c r="E163" s="2" t="inlineStr"/>
-      <c r="F163" s="2" t="inlineStr"/>
-      <c r="G163" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
-      <c r="H163" s="2" t="inlineStr"/>
-      <c r="I163" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J163" s="2" t="inlineStr"/>
-      <c r="K163" s="2" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006053</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>knowledge regarding a behaviour</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="inlineStr">
-        <is>
-          <t>Knowledge regarding a particular set of actions.</t>
-        </is>
-      </c>
-      <c r="E164" s="2" t="inlineStr"/>
-      <c r="F164" s="2" t="inlineStr"/>
-      <c r="G164" s="2" t="inlineStr"/>
-      <c r="H164" s="2" t="inlineStr"/>
-      <c r="I164" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J164" s="2" t="inlineStr"/>
-      <c r="K164" s="2" t="inlineStr"/>
+      <c r="J164" s="4" t="inlineStr"/>
+      <c r="K164" s="4" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006052</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="inlineStr"/>
+      <c r="G165" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
       <c r="H165" s="2" t="inlineStr"/>
       <c r="I165" s="2" t="inlineStr">
         <is>
@@ -6169,12 +6169,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding a behaviour</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -6202,12 +6202,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -6235,35 +6235,27 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>Habit</t>
-        </is>
-      </c>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
-      <c r="G168" s="2" t="inlineStr">
-        <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
-        </is>
-      </c>
+      <c r="G168" s="2" t="inlineStr"/>
       <c r="H168" s="2" t="inlineStr"/>
       <c r="I168" s="2" t="inlineStr">
         <is>
@@ -6276,31 +6268,27 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="G169" s="2" t="inlineStr"/>
       <c r="H169" s="2" t="inlineStr"/>
       <c r="I169" s="2" t="inlineStr">
         <is>
@@ -6313,12 +6301,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -6328,16 +6316,20 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>Mental habit</t>
+          <t>Habit</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+        </is>
+      </c>
       <c r="H170" s="2" t="inlineStr"/>
       <c r="I170" s="2" t="inlineStr">
         <is>
@@ -6348,139 +6340,143 @@
       <c r="K170" s="2" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006057</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-reponse co-occurrence</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr"/>
+      <c r="F171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
+      <c r="H171" s="2" t="inlineStr"/>
+      <c r="I171" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J171" s="2" t="inlineStr"/>
+      <c r="K171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006156</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-thought co-occurrence</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>learned stimulus-response co-occurrence</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr"/>
+      <c r="G172" s="2" t="inlineStr"/>
+      <c r="H172" s="2" t="inlineStr"/>
+      <c r="I172" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J172" s="2" t="inlineStr"/>
+      <c r="K172" s="2" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>BCIO:050239</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr">
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
         <is>
           <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr">
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>communication behaviour</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Written language, spoken language and sign-language communication</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr"/>
-      <c r="F173" s="2" t="inlineStr"/>
-      <c r="G173" s="2" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
-      <c r="H173" s="2" t="inlineStr"/>
-      <c r="I173" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J173" s="2" t="inlineStr"/>
-      <c r="K173" s="2" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>UBERON:0000465</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>material anatomical entity</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>communication behaviour</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Anatomical entity that has mass.</t>
+          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
@@ -6492,57 +6488,61 @@
       <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr"/>
+      <c r="F175" s="2" t="inlineStr"/>
+      <c r="G175" s="2" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
+      <c r="H175" s="2" t="inlineStr"/>
+      <c r="I175" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="inlineStr"/>
+      <c r="K175" s="2" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GO:0007613</t>
+          <t>UBERON:0000465</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>material anatomical entity</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
+          <t>Anatomical entity that has mass.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -6558,57 +6558,57 @@
       <c r="K176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr"/>
-      <c r="F177" s="2" t="inlineStr"/>
-      <c r="G177" s="2" t="inlineStr"/>
-      <c r="H177" s="2" t="inlineStr"/>
-      <c r="I177" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J177" s="2" t="inlineStr"/>
-      <c r="K177" s="2" t="inlineStr"/>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000048 </t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -6626,22 +6626,22 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006131</t>
+          <t>BCIO:006093</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>mental categorising</t>
+          <t>mental behavioural cue</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily behavioural cue</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -6659,22 +6659,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MF:0000033</t>
+          <t xml:space="preserve">MF:0000048 </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -6692,29 +6692,25 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006162</t>
+          <t>BCIO:006131</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental categorising</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>decentring</t>
-        </is>
-      </c>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr"/>
       <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr"/>
       <c r="H181" s="2" t="inlineStr"/>
@@ -6727,90 +6723,94 @@
       <c r="K181" s="2" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006080</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>mental image</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr"/>
-      <c r="F182" s="2" t="inlineStr"/>
-      <c r="G182" s="2" t="inlineStr"/>
-      <c r="H182" s="2" t="inlineStr"/>
-      <c r="I182" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J182" s="2" t="inlineStr"/>
-      <c r="K182" s="2" t="inlineStr"/>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr"/>
+      <c r="G183" s="2" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J183" s="2" t="inlineStr"/>
+      <c r="K183" s="2" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006058</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>mental imagery disposition</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -6826,64 +6826,60 @@
       <c r="K184" s="2" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E185" s="3" t="inlineStr"/>
-      <c r="F185" s="3" t="inlineStr"/>
-      <c r="G185" s="3" t="inlineStr"/>
-      <c r="H185" s="3" t="inlineStr"/>
-      <c r="I185" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J185" s="3" t="inlineStr"/>
-      <c r="K185" s="3" t="inlineStr"/>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006058</t>
         </is>
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>mental plan for a behaviour</t>
+          <t>mental imagery disposition</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>mental plan</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr"/>
       <c r="F186" s="2" t="inlineStr"/>
       <c r="G186" s="2" t="inlineStr"/>
       <c r="H186" s="2" t="inlineStr"/>
@@ -6896,225 +6892,225 @@
       <c r="K186" s="2" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="inlineStr">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr"/>
+      <c r="F187" s="3" t="inlineStr"/>
+      <c r="G187" s="3" t="inlineStr"/>
+      <c r="H187" s="3" t="inlineStr"/>
+      <c r="I187" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J187" s="3" t="inlineStr"/>
+      <c r="K187" s="3" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr"/>
+      <c r="G188" s="2" t="inlineStr"/>
+      <c r="H188" s="2" t="inlineStr"/>
+      <c r="I188" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J188" s="2" t="inlineStr"/>
+      <c r="K188" s="2" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
         <is>
           <t>BCIO:006157</t>
         </is>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>mental plan for coping with barriers</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="D187" s="2" t="inlineStr">
+      <c r="D189" s="2" t="inlineStr">
         <is>
           <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
         </is>
       </c>
-      <c r="E187" s="2" t="inlineStr"/>
-      <c r="F187" s="2" t="inlineStr"/>
-      <c r="G187" s="2" t="inlineStr"/>
-      <c r="H187" s="2" t="inlineStr"/>
-      <c r="I187" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J187" s="2" t="inlineStr"/>
-      <c r="K187" s="2" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="E189" s="2" t="inlineStr"/>
+      <c r="F189" s="2" t="inlineStr"/>
+      <c r="G189" s="2" t="inlineStr"/>
+      <c r="H189" s="2" t="inlineStr"/>
+      <c r="I189" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J189" s="2" t="inlineStr"/>
+      <c r="K189" s="2" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr">
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
         <is>
           <t>Mental processes can varying in the degree to which they involve consciousness.
 A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr">
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr">
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="inlineStr">
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
         <is>
           <t>BCIO:006004</t>
         </is>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B192" s="2" t="inlineStr">
         <is>
           <t>mental skill</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C192" s="2" t="inlineStr">
         <is>
           <t>mental capability</t>
         </is>
       </c>
-      <c r="D190" s="2" t="inlineStr">
+      <c r="D192" s="2" t="inlineStr">
         <is>
           <t>A mental capability acquired through training or practice.</t>
         </is>
       </c>
-      <c r="E190" s="2" t="inlineStr"/>
-      <c r="F190" s="2" t="inlineStr"/>
-      <c r="G190" s="2" t="inlineStr">
+      <c r="E192" s="2" t="inlineStr"/>
+      <c r="F192" s="2" t="inlineStr"/>
+      <c r="G192" s="2" t="inlineStr">
         <is>
           <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
         </is>
       </c>
-      <c r="H190" s="2" t="inlineStr"/>
-      <c r="I190" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J190" s="2" t="inlineStr"/>
-      <c r="K190" s="2" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006132</t>
-        </is>
-      </c>
-      <c r="B191" s="2" t="inlineStr">
-        <is>
-          <t>mentally comparing against a standard</t>
-        </is>
-      </c>
-      <c r="C191" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D191" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E191" s="2" t="inlineStr"/>
-      <c r="F191" s="2" t="inlineStr"/>
-      <c r="G191" s="2" t="inlineStr">
-        <is>
-          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
-        </is>
-      </c>
-      <c r="H191" s="2" t="inlineStr"/>
-      <c r="I191" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J191" s="2" t="inlineStr"/>
-      <c r="K191" s="2" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="H192" s="2" t="inlineStr"/>
+      <c r="I192" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J192" s="2" t="inlineStr"/>
+      <c r="K192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -7124,12 +7120,16 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
       <c r="F193" s="2" t="inlineStr"/>
-      <c r="G193" s="2" t="inlineStr"/>
+      <c r="G193" s="2" t="inlineStr">
+        <is>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
+        </is>
+      </c>
       <c r="H193" s="2" t="inlineStr"/>
       <c r="I193" s="2" t="inlineStr">
         <is>
@@ -7140,57 +7140,57 @@
       <c r="K193" s="2" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006060</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr"/>
-      <c r="F194" s="2" t="inlineStr"/>
-      <c r="G194" s="2" t="inlineStr"/>
-      <c r="H194" s="2" t="inlineStr"/>
-      <c r="I194" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J194" s="2" t="inlineStr"/>
-      <c r="K194" s="2" t="inlineStr"/>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -7208,22 +7208,22 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -7241,12 +7241,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>need for autonomy</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative</t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -7274,12 +7274,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -7307,12 +7307,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006069</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>need to feel competent</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -7322,14 +7322,10 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
+          <t>A psychological need to have a sense of personal agency and initiative</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr"/>
       <c r="F199" s="2" t="inlineStr"/>
       <c r="G199" s="2" t="inlineStr"/>
       <c r="H199" s="2" t="inlineStr"/>
@@ -7342,172 +7338,168 @@
       <c r="K199" s="2" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="4" t="inlineStr">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006066</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>need for self-esteem</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr"/>
+      <c r="F200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr"/>
+      <c r="H200" s="2" t="inlineStr"/>
+      <c r="I200" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J200" s="2" t="inlineStr"/>
+      <c r="K200" s="2" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006069</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>need to feel competent</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to experience oneself as capable and effective.</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr"/>
+      <c r="G201" s="2" t="inlineStr"/>
+      <c r="H201" s="2" t="inlineStr"/>
+      <c r="I201" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J201" s="2" t="inlineStr"/>
+      <c r="K201" s="2" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="inlineStr">
         <is>
           <t>BCIO:006037</t>
         </is>
       </c>
-      <c r="B200" s="4" t="inlineStr">
+      <c r="B202" s="4" t="inlineStr">
         <is>
           <t>negative evaluation of self</t>
         </is>
       </c>
-      <c r="C200" s="4" t="inlineStr">
+      <c r="C202" s="4" t="inlineStr">
         <is>
           <t>evaluation of self</t>
         </is>
       </c>
-      <c r="D200" s="4" t="inlineStr">
+      <c r="D202" s="4" t="inlineStr">
         <is>
           <t>A belief about one's negative attributes.</t>
         </is>
       </c>
-      <c r="E200" s="4" t="inlineStr">
+      <c r="E202" s="4" t="inlineStr">
         <is>
           <t>low self-esteem; negative self-esteem</t>
         </is>
       </c>
-      <c r="F200" s="4" t="inlineStr"/>
-      <c r="G200" s="4" t="inlineStr"/>
-      <c r="H200" s="4" t="inlineStr"/>
-      <c r="I200" s="4" t="inlineStr">
+      <c r="F202" s="4" t="inlineStr"/>
+      <c r="G202" s="4" t="inlineStr"/>
+      <c r="H202" s="4" t="inlineStr"/>
+      <c r="I202" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J200" s="4" t="inlineStr"/>
-      <c r="K200" s="4" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="J202" s="4" t="inlineStr"/>
+      <c r="K202" s="4" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>MFOEM:000210</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>negative surprise</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>Surprise with a negative valence.</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050235</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr">
-        <is>
-          <t>non-judgemental acknowledgement</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D203" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
-        </is>
-      </c>
-      <c r="E203" s="3" t="inlineStr">
-        <is>
-          <t>Acceptance</t>
-        </is>
-      </c>
-      <c r="F203" s="3" t="inlineStr"/>
-      <c r="G203" s="3" t="inlineStr"/>
-      <c r="H203" s="3" t="inlineStr"/>
-      <c r="I203" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J203" s="3" t="inlineStr"/>
-      <c r="K203" s="3" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>GO:0046958</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>communication behaviour</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
-        </is>
-      </c>
+      <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
@@ -7519,136 +7511,140 @@
       <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="inlineStr">
+      <c r="A205" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050235</t>
+        </is>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>non-judgemental acknowledgement</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="inlineStr">
+        <is>
+          <t>Acceptance</t>
+        </is>
+      </c>
+      <c r="F205" s="3" t="inlineStr"/>
+      <c r="G205" s="3" t="inlineStr"/>
+      <c r="H205" s="3" t="inlineStr"/>
+      <c r="I205" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J205" s="3" t="inlineStr"/>
+      <c r="K205" s="3" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
         <is>
           <t>BCIO:006095</t>
         </is>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>normative behaviour</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D205" s="2" t="inlineStr">
+      <c r="D207" s="2" t="inlineStr">
         <is>
           <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
-      <c r="E205" s="2" t="inlineStr"/>
-      <c r="F205" s="2" t="inlineStr"/>
-      <c r="G205" s="2" t="inlineStr">
+      <c r="E207" s="2" t="inlineStr"/>
+      <c r="F207" s="2" t="inlineStr"/>
+      <c r="G207" s="2" t="inlineStr">
         <is>
           <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
         </is>
       </c>
-      <c r="H205" s="2" t="inlineStr"/>
-      <c r="I205" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J205" s="2" t="inlineStr"/>
-      <c r="K205" s="2" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006042</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>normative belief</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether important others think one should perform a behaviour.</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr"/>
-      <c r="F206" s="2" t="inlineStr"/>
-      <c r="G206" s="2" t="inlineStr"/>
-      <c r="H206" s="2" t="inlineStr"/>
-      <c r="I206" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J206" s="2" t="inlineStr"/>
-      <c r="K206" s="2" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>GO:0098597</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="H207" s="2" t="inlineStr"/>
+      <c r="I207" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J207" s="2" t="inlineStr"/>
+      <c r="K207" s="2" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:006042</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>normative belief</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>A belief about whether important others think one should perform a behaviour.</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
-      <c r="G208" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="G208" s="2" t="inlineStr"/>
       <c r="H208" s="2" t="inlineStr"/>
       <c r="I208" s="2" t="inlineStr">
         <is>
@@ -7659,90 +7655,94 @@
       <c r="K208" s="2" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006125</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>operant conditioning</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
-        </is>
-      </c>
-      <c r="E209" s="2" t="inlineStr"/>
-      <c r="F209" s="2" t="inlineStr"/>
-      <c r="G209" s="2" t="inlineStr"/>
-      <c r="H209" s="2" t="inlineStr"/>
-      <c r="I209" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J209" s="2" t="inlineStr"/>
-      <c r="K209" s="2" t="inlineStr"/>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015430</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>occupational role</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr"/>
+      <c r="F210" s="2" t="inlineStr"/>
+      <c r="G210" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="H210" s="2" t="inlineStr"/>
+      <c r="I210" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J210" s="2" t="inlineStr"/>
+      <c r="K210" s="2" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006040</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
@@ -7758,70 +7758,62 @@
       <c r="K211" s="2" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006041</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>perceived injunctive norm</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr"/>
-      <c r="F212" s="2" t="inlineStr"/>
-      <c r="G212" s="2" t="inlineStr"/>
-      <c r="H212" s="2" t="inlineStr"/>
-      <c r="I212" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J212" s="2" t="inlineStr"/>
-      <c r="K212" s="2" t="inlineStr"/>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>pain</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006039</t>
+          <t>BCIO:006040</t>
         </is>
       </c>
       <c r="B213" s="2" t="inlineStr">
         <is>
+          <t>perceived descriptive norm</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
           <t>perceived norm</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D213" s="2" t="inlineStr">
         <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr"/>
       <c r="F213" s="2" t="inlineStr"/>
-      <c r="G213" s="2" t="inlineStr">
-        <is>
-          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
-        </is>
-      </c>
+      <c r="G213" s="2" t="inlineStr"/>
       <c r="H213" s="2" t="inlineStr"/>
       <c r="I213" s="2" t="inlineStr">
         <is>
@@ -7832,208 +7824,216 @@
       <c r="K213" s="2" t="inlineStr"/>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006041</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>perceived injunctive norm</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr"/>
+      <c r="F214" s="2" t="inlineStr"/>
+      <c r="G214" s="2" t="inlineStr"/>
+      <c r="H214" s="2" t="inlineStr"/>
+      <c r="I214" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J214" s="2" t="inlineStr"/>
+      <c r="K214" s="2" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006039</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr"/>
+      <c r="G215" s="2" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
+      <c r="H215" s="2" t="inlineStr"/>
+      <c r="I215" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J215" s="2" t="inlineStr"/>
+      <c r="K215" s="2" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t>MF:0000019</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>perception</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr">
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
         <is>
           <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
 'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr">
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr">
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
         <is>
           <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
 For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr">
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="4" t="inlineStr">
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="inlineStr">
         <is>
           <t>BCIO:006084</t>
         </is>
       </c>
-      <c r="B216" s="4" t="inlineStr">
+      <c r="B218" s="4" t="inlineStr">
         <is>
           <t>personal financial resource</t>
         </is>
       </c>
-      <c r="C216" s="4" t="inlineStr">
+      <c r="C218" s="4" t="inlineStr">
         <is>
           <t>personal  role</t>
         </is>
       </c>
-      <c r="D216" s="4" t="inlineStr">
+      <c r="D218" s="4" t="inlineStr">
         <is>
           <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
         </is>
       </c>
-      <c r="E216" s="4" t="inlineStr"/>
-      <c r="F216" s="4" t="inlineStr"/>
-      <c r="G216" s="4" t="inlineStr"/>
-      <c r="H216" s="4" t="inlineStr"/>
-      <c r="I216" s="4" t="inlineStr">
+      <c r="E218" s="4" t="inlineStr"/>
+      <c r="F218" s="4" t="inlineStr"/>
+      <c r="G218" s="4" t="inlineStr"/>
+      <c r="H218" s="4" t="inlineStr"/>
+      <c r="I218" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J216" s="4" t="inlineStr"/>
-      <c r="K216" s="4" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E217" s="2" t="inlineStr"/>
-      <c r="F217" s="2" t="inlineStr"/>
-      <c r="G217" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="H217" s="2" t="inlineStr"/>
-      <c r="I217" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J217" s="2" t="inlineStr"/>
-      <c r="K217" s="2" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006063</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>personal value</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="inlineStr"/>
-      <c r="F218" s="2" t="inlineStr"/>
-      <c r="G218" s="2" t="inlineStr"/>
-      <c r="H218" s="2" t="inlineStr"/>
-      <c r="I218" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J218" s="2" t="inlineStr"/>
-      <c r="K218" s="2" t="inlineStr"/>
+      <c r="J218" s="4" t="inlineStr"/>
+      <c r="K218" s="4" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D219" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E219" s="2" t="inlineStr"/>
       <c r="F219" s="2" t="inlineStr"/>
-      <c r="G219" s="2" t="inlineStr"/>
+      <c r="G219" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="H219" s="2" t="inlineStr"/>
       <c r="I219" s="2" t="inlineStr">
         <is>
@@ -8046,31 +8046,27 @@
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
       <c r="F220" s="2" t="inlineStr"/>
-      <c r="G220" s="2" t="inlineStr">
-        <is>
-          <t>An 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="G220" s="2" t="inlineStr"/>
       <c r="H220" s="2" t="inlineStr"/>
       <c r="I220" s="2" t="inlineStr">
         <is>
@@ -8083,22 +8079,22 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D221" s="2" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E221" s="2" t="inlineStr"/>
@@ -8114,57 +8110,61 @@
       <c r="K221" s="2" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>physiological process involved in an emotion</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006089</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="inlineStr"/>
+      <c r="F222" s="2" t="inlineStr"/>
+      <c r="G222" s="2" t="inlineStr">
+        <is>
+          <t>An 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
+      <c r="H222" s="2" t="inlineStr"/>
+      <c r="I222" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J222" s="2" t="inlineStr"/>
+      <c r="K222" s="2" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006102</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>plan enactment</t>
+          <t>physical skill</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+          <t>A physical capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
@@ -8182,31 +8182,27 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MF:0000027</t>
+          <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>physiological process involved in an emotion</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
+      <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
@@ -8217,107 +8213,99 @@
       <c r="K224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>MFOEM:000035</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006102</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>plan enactment</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr"/>
+      <c r="F225" s="2" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr"/>
+      <c r="H225" s="2" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J225" s="2" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>MF:0000027</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006036</t>
-        </is>
-      </c>
-      <c r="B226" s="4" t="inlineStr">
-        <is>
-          <t>positive evaluation of self</t>
-        </is>
-      </c>
-      <c r="C226" s="4" t="inlineStr">
-        <is>
-          <t>evaluation of self</t>
-        </is>
-      </c>
-      <c r="D226" s="4" t="inlineStr">
-        <is>
-          <t>A belief about one's positive attributes.</t>
-        </is>
-      </c>
-      <c r="E226" s="4" t="inlineStr">
-        <is>
-          <t>positive self-esteem</t>
-        </is>
-      </c>
-      <c r="F226" s="4" t="inlineStr"/>
-      <c r="G226" s="4" t="inlineStr">
-        <is>
-          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
-        </is>
-      </c>
-      <c r="H226" s="4" t="inlineStr"/>
-      <c r="I226" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J226" s="4" t="inlineStr"/>
-      <c r="K226" s="4" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MFOEM:000209</t>
+          <t>MFOEM:000035</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>positive surprise</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Surprise with a positive valence.</t>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>wonder; astonishment</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -8332,156 +8320,168 @@
       <c r="K227" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="inlineStr">
+      <c r="A228" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006036</t>
+        </is>
+      </c>
+      <c r="B228" s="4" t="inlineStr">
+        <is>
+          <t>positive evaluation of self</t>
+        </is>
+      </c>
+      <c r="C228" s="4" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D228" s="4" t="inlineStr">
+        <is>
+          <t>A belief about one's positive attributes.</t>
+        </is>
+      </c>
+      <c r="E228" s="4" t="inlineStr">
+        <is>
+          <t>positive self-esteem</t>
+        </is>
+      </c>
+      <c r="F228" s="4" t="inlineStr"/>
+      <c r="G228" s="4" t="inlineStr">
+        <is>
+          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
+        </is>
+      </c>
+      <c r="H228" s="4" t="inlineStr"/>
+      <c r="I228" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J228" s="4" t="inlineStr"/>
+      <c r="K228" s="4" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>MFOEM:000209</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>positive surprise</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Surprise with a positive valence.</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>wonder; astonishment</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>BCIO:006061</t>
         </is>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>prevention focused motivational orientation</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
-      <c r="D228" s="2" t="inlineStr">
+      <c r="D230" s="2" t="inlineStr">
         <is>
           <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
-      <c r="E228" s="2" t="inlineStr"/>
-      <c r="F228" s="2" t="inlineStr"/>
-      <c r="G228" s="2" t="inlineStr"/>
-      <c r="H228" s="2" t="inlineStr"/>
-      <c r="I228" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J228" s="2" t="inlineStr"/>
-      <c r="K228" s="2" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr"/>
+      <c r="F230" s="2" t="inlineStr"/>
+      <c r="G230" s="2" t="inlineStr"/>
+      <c r="H230" s="2" t="inlineStr"/>
+      <c r="I230" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J230" s="2" t="inlineStr"/>
+      <c r="K230" s="2" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
         <is>
           <t>BCIO:006129</t>
         </is>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>procedural memory</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D229" s="2" t="inlineStr">
+      <c r="D231" s="2" t="inlineStr">
         <is>
           <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
         </is>
       </c>
-      <c r="E229" s="2" t="inlineStr"/>
-      <c r="F229" s="2" t="inlineStr"/>
-      <c r="G229" s="2" t="inlineStr"/>
-      <c r="H229" s="2" t="inlineStr"/>
-      <c r="I229" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J229" s="2" t="inlineStr"/>
-      <c r="K229" s="2" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>BFO:0000144</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050229</t>
-        </is>
-      </c>
-      <c r="B231" s="3" t="inlineStr">
-        <is>
-          <t>professional identity</t>
-        </is>
-      </c>
-      <c r="C231" s="3" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="D231" s="3" t="inlineStr">
-        <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
-        </is>
-      </c>
-      <c r="E231" s="3" t="inlineStr"/>
-      <c r="F231" s="3" t="inlineStr"/>
-      <c r="G231" s="3" t="inlineStr"/>
-      <c r="H231" s="3" t="inlineStr"/>
-      <c r="I231" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J231" s="3" t="inlineStr"/>
-      <c r="K231" s="3" t="inlineStr"/>
+      <c r="E231" s="2" t="inlineStr"/>
+      <c r="F231" s="2" t="inlineStr"/>
+      <c r="G231" s="2" t="inlineStr"/>
+      <c r="H231" s="2" t="inlineStr"/>
+      <c r="I231" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J231" s="2" t="inlineStr"/>
+      <c r="K231" s="2" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BCIO:050213</t>
+          <t>BFO:0000144</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>professional network</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> social environmental system</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -8497,132 +8497,132 @@
       <c r="K232" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="inlineStr">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050229</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>professional identity</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
+        <is>
+          <t>A self-identity that is associated with one's occupational role.</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="inlineStr"/>
+      <c r="F233" s="3" t="inlineStr"/>
+      <c r="G233" s="3" t="inlineStr"/>
+      <c r="H233" s="3" t="inlineStr"/>
+      <c r="I233" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J233" s="3" t="inlineStr"/>
+      <c r="K233" s="3" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BCIO:050213</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>professional network</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> social environmental system</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
         <is>
           <t>BCIO:006062</t>
         </is>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>promotion focused motivational orientation</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
-      <c r="D233" s="2" t="inlineStr">
+      <c r="D235" s="2" t="inlineStr">
         <is>
           <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
-      <c r="E233" s="2" t="inlineStr"/>
-      <c r="F233" s="2" t="inlineStr"/>
-      <c r="G233" s="2" t="inlineStr"/>
-      <c r="H233" s="2" t="inlineStr"/>
-      <c r="I233" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J233" s="2" t="inlineStr"/>
-      <c r="K233" s="2" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006064</t>
-        </is>
-      </c>
-      <c r="B234" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="C234" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D234" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
-        </is>
-      </c>
-      <c r="E234" s="2" t="inlineStr"/>
-      <c r="F234" s="2" t="inlineStr"/>
-      <c r="G234" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
-      <c r="H234" s="2" t="inlineStr"/>
-      <c r="I234" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J234" s="2" t="inlineStr"/>
-      <c r="K234" s="2" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="E235" s="2" t="inlineStr"/>
+      <c r="F235" s="2" t="inlineStr"/>
+      <c r="G235" s="2" t="inlineStr"/>
+      <c r="H235" s="2" t="inlineStr"/>
+      <c r="I235" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J235" s="2" t="inlineStr"/>
+      <c r="K235" s="2" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:006064</t>
         </is>
       </c>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D236" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
         </is>
       </c>
       <c r="E236" s="2" t="inlineStr"/>
       <c r="F236" s="2" t="inlineStr"/>
-      <c r="G236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
       <c r="H236" s="2" t="inlineStr"/>
       <c r="I236" s="2" t="inlineStr">
         <is>
@@ -8633,117 +8633,113 @@
       <c r="K236" s="2" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="inlineStr">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>PATO:0000001</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006112</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="inlineStr"/>
+      <c r="F238" s="2" t="inlineStr"/>
+      <c r="G238" s="2" t="inlineStr"/>
+      <c r="H238" s="2" t="inlineStr"/>
+      <c r="I238" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J238" s="2" t="inlineStr"/>
+      <c r="K238" s="2" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="inlineStr">
         <is>
           <t>BCIO:050232</t>
         </is>
       </c>
-      <c r="B237" s="3" t="inlineStr">
+      <c r="B239" s="3" t="inlineStr">
         <is>
           <t>regret</t>
         </is>
       </c>
-      <c r="C237" s="3" t="inlineStr">
+      <c r="C239" s="3" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D237" s="3" t="inlineStr">
+      <c r="D239" s="3" t="inlineStr">
         <is>
           <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
         </is>
       </c>
-      <c r="E237" s="3" t="inlineStr"/>
-      <c r="F237" s="3" t="inlineStr"/>
-      <c r="G237" s="3" t="inlineStr"/>
-      <c r="H237" s="3" t="inlineStr"/>
-      <c r="I237" s="3" t="inlineStr">
+      <c r="E239" s="3" t="inlineStr"/>
+      <c r="F239" s="3" t="inlineStr"/>
+      <c r="G239" s="3" t="inlineStr"/>
+      <c r="H239" s="3" t="inlineStr"/>
+      <c r="I239" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J237" s="3" t="inlineStr"/>
-      <c r="K237" s="3" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>MF:0000030</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006073</t>
-        </is>
-      </c>
-      <c r="B239" s="4" t="inlineStr">
-        <is>
-          <t>risk stereotype</t>
-        </is>
-      </c>
-      <c r="C239" s="4" t="inlineStr">
-        <is>
-          <t>stereotype</t>
-        </is>
-      </c>
-      <c r="D239" s="4" t="inlineStr">
-        <is>
-          <t>A stereotype of a person who enacts a problem behaviour.</t>
-        </is>
-      </c>
-      <c r="E239" s="4" t="inlineStr">
-        <is>
-          <t>risk prototype</t>
-        </is>
-      </c>
-      <c r="F239" s="4" t="inlineStr"/>
-      <c r="G239" s="4" t="inlineStr"/>
-      <c r="H239" s="4" t="inlineStr"/>
-      <c r="I239" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J239" s="4" t="inlineStr"/>
-      <c r="K239" s="4" t="inlineStr"/>
+      <c r="J239" s="3" t="inlineStr"/>
+      <c r="K239" s="3" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BFO:0000023</t>
+          <t>MF:0000030</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -8753,7 +8749,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
+          <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -8769,350 +8765,354 @@
       <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
+      <c r="A241" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006073</t>
+        </is>
+      </c>
+      <c r="B241" s="4" t="inlineStr">
+        <is>
+          <t>risk stereotype</t>
+        </is>
+      </c>
+      <c r="C241" s="4" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="D241" s="4" t="inlineStr">
+        <is>
+          <t>A stereotype of a person who enacts a problem behaviour.</t>
+        </is>
+      </c>
+      <c r="E241" s="4" t="inlineStr">
+        <is>
+          <t>risk prototype</t>
+        </is>
+      </c>
+      <c r="F241" s="4" t="inlineStr"/>
+      <c r="G241" s="4" t="inlineStr"/>
+      <c r="H241" s="4" t="inlineStr"/>
+      <c r="I241" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J241" s="4" t="inlineStr"/>
+      <c r="K241" s="4" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BFO:0000023</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050266</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>rumination</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D243" s="3" t="inlineStr">
+        <is>
+          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+        </is>
+      </c>
+      <c r="E243" s="3" t="inlineStr"/>
+      <c r="F243" s="3" t="inlineStr"/>
+      <c r="G243" s="3" t="inlineStr"/>
+      <c r="H243" s="3" t="inlineStr"/>
+      <c r="I243" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J243" s="3" t="inlineStr"/>
+      <c r="K243" s="3" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000056 </t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>sadness</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr">
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="3" t="inlineStr">
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
         <is>
           <t>BCIO:050236</t>
         </is>
       </c>
-      <c r="B242" s="3" t="inlineStr">
+      <c r="B245" s="3" t="inlineStr">
         <is>
           <t>self-binding</t>
         </is>
       </c>
-      <c r="C242" s="3" t="inlineStr">
+      <c r="C245" s="3" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D242" s="3" t="inlineStr">
+      <c r="D245" s="3" t="inlineStr">
         <is>
           <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
-      <c r="E242" s="3" t="inlineStr">
+      <c r="E245" s="3" t="inlineStr">
         <is>
           <t>Pre-commitment</t>
         </is>
       </c>
-      <c r="F242" s="3" t="inlineStr"/>
-      <c r="G242" s="3" t="inlineStr"/>
-      <c r="H242" s="3" t="inlineStr"/>
-      <c r="I242" s="3" t="inlineStr">
+      <c r="F245" s="3" t="inlineStr"/>
+      <c r="G245" s="3" t="inlineStr"/>
+      <c r="H245" s="3" t="inlineStr"/>
+      <c r="I245" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J242" s="3" t="inlineStr"/>
-      <c r="K242" s="3" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="4" t="inlineStr">
+      <c r="J245" s="3" t="inlineStr"/>
+      <c r="K245" s="3" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="4" t="inlineStr">
         <is>
           <t>BCIO:006071</t>
         </is>
       </c>
-      <c r="B243" s="4" t="inlineStr">
+      <c r="B246" s="4" t="inlineStr">
         <is>
           <t>self-concept</t>
         </is>
       </c>
-      <c r="C243" s="4" t="inlineStr">
+      <c r="C246" s="4" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D243" s="4" t="inlineStr">
+      <c r="D246" s="4" t="inlineStr">
         <is>
           <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
         </is>
       </c>
-      <c r="E243" s="4" t="inlineStr"/>
-      <c r="F243" s="4" t="inlineStr"/>
-      <c r="G243" s="4" t="inlineStr"/>
-      <c r="H243" s="4" t="inlineStr"/>
-      <c r="I243" s="4" t="inlineStr">
+      <c r="E246" s="4" t="inlineStr"/>
+      <c r="F246" s="4" t="inlineStr"/>
+      <c r="G246" s="4" t="inlineStr"/>
+      <c r="H246" s="4" t="inlineStr"/>
+      <c r="I246" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J243" s="4" t="inlineStr"/>
-      <c r="K243" s="4" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="inlineStr">
+      <c r="J246" s="4" t="inlineStr"/>
+      <c r="K246" s="4" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
         <is>
           <t>BCIO:006154</t>
         </is>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D244" s="2" t="inlineStr">
+      <c r="D247" s="2" t="inlineStr">
         <is>
           <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
-      <c r="E244" s="2" t="inlineStr"/>
-      <c r="F244" s="2" t="inlineStr"/>
-      <c r="G244" s="2" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr"/>
+      <c r="F247" s="2" t="inlineStr"/>
+      <c r="G247" s="2" t="inlineStr">
         <is>
           <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
 'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
         </is>
       </c>
-      <c r="H244" s="2" t="inlineStr"/>
-      <c r="I244" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J244" s="2" t="inlineStr"/>
-      <c r="K244" s="2" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="inlineStr">
+      <c r="H247" s="2" t="inlineStr"/>
+      <c r="I247" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J247" s="2" t="inlineStr"/>
+      <c r="K247" s="2" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
         <is>
           <t>BCIO:006043</t>
         </is>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D245" s="2" t="inlineStr">
+      <c r="D248" s="2" t="inlineStr">
         <is>
           <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
-      <c r="E245" s="2" t="inlineStr"/>
-      <c r="F245" s="2" t="inlineStr"/>
-      <c r="G245" s="2" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr"/>
+      <c r="F248" s="2" t="inlineStr"/>
+      <c r="G248" s="2" t="inlineStr">
         <is>
           <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
 'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
         </is>
       </c>
-      <c r="H245" s="2" t="inlineStr"/>
-      <c r="I245" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J245" s="2" t="inlineStr"/>
-      <c r="K245" s="2" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="inlineStr">
+      <c r="H248" s="2" t="inlineStr"/>
+      <c r="I248" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J248" s="2" t="inlineStr"/>
+      <c r="K248" s="2" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
         <is>
           <t>BCIO:006137</t>
         </is>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>self-monitoring</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D246" s="2" t="inlineStr">
+      <c r="D249" s="2" t="inlineStr">
         <is>
           <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
-      <c r="E246" s="2" t="inlineStr"/>
-      <c r="F246" s="2" t="inlineStr"/>
-      <c r="G246" s="2" t="inlineStr">
+      <c r="E249" s="2" t="inlineStr"/>
+      <c r="F249" s="2" t="inlineStr"/>
+      <c r="G249" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
 'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
 'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
         </is>
       </c>
-      <c r="H246" s="2" t="inlineStr"/>
-      <c r="I246" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J246" s="2" t="inlineStr"/>
-      <c r="K246" s="2" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006005</t>
-        </is>
-      </c>
-      <c r="B247" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C247" s="2" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D247" s="2" t="inlineStr">
-        <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
-        </is>
-      </c>
-      <c r="E247" s="2" t="inlineStr"/>
-      <c r="F247" s="2" t="inlineStr"/>
-      <c r="G247" s="2" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
-      <c r="H247" s="2" t="inlineStr"/>
-      <c r="I247" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J247" s="2" t="inlineStr"/>
-      <c r="K247" s="2" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006103</t>
-        </is>
-      </c>
-      <c r="B248" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="C248" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D248" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of a person in response to external or internal stimuli and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="E248" s="2" t="inlineStr"/>
-      <c r="F248" s="2" t="inlineStr"/>
-      <c r="G248" s="2" t="inlineStr"/>
-      <c r="H248" s="2" t="inlineStr"/>
-      <c r="I248" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J248" s="2" t="inlineStr"/>
-      <c r="K248" s="2" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050222</t>
-        </is>
-      </c>
-      <c r="B249" s="3" t="inlineStr">
-        <is>
-          <t>self-regulatory skill</t>
-        </is>
-      </c>
-      <c r="C249" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D249" s="3" t="inlineStr">
-        <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E249" s="3" t="inlineStr"/>
-      <c r="F249" s="3" t="inlineStr"/>
-      <c r="G249" s="3" t="inlineStr"/>
-      <c r="H249" s="3" t="inlineStr"/>
-      <c r="I249" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J249" s="3" t="inlineStr"/>
-      <c r="K249" s="3" t="inlineStr"/>
+      <c r="H249" s="2" t="inlineStr"/>
+      <c r="I249" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J249" s="2" t="inlineStr"/>
+      <c r="K249" s="2" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006106</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>self-reinforcing self-regulation</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D250" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E250" s="2" t="inlineStr"/>
       <c r="F250" s="2" t="inlineStr"/>
-      <c r="G250" s="2" t="inlineStr"/>
+      <c r="G250" s="2" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
       <c r="H250" s="2" t="inlineStr"/>
       <c r="I250" s="2" t="inlineStr">
         <is>
@@ -9125,22 +9125,22 @@
     <row r="251">
       <c r="A251" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006103</t>
         </is>
       </c>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D251" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of a person in response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E251" s="2" t="inlineStr"/>
@@ -9156,222 +9156,222 @@
       <c r="K251" s="2" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="A252" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050222</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>self-regulatory skill</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D252" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr"/>
+      <c r="F252" s="3" t="inlineStr"/>
+      <c r="G252" s="3" t="inlineStr"/>
+      <c r="H252" s="3" t="inlineStr"/>
+      <c r="I252" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J252" s="3" t="inlineStr"/>
+      <c r="K252" s="3" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006106</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="inlineStr">
+        <is>
+          <t>self-reinforcing self-regulation</t>
+        </is>
+      </c>
+      <c r="C253" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="inlineStr">
+        <is>
+          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="inlineStr"/>
+      <c r="F253" s="2" t="inlineStr"/>
+      <c r="G253" s="2" t="inlineStr"/>
+      <c r="H253" s="2" t="inlineStr"/>
+      <c r="I253" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J253" s="2" t="inlineStr"/>
+      <c r="K253" s="2" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006128</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>semantic memory</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="inlineStr"/>
+      <c r="F254" s="2" t="inlineStr"/>
+      <c r="G254" s="2" t="inlineStr"/>
+      <c r="H254" s="2" t="inlineStr"/>
+      <c r="I254" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J254" s="2" t="inlineStr"/>
+      <c r="K254" s="2" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
         <is>
           <t>GO:0046960</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>sensitization</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>non-associative learning</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="D255" t="inlineStr">
         <is>
           <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr">
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
         <is>
           <t>MFOEM:000040</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>sexual pleasure</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>pleasure</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>Pleasure that is experienced as a result of sexual activities.</t>
         </is>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr">
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
         <is>
           <t>MFOEM:000055</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>shame</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr">
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006044</t>
-        </is>
-      </c>
-      <c r="B255" s="2" t="inlineStr">
-        <is>
-          <t>situational self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C255" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="D255" s="2" t="inlineStr">
-        <is>
-          <t>Self-efficacy belief for a behaviour when a particular situation that may affect the behaviour is encountered.</t>
-        </is>
-      </c>
-      <c r="E255" s="2" t="inlineStr"/>
-      <c r="F255" s="2" t="inlineStr"/>
-      <c r="G255" s="2" t="inlineStr"/>
-      <c r="H255" s="2" t="inlineStr"/>
-      <c r="I255" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J255" s="2" t="inlineStr"/>
-      <c r="K255" s="2" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006014</t>
-        </is>
-      </c>
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t>social alienation</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D256" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
-        </is>
-      </c>
-      <c r="E256" s="2" t="inlineStr"/>
-      <c r="F256" s="2" t="inlineStr"/>
-      <c r="G256" s="2" t="inlineStr"/>
-      <c r="H256" s="2" t="inlineStr"/>
-      <c r="I256" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J256" s="2" t="inlineStr"/>
-      <c r="K256" s="2" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006011</t>
-        </is>
-      </c>
-      <c r="B257" s="2" t="inlineStr">
-        <is>
-          <t>social behavioural capability</t>
-        </is>
-      </c>
-      <c r="C257" s="2" t="inlineStr">
-        <is>
-          <t>behavioural capability</t>
-        </is>
-      </c>
-      <c r="D257" s="2" t="inlineStr">
-        <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
-        </is>
-      </c>
-      <c r="E257" s="2" t="inlineStr"/>
-      <c r="F257" s="2" t="inlineStr"/>
-      <c r="G257" s="2" t="inlineStr"/>
-      <c r="H257" s="2" t="inlineStr"/>
-      <c r="I257" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J257" s="2" t="inlineStr"/>
-      <c r="K257" s="2" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>Self-efficacy belief for a behaviour when a particular situation that may affect the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr"/>
@@ -9389,22 +9389,22 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr"/>
@@ -9422,22 +9422,22 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
@@ -9455,22 +9455,22 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
@@ -9488,31 +9488,27 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
       <c r="F262" s="2" t="inlineStr"/>
-      <c r="G262" s="2" t="inlineStr">
-        <is>
-          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
-        </is>
-      </c>
+      <c r="G262" s="2" t="inlineStr"/>
       <c r="H262" s="2" t="inlineStr"/>
       <c r="I262" s="2" t="inlineStr">
         <is>
@@ -9525,30 +9521,26 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>An interpersonal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr"/>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
+      <c r="F263" s="2" t="inlineStr"/>
       <c r="G263" s="2" t="inlineStr"/>
       <c r="H263" s="2" t="inlineStr"/>
       <c r="I263" s="2" t="inlineStr">
@@ -9562,31 +9554,27 @@
     <row r="264">
       <c r="A264" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D264" s="2" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E264" s="2" t="inlineStr"/>
       <c r="F264" s="2" t="inlineStr"/>
-      <c r="G264" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="G264" s="2" t="inlineStr"/>
       <c r="H264" s="2" t="inlineStr"/>
       <c r="I264" s="2" t="inlineStr">
         <is>
@@ -9599,27 +9587,31 @@
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr"/>
       <c r="F265" s="2" t="inlineStr"/>
-      <c r="G265" s="2" t="inlineStr"/>
+      <c r="G265" s="2" t="inlineStr">
+        <is>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
+        </is>
+      </c>
       <c r="H265" s="2" t="inlineStr"/>
       <c r="I265" s="2" t="inlineStr">
         <is>
@@ -9630,64 +9622,68 @@
       <c r="K265" s="2" t="inlineStr"/>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>BFO:0000020</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006099</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>social influence behaviour</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="inlineStr">
+        <is>
+          <t>An interpersonal behaviour where a person exerts an influence on the behaviour of another.</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="inlineStr"/>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="inlineStr"/>
+      <c r="H266" s="2" t="inlineStr"/>
+      <c r="I266" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J266" s="2" t="inlineStr"/>
+      <c r="K266" s="2" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="D267" s="2" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E267" s="2" t="inlineStr"/>
       <c r="F267" s="2" t="inlineStr"/>
       <c r="G267" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
         </is>
       </c>
       <c r="H267" s="2" t="inlineStr"/>
@@ -9700,138 +9696,142 @@
       <c r="K267" s="2" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006012</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>social skill</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>social behavioural capability</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="inlineStr">
+        <is>
+          <t>A social capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="inlineStr"/>
+      <c r="F268" s="2" t="inlineStr"/>
+      <c r="G268" s="2" t="inlineStr"/>
+      <c r="H268" s="2" t="inlineStr"/>
+      <c r="I268" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J268" s="2" t="inlineStr"/>
+      <c r="K268" s="2" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>BFO:0000020</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006072</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="inlineStr"/>
+      <c r="F270" s="2" t="inlineStr"/>
+      <c r="G270" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
+      <c r="H270" s="2" t="inlineStr"/>
+      <c r="I270" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J270" s="2" t="inlineStr"/>
+      <c r="K270" s="2" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
+      <c r="D271" t="inlineStr">
         <is>
           <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr">
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006075</t>
-        </is>
-      </c>
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t>subjective need</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D269" s="2" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
-        </is>
-      </c>
-      <c r="E269" s="2" t="inlineStr"/>
-      <c r="F269" s="2" t="inlineStr"/>
-      <c r="G269" s="2" t="inlineStr"/>
-      <c r="H269" s="2" t="inlineStr"/>
-      <c r="I269" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J269" s="2" t="inlineStr"/>
-      <c r="K269" s="2" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>MFOEM:000032</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
@@ -9842,342 +9842,441 @@
       <c r="K271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006075</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="inlineStr">
+        <is>
+          <t>subjective need</t>
+        </is>
+      </c>
+      <c r="C272" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="inlineStr"/>
+      <c r="F272" s="2" t="inlineStr"/>
+      <c r="G272" s="2" t="inlineStr"/>
+      <c r="H272" s="2" t="inlineStr"/>
+      <c r="I272" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J272" s="2" t="inlineStr"/>
+      <c r="K272" s="2" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000088 </t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>subliminal process</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>MFOEM:000032</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
         <is>
           <t>RO:0002577</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>system</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
+      <c r="D275" t="inlineStr">
         <is>
           <t>A material entity consisting of multiple components that are causally integrated.</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr">
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="inlineStr">
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
         <is>
           <t>BCIO:006163</t>
         </is>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>targeted mental distancing</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>mental distancing</t>
         </is>
       </c>
-      <c r="D273" s="2" t="inlineStr">
+      <c r="D276" s="2" t="inlineStr">
         <is>
           <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>targeted decentring</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr"/>
-      <c r="G273" s="2" t="inlineStr"/>
-      <c r="H273" s="2" t="inlineStr"/>
-      <c r="I273" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J273" s="2" t="inlineStr"/>
-      <c r="K273" s="2" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="inlineStr">
+      <c r="F276" s="2" t="inlineStr"/>
+      <c r="G276" s="2" t="inlineStr"/>
+      <c r="H276" s="2" t="inlineStr"/>
+      <c r="I276" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J276" s="2" t="inlineStr"/>
+      <c r="K276" s="2" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="inlineStr">
         <is>
           <t>BCIO:006091</t>
         </is>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>temporal behavioural opportunity</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C277" s="2" t="inlineStr">
         <is>
           <t>physical behavioural opportunity</t>
         </is>
       </c>
-      <c r="D274" s="2" t="inlineStr">
+      <c r="D277" s="2" t="inlineStr">
         <is>
           <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
-      <c r="E274" s="2" t="inlineStr"/>
-      <c r="F274" s="2" t="inlineStr"/>
-      <c r="G274" s="2" t="inlineStr"/>
-      <c r="H274" s="2" t="inlineStr"/>
-      <c r="I274" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J274" s="2" t="inlineStr"/>
-      <c r="K274" s="2" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="4" t="inlineStr">
+      <c r="E277" s="2" t="inlineStr"/>
+      <c r="F277" s="2" t="inlineStr"/>
+      <c r="G277" s="2" t="inlineStr"/>
+      <c r="H277" s="2" t="inlineStr"/>
+      <c r="I277" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J277" s="2" t="inlineStr"/>
+      <c r="K277" s="2" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="4" t="inlineStr">
         <is>
           <t>BCIO:006076</t>
         </is>
       </c>
-      <c r="B275" s="4" t="inlineStr">
+      <c r="B278" s="4" t="inlineStr">
         <is>
           <t>temporal orientation</t>
         </is>
       </c>
-      <c r="C275" s="4" t="inlineStr">
+      <c r="C278" s="4" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D275" s="4" t="inlineStr">
+      <c r="D278" s="4" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on present or future outcomes.</t>
         </is>
       </c>
-      <c r="E275" s="4" t="inlineStr"/>
-      <c r="F275" s="4" t="inlineStr"/>
-      <c r="G275" s="4" t="inlineStr"/>
-      <c r="H275" s="4" t="inlineStr"/>
-      <c r="I275" s="4" t="inlineStr">
+      <c r="E278" s="4" t="inlineStr"/>
+      <c r="F278" s="4" t="inlineStr"/>
+      <c r="G278" s="4" t="inlineStr"/>
+      <c r="H278" s="4" t="inlineStr"/>
+      <c r="I278" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="J275" s="4" t="inlineStr"/>
-      <c r="K275" s="4" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="3" t="inlineStr">
+      <c r="J278" s="4" t="inlineStr"/>
+      <c r="K278" s="4" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="inlineStr">
         <is>
           <t>BCIO:050230</t>
         </is>
       </c>
-      <c r="B276" s="3" t="inlineStr">
+      <c r="B279" s="3" t="inlineStr">
         <is>
           <t>temporal orientation to the future</t>
         </is>
       </c>
-      <c r="C276" s="3" t="inlineStr">
+      <c r="C279" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D276" s="3" t="inlineStr">
+      <c r="D279" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
-      <c r="E276" s="3" t="inlineStr"/>
-      <c r="F276" s="3" t="inlineStr"/>
-      <c r="G276" s="3" t="inlineStr"/>
-      <c r="H276" s="3" t="inlineStr"/>
-      <c r="I276" s="3" t="inlineStr">
+      <c r="E279" s="3" t="inlineStr"/>
+      <c r="F279" s="3" t="inlineStr"/>
+      <c r="G279" s="3" t="inlineStr"/>
+      <c r="H279" s="3" t="inlineStr"/>
+      <c r="I279" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J276" s="3" t="inlineStr"/>
-      <c r="K276" s="3" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="3" t="inlineStr">
+      <c r="J279" s="3" t="inlineStr"/>
+      <c r="K279" s="3" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="inlineStr">
         <is>
           <t>BCIO:050231</t>
         </is>
       </c>
-      <c r="B277" s="3" t="inlineStr">
+      <c r="B280" s="3" t="inlineStr">
         <is>
           <t>temporal orientation to the present</t>
         </is>
       </c>
-      <c r="C277" s="3" t="inlineStr">
+      <c r="C280" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D277" s="3" t="inlineStr">
+      <c r="D280" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on present than future outcomes.</t>
         </is>
       </c>
-      <c r="E277" s="3" t="inlineStr"/>
-      <c r="F277" s="3" t="inlineStr"/>
-      <c r="G277" s="3" t="inlineStr"/>
-      <c r="H277" s="3" t="inlineStr"/>
-      <c r="I277" s="3" t="inlineStr">
+      <c r="E280" s="3" t="inlineStr"/>
+      <c r="F280" s="3" t="inlineStr"/>
+      <c r="G280" s="3" t="inlineStr"/>
+      <c r="H280" s="3" t="inlineStr"/>
+      <c r="I280" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="J277" s="3" t="inlineStr"/>
-      <c r="K277" s="3" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="J280" s="3" t="inlineStr"/>
+      <c r="K280" s="3" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
+      <c r="D281" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr">
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="inlineStr">
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr">
         <is>
           <t>BCIO:006107</t>
         </is>
       </c>
-      <c r="B279" s="2" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>value-congruent self-regulation</t>
         </is>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D279" s="2" t="inlineStr">
+      <c r="D282" s="2" t="inlineStr">
         <is>
           <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
-      <c r="E279" s="2" t="inlineStr"/>
-      <c r="F279" s="2" t="inlineStr"/>
-      <c r="G279" s="2" t="inlineStr"/>
-      <c r="H279" s="2" t="inlineStr"/>
-      <c r="I279" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J279" s="2" t="inlineStr"/>
-      <c r="K279" s="2" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr"/>
+      <c r="F282" s="2" t="inlineStr"/>
+      <c r="G282" s="2" t="inlineStr"/>
+      <c r="H282" s="2" t="inlineStr"/>
+      <c r="I282" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J282" s="2" t="inlineStr"/>
+      <c r="K282" s="2" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
+      <c r="D283" t="inlineStr">
         <is>
           <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr">
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="inlineStr">
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr">
         <is>
           <t>BCIO:006059</t>
         </is>
       </c>
-      <c r="B281" s="2" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>willingness to comply</t>
         </is>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D281" s="2" t="inlineStr">
+      <c r="D284" s="2" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E281" s="2" t="inlineStr">
+      <c r="E284" s="2" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="F281" s="2" t="inlineStr"/>
-      <c r="G281" s="2" t="inlineStr"/>
-      <c r="H281" s="2" t="inlineStr"/>
-      <c r="I281" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J281" s="2" t="inlineStr"/>
-      <c r="K281" s="2" t="inlineStr"/>
+      <c r="F284" s="2" t="inlineStr"/>
+      <c r="G284" s="2" t="inlineStr"/>
+      <c r="H284" s="2" t="inlineStr"/>
+      <c r="I284" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J284" s="2" t="inlineStr"/>
+      <c r="K284" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -8842,7 +8842,7 @@
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>rumination</t>
+          <t>ruminating</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -657,7 +657,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000195 </t>
+          <t>MFOEM:000195</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">

--- a/MoA/inputs/BCIO_MoA.xlsx
+++ b/MoA/inputs/BCIO_MoA.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K284"/>
+  <dimension ref="A1:K283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4792,158 +4792,154 @@
       <c r="K125" s="3" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006135</t>
-        </is>
-      </c>
-      <c r="B126" s="4" t="inlineStr">
-        <is>
-          <t>extrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C126" s="4" t="inlineStr">
-        <is>
-          <t>controlled motivation</t>
-        </is>
-      </c>
-      <c r="D126" s="4" t="inlineStr">
-        <is>
-          <t>Controlled motivation due to externally administered rewards, approval or punishments.</t>
-        </is>
-      </c>
-      <c r="E126" s="4" t="inlineStr">
-        <is>
-          <t>external motivation</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr"/>
-      <c r="G126" s="4" t="inlineStr"/>
-      <c r="H126" s="4" t="inlineStr"/>
-      <c r="I126" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J126" s="4" t="inlineStr"/>
-      <c r="K126" s="4" t="inlineStr"/>
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006002</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>family environmental system</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>social environment system</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
+      <c r="H126" s="2" t="inlineStr"/>
+      <c r="I126" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J126" s="2" t="inlineStr"/>
+      <c r="K126" s="2" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006002</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>family environmental system</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>social environment system</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr"/>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
-      <c r="H127" s="2" t="inlineStr"/>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J127" s="2" t="inlineStr"/>
-      <c r="K127" s="2" t="inlineStr"/>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MFOEM:000026</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Distinguished from anxiety since it usually has sudden onset and offset. Anxiety is often gradual and long-lasting and is triggered by a distal threat.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>MFOEM:000026</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Distinguished from anxiety since it usually has sudden onset and offset. Anxiety is often gradual and long-lasting and is triggered by a distal threat.</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006109</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>feeling an urge</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr"/>
+      <c r="F128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>An urge is felt when an impulse is frustrated.</t>
+        </is>
+      </c>
+      <c r="H128" s="2" t="inlineStr"/>
+      <c r="I128" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J128" s="2" t="inlineStr"/>
+      <c r="K128" s="2" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MFOEM:000107</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>feeling at ease</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006109</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>feeling an urge</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
-        </is>
-      </c>
-      <c r="E129" s="2" t="inlineStr"/>
-      <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr">
-        <is>
-          <t>An urge is felt when an impulse is frustrated.</t>
-        </is>
-      </c>
-      <c r="H129" s="2" t="inlineStr"/>
-      <c r="I129" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J129" s="2" t="inlineStr"/>
-      <c r="K129" s="2" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MFOEM:000107</t>
+          <t>MFOEM:000109</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>feeling at ease</t>
+          <t>feeling energetic</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4953,7 +4949,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -4971,22 +4967,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MFOEM:000109</t>
+          <t xml:space="preserve">MFOEM:000112 </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>feeling energetic</t>
+          <t>feeling exhausted</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>feeling tired</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
+          <t>Feeling tired to an extremely strong degree.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -5004,27 +5000,31 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000112 </t>
+          <t>MFOEM:000124</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>feeling exhausted</t>
+          <t>feeling nervous</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>feeling tired</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Feeling tired to an extremely strong degree.</t>
+          <t>A subjective affective feeling of being not at ease or agitated.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
@@ -5035,136 +5035,132 @@
       <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>MFOEM:000124</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>feeling nervous</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050233</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>feeling sadness</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of being not at ease or agitated.</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr">
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr"/>
+      <c r="F133" s="3" t="inlineStr"/>
+      <c r="G133" s="3" t="inlineStr"/>
+      <c r="H133" s="3" t="inlineStr"/>
+      <c r="I133" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J133" s="3" t="inlineStr"/>
+      <c r="K133" s="3" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MFOEM:000080</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050233</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>feeling sadness</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
-        </is>
-      </c>
-      <c r="E134" s="3" t="inlineStr"/>
-      <c r="F134" s="3" t="inlineStr"/>
-      <c r="G134" s="3" t="inlineStr"/>
-      <c r="H134" s="3" t="inlineStr"/>
-      <c r="I134" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J134" s="3" t="inlineStr"/>
-      <c r="K134" s="3" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>MFOEM:000080</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>feeling tired</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of tiredness, needing sleep.</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006087</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>financial behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr"/>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
+        </is>
+      </c>
+      <c r="H135" s="2" t="inlineStr"/>
+      <c r="I135" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J135" s="2" t="inlineStr"/>
+      <c r="K135" s="2" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006087</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>financial behavioural opportunity</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr">
-        <is>
-          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
-        </is>
-      </c>
+      <c r="G136" s="2" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr">
         <is>
@@ -5175,104 +5171,104 @@
       <c r="K136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr"/>
-      <c r="F137" s="2" t="inlineStr"/>
-      <c r="G137" s="2" t="inlineStr"/>
-      <c r="H137" s="2" t="inlineStr"/>
-      <c r="I137" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J137" s="2" t="inlineStr"/>
-      <c r="K137" s="2" t="inlineStr"/>
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006308</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>fundamental need-based motivation</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour being perceived to satisfy core psychological need.</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="inlineStr"/>
+      <c r="G137" s="3" t="inlineStr"/>
+      <c r="H137" s="3" t="inlineStr"/>
+      <c r="I137" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J137" s="3" t="inlineStr"/>
+      <c r="K137" s="3" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006308</t>
-        </is>
-      </c>
-      <c r="B138" s="3" t="inlineStr">
-        <is>
-          <t>fundamental need-based motivation</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
-        <is>
-          <t>Autonomous motivation due to a behaviour being perceived to satisfy core psychological need.</t>
-        </is>
-      </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
-        </is>
-      </c>
-      <c r="F138" s="3" t="inlineStr"/>
-      <c r="G138" s="3" t="inlineStr"/>
-      <c r="H138" s="3" t="inlineStr"/>
-      <c r="I138" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J138" s="3" t="inlineStr"/>
-      <c r="K138" s="3" t="inlineStr"/>
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006124</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>generalisation in learning</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr"/>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="inlineStr">
+        <is>
+          <t>The label 'Generalisation of target
+ behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
+      <c r="H138" s="2" t="inlineStr"/>
+      <c r="I138" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J138" s="2" t="inlineStr"/>
+      <c r="K138" s="2" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>generalisation in learning</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+          <t>A cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
-      <c r="G139" s="2" t="inlineStr">
-        <is>
-          <t>The label 'Generalisation of target
- behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
-        </is>
-      </c>
+      <c r="G139" s="2" t="inlineStr"/>
       <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr">
         <is>
@@ -5285,27 +5281,31 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of an end state towards which one is striving.</t>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
-      <c r="G140" s="2" t="inlineStr"/>
+      <c r="G140" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+        </is>
+      </c>
       <c r="H140" s="2" t="inlineStr"/>
       <c r="I140" s="2" t="inlineStr">
         <is>
@@ -5318,31 +5318,27 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006114</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal setting process</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
-      <c r="G141" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
-        </is>
-      </c>
+      <c r="G141" s="2" t="inlineStr"/>
       <c r="H141" s="2" t="inlineStr"/>
       <c r="I141" s="2" t="inlineStr">
         <is>
@@ -5353,161 +5349,161 @@
       <c r="K141" s="2" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006114</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>goal setting process</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr"/>
-      <c r="F142" s="2" t="inlineStr"/>
-      <c r="G142" s="2" t="inlineStr"/>
-      <c r="H142" s="2" t="inlineStr"/>
-      <c r="I142" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J142" s="2" t="inlineStr"/>
-      <c r="K142" s="2" t="inlineStr"/>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>MFOEM:000053</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>guilt</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>MFOEM:000053</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>guilt</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006309</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>habit learning</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr"/>
+      <c r="F143" s="3" t="inlineStr"/>
+      <c r="G143" s="3" t="inlineStr"/>
+      <c r="H143" s="3" t="inlineStr"/>
+      <c r="I143" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J143" s="3" t="inlineStr"/>
+      <c r="K143" s="3" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006309</t>
-        </is>
-      </c>
-      <c r="B144" s="3" t="inlineStr">
-        <is>
-          <t>habit learning</t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
-        <is>
-          <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
-        </is>
-      </c>
-      <c r="E144" s="3" t="inlineStr"/>
-      <c r="F144" s="3" t="inlineStr"/>
-      <c r="G144" s="3" t="inlineStr"/>
-      <c r="H144" s="3" t="inlineStr"/>
-      <c r="I144" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J144" s="3" t="inlineStr"/>
-      <c r="K144" s="3" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="inlineStr">
+      <c r="A144" s="2" t="inlineStr">
         <is>
           <t>BCIO:006158</t>
         </is>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>habitual behaviour</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D145" s="2" t="inlineStr">
+      <c r="D144" s="2" t="inlineStr">
         <is>
           <t>A behaviour that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
-      <c r="E145" s="2" t="inlineStr"/>
-      <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr"/>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr">
         <is>
           <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
 Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
         </is>
       </c>
-      <c r="H145" s="2" t="inlineStr"/>
-      <c r="I145" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J145" s="2" t="inlineStr"/>
-      <c r="K145" s="2" t="inlineStr"/>
+      <c r="H144" s="2" t="inlineStr"/>
+      <c r="I144" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J144" s="2" t="inlineStr"/>
+      <c r="K144" s="2" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GO:0046959</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>habituation</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>GO:0046959</t>
+          <t>MFOEM:000042</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>habituation</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr"/>
@@ -5523,66 +5519,66 @@
       <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>MFOEM:000042</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>happiness</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006088</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>healthcare access</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr"/>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
+        </is>
+      </c>
+      <c r="H147" s="2" t="inlineStr"/>
+      <c r="I147" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J147" s="2" t="inlineStr"/>
+      <c r="K147" s="2" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006088</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>healthcare access</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
-      <c r="G148" s="2" t="inlineStr">
-        <is>
-          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
-        </is>
-      </c>
+      <c r="G148" s="2" t="inlineStr"/>
       <c r="H148" s="2" t="inlineStr"/>
       <c r="I148" s="2" t="inlineStr">
         <is>
@@ -5593,90 +5589,90 @@
       <c r="K148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006115</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>heuristic process</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr"/>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
-      <c r="H149" s="2" t="inlineStr"/>
-      <c r="I149" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J149" s="2" t="inlineStr"/>
-      <c r="K149" s="2" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>MFOEM:000205</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>hunger</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>MFOEM:000205</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>hunger</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006130</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>iconic memory</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus,</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr"/>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr"/>
+      <c r="H150" s="2" t="inlineStr"/>
+      <c r="I150" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J150" s="2" t="inlineStr"/>
+      <c r="K150" s="2" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006130</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>iconic memory</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus,</t>
+          <t>A mental disposition relating to perceptions of oneself.</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr"/>
@@ -5692,335 +5688,335 @@
       <c r="K151" s="2" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006050</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr"/>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr"/>
-      <c r="H152" s="2" t="inlineStr"/>
-      <c r="I152" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J152" s="2" t="inlineStr"/>
-      <c r="K152" s="2" t="inlineStr"/>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GO:0098596</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>imitative learning</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>GO:0098596</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>imitative learning</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050234</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>impulse</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr"/>
+      <c r="F153" s="3" t="inlineStr"/>
+      <c r="G153" s="3" t="inlineStr"/>
+      <c r="H153" s="3" t="inlineStr"/>
+      <c r="I153" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J153" s="3" t="inlineStr"/>
+      <c r="K153" s="3" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BFO:0000004</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>independent continuant</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050234</t>
-        </is>
-      </c>
-      <c r="B154" s="3" t="inlineStr">
-        <is>
-          <t>impulse</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D154" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
-        </is>
-      </c>
-      <c r="E154" s="3" t="inlineStr"/>
-      <c r="F154" s="3" t="inlineStr"/>
-      <c r="G154" s="3" t="inlineStr"/>
-      <c r="H154" s="3" t="inlineStr"/>
-      <c r="I154" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J154" s="3" t="inlineStr"/>
-      <c r="K154" s="3" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>BFO:0000004</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="inlineStr">
+      <c r="A155" s="2" t="inlineStr">
         <is>
           <t>BCIO:006094</t>
         </is>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D156" s="2" t="inlineStr">
+      <c r="D155" s="2" t="inlineStr">
         <is>
           <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
-      <c r="E156" s="2" t="inlineStr"/>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr"/>
+      <c r="F155" s="2" t="inlineStr"/>
+      <c r="G155" s="2" t="inlineStr">
         <is>
           <t>The striated muscles referred to do not ordinarily involve the cardiac muscles.
 Behaviour can be an MoA or outcome depending on how 'behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class  'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets one behaviour to achieve an outcome behaviour (e.g. exercise for smoking cessation), the former qualifies as an MoA.</t>
         </is>
       </c>
-      <c r="H156" s="2" t="inlineStr"/>
-      <c r="I156" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J156" s="2" t="inlineStr"/>
-      <c r="K156" s="2" t="inlineStr"/>
+      <c r="H155" s="2" t="inlineStr"/>
+      <c r="I155" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J155" s="2" t="inlineStr"/>
+      <c r="K155" s="2" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr"/>
+      <c r="F156" s="3" t="inlineStr"/>
+      <c r="G156" s="3" t="inlineStr"/>
+      <c r="H156" s="3" t="inlineStr"/>
+      <c r="I156" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J156" s="3" t="inlineStr"/>
+      <c r="K156" s="3" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B157" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C157" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D157" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E157" s="3" t="inlineStr"/>
-      <c r="F157" s="3" t="inlineStr"/>
-      <c r="G157" s="3" t="inlineStr"/>
-      <c r="H157" s="3" t="inlineStr"/>
-      <c r="I157" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J157" s="3" t="inlineStr"/>
-      <c r="K157" s="3" t="inlineStr"/>
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr"/>
+      <c r="F157" s="2" t="inlineStr"/>
+      <c r="G157" s="2" t="inlineStr"/>
+      <c r="H157" s="2" t="inlineStr"/>
+      <c r="I157" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J157" s="2" t="inlineStr"/>
+      <c r="K157" s="2" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006100</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>internal reward for a response</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr"/>
-      <c r="H158" s="2" t="inlineStr"/>
-      <c r="I158" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J158" s="2" t="inlineStr"/>
-      <c r="K158" s="2" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MFOEM:000022</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>interpersonal disgust</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>MFOEM:000022</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>interpersonal disgust</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="A159" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006097</t>
+        </is>
+      </c>
+      <c r="B159" s="4" t="inlineStr">
+        <is>
+          <t>interpersonal reciprocal communication</t>
+        </is>
+      </c>
+      <c r="C159" s="4" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t>Communication that is mutual between two or more people.</t>
+        </is>
+      </c>
+      <c r="E159" s="4" t="inlineStr"/>
+      <c r="F159" s="4" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr"/>
+      <c r="H159" s="4" t="inlineStr"/>
+      <c r="I159" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J159" s="4" t="inlineStr"/>
+      <c r="K159" s="4" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006097</t>
-        </is>
-      </c>
-      <c r="B160" s="4" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="C160" s="4" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D160" s="4" t="inlineStr">
-        <is>
-          <t>Communication that is mutual between two or more people.</t>
-        </is>
-      </c>
-      <c r="E160" s="4" t="inlineStr"/>
-      <c r="F160" s="4" t="inlineStr"/>
-      <c r="G160" s="4" t="inlineStr"/>
-      <c r="H160" s="4" t="inlineStr"/>
-      <c r="I160" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J160" s="4" t="inlineStr"/>
-      <c r="K160" s="4" t="inlineStr"/>
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006136</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>intrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr"/>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
+        </is>
+      </c>
+      <c r="H160" s="2" t="inlineStr"/>
+      <c r="I160" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J160" s="2" t="inlineStr"/>
+      <c r="K160" s="2" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:006105</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>intrinsic motivation</t>
+          <t>introjected self-regulation</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
-      <c r="G161" s="2" t="inlineStr">
-        <is>
-          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
-        </is>
-      </c>
+      <c r="G161" s="2" t="inlineStr"/>
       <c r="H161" s="2" t="inlineStr"/>
       <c r="I161" s="2" t="inlineStr">
         <is>
@@ -6031,132 +6027,132 @@
       <c r="K161" s="2" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006105</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>introjected self-regulation</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr"/>
-      <c r="F162" s="2" t="inlineStr"/>
-      <c r="G162" s="2" t="inlineStr"/>
-      <c r="H162" s="2" t="inlineStr"/>
-      <c r="I162" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J162" s="2" t="inlineStr"/>
-      <c r="K162" s="2" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
+      <c r="A163" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006117</t>
+        </is>
+      </c>
+      <c r="B163" s="4" t="inlineStr">
+        <is>
+          <t>judging consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C163" s="4" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="D163" s="4" t="inlineStr">
+        <is>
+          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
+        </is>
+      </c>
+      <c r="E163" s="4" t="inlineStr"/>
+      <c r="F163" s="4" t="inlineStr"/>
+      <c r="G163" s="4" t="inlineStr"/>
+      <c r="H163" s="4" t="inlineStr"/>
+      <c r="I163" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J163" s="4" t="inlineStr"/>
+      <c r="K163" s="4" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006117</t>
-        </is>
-      </c>
-      <c r="B164" s="4" t="inlineStr">
-        <is>
-          <t>judging consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C164" s="4" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D164" s="4" t="inlineStr">
-        <is>
-          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
-        </is>
-      </c>
-      <c r="E164" s="4" t="inlineStr"/>
-      <c r="F164" s="4" t="inlineStr"/>
-      <c r="G164" s="4" t="inlineStr"/>
-      <c r="H164" s="4" t="inlineStr"/>
-      <c r="I164" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J164" s="4" t="inlineStr"/>
-      <c r="K164" s="4" t="inlineStr"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006052</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr"/>
+      <c r="F164" s="2" t="inlineStr"/>
+      <c r="G164" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
+      <c r="H164" s="2" t="inlineStr"/>
+      <c r="I164" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J164" s="2" t="inlineStr"/>
+      <c r="K164" s="2" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
+          <t>knowledge regarding a behaviour</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
           <t>knowledge</t>
         </is>
       </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
-      <c r="G165" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
+      <c r="G165" s="2" t="inlineStr"/>
       <c r="H165" s="2" t="inlineStr"/>
       <c r="I165" s="2" t="inlineStr">
         <is>
@@ -6169,12 +6165,12 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -6184,7 +6180,7 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
@@ -6202,12 +6198,12 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
@@ -6217,7 +6213,7 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
@@ -6235,12 +6231,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -6250,7 +6246,7 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
@@ -6268,27 +6264,35 @@
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr"/>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>Habit</t>
+        </is>
+      </c>
       <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="inlineStr">
+        <is>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+        </is>
+      </c>
       <c r="H169" s="2" t="inlineStr"/>
       <c r="I169" s="2" t="inlineStr">
         <is>
@@ -6301,33 +6305,29 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>Habit</t>
-        </is>
-      </c>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr"/>
@@ -6342,31 +6342,31 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>learned stimulus-thought co-occurrence</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr"/>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
       <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="G171" s="2" t="inlineStr"/>
       <c r="H171" s="2" t="inlineStr"/>
       <c r="I171" s="2" t="inlineStr">
         <is>
@@ -6377,70 +6377,70 @@
       <c r="K171" s="2" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006156</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-thought co-occurrence</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-response co-occurrence</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>Mental habit</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr"/>
-      <c r="G172" s="2" t="inlineStr"/>
-      <c r="H172" s="2" t="inlineStr"/>
-      <c r="I172" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J172" s="2" t="inlineStr"/>
-      <c r="K172" s="2" t="inlineStr"/>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BCIO:050239</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BCIO:050239</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>communication behaviour</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
+          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
-        </is>
-      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
@@ -6451,98 +6451,94 @@
       <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>communication behaviour</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Written language, spoken language and sign-language communication</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
+      <c r="H174" s="2" t="inlineStr"/>
+      <c r="I174" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J174" s="2" t="inlineStr"/>
+      <c r="K174" s="2" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr"/>
-      <c r="F175" s="2" t="inlineStr"/>
-      <c r="G175" s="2" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
-      <c r="H175" s="2" t="inlineStr"/>
-      <c r="I175" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J175" s="2" t="inlineStr"/>
-      <c r="K175" s="2" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>UBERON:0000465</t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>material anatomical entity</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Anatomical entity that has mass.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -6560,22 +6556,22 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -6591,196 +6587,196 @@
       <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006093</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>mental behavioural cue</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr"/>
+      <c r="G178" s="2" t="inlineStr"/>
+      <c r="H178" s="2" t="inlineStr"/>
+      <c r="I178" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J178" s="2" t="inlineStr"/>
+      <c r="K178" s="2" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000048 </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006131</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>mental categorising</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J180" s="2" t="inlineStr"/>
+      <c r="K180" s="2" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr"/>
-      <c r="F179" s="2" t="inlineStr"/>
-      <c r="G179" s="2" t="inlineStr"/>
-      <c r="H179" s="2" t="inlineStr"/>
-      <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J179" s="2" t="inlineStr"/>
-      <c r="K179" s="2" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000048 </t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006131</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>mental categorising</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr"/>
-      <c r="F181" s="2" t="inlineStr"/>
-      <c r="G181" s="2" t="inlineStr"/>
-      <c r="H181" s="2" t="inlineStr"/>
-      <c r="I181" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J181" s="2" t="inlineStr"/>
-      <c r="K181" s="2" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>MF:0000033</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr"/>
+      <c r="G182" s="2" t="inlineStr"/>
+      <c r="H182" s="2" t="inlineStr"/>
+      <c r="I182" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J182" s="2" t="inlineStr"/>
+      <c r="K182" s="2" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006162</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>decentring</t>
-        </is>
-      </c>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr"/>
       <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr"/>
       <c r="H183" s="2" t="inlineStr"/>
@@ -6793,163 +6789,163 @@
       <c r="K183" s="2" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006080</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>mental image</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr"/>
-      <c r="F184" s="2" t="inlineStr"/>
-      <c r="G184" s="2" t="inlineStr"/>
-      <c r="H184" s="2" t="inlineStr"/>
-      <c r="I184" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J184" s="2" t="inlineStr"/>
-      <c r="K184" s="2" t="inlineStr"/>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006058</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>mental imagery disposition</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr"/>
+      <c r="F185" s="2" t="inlineStr"/>
+      <c r="G185" s="2" t="inlineStr"/>
+      <c r="H185" s="2" t="inlineStr"/>
+      <c r="I185" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J185" s="2" t="inlineStr"/>
+      <c r="K185" s="2" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006058</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>mental imagery disposition</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr"/>
-      <c r="F186" s="2" t="inlineStr"/>
-      <c r="G186" s="2" t="inlineStr"/>
-      <c r="H186" s="2" t="inlineStr"/>
-      <c r="I186" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J186" s="2" t="inlineStr"/>
-      <c r="K186" s="2" t="inlineStr"/>
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="3" t="inlineStr"/>
+      <c r="H186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J186" s="3" t="inlineStr"/>
+      <c r="K186" s="3" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="inlineStr">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D187" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E187" s="3" t="inlineStr"/>
-      <c r="F187" s="3" t="inlineStr"/>
-      <c r="G187" s="3" t="inlineStr"/>
-      <c r="H187" s="3" t="inlineStr"/>
-      <c r="I187" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="J187" s="3" t="inlineStr"/>
-      <c r="K187" s="3" t="inlineStr"/>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr"/>
+      <c r="G187" s="2" t="inlineStr"/>
+      <c r="H187" s="2" t="inlineStr"/>
+      <c r="I187" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J187" s="2" t="inlineStr"/>
+      <c r="K187" s="2" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006157</t>
         </is>
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr"/>
       <c r="F188" s="2" t="inlineStr"/>
       <c r="G188" s="2" t="inlineStr"/>
       <c r="H188" s="2" t="inlineStr"/>
@@ -6962,67 +6958,67 @@
       <c r="K188" s="2" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006157</t>
-        </is>
-      </c>
-      <c r="B189" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for coping with barriers</t>
-        </is>
-      </c>
-      <c r="C189" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="D189" s="2" t="inlineStr">
-        <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr"/>
-      <c r="F189" s="2" t="inlineStr"/>
-      <c r="G189" s="2" t="inlineStr"/>
-      <c r="H189" s="2" t="inlineStr"/>
-      <c r="I189" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J189" s="2" t="inlineStr"/>
-      <c r="K189" s="2" t="inlineStr"/>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Mental processes can varying in the degree to which they involve consciousness.
+A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MF:0000020</t>
+          <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental quality</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>bodily quality</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Mental processes can varying in the degree to which they involve consciousness.
-A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
@@ -7033,64 +7029,68 @@
       <c r="K190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000075 </t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>mental quality</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006004</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>mental skill</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>A mental capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr"/>
+      <c r="F191" s="2" t="inlineStr"/>
+      <c r="G191" s="2" t="inlineStr">
+        <is>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+        </is>
+      </c>
+      <c r="H191" s="2" t="inlineStr"/>
+      <c r="I191" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J191" s="2" t="inlineStr"/>
+      <c r="K191" s="2" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006004</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>mental skill</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training or practice.</t>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
       <c r="F192" s="2" t="inlineStr"/>
       <c r="G192" s="2" t="inlineStr">
         <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
         </is>
       </c>
       <c r="H192" s="2" t="inlineStr"/>
@@ -7103,94 +7103,90 @@
       <c r="K192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006132</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>mentally comparing against a standard</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006133</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D193" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E193" s="2" t="inlineStr"/>
-      <c r="F193" s="2" t="inlineStr"/>
-      <c r="G193" s="2" t="inlineStr">
-        <is>
-          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
-        </is>
-      </c>
-      <c r="H193" s="2" t="inlineStr"/>
-      <c r="I193" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J193" s="2" t="inlineStr"/>
-      <c r="K193" s="2" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that energises and directs behaviour.</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr"/>
+      <c r="F194" s="2" t="inlineStr"/>
+      <c r="G194" s="2" t="inlineStr"/>
+      <c r="H194" s="2" t="inlineStr"/>
+      <c r="I194" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="J194" s="2" t="inlineStr"/>
+      <c r="K194" s="2" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -7208,22 +7204,22 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
@@ -7241,12 +7237,12 @@
     <row r="197">
       <c r="A197" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
@@ -7256,7 +7252,7 @@
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr"/>
@@ -7274,12 +7270,12 @@
     <row r="198">
       <c r="A198" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -7289,7 +7285,7 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to have a sense of personal agency and initiative</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr"/>
@@ -7307,12 +7303,12 @@
     <row r="199">
       <c r="A199" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>need for autonomy</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
@@ -7322,7 +7318,7 @@
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E199" s="2" t="inlineStr"/>
@@ -7340,12 +7336,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006069</t>
         </is>
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need to feel competent</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -7355,10 +7351,14 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
-        </is>
-      </c>
-      <c r="E200" s="2" t="inlineStr"/>
+          <t>A psychological need to experience oneself as capable and effective.</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
       <c r="F200" s="2" t="inlineStr"/>
       <c r="G200" s="2" t="inlineStr"/>
       <c r="H200" s="2" t="inlineStr"/>
@@ -7371,98 +7371,94 @@
       <c r="K200" s="2" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006069</t>
-        </is>
-      </c>
-      <c r="B201" s="2" t="inlineStr">
-        <is>
-          <t>need to feel competent</t>
-        </is>
-      </c>
-      <c r="C201" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D201" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr"/>
-      <c r="G201" s="2" t="inlineStr"/>
-      <c r="H201" s="2" t="inlineStr"/>
-      <c r="I201" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="J201" s="2" t="inlineStr"/>
-      <c r="K201" s="2" t="inlineStr"/>
+      <c r="A201" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006037</t>
+        </is>
+      </c>
+      <c r="B201" s="4" t="inlineStr">
+        <is>
+          <t>negative evaluation of self</t>
+        </is>
+      </c>
+      <c r="C201" s="4" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D201" s="4" t="inlineStr">
+        <is>
+          <t>A belief about one's negative attributes.</t>
+        </is>
+      </c>
+      <c r="E201" s="4" t="inlineStr">
+        <is>
+          <t>low self-esteem; negative self-esteem</t>
+        </is>
+      </c>
+      <c r="F201" s="4" t="inlineStr"/>
+      <c r="G201" s="4" t="inlineStr"/>
+      <c r="H201" s="4" t="inlineStr"/>
+      <c r="I201" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="J201" s="4" t="inlineStr"/>
+      <c r="K201" s="4" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006037</t>
-        </is>
-      </c>
-      <c r="B202" s="4" t="inlineStr">
-        <is>
-          <t>negative evaluation of self</t>
-        </is>
-      </c>
-      <c r="C202" s="4" t="inlineStr">
-        <is>
-          <t>evaluation of self</t>
-        </is>
-      </c>
-      <c r="D202" s="4" t="inlineStr">
-        <is>
-          <t>A belief about one's negative attributes.</t>
-        </is>
-      </c>
-      <c r="E202" s="4" t="inlineStr">
-        <is>
-          <t>low self-esteem; negative self-esteem</t>
-        </is>
-      </c>
-      <c r="F202" s="4" t="inlineStr"/>
-      <c r="G202" s="4" t="inlineStr"/>
-      <c r="H202" s="4" t="inlineStr"/>
-      <c r="I202" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="J202" s="4" t="inlineStr"/>
-      <c r="K202" s="4" t="inlineStr"/>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>MFOEM:000210</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>negative surprise</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Surprise with a negative valence.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MFOEM:000210</t>
+          <t>GO:0046958</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>negative surprise</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Surprise with a negative valence.</t>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr"/>
@@ -7478,140 +7474,140 @@
       <c r="K203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050235</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>non-judgemental acknowledgement</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>Acceptance</t>
+        </is>
+      </c>
+      <c r="F204" s="3" t="inlineStr"/>
+      <c r="G204" s="3" t="inlineStr"/>
+      <c r="H204" s="3" t="inlineStr"/>
+      <c r="I204" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="J204" s="3" t="inlineStr"/>
+      <c r="K204" s="3" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K